--- a/Energieträger und Sekundäranteile Europa.xlsx
+++ b/Energieträger und Sekundäranteile Europa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="822" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="822" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Studienliste" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="142">
   <si>
     <t>BCG-01 13</t>
   </si>
@@ -422,58 +422,49 @@
     <t>absoluter Verbrauch an Kohle (und anderen Brennstoffen der BOF Route) je Route in 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>https://www.worldsteel.org/media-centre/press-releases/2019/worldsteel-short-range-outlook-april-2019.html#:~:text=%20Global%20steel%20demand%20continues%20to%20grow%20in,%20Ends%20%205%20.%20%20More%20</t>
-  </si>
-  <si>
-    <t>https://www.bcg.com/en-cl/publications/2015/metals-mining-sustainability-steel-as-a-model-for-a-sustainable-metal-industry-in-2050</t>
-  </si>
-  <si>
-    <t>2,8Gt 2050</t>
-  </si>
-  <si>
-    <t>1,8Gt 2019</t>
-  </si>
-  <si>
-    <t>Rohstahlproduktion global in 2050</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>Gesamtenergiebedarf in 2050 je Route und Land bei einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Gesamtenergieverbrauch je Land bzw. Standort in 2050 bei gleichbleibender Rohstahlproduktion [GWh/a]</t>
   </si>
   <si>
-    <t>absoluter Energiebedarf an Kohle (und anderen Brennstoffen der BOF Route) je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Rohstahlproduktion Europa in 2050</t>
   </si>
   <si>
-    <t>absoluter Energiebedarf an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Gesamtenergiebedarf in 2050 je Route und Land bei einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>absoluter Energiebedarf an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>absoluter Energiebedarf an Kohle (und anderen Brennstoffen der BOF Route) je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>absoluter Energiebedarf an Wasserstoff je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>absoluter Energiebedarf an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 56% und einer Steigerung der Schrottstahlproduktion um 8% zu 2019 [GWh/a]</t>
+    <t>absoluter Energiebedarf an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 56% und einer Steigerung der Schrottstahlproduktion um 11% zu 2019 [GWh/a]</t>
+    <t>absoluter Energiebedarf an Wasserstoff je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 56% und einer Steigerung der Schrottstahlproduktion um 14% zu 2019 [GWh/a]</t>
+    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 50% und einer Steigerung der Schrottstahlproduktion um 14% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 8% und einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 50% und einer Steigerung der Schrottstahlproduktion um 11% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 11% und einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Anteil der Sekundärstahlproduktion in 2050 bei einer Steigerung der Rohstahlproduktion um 50% und einer Steigerung der Schrottstahlproduktion um 8% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 14% und einer Steigerung der Rohstahlproduktion um 56% zu 2019 [GWh/a]</t>
+    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 8% und einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
   </si>
   <si>
-    <t>Gesamtenergieverbrauch je Land bzw. Standort in 2050 bei gleichbleibender Rohstahlproduktion [GWh/a]</t>
+    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 11% und einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>Energie-Mehrbedarf an H2 in 2050 je Route und Land bei einer Steigerung der Schrottstahlproduktion von 14% und einer Steigerung der Rohstahlproduktion um 50% zu 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>https://www.eurofer.eu/assets/Uploads/European-Steel-in-Figures-2020.pdf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +584,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5BC0DE"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,7 +788,7 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,6 +1021,9 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1462,7 +1463,7 @@
   <dimension ref="C5:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,18 +5352,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:J120"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="D42:J42"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11002,7 +11003,7 @@
   <dimension ref="C3:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,7 +11019,7 @@
   <sheetData>
     <row r="3" spans="3:9" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
@@ -11076,23 +11077,23 @@
       </c>
       <c r="E7" s="56">
         <f>'Gesamtenergie 2019'!E7*(1+Sekundäranteil!E$27)</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F7" s="60">
         <f>'Gesamtenergie 2019'!F7*(1+Sekundäranteil!E$27)</f>
-        <v>32767.247333333333</v>
+        <v>31553.535537924468</v>
       </c>
       <c r="G7" s="57">
         <f>'Gesamtenergie 2019'!G7*(1+Sekundäranteil!E$27)</f>
-        <v>26293.617777777774</v>
+        <v>25319.691780387173</v>
       </c>
       <c r="H7" s="59">
         <f>'Gesamtenergie 2019'!H7*(1+Sekundäranteil!E$27)</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I7" s="58">
         <f>'Gesamtenergie 2019'!I7*(1+Sekundäranteil!E$27)</f>
-        <v>18394.446345679011</v>
+        <v>17713.108780986633</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -11106,23 +11107,23 @@
       </c>
       <c r="E8" s="56">
         <f>'Gesamtenergie 2019'!E8*(1+Sekundäranteil!E$27)</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F8" s="60">
         <f>'Gesamtenergie 2019'!F8*(1+Sekundäranteil!E$27)</f>
-        <v>32767.247333333333</v>
+        <v>31553.535537924468</v>
       </c>
       <c r="G8" s="57">
         <f>'Gesamtenergie 2019'!G8*(1+Sekundäranteil!E$27)</f>
-        <v>26293.617777777774</v>
+        <v>25319.691780387173</v>
       </c>
       <c r="H8" s="59">
         <f>'Gesamtenergie 2019'!H8*(1+Sekundäranteil!E$27)</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I8" s="58">
         <f>'Gesamtenergie 2019'!I8*(1+Sekundäranteil!E$27)</f>
-        <v>18394.446345679011</v>
+        <v>17713.108780986633</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
@@ -11136,23 +11137,23 @@
       </c>
       <c r="E9" s="56">
         <f>'Gesamtenergie 2019'!E9*(1+Sekundäranteil!E$27)</f>
-        <v>38819.744444444441</v>
+        <v>37381.845763249759</v>
       </c>
       <c r="F9" s="60">
         <f>'Gesamtenergie 2019'!F9*(1+Sekundäranteil!E$27)</f>
-        <v>47331.433333333334</v>
+        <v>45578.258330688674</v>
       </c>
       <c r="G9" s="57">
         <f>'Gesamtenergie 2019'!G9*(1+Sekundäranteil!E$27)</f>
-        <v>37980.444444444438</v>
+        <v>36573.633767058069</v>
       </c>
       <c r="H9" s="59">
         <f>'Gesamtenergie 2019'!H9*(1+Sekundäranteil!E$27)</f>
-        <v>29553.533333333336</v>
+        <v>28458.858774992066</v>
       </c>
       <c r="I9" s="58">
         <f>'Gesamtenergie 2019'!I9*(1+Sekundäranteil!E$27)</f>
-        <v>26570.297530864194</v>
+        <v>25586.123206036878</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
@@ -11166,23 +11167,23 @@
       </c>
       <c r="E10" s="56">
         <f>'Gesamtenergie 2019'!E10*(1+Sekundäranteil!E$27)</f>
-        <v>18398.421999999999</v>
+        <v>17716.937175499839</v>
       </c>
       <c r="F10" s="60">
         <f>'Gesamtenergie 2019'!F10*(1+Sekundäranteil!E$27)</f>
-        <v>22432.494000000002</v>
+        <v>21601.585553792447</v>
       </c>
       <c r="G10" s="57">
         <f>'Gesamtenergie 2019'!G10*(1+Sekundäranteil!E$27)</f>
-        <v>18000.64</v>
+        <v>17333.889178038713</v>
       </c>
       <c r="H10" s="59">
         <f>'Gesamtenergie 2019'!H10*(1+Sekundäranteil!E$27)</f>
-        <v>14006.748</v>
+        <v>13487.932516661376</v>
       </c>
       <c r="I10" s="58">
         <f>'Gesamtenergie 2019'!I10*(1+Sekundäranteil!E$27)</f>
-        <v>12592.858444444444</v>
+        <v>12126.413989209774</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
@@ -11196,23 +11197,23 @@
       </c>
       <c r="E11" s="56">
         <f>'Gesamtenergie 2019'!E11*(1+Sekundäranteil!E$27)</f>
-        <v>18519.511111111111</v>
+        <v>17833.541098064106</v>
       </c>
       <c r="F11" s="60">
         <f>'Gesamtenergie 2019'!F11*(1+Sekundäranteil!E$27)</f>
-        <v>22580.133333333335</v>
+        <v>21743.756267851477</v>
       </c>
       <c r="G11" s="57">
         <f>'Gesamtenergie 2019'!G11*(1+Sekundäranteil!E$27)</f>
-        <v>18119.111111111109</v>
+        <v>17447.972072357978</v>
       </c>
       <c r="H11" s="59">
         <f>'Gesamtenergie 2019'!H11*(1+Sekundäranteil!E$27)</f>
-        <v>14098.933333333334</v>
+        <v>13576.703268803554</v>
       </c>
       <c r="I11" s="58">
         <f>'Gesamtenergie 2019'!I11*(1+Sekundäranteil!E$27)</f>
-        <v>12675.738271604938</v>
+        <v>12206.223914806586</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -11226,23 +11227,23 @@
       </c>
       <c r="E12" s="56">
         <f>'Gesamtenergie 2019'!E12*(1+Sekundäranteil!E$27)</f>
-        <v>26710.833333333332</v>
+        <v>25721.453506823229</v>
       </c>
       <c r="F12" s="60">
         <f>'Gesamtenergie 2019'!F12*(1+Sekundäranteil!E$27)</f>
-        <v>32567.5</v>
+        <v>31361.186924785779</v>
       </c>
       <c r="G12" s="57">
         <f>'Gesamtenergie 2019'!G12*(1+Sekundäranteil!E$27)</f>
-        <v>26133.333333333332</v>
+        <v>25165.344335131704</v>
       </c>
       <c r="H12" s="59">
         <f>'Gesamtenergie 2019'!H12*(1+Sekundäranteil!E$27)</f>
-        <v>20335</v>
+        <v>19581.783560774358</v>
       </c>
       <c r="I12" s="58">
         <f>'Gesamtenergie 2019'!I12*(1+Sekundäranteil!E$27)</f>
-        <v>18282.314814814814</v>
+        <v>17605.130646355654</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -11256,23 +11257,23 @@
       </c>
       <c r="E13" s="56">
         <f>'Gesamtenergie 2019'!E13*(1+Sekundäranteil!E$27)</f>
-        <v>48791.788888888885</v>
+        <v>46984.521739130432</v>
       </c>
       <c r="F13" s="60">
         <f>'Gesamtenergie 2019'!F13*(1+Sekundäranteil!E$27)</f>
-        <v>59489.966666666674</v>
+        <v>57286.434782608696</v>
       </c>
       <c r="G13" s="57">
         <f>'Gesamtenergie 2019'!G13*(1+Sekundäranteil!E$27)</f>
-        <v>47736.888888888883</v>
+        <v>45968.695652173905</v>
       </c>
       <c r="H13" s="59">
         <f>'Gesamtenergie 2019'!H13*(1+Sekundäranteil!E$27)</f>
-        <v>37145.26666666667</v>
+        <v>35769.391304347831</v>
       </c>
       <c r="I13" s="58">
         <f>'Gesamtenergie 2019'!I13*(1+Sekundäranteil!E$27)</f>
-        <v>33395.695061728395</v>
+        <v>32158.705314009658</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
@@ -11286,23 +11287,23 @@
       </c>
       <c r="E14" s="56">
         <f>'Gesamtenergie 2019'!E14*(1+Sekundäranteil!E$27)</f>
-        <v>23505.533333333333</v>
+        <v>22634.879086004439</v>
       </c>
       <c r="F14" s="60">
         <f>'Gesamtenergie 2019'!F14*(1+Sekundäranteil!E$27)</f>
-        <v>28659.4</v>
+        <v>27597.844493811488</v>
       </c>
       <c r="G14" s="57">
         <f>'Gesamtenergie 2019'!G14*(1+Sekundäranteil!E$27)</f>
-        <v>22997.333333333332</v>
+        <v>22145.503014915896</v>
       </c>
       <c r="H14" s="59">
         <f>'Gesamtenergie 2019'!H14*(1+Sekundäranteil!E$27)</f>
-        <v>17894.800000000003</v>
+        <v>17231.969533481435</v>
       </c>
       <c r="I14" s="58">
         <f>'Gesamtenergie 2019'!I14*(1+Sekundäranteil!E$27)</f>
-        <v>16088.437037037036</v>
+        <v>15492.514968792973</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -11316,23 +11317,23 @@
       </c>
       <c r="E15" s="56">
         <f>'Gesamtenergie 2019'!E15*(1+Sekundäranteil!E$27)</f>
-        <v>19815.876888888888</v>
+        <v>19081.888974928592</v>
       </c>
       <c r="F15" s="60">
         <f>'Gesamtenergie 2019'!F15*(1+Sekundäranteil!E$27)</f>
-        <v>24160.742666666669</v>
+        <v>23265.819206601078</v>
       </c>
       <c r="G15" s="57">
         <f>'Gesamtenergie 2019'!G15*(1+Sekundäranteil!E$27)</f>
-        <v>19387.448888888888</v>
+        <v>18669.330117423036</v>
       </c>
       <c r="H15" s="59">
         <f>'Gesamtenergie 2019'!H15*(1+Sekundäranteil!E$27)</f>
-        <v>15085.858666666667</v>
+        <v>14527.072497619802</v>
       </c>
       <c r="I15" s="58">
         <f>'Gesamtenergie 2019'!I15*(1+Sekundäranteil!E$27)</f>
-        <v>13563.039950617283</v>
+        <v>13060.659588843046</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -11346,23 +11347,23 @@
       </c>
       <c r="E16" s="56">
         <f>'Gesamtenergie 2019'!E16*(1+Sekundäranteil!E$27)</f>
-        <v>15314.21111111111</v>
+        <v>14746.966677245317</v>
       </c>
       <c r="F16" s="60">
         <f>'Gesamtenergie 2019'!F16*(1+Sekundäranteil!E$27)</f>
-        <v>18672.033333333336</v>
+        <v>17980.413836877182</v>
       </c>
       <c r="G16" s="57">
         <f>'Gesamtenergie 2019'!G16*(1+Sekundäranteil!E$27)</f>
-        <v>14983.111111111108</v>
+        <v>14428.130752142173</v>
       </c>
       <c r="H16" s="59">
         <f>'Gesamtenergie 2019'!H16*(1+Sekundäranteil!E$27)</f>
-        <v>11658.733333333334</v>
+        <v>11226.889241510631</v>
       </c>
       <c r="I16" s="58">
         <f>'Gesamtenergie 2019'!I16*(1+Sekundäranteil!E$27)</f>
-        <v>10481.86049382716</v>
+        <v>10093.608237243907</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -11376,23 +11377,23 @@
       </c>
       <c r="E17" s="56">
         <f>'Gesamtenergie 2019'!E17*(1+Sekundäranteil!E$27)</f>
-        <v>35614.444444444445</v>
+        <v>34295.27134243097</v>
       </c>
       <c r="F17" s="60">
         <f>'Gesamtenergie 2019'!F17*(1+Sekundäranteil!E$27)</f>
-        <v>43423.333333333336</v>
+        <v>41814.915899714375</v>
       </c>
       <c r="G17" s="57">
         <f>'Gesamtenergie 2019'!G17*(1+Sekundäranteil!E$27)</f>
-        <v>34844.444444444438</v>
+        <v>33553.792446842264</v>
       </c>
       <c r="H17" s="59">
         <f>'Gesamtenergie 2019'!H17*(1+Sekundäranteil!E$27)</f>
-        <v>27113.333333333332</v>
+        <v>26109.044747699143</v>
       </c>
       <c r="I17" s="58">
         <f>'Gesamtenergie 2019'!I17*(1+Sekundäranteil!E$27)</f>
-        <v>24376.419753086418</v>
+        <v>23473.507528474205</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -11406,23 +11407,23 @@
       </c>
       <c r="E18" s="56">
         <f>'Gesamtenergie 2019'!E18*(1+Sekundäranteil!E$27)</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F18" s="60">
         <f>'Gesamtenergie 2019'!F18*(1+Sekundäranteil!E$27)</f>
-        <v>52108</v>
+        <v>50177.899079657247</v>
       </c>
       <c r="G18" s="57">
         <f>'Gesamtenergie 2019'!G18*(1+Sekundäranteil!E$27)</f>
-        <v>41813.333333333328</v>
+        <v>40264.550936210719</v>
       </c>
       <c r="H18" s="59">
         <f>'Gesamtenergie 2019'!H18*(1+Sekundäranteil!E$27)</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I18" s="58">
         <f>'Gesamtenergie 2019'!I18*(1+Sekundäranteil!E$27)</f>
-        <v>29251.703703703701</v>
+        <v>28168.209034169042</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -11436,23 +11437,23 @@
       </c>
       <c r="E19" s="56">
         <f>'Gesamtenergie 2019'!E19*(1+Sekundäranteil!E$27)</f>
-        <v>32765.288888888885</v>
+        <v>31551.649635036491</v>
       </c>
       <c r="F19" s="60">
         <f>'Gesamtenergie 2019'!F19*(1+Sekundäranteil!E$27)</f>
-        <v>39949.466666666667</v>
+        <v>38469.722627737225</v>
       </c>
       <c r="G19" s="57">
         <f>'Gesamtenergie 2019'!G19*(1+Sekundäranteil!E$27)</f>
-        <v>32056.888888888883</v>
+        <v>30869.489051094883</v>
       </c>
       <c r="H19" s="59">
         <f>'Gesamtenergie 2019'!H19*(1+Sekundäranteil!E$27)</f>
-        <v>24944.266666666666</v>
+        <v>24020.321167883212</v>
       </c>
       <c r="I19" s="58">
         <f>'Gesamtenergie 2019'!I19*(1+Sekundäranteil!E$27)</f>
-        <v>22426.306172839504</v>
+        <v>21595.626926196266</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -11466,23 +11467,23 @@
       </c>
       <c r="E20" s="56">
         <f>'Gesamtenergie 2019'!E20*(1+Sekundäranteil!E$27)</f>
-        <v>16624.822666666663</v>
+        <v>16009.032662646776</v>
       </c>
       <c r="F20" s="60">
         <f>'Gesamtenergie 2019'!F20*(1+Sekundäranteil!E$27)</f>
-        <v>20270.011999999999</v>
+        <v>19519.202741986668</v>
       </c>
       <c r="G20" s="57">
         <f>'Gesamtenergie 2019'!G20*(1+Sekundäranteil!E$27)</f>
-        <v>16265.386666666667</v>
+        <v>15662.910314185972</v>
       </c>
       <c r="H20" s="59">
         <f>'Gesamtenergie 2019'!H20*(1+Sekundäranteil!E$27)</f>
-        <v>12656.504000000001</v>
+        <v>12187.70208822596</v>
       </c>
       <c r="I20" s="58">
         <f>'Gesamtenergie 2019'!I20*(1+Sekundäranteil!E$27)</f>
-        <v>11378.91274074074</v>
+        <v>10957.433314291759</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -11496,23 +11497,23 @@
       </c>
       <c r="E21" s="56">
         <f>'Gesamtenergie 2019'!E21*(1+Sekundäranteil!E$27)</f>
-        <v>7977.6355555555547</v>
+        <v>7682.1407807045371</v>
       </c>
       <c r="F21" s="60">
         <f>'Gesamtenergie 2019'!F21*(1+Sekundäranteil!E$27)</f>
-        <v>9726.8266666666677</v>
+        <v>9366.5411615360208</v>
       </c>
       <c r="G21" s="57">
         <f>'Gesamtenergie 2019'!G21*(1+Sekundäranteil!E$27)</f>
-        <v>7805.1555555555551</v>
+        <v>7516.0495080926676</v>
       </c>
       <c r="H21" s="59">
         <f>'Gesamtenergie 2019'!H21*(1+Sekundäranteil!E$27)</f>
-        <v>6073.3866666666672</v>
+        <v>5848.4260234846079</v>
       </c>
       <c r="I21" s="58">
         <f>'Gesamtenergie 2019'!I21*(1+Sekundäranteil!E$27)</f>
-        <v>5460.318024691358</v>
+        <v>5258.0656863782215</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -11526,23 +11527,23 @@
       </c>
       <c r="E22" s="56">
         <f>'Gesamtenergie 2019'!E22*(1+Sekundäranteil!E$27)</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F22" s="60">
         <f>'Gesamtenergie 2019'!F22*(1+Sekundäranteil!E$27)</f>
-        <v>52108</v>
+        <v>50177.899079657247</v>
       </c>
       <c r="G22" s="57">
         <f>'Gesamtenergie 2019'!G22*(1+Sekundäranteil!E$27)</f>
-        <v>41813.333333333328</v>
+        <v>40264.550936210719</v>
       </c>
       <c r="H22" s="59">
         <f>'Gesamtenergie 2019'!H22*(1+Sekundäranteil!E$27)</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I22" s="58">
         <f>'Gesamtenergie 2019'!I22*(1+Sekundäranteil!E$27)</f>
-        <v>29251.703703703701</v>
+        <v>28168.209034169042</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -11556,23 +11557,23 @@
       </c>
       <c r="E23" s="56">
         <f>'Gesamtenergie 2019'!E23*(1+Sekundäranteil!E$27)</f>
-        <v>11396.622222222222</v>
+        <v>10974.486829577911</v>
       </c>
       <c r="F23" s="60">
         <f>'Gesamtenergie 2019'!F23*(1+Sekundäranteil!E$27)</f>
-        <v>13895.466666666669</v>
+        <v>13380.773087908601</v>
       </c>
       <c r="G23" s="57">
         <f>'Gesamtenergie 2019'!G23*(1+Sekundäranteil!E$27)</f>
-        <v>11150.222222222221</v>
+        <v>10737.213582989525</v>
       </c>
       <c r="H23" s="59">
         <f>'Gesamtenergie 2019'!H23*(1+Sekundäranteil!E$27)</f>
-        <v>8676.2666666666682</v>
+        <v>8354.8943192637253</v>
       </c>
       <c r="I23" s="58">
         <f>'Gesamtenergie 2019'!I23*(1+Sekundäranteil!E$27)</f>
-        <v>7800.4543209876538</v>
+        <v>7511.5224091117452</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -11586,23 +11587,23 @@
       </c>
       <c r="E24" s="56">
         <f>'Gesamtenergie 2019'!E24*(1+Sekundäranteil!E$27)</f>
-        <v>60544.555555555555</v>
+        <v>58301.961282132652</v>
       </c>
       <c r="F24" s="60">
         <f>'Gesamtenergie 2019'!F24*(1+Sekundäranteil!E$27)</f>
-        <v>73819.666666666672</v>
+        <v>71085.357029514431</v>
       </c>
       <c r="G24" s="57">
         <f>'Gesamtenergie 2019'!G24*(1+Sekundäranteil!E$27)</f>
-        <v>59235.555555555547</v>
+        <v>57041.447159631847</v>
       </c>
       <c r="H24" s="59">
         <f>'Gesamtenergie 2019'!H24*(1+Sekundäranteil!E$27)</f>
-        <v>46092.666666666664</v>
+        <v>44385.37607108854</v>
       </c>
       <c r="I24" s="58">
         <f>'Gesamtenergie 2019'!I24*(1+Sekundäranteil!E$27)</f>
-        <v>41439.91358024691</v>
+        <v>39904.962798406144</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -11616,23 +11617,23 @@
       </c>
       <c r="E25" s="56">
         <f>'Gesamtenergie 2019'!E25*(1+Sekundäranteil!E$27)</f>
-        <v>48542.487777777773</v>
+        <v>46744.454839733415</v>
       </c>
       <c r="F25" s="60">
         <f>'Gesamtenergie 2019'!F25*(1+Sekundäranteil!E$27)</f>
-        <v>59186.003333333341</v>
+        <v>56993.730371310696</v>
       </c>
       <c r="G25" s="57">
         <f>'Gesamtenergie 2019'!G25*(1+Sekundäranteil!E$27)</f>
-        <v>47492.977777777771</v>
+        <v>45733.819105046008</v>
       </c>
       <c r="H25" s="59">
         <f>'Gesamtenergie 2019'!H25*(1+Sekundäranteil!E$27)</f>
-        <v>36955.473333333335</v>
+        <v>35586.627991113928</v>
       </c>
       <c r="I25" s="58">
         <f>'Gesamtenergie 2019'!I25*(1+Sekundäranteil!E$27)</f>
-        <v>33225.060123456788</v>
+        <v>31994.39076131034</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -11646,23 +11647,23 @@
       </c>
       <c r="E26" s="56">
         <f>'Gesamtenergie 2019'!E26*(1+Sekundäranteil!E$27)</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F26" s="60">
         <f>'Gesamtenergie 2019'!F26*(1+Sekundäranteil!E$27)</f>
-        <v>23665.716666666667</v>
+        <v>22789.129165344337</v>
       </c>
       <c r="G26" s="57">
         <f>'Gesamtenergie 2019'!G26*(1+Sekundäranteil!E$27)</f>
-        <v>18990.222222222219</v>
+        <v>18286.816883529034</v>
       </c>
       <c r="H26" s="59">
         <f>'Gesamtenergie 2019'!H26*(1+Sekundäranteil!E$27)</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I26" s="58">
         <f>'Gesamtenergie 2019'!I26*(1+Sekundäranteil!E$27)</f>
-        <v>13285.148765432097</v>
+        <v>12793.061603018439</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -11676,23 +11677,23 @@
       </c>
       <c r="E27" s="56">
         <f>'Gesamtenergie 2019'!E27*(1+Sekundäranteil!E$27)</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F27" s="60">
         <f>'Gesamtenergie 2019'!F27*(1+Sekundäranteil!E$27)</f>
-        <v>23665.716666666667</v>
+        <v>22789.129165344337</v>
       </c>
       <c r="G27" s="57">
         <f>'Gesamtenergie 2019'!G27*(1+Sekundäranteil!E$27)</f>
-        <v>18990.222222222219</v>
+        <v>18286.816883529034</v>
       </c>
       <c r="H27" s="59">
         <f>'Gesamtenergie 2019'!H27*(1+Sekundäranteil!E$27)</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I27" s="58">
         <f>'Gesamtenergie 2019'!I27*(1+Sekundäranteil!E$27)</f>
-        <v>13285.148765432097</v>
+        <v>12793.061603018439</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -11706,23 +11707,23 @@
       </c>
       <c r="E28" s="56">
         <f>'Gesamtenergie 2019'!E28*(1+Sekundäranteil!E$27)</f>
-        <v>14601.922222222222</v>
+        <v>14061.061250396697</v>
       </c>
       <c r="F28" s="60">
         <f>'Gesamtenergie 2019'!F28*(1+Sekundäranteil!E$27)</f>
-        <v>17803.566666666666</v>
+        <v>17144.115518882893</v>
       </c>
       <c r="G28" s="57">
         <f>'Gesamtenergie 2019'!G28*(1+Sekundäranteil!E$27)</f>
-        <v>14286.222222222219</v>
+        <v>13757.054903205328</v>
       </c>
       <c r="H28" s="59">
         <f>'Gesamtenergie 2019'!H28*(1+Sekundäranteil!E$27)</f>
-        <v>11116.466666666667</v>
+        <v>10704.708346556648</v>
       </c>
       <c r="I28" s="58">
         <f>'Gesamtenergie 2019'!I28*(1+Sekundäranteil!E$27)</f>
-        <v>9994.3320987654315</v>
+        <v>9624.1380866744221</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -11736,23 +11737,23 @@
       </c>
       <c r="E29" s="56">
         <f>'Gesamtenergie 2019'!E29*(1+Sekundäranteil!E$27)</f>
-        <v>32053</v>
+        <v>30865.744208187876</v>
       </c>
       <c r="F29" s="60">
         <f>'Gesamtenergie 2019'!F29*(1+Sekundäranteil!E$27)</f>
-        <v>39081</v>
+        <v>37633.424309742935</v>
       </c>
       <c r="G29" s="57">
         <f>'Gesamtenergie 2019'!G29*(1+Sekundäranteil!E$27)</f>
-        <v>31359.999999999996</v>
+        <v>30198.413202158037</v>
       </c>
       <c r="H29" s="59">
         <f>'Gesamtenergie 2019'!H29*(1+Sekundäranteil!E$27)</f>
-        <v>24402.000000000004</v>
+        <v>23498.140272929231</v>
       </c>
       <c r="I29" s="58">
         <f>'Gesamtenergie 2019'!I29*(1+Sekundäranteil!E$27)</f>
-        <v>21938.777777777774</v>
+        <v>21126.156775626783</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -11766,23 +11767,23 @@
       </c>
       <c r="E30" s="56">
         <f>'Gesamtenergie 2019'!E30*(1+Sekundäranteil!E$27)</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F30" s="60">
         <f>'Gesamtenergie 2019'!F30*(1+Sekundäranteil!E$27)</f>
-        <v>20626.083333333332</v>
+        <v>19862.085052364328</v>
       </c>
       <c r="G30" s="57">
         <f>'Gesamtenergie 2019'!G30*(1+Sekundäranteil!E$27)</f>
-        <v>16551.111111111109</v>
+        <v>15938.051412250075</v>
       </c>
       <c r="H30" s="59">
         <f>'Gesamtenergie 2019'!H30*(1+Sekundäranteil!E$27)</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I30" s="58">
         <f>'Gesamtenergie 2019'!I30*(1+Sekundäranteil!E$27)</f>
-        <v>11578.79938271605</v>
+        <v>11149.916076025247</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -11796,23 +11797,23 @@
       </c>
       <c r="E31" s="56">
         <f>'Gesamtenergie 2019'!E31*(1+Sekundäranteil!E$27)</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F31" s="60">
         <f>'Gesamtenergie 2019'!F31*(1+Sekundäranteil!E$27)</f>
-        <v>20626.083333333332</v>
+        <v>19862.085052364328</v>
       </c>
       <c r="G31" s="57">
         <f>'Gesamtenergie 2019'!G31*(1+Sekundäranteil!E$27)</f>
-        <v>16551.111111111109</v>
+        <v>15938.051412250075</v>
       </c>
       <c r="H31" s="59">
         <f>'Gesamtenergie 2019'!H31*(1+Sekundäranteil!E$27)</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I31" s="58">
         <f>'Gesamtenergie 2019'!I31*(1+Sekundäranteil!E$27)</f>
-        <v>11578.79938271605</v>
+        <v>11149.916076025247</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -11826,23 +11827,23 @@
       </c>
       <c r="E32" s="56">
         <f>'Gesamtenergie 2019'!E32*(1+Sekundäranteil!E$27)</f>
-        <v>16382.644444444442</v>
+        <v>15775.824817518245</v>
       </c>
       <c r="F32" s="60">
         <f>'Gesamtenergie 2019'!F32*(1+Sekundäranteil!E$27)</f>
-        <v>19974.733333333334</v>
+        <v>19234.861313868612</v>
       </c>
       <c r="G32" s="57">
         <f>'Gesamtenergie 2019'!G32*(1+Sekundäranteil!E$27)</f>
-        <v>16028.444444444442</v>
+        <v>15434.744525547441</v>
       </c>
       <c r="H32" s="59">
         <f>'Gesamtenergie 2019'!H32*(1+Sekundäranteil!E$27)</f>
-        <v>12472.133333333333</v>
+        <v>12010.160583941606</v>
       </c>
       <c r="I32" s="58">
         <f>'Gesamtenergie 2019'!I32*(1+Sekundäranteil!E$27)</f>
-        <v>11213.153086419752</v>
+        <v>10797.813463098133</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -11856,23 +11857,23 @@
       </c>
       <c r="E33" s="56">
         <f>'Gesamtenergie 2019'!E33*(1+Sekundäranteil!E$27)</f>
-        <v>10684.333333333334</v>
+        <v>10288.581402729293</v>
       </c>
       <c r="F33" s="60">
         <f>'Gesamtenergie 2019'!F33*(1+Sekundäranteil!E$27)</f>
-        <v>13027</v>
+        <v>12544.474769914312</v>
       </c>
       <c r="G33" s="57">
         <f>'Gesamtenergie 2019'!G33*(1+Sekundäranteil!E$27)</f>
-        <v>10453.333333333332</v>
+        <v>10066.13773405268</v>
       </c>
       <c r="H33" s="59">
         <f>'Gesamtenergie 2019'!H33*(1+Sekundäranteil!E$27)</f>
-        <v>8134</v>
+        <v>7832.7134243097425</v>
       </c>
       <c r="I33" s="58">
         <f>'Gesamtenergie 2019'!I33*(1+Sekundäranteil!E$27)</f>
-        <v>7312.9259259259252</v>
+        <v>7042.0522585422605</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -11886,23 +11887,23 @@
       </c>
       <c r="E34" s="56">
         <f>'Gesamtenergie 2019'!E34*(1+Sekundäranteil!E$27)</f>
-        <v>26960.134444444444</v>
+        <v>25961.520406220247</v>
       </c>
       <c r="F34" s="60">
         <f>'Gesamtenergie 2019'!F34*(1+Sekundäranteil!E$27)</f>
-        <v>32871.46333333334</v>
+        <v>31653.891336083787</v>
       </c>
       <c r="G34" s="57">
         <f>'Gesamtenergie 2019'!G34*(1+Sekundäranteil!E$27)</f>
-        <v>26377.244444444445</v>
+        <v>25400.220882259597</v>
       </c>
       <c r="H34" s="59">
         <f>'Gesamtenergie 2019'!H34*(1+Sekundäranteil!E$27)</f>
-        <v>20524.793333333335</v>
+        <v>19764.546874008251</v>
       </c>
       <c r="I34" s="58">
         <f>'Gesamtenergie 2019'!I34*(1+Sekundäranteil!E$27)</f>
-        <v>18452.949753086421</v>
+        <v>17769.445199054971</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -11916,29 +11917,29 @@
       </c>
       <c r="E35" s="56">
         <f>'Gesamtenergie 2019'!E35*(1+Sekundäranteil!E$27)</f>
-        <v>19944.088888888888</v>
+        <v>19205.351951761342</v>
       </c>
       <c r="F35" s="60">
         <f>'Gesamtenergie 2019'!F35*(1+Sekundäranteil!E$27)</f>
-        <v>24317.066666666666</v>
+        <v>23416.352903840048</v>
       </c>
       <c r="G35" s="57">
         <f>'Gesamtenergie 2019'!G35*(1+Sekundäranteil!E$27)</f>
-        <v>19512.888888888887</v>
+        <v>18790.123770231668</v>
       </c>
       <c r="H35" s="59">
         <f>'Gesamtenergie 2019'!H35*(1+Sekundäranteil!E$27)</f>
-        <v>15183.466666666669</v>
+        <v>14621.065058711521</v>
       </c>
       <c r="I35" s="58">
         <f>'Gesamtenergie 2019'!I35*(1+Sekundäranteil!E$27)</f>
-        <v>13650.795061728395</v>
+        <v>13145.164215945555</v>
       </c>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76">
         <f>'Gesamtenergie 2050 var.'!E7*Sekundäranteil!$C$8</f>
-        <v>13437.329888888888</v>
+        <v>12939.605877499205</v>
       </c>
     </row>
   </sheetData>
@@ -11958,7 +11959,7 @@
   </sheetPr>
   <dimension ref="C5:I149"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
@@ -11975,7 +11976,7 @@
   <sheetData>
     <row r="5" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
@@ -12033,11 +12034,11 @@
       </c>
       <c r="E9" s="56">
         <f>'Gesamtenergie 2050 var.'!E7*'Energie pro Energieträger'!D$43</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F9" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*'Energie pro Energieträger'!D$41</f>
-        <v>31832.856381247981</v>
+        <v>30653.754796105866</v>
       </c>
       <c r="G9" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*'Energie pro Energieträger'!E$42</f>
@@ -12049,7 +12050,7 @@
       </c>
       <c r="I9" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*'Energie pro Energieträger'!E$41</f>
-        <v>487.48961220254228</v>
+        <v>469.43280424273462</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
@@ -12063,11 +12064,11 @@
       </c>
       <c r="E10" s="56">
         <f>'Gesamtenergie 2050 var.'!E8*'Energie pro Energieträger'!D$43</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F10" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*'Energie pro Energieträger'!D$41</f>
-        <v>31832.856381247981</v>
+        <v>30653.754796105866</v>
       </c>
       <c r="G10" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*'Energie pro Energieträger'!E$42</f>
@@ -12079,7 +12080,7 @@
       </c>
       <c r="I10" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*'Energie pro Energieträger'!E$41</f>
-        <v>487.48961220254228</v>
+        <v>469.43280424273462</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
@@ -12093,11 +12094,11 @@
       </c>
       <c r="E11" s="56">
         <f>'Gesamtenergie 2050 var.'!E9*'Energie pro Energieträger'!D$43</f>
-        <v>38819.744444444441</v>
+        <v>37381.845763249759</v>
       </c>
       <c r="F11" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*'Energie pro Energieträger'!D$41</f>
-        <v>45981.729996766895</v>
+        <v>44278.548539299489</v>
       </c>
       <c r="G11" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*'Energie pro Energieträger'!E$42</f>
@@ -12109,7 +12110,7 @@
       </c>
       <c r="I11" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*'Energie pro Energieträger'!E$41</f>
-        <v>704.16601815633589</v>
+        <v>678.08343045929064</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -12123,11 +12124,11 @@
       </c>
       <c r="E12" s="56">
         <f>'Gesamtenergie 2050 var.'!E10*'Energie pro Energieträger'!D$43</f>
-        <v>18398.421999999999</v>
+        <v>17716.937175499839</v>
       </c>
       <c r="F12" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*'Energie pro Energieträger'!D$41</f>
-        <v>21792.808914064019</v>
+        <v>20985.594656332218</v>
       </c>
       <c r="G12" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*'Energie pro Energieträger'!E$42</f>
@@ -12139,7 +12140,7 @@
       </c>
       <c r="I12" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*'Energie pro Energieträger'!E$41</f>
-        <v>333.73593117391118</v>
+        <v>321.37422034428403</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -12153,11 +12154,11 @@
       </c>
       <c r="E13" s="56">
         <f>'Gesamtenergie 2050 var.'!E11*'Energie pro Energieträger'!D$43</f>
-        <v>18519.511111111111</v>
+        <v>17833.541098064106</v>
       </c>
       <c r="F13" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*'Energie pro Energieträger'!D$41</f>
-        <v>21936.238163595215</v>
+        <v>21123.711229757555</v>
       </c>
       <c r="G13" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*'Energie pro Energieträger'!E$42</f>
@@ -12169,7 +12170,7 @@
       </c>
       <c r="I13" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*'Energie pro Energieträger'!E$41</f>
-        <v>335.93241233146301</v>
+        <v>323.48934297140477</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
@@ -12183,11 +12184,11 @@
       </c>
       <c r="E14" s="56">
         <f>'Gesamtenergie 2050 var.'!E12*'Energie pro Energieträger'!D$43</f>
-        <v>26710.833333333332</v>
+        <v>25721.453506823229</v>
       </c>
       <c r="F14" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*'Energie pro Energieträger'!D$41</f>
-        <v>31638.805043646946</v>
+        <v>30466.8911967657</v>
       </c>
       <c r="G14" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*'Energie pro Energieträger'!E$42</f>
@@ -12199,7 +12200,7 @@
       </c>
       <c r="I14" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*'Energie pro Energieträger'!E$41</f>
-        <v>484.5179024011486</v>
+        <v>466.5711677472184</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -12213,11 +12214,11 @@
       </c>
       <c r="E15" s="56">
         <f>'Gesamtenergie 2050 var.'!E13*'Energie pro Energieträger'!D$43</f>
-        <v>48791.788888888885</v>
+        <v>46984.521739130432</v>
       </c>
       <c r="F15" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*'Energie pro Energieträger'!D$41</f>
-        <v>57793.55054639509</v>
+        <v>55652.85458609202</v>
       </c>
       <c r="G15" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*'Energie pro Energieträger'!E$42</f>
@@ -12229,7 +12230,7 @@
       </c>
       <c r="I15" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*'Energie pro Energieträger'!E$41</f>
-        <v>885.05270171943152</v>
+        <v>852.2699997515856</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -12243,11 +12244,11 @@
       </c>
       <c r="E16" s="56">
         <f>'Gesamtenergie 2050 var.'!E14*'Energie pro Energieträger'!D$43</f>
-        <v>23505.533333333333</v>
+        <v>22634.879086004439</v>
       </c>
       <c r="F16" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*'Energie pro Energieträger'!D$41</f>
-        <v>27842.148438409313</v>
+        <v>26810.864253153817</v>
       </c>
       <c r="G16" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*'Energie pro Energieträger'!E$42</f>
@@ -12259,7 +12260,7 @@
       </c>
       <c r="I16" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*'Energie pro Energieträger'!E$41</f>
-        <v>426.37575411301077</v>
+        <v>410.58262761755213</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -12273,11 +12274,11 @@
       </c>
       <c r="E17" s="56">
         <f>'Gesamtenergie 2050 var.'!E15*'Energie pro Energieträger'!D$43</f>
-        <v>19815.876888888888</v>
+        <v>19081.888974928592</v>
       </c>
       <c r="F17" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*'Energie pro Energieträger'!D$41</f>
-        <v>23471.774835046883</v>
+        <v>22602.371015840581</v>
       </c>
       <c r="G17" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*'Energie pro Energieträger'!E$42</f>
@@ -12289,7 +12290,7 @@
       </c>
       <c r="I17" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*'Energie pro Energieträger'!E$41</f>
-        <v>359.44768119466545</v>
+        <v>346.13359697940302</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -12303,11 +12304,11 @@
       </c>
       <c r="E18" s="56">
         <f>'Gesamtenergie 2050 var.'!E16*'Energie pro Energieträger'!D$43</f>
-        <v>15314.21111111111</v>
+        <v>14746.966677245317</v>
       </c>
       <c r="F18" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*'Energie pro Energieträger'!D$41</f>
-        <v>18139.581558357586</v>
+        <v>17467.684286145668</v>
       </c>
       <c r="G18" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*'Energie pro Energieträger'!E$42</f>
@@ -12319,7 +12320,7 @@
       </c>
       <c r="I18" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*'Energie pro Energieträger'!E$41</f>
-        <v>277.79026404332518</v>
+        <v>267.5008028417385</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -12333,11 +12334,11 @@
       </c>
       <c r="E19" s="56">
         <f>'Gesamtenergie 2050 var.'!E17*'Energie pro Energieträger'!D$43</f>
-        <v>35614.444444444445</v>
+        <v>34295.27134243097</v>
       </c>
       <c r="F19" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*'Energie pro Energieträger'!D$41</f>
-        <v>42185.073391529266</v>
+        <v>40622.521595687605</v>
       </c>
       <c r="G19" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*'Energie pro Energieträger'!E$42</f>
@@ -12349,7 +12350,7 @@
       </c>
       <c r="I19" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*'Energie pro Energieträger'!E$41</f>
-        <v>646.02386986819818</v>
+        <v>622.0948903296246</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -12363,11 +12364,11 @@
       </c>
       <c r="E20" s="56">
         <f>'Gesamtenergie 2050 var.'!E18*'Energie pro Energieträger'!D$43</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F20" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*'Energie pro Energieträger'!D$41</f>
-        <v>50622.08806983511</v>
+        <v>48747.025914825121</v>
       </c>
       <c r="G20" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*'Energie pro Energieträger'!E$42</f>
@@ -12379,7 +12380,7 @@
       </c>
       <c r="I20" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*'Energie pro Energieträger'!E$41</f>
-        <v>775.22864384183777</v>
+        <v>746.51386839554937</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -12393,11 +12394,11 @@
       </c>
       <c r="E21" s="56">
         <f>'Gesamtenergie 2050 var.'!E19*'Energie pro Energieträger'!D$43</f>
-        <v>32765.288888888885</v>
+        <v>31551.649635036491</v>
       </c>
       <c r="F21" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*'Energie pro Energieträger'!D$41</f>
-        <v>38810.267520206922</v>
+        <v>37372.719868032596</v>
       </c>
       <c r="G21" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*'Energie pro Energieträger'!E$42</f>
@@ -12409,7 +12410,7 @@
       </c>
       <c r="I21" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*'Energie pro Energieträger'!E$41</f>
-        <v>594.34196027874225</v>
+        <v>572.32729910325452</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -12423,11 +12424,11 @@
       </c>
       <c r="E22" s="56">
         <f>'Gesamtenergie 2050 var.'!E20*'Energie pro Energieträger'!D$43</f>
-        <v>16624.822666666663</v>
+        <v>16009.032662646776</v>
       </c>
       <c r="F22" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*'Energie pro Energieträger'!D$41</f>
-        <v>19691.992259165858</v>
+        <v>18962.593080866969</v>
       </c>
       <c r="G22" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*'Energie pro Energieträger'!E$42</f>
@@ -12439,7 +12440,7 @@
       </c>
       <c r="I22" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*'Energie pro Energieträger'!E$41</f>
-        <v>301.5639424544749</v>
+        <v>290.39389480586874</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -12453,11 +12454,11 @@
       </c>
       <c r="E23" s="56">
         <f>'Gesamtenergie 2050 var.'!E21*'Energie pro Energieträger'!D$43</f>
-        <v>7977.6355555555547</v>
+        <v>7682.1407807045371</v>
       </c>
       <c r="F23" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*'Energie pro Energieträger'!D$41</f>
-        <v>9449.4564397025551</v>
+        <v>9099.4448374340245</v>
       </c>
       <c r="G23" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*'Energie pro Energieträger'!E$42</f>
@@ -12469,7 +12470,7 @@
       </c>
       <c r="I23" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*'Energie pro Energieträger'!E$41</f>
-        <v>144.70934685047638</v>
+        <v>139.34925543383588</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -12483,11 +12484,11 @@
       </c>
       <c r="E24" s="56">
         <f>'Gesamtenergie 2050 var.'!E22*'Energie pro Energieträger'!D$43</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F24" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*'Energie pro Energieträger'!D$41</f>
-        <v>50622.08806983511</v>
+        <v>48747.025914825121</v>
       </c>
       <c r="G24" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*'Energie pro Energieträger'!E$42</f>
@@ -12499,7 +12500,7 @@
       </c>
       <c r="I24" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*'Energie pro Energieträger'!E$41</f>
-        <v>775.22864384183777</v>
+        <v>746.51386839554937</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -12513,11 +12514,11 @@
       </c>
       <c r="E25" s="56">
         <f>'Gesamtenergie 2050 var.'!E23*'Energie pro Energieträger'!D$43</f>
-        <v>11396.622222222222</v>
+        <v>10974.486829577911</v>
       </c>
       <c r="F25" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*'Energie pro Energieträger'!D$41</f>
-        <v>13499.223485289365</v>
+        <v>12999.206910620034</v>
       </c>
       <c r="G25" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*'Energie pro Energieträger'!E$42</f>
@@ -12529,7 +12530,7 @@
       </c>
       <c r="I25" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*'Energie pro Energieträger'!E$41</f>
-        <v>206.72763835782339</v>
+        <v>199.07036490547983</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -12543,11 +12544,11 @@
       </c>
       <c r="E26" s="56">
         <f>'Gesamtenergie 2050 var.'!E24*'Energie pro Energieträger'!D$43</f>
-        <v>60544.555555555555</v>
+        <v>58301.961282132652</v>
       </c>
       <c r="F26" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*'Energie pro Energieträger'!D$41</f>
-        <v>71714.624765599743</v>
+        <v>69058.286712668923</v>
       </c>
       <c r="G26" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*'Energie pro Energieträger'!E$42</f>
@@ -12559,7 +12560,7 @@
       </c>
       <c r="I26" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*'Energie pro Energieträger'!E$41</f>
-        <v>1098.2405787759369</v>
+        <v>1057.5613135603617</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -12573,11 +12574,11 @@
       </c>
       <c r="E27" s="56">
         <f>'Gesamtenergie 2050 var.'!E25*'Energie pro Energieträger'!D$43</f>
-        <v>48542.487777777773</v>
+        <v>46744.454839733415</v>
       </c>
       <c r="F27" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*'Energie pro Energieträger'!D$41</f>
-        <v>57498.255032654386</v>
+        <v>55368.496934922208</v>
       </c>
       <c r="G27" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*'Energie pro Energieträger'!E$42</f>
@@ -12589,7 +12590,7 @@
       </c>
       <c r="I27" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*'Energie pro Energieträger'!E$41</f>
-        <v>880.53053463035405</v>
+        <v>847.91533551927819</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -12603,11 +12604,11 @@
       </c>
       <c r="E28" s="56">
         <f>'Gesamtenergie 2050 var.'!E26*'Energie pro Energieträger'!D$43</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F28" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*'Energie pro Energieträger'!D$41</f>
-        <v>22990.864998383448</v>
+        <v>22139.274269649744</v>
       </c>
       <c r="G28" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*'Energie pro Energieträger'!E$42</f>
@@ -12619,7 +12620,7 @@
       </c>
       <c r="I28" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*'Energie pro Energieträger'!E$41</f>
-        <v>352.08300907816795</v>
+        <v>339.04171522964532</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -12633,11 +12634,11 @@
       </c>
       <c r="E29" s="56">
         <f>'Gesamtenergie 2050 var.'!E27*'Energie pro Energieträger'!D$43</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F29" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*'Energie pro Energieträger'!D$41</f>
-        <v>22990.864998383448</v>
+        <v>22139.274269649744</v>
       </c>
       <c r="G29" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*'Energie pro Energieträger'!E$42</f>
@@ -12649,7 +12650,7 @@
       </c>
       <c r="I29" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*'Energie pro Energieträger'!E$41</f>
-        <v>352.08300907816795</v>
+        <v>339.04171522964532</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -12663,11 +12664,11 @@
       </c>
       <c r="E30" s="56">
         <f>'Gesamtenergie 2050 var.'!E28*'Energie pro Energieträger'!D$43</f>
-        <v>14601.922222222222</v>
+        <v>14061.061250396697</v>
       </c>
       <c r="F30" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*'Energie pro Energieträger'!D$41</f>
-        <v>17295.880090526996</v>
+        <v>16655.233854231916</v>
       </c>
       <c r="G30" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*'Energie pro Energieträger'!E$42</f>
@@ -12679,7 +12680,7 @@
       </c>
       <c r="I30" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*'Energie pro Energieträger'!E$41</f>
-        <v>264.86978664596126</v>
+        <v>255.05890503514601</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -12693,11 +12694,11 @@
       </c>
       <c r="E31" s="56">
         <f>'Gesamtenergie 2050 var.'!E29*'Energie pro Energieträger'!D$43</f>
-        <v>32053</v>
+        <v>30865.744208187876</v>
       </c>
       <c r="F31" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*'Energie pro Energieträger'!D$41</f>
-        <v>37966.566052376336</v>
+        <v>36560.269436118841</v>
       </c>
       <c r="G31" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*'Energie pro Energieträger'!E$42</f>
@@ -12709,7 +12710,7 @@
       </c>
       <c r="I31" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*'Energie pro Energieträger'!E$41</f>
-        <v>581.42148288137821</v>
+        <v>559.88540129666205</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -12723,11 +12724,11 @@
       </c>
       <c r="E32" s="56">
         <f>'Gesamtenergie 2050 var.'!E30*'Energie pro Energieträger'!D$43</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F32" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*'Energie pro Energieträger'!D$41</f>
-        <v>20037.909860976397</v>
+        <v>19295.69775795161</v>
       </c>
       <c r="G32" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*'Energie pro Energieträger'!E$42</f>
@@ -12739,7 +12740,7 @@
       </c>
       <c r="I32" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*'Energie pro Energieträger'!E$41</f>
-        <v>306.86133818739415</v>
+        <v>295.49507290657164</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -12753,11 +12754,11 @@
       </c>
       <c r="E33" s="56">
         <f>'Gesamtenergie 2050 var.'!E31*'Energie pro Energieträger'!D$43</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F33" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*'Energie pro Energieträger'!D$41</f>
-        <v>20037.909860976397</v>
+        <v>19295.69775795161</v>
       </c>
       <c r="G33" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*'Energie pro Energieträger'!E$42</f>
@@ -12769,7 +12770,7 @@
       </c>
       <c r="I33" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*'Energie pro Energieträger'!E$41</f>
-        <v>306.86133818739415</v>
+        <v>295.49507290657164</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -12783,11 +12784,11 @@
       </c>
       <c r="E34" s="56">
         <f>'Gesamtenergie 2050 var.'!E32*'Energie pro Energieträger'!D$43</f>
-        <v>16382.644444444442</v>
+        <v>15775.824817518245</v>
       </c>
       <c r="F34" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*'Energie pro Energieträger'!D$41</f>
-        <v>19405.133760103461</v>
+        <v>18686.359934016298</v>
       </c>
       <c r="G34" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*'Energie pro Energieträger'!E$42</f>
@@ -12799,7 +12800,7 @@
       </c>
       <c r="I34" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*'Energie pro Energieträger'!E$41</f>
-        <v>297.17098013937112</v>
+        <v>286.16364955162726</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -12813,11 +12814,11 @@
       </c>
       <c r="E35" s="56">
         <f>'Gesamtenergie 2050 var.'!E33*'Energie pro Energieträger'!D$43</f>
-        <v>10684.333333333334</v>
+        <v>10288.581402729293</v>
       </c>
       <c r="F35" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*'Energie pro Energieträger'!D$41</f>
-        <v>12655.522017458778</v>
+        <v>12186.75647870628</v>
       </c>
       <c r="G35" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*'Energie pro Energieträger'!E$42</f>
@@ -12829,7 +12830,7 @@
       </c>
       <c r="I35" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*'Energie pro Energieträger'!E$41</f>
-        <v>193.80716096045944</v>
+        <v>186.62846709888734</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -12843,11 +12844,11 @@
       </c>
       <c r="E36" s="56">
         <f>'Gesamtenergie 2050 var.'!E34*'Energie pro Energieträger'!D$43</f>
-        <v>26960.134444444444</v>
+        <v>25961.520406220247</v>
       </c>
       <c r="F36" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*'Energie pro Energieträger'!D$41</f>
-        <v>31934.100557387657</v>
+        <v>30751.24884793552</v>
       </c>
       <c r="G36" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*'Energie pro Energieträger'!E$42</f>
@@ -12859,7 +12860,7 @@
       </c>
       <c r="I36" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*'Energie pro Energieträger'!E$41</f>
-        <v>489.04006949022607</v>
+        <v>470.92583197952575</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -12873,11 +12874,11 @@
       </c>
       <c r="E37" s="56">
         <f>'Gesamtenergie 2050 var.'!E35*'Energie pro Energieträger'!D$43</f>
-        <v>19944.088888888888</v>
+        <v>19205.351951761342</v>
       </c>
       <c r="F37" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*'Energie pro Energieträger'!D$41</f>
-        <v>23623.641099256383</v>
+        <v>22748.612093585056</v>
       </c>
       <c r="G37" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*'Energie pro Energieträger'!E$42</f>
@@ -12889,12 +12890,12 @@
       </c>
       <c r="I37" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*'Energie pro Energieträger'!E$41</f>
-        <v>361.77336712619098</v>
+        <v>348.37313858458975</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="83"/>
       <c r="E42" s="83"/>
@@ -12956,11 +12957,11 @@
       </c>
       <c r="F46" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*'Energie pro Energieträger'!D$45</f>
-        <v>934.39095208535389</v>
+        <v>899.78074181860256</v>
       </c>
       <c r="G46" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*'Energie pro Energieträger'!E$46</f>
-        <v>10848.415726495723</v>
+        <v>10446.58611918072</v>
       </c>
       <c r="H46" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*'Energie pro Energieträger'!E$48</f>
@@ -12968,7 +12969,7 @@
       </c>
       <c r="I46" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*'Energie pro Energieträger'!E$45</f>
-        <v>2324.2663931713246</v>
+        <v>2238.1746470942981</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
@@ -12986,11 +12987,11 @@
       </c>
       <c r="F47" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*'Energie pro Energieträger'!D$45</f>
-        <v>934.39095208535389</v>
+        <v>899.78074181860256</v>
       </c>
       <c r="G47" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*'Energie pro Energieträger'!E$46</f>
-        <v>10848.415726495723</v>
+        <v>10446.58611918072</v>
       </c>
       <c r="H47" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*'Energie pro Energieträger'!E$48</f>
@@ -12998,7 +12999,7 @@
       </c>
       <c r="I47" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*'Energie pro Energieträger'!E$45</f>
-        <v>2324.2663931713246</v>
+        <v>2238.1746470942981</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
@@ -13016,11 +13017,11 @@
       </c>
       <c r="F48" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*'Energie pro Energieträger'!D$45</f>
-        <v>1349.7033365664402</v>
+        <v>1299.7097913891823</v>
       </c>
       <c r="G48" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*'Energie pro Energieträger'!E$46</f>
-        <v>15670.253302253299</v>
+        <v>15089.820924870111</v>
       </c>
       <c r="H48" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*'Energie pro Energieträger'!E$48</f>
@@ -13028,7 +13029,7 @@
       </c>
       <c r="I48" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*'Energie pro Energieträger'!E$45</f>
-        <v>3357.3421263672726</v>
+        <v>3232.984846717181</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
@@ -13046,11 +13047,11 @@
       </c>
       <c r="F49" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*'Energie pro Energieträger'!D$45</f>
-        <v>639.68508593598449</v>
+        <v>615.99089746023071</v>
       </c>
       <c r="G49" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*'Energie pro Energieträger'!E$46</f>
-        <v>7426.8374825174815</v>
+        <v>7151.7444860439437</v>
       </c>
       <c r="H49" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*'Energie pro Energieträger'!E$48</f>
@@ -13058,7 +13059,7 @@
       </c>
       <c r="I49" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*'Energie pro Energieträger'!E$45</f>
-        <v>1591.1953600746176</v>
+        <v>1532.2568548753172</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
@@ -13076,11 +13077,11 @@
       </c>
       <c r="F50" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*'Energie pro Energieträger'!D$45</f>
-        <v>643.89516973811828</v>
+        <v>620.04503809392179</v>
       </c>
       <c r="G50" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*'Energie pro Energieträger'!E$46</f>
-        <v>7475.7171717171705</v>
+        <v>7198.8136522316127</v>
       </c>
       <c r="H50" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*'Energie pro Energieträger'!E$48</f>
@@ -13088,7 +13089,7 @@
       </c>
       <c r="I50" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*'Energie pro Energieträger'!E$45</f>
-        <v>1601.6678034045706</v>
+        <v>1542.3413947641598</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -13106,11 +13107,11 @@
       </c>
       <c r="F51" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*'Energie pro Energieträger'!D$45</f>
-        <v>928.6949563530552</v>
+        <v>894.29572802007942</v>
       </c>
       <c r="G51" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*'Energie pro Energieträger'!E$46</f>
-        <v>10782.284382284381</v>
+        <v>10382.90430610329</v>
       </c>
       <c r="H51" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*'Energie pro Energieträger'!E$48</f>
@@ -13118,7 +13119,7 @@
       </c>
       <c r="I51" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*'Energie pro Energieträger'!E$45</f>
-        <v>2310.0977933719764</v>
+        <v>2224.5308578329232</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
@@ -13136,11 +13137,11 @@
       </c>
       <c r="F52" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*'Energie pro Energieträger'!D$45</f>
-        <v>1696.4161202715811</v>
+        <v>1633.5801965166786</v>
       </c>
       <c r="G52" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*'Energie pro Energieträger'!E$46</f>
-        <v>19695.639471639468</v>
+        <v>18966.105199148671</v>
       </c>
       <c r="H52" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*'Energie pro Energieträger'!E$48</f>
@@ -13148,7 +13149,7 @@
       </c>
       <c r="I52" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*'Energie pro Energieträger'!E$45</f>
-        <v>4219.7786358928106</v>
+        <v>4063.4763669748058</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -13166,11 +13167,11 @@
       </c>
       <c r="F53" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*'Energie pro Energieträger'!D$45</f>
-        <v>817.25156159068865</v>
+        <v>786.98024065766992</v>
       </c>
       <c r="G53" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*'Energie pro Energieträger'!E$46</f>
-        <v>9488.4102564102559</v>
+        <v>9136.9557893708934</v>
       </c>
       <c r="H53" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*'Energie pro Energieträger'!E$48</f>
@@ -13178,7 +13179,7 @@
       </c>
       <c r="I53" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*'Energie pro Energieträger'!E$45</f>
-        <v>2032.8860581673393</v>
+        <v>1957.587154892972</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -13196,11 +13197,11 @@
       </c>
       <c r="F54" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*'Energie pro Energieträger'!D$45</f>
-        <v>688.96783161978658</v>
+        <v>663.44819076049623</v>
       </c>
       <c r="G54" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*'Energie pro Energieträger'!E$46</f>
-        <v>7999.0173737373725</v>
+        <v>7702.7306078878255</v>
       </c>
       <c r="H54" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*'Energie pro Energieträger'!E$48</f>
@@ -13208,7 +13209,7 @@
       </c>
       <c r="I54" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*'Energie pro Energieträger'!E$45</f>
-        <v>1713.7845496428904</v>
+        <v>1650.3052923976509</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -13226,11 +13227,11 @@
       </c>
       <c r="F55" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*'Energie pro Energieträger'!D$45</f>
-        <v>532.45177497575173</v>
+        <v>512.72955073151218</v>
       </c>
       <c r="G55" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*'Energie pro Energieträger'!E$46</f>
-        <v>6181.8430458430439</v>
+        <v>5952.865135499218</v>
       </c>
       <c r="H55" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*'Energie pro Energieträger'!E$48</f>
@@ -13238,7 +13239,7 @@
       </c>
       <c r="I55" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*'Energie pro Energieträger'!E$45</f>
-        <v>1324.4560681999333</v>
+        <v>1275.397691824209</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -13256,11 +13257,11 @@
       </c>
       <c r="F56" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*'Energie pro Energieträger'!D$45</f>
-        <v>1238.2599418040736</v>
+        <v>1192.3943040267725</v>
       </c>
       <c r="G56" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*'Energie pro Energieträger'!E$46</f>
-        <v>14376.379176379172</v>
+        <v>13843.872408137717</v>
       </c>
       <c r="H56" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*'Energie pro Energieträger'!E$48</f>
@@ -13268,7 +13269,7 @@
       </c>
       <c r="I56" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*'Energie pro Energieträger'!E$45</f>
-        <v>3080.1303911626355</v>
+        <v>2966.0411437772309</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -13286,11 +13287,11 @@
       </c>
       <c r="F57" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*'Energie pro Energieträger'!D$45</f>
-        <v>1485.9119301648884</v>
+        <v>1430.873164832127</v>
       </c>
       <c r="G57" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*'Energie pro Energieträger'!E$46</f>
-        <v>17251.65501165501</v>
+        <v>16612.646889765259</v>
       </c>
       <c r="H57" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*'Energie pro Energieträger'!E$48</f>
@@ -13298,7 +13299,7 @@
       </c>
       <c r="I57" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*'Energie pro Energieträger'!E$45</f>
-        <v>3696.1564693951623</v>
+        <v>3559.2493725326763</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -13316,11 +13317,11 @@
       </c>
       <c r="F58" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*'Energie pro Energieträger'!D$45</f>
-        <v>1139.1991464597477</v>
+        <v>1097.0027597046308</v>
       </c>
       <c r="G58" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*'Energie pro Energieträger'!E$46</f>
-        <v>13226.268842268839</v>
+        <v>12736.362615486698</v>
       </c>
       <c r="H58" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*'Energie pro Energieträger'!E$48</f>
@@ -13328,7 +13329,7 @@
       </c>
       <c r="I58" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*'Energie pro Energieträger'!E$45</f>
-        <v>2833.7199598696247</v>
+        <v>2728.7578522750518</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -13346,11 +13347,11 @@
       </c>
       <c r="F59" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*'Energie pro Energieträger'!D$45</f>
-        <v>578.01974083414154</v>
+        <v>556.60966111969742</v>
       </c>
       <c r="G59" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*'Energie pro Energieträger'!E$46</f>
-        <v>6710.8937995337992</v>
+        <v>6462.3196401186869</v>
       </c>
       <c r="H59" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*'Energie pro Energieträger'!E$48</f>
@@ -13358,7 +13359,7 @@
       </c>
       <c r="I59" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*'Energie pro Energieträger'!E$45</f>
-        <v>1437.8048665947181</v>
+        <v>1384.5480059152112</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -13376,11 +13377,11 @@
       </c>
       <c r="F60" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*'Energie pro Energieträger'!D$45</f>
-        <v>277.37022696411253</v>
+        <v>267.09632410199708</v>
       </c>
       <c r="G60" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*'Energie pro Energieträger'!E$46</f>
-        <v>3220.3089355089351</v>
+        <v>3101.0274194228487</v>
       </c>
       <c r="H60" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*'Energie pro Energieträger'!E$48</f>
@@ -13388,7 +13389,7 @@
       </c>
       <c r="I60" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*'Energie pro Energieträger'!E$45</f>
-        <v>689.94920762043034</v>
+        <v>664.39321620609962</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -13406,11 +13407,11 @@
       </c>
       <c r="F61" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*'Energie pro Energieträger'!D$45</f>
-        <v>1485.9119301648884</v>
+        <v>1430.873164832127</v>
       </c>
       <c r="G61" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*'Energie pro Energieträger'!E$46</f>
-        <v>17251.65501165501</v>
+        <v>16612.646889765259</v>
       </c>
       <c r="H61" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*'Energie pro Energieträger'!E$48</f>
@@ -13418,7 +13419,7 @@
       </c>
       <c r="I61" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*'Energie pro Energieträger'!E$45</f>
-        <v>3696.1564693951623</v>
+        <v>3559.2493725326763</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -13436,11 +13437,11 @@
       </c>
       <c r="F62" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*'Energie pro Energieträger'!D$45</f>
-        <v>396.24318137730364</v>
+        <v>381.56617728856725</v>
       </c>
       <c r="G62" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*'Energie pro Energieträger'!E$46</f>
-        <v>4600.4413364413358</v>
+        <v>4430.0391706040691</v>
       </c>
       <c r="H62" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*'Energie pro Energieträger'!E$48</f>
@@ -13448,7 +13449,7 @@
       </c>
       <c r="I62" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*'Energie pro Energieträger'!E$45</f>
-        <v>985.64172517204338</v>
+        <v>949.13316600871383</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -13466,11 +13467,11 @@
       </c>
       <c r="F63" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*'Energie pro Energieträger'!D$45</f>
-        <v>2105.0419010669252</v>
+        <v>2027.0703168455132</v>
       </c>
       <c r="G63" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*'Energie pro Energieträger'!E$46</f>
-        <v>24439.844599844593</v>
+        <v>23534.583093834117</v>
       </c>
       <c r="H63" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*'Energie pro Energieträger'!E$48</f>
@@ -13478,7 +13479,7 @@
       </c>
       <c r="I63" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*'Energie pro Energieträger'!E$45</f>
-        <v>5236.2216649764805</v>
+        <v>5042.2699444212922</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -13496,11 +13497,11 @@
       </c>
       <c r="F64" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*'Energie pro Energieträger'!D$45</f>
-        <v>1687.7483006789525</v>
+        <v>1625.2334363884911</v>
       </c>
       <c r="G64" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*'Energie pro Energieträger'!E$46</f>
-        <v>19595.004817404813</v>
+        <v>18869.198092291706</v>
       </c>
       <c r="H64" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*'Energie pro Energieträger'!E$48</f>
@@ -13508,7 +13509,7 @@
       </c>
       <c r="I64" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*'Energie pro Energieträger'!E$45</f>
-        <v>4198.2177231546721</v>
+        <v>4042.7140789683654</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -13526,11 +13527,11 @@
       </c>
       <c r="F65" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*'Energie pro Energieträger'!D$45</f>
-        <v>674.85166828322008</v>
+        <v>649.85489569459116</v>
       </c>
       <c r="G65" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*'Energie pro Energieträger'!E$46</f>
-        <v>7835.1266511266494</v>
+        <v>7544.9104624350557</v>
       </c>
       <c r="H65" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*'Energie pro Energieträger'!E$48</f>
@@ -13538,7 +13539,7 @@
       </c>
       <c r="I65" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*'Energie pro Energieträger'!E$45</f>
-        <v>1678.6710631836363</v>
+        <v>1616.4924233585905</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -13556,11 +13557,11 @@
       </c>
       <c r="F66" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*'Energie pro Energieträger'!D$45</f>
-        <v>674.85166828322008</v>
+        <v>649.85489569459116</v>
       </c>
       <c r="G66" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*'Energie pro Energieträger'!E$46</f>
-        <v>7835.1266511266494</v>
+        <v>7544.9104624350557</v>
       </c>
       <c r="H66" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*'Energie pro Energieträger'!E$48</f>
@@ -13568,7 +13569,7 @@
       </c>
       <c r="I66" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*'Energie pro Energieträger'!E$45</f>
-        <v>1678.6710631836363</v>
+        <v>1616.4924233585905</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -13586,11 +13587,11 @@
       </c>
       <c r="F67" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*'Energie pro Energieträger'!D$45</f>
-        <v>507.68657613967014</v>
+        <v>488.88166465097675</v>
       </c>
       <c r="G67" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*'Energie pro Energieträger'!E$46</f>
-        <v>5894.3154623154605</v>
+        <v>5675.9876873364638</v>
       </c>
       <c r="H67" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*'Energie pro Energieträger'!E$48</f>
@@ -13598,7 +13599,7 @@
       </c>
       <c r="I67" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*'Energie pro Energieträger'!E$45</f>
-        <v>1262.8534603766805</v>
+        <v>1216.0768689486645</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -13616,11 +13617,11 @@
       </c>
       <c r="F68" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*'Energie pro Energieträger'!D$45</f>
-        <v>1114.4339476236662</v>
+        <v>1073.1548736240952</v>
       </c>
       <c r="G68" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*'Energie pro Energieträger'!E$46</f>
-        <v>12938.741258741256</v>
+        <v>12459.485167323945</v>
       </c>
       <c r="H68" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*'Energie pro Energieträger'!E$48</f>
@@ -13628,7 +13629,7 @@
       </c>
       <c r="I68" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*'Energie pro Energieträger'!E$45</f>
-        <v>2772.1173520463717</v>
+        <v>2669.4370293995075</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -13646,11 +13647,11 @@
       </c>
       <c r="F69" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*'Energie pro Energieträger'!D$45</f>
-        <v>588.17347235693489</v>
+        <v>566.38729441271698</v>
       </c>
       <c r="G69" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*'Energie pro Energieträger'!E$46</f>
-        <v>6828.7801087801072</v>
+        <v>6575.8393938654153</v>
       </c>
       <c r="H69" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*'Energie pro Energieträger'!E$48</f>
@@ -13658,7 +13659,7 @@
       </c>
       <c r="I69" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*'Energie pro Energieträger'!E$45</f>
-        <v>1463.061935802252</v>
+        <v>1408.8695432941845</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -13676,11 +13677,11 @@
       </c>
       <c r="F70" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*'Energie pro Energieträger'!D$45</f>
-        <v>588.17347235693489</v>
+        <v>566.38729441271698</v>
       </c>
       <c r="G70" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*'Energie pro Energieträger'!E$46</f>
-        <v>6828.7801087801072</v>
+        <v>6575.8393938654153</v>
       </c>
       <c r="H70" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*'Energie pro Energieträger'!E$48</f>
@@ -13688,7 +13689,7 @@
       </c>
       <c r="I70" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*'Energie pro Energieträger'!E$45</f>
-        <v>1463.061935802252</v>
+        <v>1408.8695432941845</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -13706,11 +13707,11 @@
       </c>
       <c r="F71" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*'Energie pro Energieträger'!D$45</f>
-        <v>569.59957322987384</v>
+        <v>548.50137985231538</v>
       </c>
       <c r="G71" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*'Energie pro Energieträger'!E$46</f>
-        <v>6613.1344211344194</v>
+        <v>6368.181307743349</v>
       </c>
       <c r="H71" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*'Energie pro Energieträger'!E$48</f>
@@ -13718,7 +13719,7 @@
       </c>
       <c r="I71" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*'Energie pro Energieträger'!E$45</f>
-        <v>1416.8599799348124</v>
+        <v>1364.3789261375259</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
@@ -13736,11 +13737,11 @@
       </c>
       <c r="F72" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*'Energie pro Energieträger'!D$45</f>
-        <v>371.4779825412221</v>
+        <v>357.71829120803176</v>
       </c>
       <c r="G72" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*'Energie pro Energieträger'!E$46</f>
-        <v>4312.9137529137524</v>
+        <v>4153.1617224413149</v>
       </c>
       <c r="H72" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*'Energie pro Energieträger'!E$48</f>
@@ -13748,7 +13749,7 @@
       </c>
       <c r="I72" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*'Energie pro Energieträger'!E$45</f>
-        <v>924.03911734879057</v>
+        <v>889.81234313316907</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
@@ -13766,11 +13767,11 @@
       </c>
       <c r="F73" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*'Energie pro Energieträger'!D$45</f>
-        <v>937.36277594568389</v>
+        <v>902.64248814826703</v>
       </c>
       <c r="G73" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*'Energie pro Energieträger'!E$46</f>
-        <v>10882.919036519035</v>
+        <v>10479.811412960253</v>
       </c>
       <c r="H73" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*'Energie pro Energieträger'!E$48</f>
@@ -13778,7 +13779,7 @@
       </c>
       <c r="I73" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*'Energie pro Energieträger'!E$45</f>
-        <v>2331.6587061101154</v>
+        <v>2245.2931458393637</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
@@ -13796,11 +13797,11 @@
       </c>
       <c r="F74" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*'Energie pro Energieträger'!D$45</f>
-        <v>693.42556741028125</v>
+        <v>667.74081025499265</v>
       </c>
       <c r="G74" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*'Energie pro Energieträger'!E$46</f>
-        <v>8050.7723387723372</v>
+        <v>7752.5685485571212</v>
       </c>
       <c r="H74" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*'Energie pro Energieträger'!E$48</f>
@@ -13808,12 +13809,12 @@
       </c>
       <c r="I74" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*'Energie pro Energieträger'!E$45</f>
-        <v>1724.873019051076</v>
+        <v>1660.9830405152493</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D81" s="83"/>
       <c r="E81" s="83"/>
@@ -13871,23 +13872,23 @@
       </c>
       <c r="E85" s="56">
         <f>'Gesamtenergie 2050 var.'!E7*'Energie pro Energieträger'!D$51</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F85" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*'Energie pro Energieträger'!D$49</f>
-        <v>32767.247333333333</v>
+        <v>31553.535537924468</v>
       </c>
       <c r="G85" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*'Energie pro Energieträger'!E$50</f>
-        <v>26293.617777777774</v>
+        <v>25319.691780387173</v>
       </c>
       <c r="H85" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*'Energie pro Energieträger'!E$52</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I85" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*'Energie pro Energieträger'!E$49</f>
-        <v>18394.446345679011</v>
+        <v>17713.108780986633</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -13901,23 +13902,23 @@
       </c>
       <c r="E86" s="56">
         <f>'Gesamtenergie 2050 var.'!E8*'Energie pro Energieträger'!D$51</f>
-        <v>26874.659777777775</v>
+        <v>25879.21175499841</v>
       </c>
       <c r="F86" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*'Energie pro Energieträger'!D$49</f>
-        <v>32767.247333333333</v>
+        <v>31553.535537924468</v>
       </c>
       <c r="G86" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*'Energie pro Energieträger'!E$50</f>
-        <v>26293.617777777774</v>
+        <v>25319.691780387173</v>
       </c>
       <c r="H86" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*'Energie pro Energieträger'!E$52</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I86" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*'Energie pro Energieträger'!E$49</f>
-        <v>18394.446345679011</v>
+        <v>17713.108780986633</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -13931,23 +13932,23 @@
       </c>
       <c r="E87" s="56">
         <f>'Gesamtenergie 2050 var.'!E9*'Energie pro Energieträger'!D$51</f>
-        <v>38819.744444444441</v>
+        <v>37381.845763249759</v>
       </c>
       <c r="F87" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*'Energie pro Energieträger'!D$49</f>
-        <v>47331.433333333334</v>
+        <v>45578.258330688674</v>
       </c>
       <c r="G87" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*'Energie pro Energieträger'!E$50</f>
-        <v>37980.444444444438</v>
+        <v>36573.633767058069</v>
       </c>
       <c r="H87" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*'Energie pro Energieträger'!E$52</f>
-        <v>29553.533333333336</v>
+        <v>28458.858774992066</v>
       </c>
       <c r="I87" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*'Energie pro Energieträger'!E$49</f>
-        <v>26570.297530864194</v>
+        <v>25586.123206036878</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -13961,23 +13962,23 @@
       </c>
       <c r="E88" s="56">
         <f>'Gesamtenergie 2050 var.'!E10*'Energie pro Energieträger'!D$51</f>
-        <v>18398.421999999999</v>
+        <v>17716.937175499839</v>
       </c>
       <c r="F88" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*'Energie pro Energieträger'!D$49</f>
-        <v>22432.494000000002</v>
+        <v>21601.585553792447</v>
       </c>
       <c r="G88" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*'Energie pro Energieträger'!E$50</f>
-        <v>18000.64</v>
+        <v>17333.889178038713</v>
       </c>
       <c r="H88" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*'Energie pro Energieträger'!E$52</f>
-        <v>14006.748</v>
+        <v>13487.932516661376</v>
       </c>
       <c r="I88" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*'Energie pro Energieträger'!E$49</f>
-        <v>12592.858444444444</v>
+        <v>12126.413989209774</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -13991,23 +13992,23 @@
       </c>
       <c r="E89" s="56">
         <f>'Gesamtenergie 2050 var.'!E11*'Energie pro Energieträger'!D$51</f>
-        <v>18519.511111111111</v>
+        <v>17833.541098064106</v>
       </c>
       <c r="F89" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*'Energie pro Energieträger'!D$49</f>
-        <v>22580.133333333335</v>
+        <v>21743.756267851477</v>
       </c>
       <c r="G89" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*'Energie pro Energieträger'!E$50</f>
-        <v>18119.111111111109</v>
+        <v>17447.972072357978</v>
       </c>
       <c r="H89" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*'Energie pro Energieträger'!E$52</f>
-        <v>14098.933333333334</v>
+        <v>13576.703268803554</v>
       </c>
       <c r="I89" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*'Energie pro Energieträger'!E$49</f>
-        <v>12675.738271604938</v>
+        <v>12206.223914806586</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -14021,23 +14022,23 @@
       </c>
       <c r="E90" s="56">
         <f>'Gesamtenergie 2050 var.'!E12*'Energie pro Energieträger'!D$51</f>
-        <v>26710.833333333332</v>
+        <v>25721.453506823229</v>
       </c>
       <c r="F90" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*'Energie pro Energieträger'!D$49</f>
-        <v>32567.5</v>
+        <v>31361.186924785779</v>
       </c>
       <c r="G90" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*'Energie pro Energieträger'!E$50</f>
-        <v>26133.333333333332</v>
+        <v>25165.344335131704</v>
       </c>
       <c r="H90" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*'Energie pro Energieträger'!E$52</f>
-        <v>20335</v>
+        <v>19581.783560774358</v>
       </c>
       <c r="I90" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*'Energie pro Energieträger'!E$49</f>
-        <v>18282.314814814814</v>
+        <v>17605.130646355654</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -14051,23 +14052,23 @@
       </c>
       <c r="E91" s="56">
         <f>'Gesamtenergie 2050 var.'!E13*'Energie pro Energieträger'!D$51</f>
-        <v>48791.788888888885</v>
+        <v>46984.521739130432</v>
       </c>
       <c r="F91" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*'Energie pro Energieträger'!D$49</f>
-        <v>59489.966666666674</v>
+        <v>57286.434782608696</v>
       </c>
       <c r="G91" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*'Energie pro Energieträger'!E$50</f>
-        <v>47736.888888888883</v>
+        <v>45968.695652173905</v>
       </c>
       <c r="H91" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*'Energie pro Energieträger'!E$52</f>
-        <v>37145.26666666667</v>
+        <v>35769.391304347831</v>
       </c>
       <c r="I91" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*'Energie pro Energieträger'!E$49</f>
-        <v>33395.695061728395</v>
+        <v>32158.705314009658</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -14081,23 +14082,23 @@
       </c>
       <c r="E92" s="56">
         <f>'Gesamtenergie 2050 var.'!E14*'Energie pro Energieträger'!D$51</f>
-        <v>23505.533333333333</v>
+        <v>22634.879086004439</v>
       </c>
       <c r="F92" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*'Energie pro Energieträger'!D$49</f>
-        <v>28659.4</v>
+        <v>27597.844493811488</v>
       </c>
       <c r="G92" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*'Energie pro Energieträger'!E$50</f>
-        <v>22997.333333333332</v>
+        <v>22145.503014915896</v>
       </c>
       <c r="H92" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*'Energie pro Energieträger'!E$52</f>
-        <v>17894.800000000003</v>
+        <v>17231.969533481435</v>
       </c>
       <c r="I92" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*'Energie pro Energieträger'!E$49</f>
-        <v>16088.437037037036</v>
+        <v>15492.514968792973</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -14111,23 +14112,23 @@
       </c>
       <c r="E93" s="56">
         <f>'Gesamtenergie 2050 var.'!E15*'Energie pro Energieträger'!D$51</f>
-        <v>19815.876888888888</v>
+        <v>19081.888974928592</v>
       </c>
       <c r="F93" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*'Energie pro Energieträger'!D$49</f>
-        <v>24160.742666666669</v>
+        <v>23265.819206601078</v>
       </c>
       <c r="G93" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*'Energie pro Energieträger'!E$50</f>
-        <v>19387.448888888888</v>
+        <v>18669.330117423036</v>
       </c>
       <c r="H93" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*'Energie pro Energieträger'!E$52</f>
-        <v>15085.858666666667</v>
+        <v>14527.072497619802</v>
       </c>
       <c r="I93" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*'Energie pro Energieträger'!E$49</f>
-        <v>13563.039950617283</v>
+        <v>13060.659588843046</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -14141,23 +14142,23 @@
       </c>
       <c r="E94" s="56">
         <f>'Gesamtenergie 2050 var.'!E16*'Energie pro Energieträger'!D$51</f>
-        <v>15314.21111111111</v>
+        <v>14746.966677245317</v>
       </c>
       <c r="F94" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*'Energie pro Energieträger'!D$49</f>
-        <v>18672.033333333336</v>
+        <v>17980.413836877182</v>
       </c>
       <c r="G94" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*'Energie pro Energieträger'!E$50</f>
-        <v>14983.111111111108</v>
+        <v>14428.130752142173</v>
       </c>
       <c r="H94" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*'Energie pro Energieträger'!E$52</f>
-        <v>11658.733333333334</v>
+        <v>11226.889241510631</v>
       </c>
       <c r="I94" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*'Energie pro Energieträger'!E$49</f>
-        <v>10481.86049382716</v>
+        <v>10093.608237243907</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -14171,23 +14172,23 @@
       </c>
       <c r="E95" s="56">
         <f>'Gesamtenergie 2050 var.'!E17*'Energie pro Energieträger'!D$51</f>
-        <v>35614.444444444445</v>
+        <v>34295.27134243097</v>
       </c>
       <c r="F95" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*'Energie pro Energieträger'!D$49</f>
-        <v>43423.333333333336</v>
+        <v>41814.915899714375</v>
       </c>
       <c r="G95" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*'Energie pro Energieträger'!E$50</f>
-        <v>34844.444444444438</v>
+        <v>33553.792446842264</v>
       </c>
       <c r="H95" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*'Energie pro Energieträger'!E$52</f>
-        <v>27113.333333333332</v>
+        <v>26109.044747699143</v>
       </c>
       <c r="I95" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*'Energie pro Energieträger'!E$49</f>
-        <v>24376.419753086418</v>
+        <v>23473.507528474205</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -14201,23 +14202,23 @@
       </c>
       <c r="E96" s="56">
         <f>'Gesamtenergie 2050 var.'!E18*'Energie pro Energieträger'!D$51</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F96" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*'Energie pro Energieträger'!D$49</f>
-        <v>52108</v>
+        <v>50177.899079657247</v>
       </c>
       <c r="G96" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*'Energie pro Energieträger'!E$50</f>
-        <v>41813.333333333328</v>
+        <v>40264.550936210719</v>
       </c>
       <c r="H96" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*'Energie pro Energieträger'!E$52</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I96" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*'Energie pro Energieträger'!E$49</f>
-        <v>29251.703703703701</v>
+        <v>28168.209034169042</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -14231,23 +14232,23 @@
       </c>
       <c r="E97" s="56">
         <f>'Gesamtenergie 2050 var.'!E19*'Energie pro Energieträger'!D$51</f>
-        <v>32765.288888888885</v>
+        <v>31551.649635036491</v>
       </c>
       <c r="F97" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*'Energie pro Energieträger'!D$49</f>
-        <v>39949.466666666667</v>
+        <v>38469.722627737225</v>
       </c>
       <c r="G97" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*'Energie pro Energieträger'!E$50</f>
-        <v>32056.888888888883</v>
+        <v>30869.489051094883</v>
       </c>
       <c r="H97" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*'Energie pro Energieträger'!E$52</f>
-        <v>24944.266666666666</v>
+        <v>24020.321167883212</v>
       </c>
       <c r="I97" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*'Energie pro Energieträger'!E$49</f>
-        <v>22426.306172839504</v>
+        <v>21595.626926196266</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -14261,23 +14262,23 @@
       </c>
       <c r="E98" s="56">
         <f>'Gesamtenergie 2050 var.'!E20*'Energie pro Energieträger'!D$51</f>
-        <v>16624.822666666663</v>
+        <v>16009.032662646776</v>
       </c>
       <c r="F98" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*'Energie pro Energieträger'!D$49</f>
-        <v>20270.011999999999</v>
+        <v>19519.202741986668</v>
       </c>
       <c r="G98" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*'Energie pro Energieträger'!E$50</f>
-        <v>16265.386666666667</v>
+        <v>15662.910314185972</v>
       </c>
       <c r="H98" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*'Energie pro Energieträger'!E$52</f>
-        <v>12656.504000000001</v>
+        <v>12187.70208822596</v>
       </c>
       <c r="I98" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*'Energie pro Energieträger'!E$49</f>
-        <v>11378.91274074074</v>
+        <v>10957.433314291759</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -14291,23 +14292,23 @@
       </c>
       <c r="E99" s="56">
         <f>'Gesamtenergie 2050 var.'!E21*'Energie pro Energieträger'!D$51</f>
-        <v>7977.6355555555547</v>
+        <v>7682.1407807045371</v>
       </c>
       <c r="F99" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*'Energie pro Energieträger'!D$49</f>
-        <v>9726.8266666666677</v>
+        <v>9366.5411615360208</v>
       </c>
       <c r="G99" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*'Energie pro Energieträger'!E$50</f>
-        <v>7805.1555555555551</v>
+        <v>7516.0495080926676</v>
       </c>
       <c r="H99" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*'Energie pro Energieträger'!E$52</f>
-        <v>6073.3866666666672</v>
+        <v>5848.4260234846079</v>
       </c>
       <c r="I99" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*'Energie pro Energieträger'!E$49</f>
-        <v>5460.318024691358</v>
+        <v>5258.0656863782215</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -14321,23 +14322,23 @@
       </c>
       <c r="E100" s="56">
         <f>'Gesamtenergie 2050 var.'!E22*'Energie pro Energieträger'!D$51</f>
-        <v>42737.333333333336</v>
+        <v>41154.325610917171</v>
       </c>
       <c r="F100" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*'Energie pro Energieträger'!D$49</f>
-        <v>52108</v>
+        <v>50177.899079657247</v>
       </c>
       <c r="G100" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*'Energie pro Energieträger'!E$50</f>
-        <v>41813.333333333328</v>
+        <v>40264.550936210719</v>
       </c>
       <c r="H100" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*'Energie pro Energieträger'!E$52</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I100" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*'Energie pro Energieträger'!E$49</f>
-        <v>29251.703703703701</v>
+        <v>28168.209034169042</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -14351,23 +14352,23 @@
       </c>
       <c r="E101" s="56">
         <f>'Gesamtenergie 2050 var.'!E23*'Energie pro Energieträger'!D$51</f>
-        <v>11396.622222222222</v>
+        <v>10974.486829577911</v>
       </c>
       <c r="F101" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*'Energie pro Energieträger'!D$49</f>
-        <v>13895.466666666669</v>
+        <v>13380.773087908601</v>
       </c>
       <c r="G101" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*'Energie pro Energieträger'!E$50</f>
-        <v>11150.222222222221</v>
+        <v>10737.213582989525</v>
       </c>
       <c r="H101" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*'Energie pro Energieträger'!E$52</f>
-        <v>8676.2666666666682</v>
+        <v>8354.8943192637253</v>
       </c>
       <c r="I101" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*'Energie pro Energieträger'!E$49</f>
-        <v>7800.4543209876538</v>
+        <v>7511.5224091117452</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -14381,23 +14382,23 @@
       </c>
       <c r="E102" s="56">
         <f>'Gesamtenergie 2050 var.'!E24*'Energie pro Energieträger'!D$51</f>
-        <v>60544.555555555555</v>
+        <v>58301.961282132652</v>
       </c>
       <c r="F102" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*'Energie pro Energieträger'!D$49</f>
-        <v>73819.666666666672</v>
+        <v>71085.357029514431</v>
       </c>
       <c r="G102" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*'Energie pro Energieträger'!E$50</f>
-        <v>59235.555555555547</v>
+        <v>57041.447159631847</v>
       </c>
       <c r="H102" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*'Energie pro Energieträger'!E$52</f>
-        <v>46092.666666666664</v>
+        <v>44385.37607108854</v>
       </c>
       <c r="I102" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*'Energie pro Energieträger'!E$49</f>
-        <v>41439.91358024691</v>
+        <v>39904.962798406144</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -14411,23 +14412,23 @@
       </c>
       <c r="E103" s="56">
         <f>'Gesamtenergie 2050 var.'!E25*'Energie pro Energieträger'!D$51</f>
-        <v>48542.487777777773</v>
+        <v>46744.454839733415</v>
       </c>
       <c r="F103" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*'Energie pro Energieträger'!D$49</f>
-        <v>59186.003333333341</v>
+        <v>56993.730371310696</v>
       </c>
       <c r="G103" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*'Energie pro Energieträger'!E$50</f>
-        <v>47492.977777777771</v>
+        <v>45733.819105046008</v>
       </c>
       <c r="H103" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*'Energie pro Energieträger'!E$52</f>
-        <v>36955.473333333335</v>
+        <v>35586.627991113928</v>
       </c>
       <c r="I103" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*'Energie pro Energieträger'!E$49</f>
-        <v>33225.060123456788</v>
+        <v>31994.39076131034</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -14441,23 +14442,23 @@
       </c>
       <c r="E104" s="56">
         <f>'Gesamtenergie 2050 var.'!E26*'Energie pro Energieträger'!D$51</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F104" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*'Energie pro Energieträger'!D$49</f>
-        <v>23665.716666666667</v>
+        <v>22789.129165344337</v>
       </c>
       <c r="G104" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*'Energie pro Energieträger'!E$50</f>
-        <v>18990.222222222219</v>
+        <v>18286.816883529034</v>
       </c>
       <c r="H104" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*'Energie pro Energieträger'!E$52</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I104" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*'Energie pro Energieträger'!E$49</f>
-        <v>13285.148765432097</v>
+        <v>12793.061603018439</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -14471,23 +14472,23 @@
       </c>
       <c r="E105" s="56">
         <f>'Gesamtenergie 2050 var.'!E27*'Energie pro Energieträger'!D$51</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F105" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*'Energie pro Energieträger'!D$49</f>
-        <v>23665.716666666667</v>
+        <v>22789.129165344337</v>
       </c>
       <c r="G105" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*'Energie pro Energieträger'!E$50</f>
-        <v>18990.222222222219</v>
+        <v>18286.816883529034</v>
       </c>
       <c r="H105" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*'Energie pro Energieträger'!E$52</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I105" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*'Energie pro Energieträger'!E$49</f>
-        <v>13285.148765432097</v>
+        <v>12793.061603018439</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -14501,23 +14502,23 @@
       </c>
       <c r="E106" s="56">
         <f>'Gesamtenergie 2050 var.'!E28*'Energie pro Energieträger'!D$51</f>
-        <v>14601.922222222222</v>
+        <v>14061.061250396697</v>
       </c>
       <c r="F106" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*'Energie pro Energieträger'!D$49</f>
-        <v>17803.566666666666</v>
+        <v>17144.115518882893</v>
       </c>
       <c r="G106" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*'Energie pro Energieträger'!E$50</f>
-        <v>14286.222222222219</v>
+        <v>13757.054903205328</v>
       </c>
       <c r="H106" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*'Energie pro Energieträger'!E$52</f>
-        <v>11116.466666666667</v>
+        <v>10704.708346556648</v>
       </c>
       <c r="I106" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*'Energie pro Energieträger'!E$49</f>
-        <v>9994.3320987654315</v>
+        <v>9624.1380866744221</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
@@ -14531,23 +14532,23 @@
       </c>
       <c r="E107" s="56">
         <f>'Gesamtenergie 2050 var.'!E29*'Energie pro Energieträger'!D$51</f>
-        <v>32053</v>
+        <v>30865.744208187876</v>
       </c>
       <c r="F107" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*'Energie pro Energieträger'!D$49</f>
-        <v>39081</v>
+        <v>37633.424309742935</v>
       </c>
       <c r="G107" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*'Energie pro Energieträger'!E$50</f>
-        <v>31359.999999999996</v>
+        <v>30198.413202158037</v>
       </c>
       <c r="H107" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*'Energie pro Energieträger'!E$52</f>
-        <v>24402.000000000004</v>
+        <v>23498.140272929231</v>
       </c>
       <c r="I107" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*'Energie pro Energieträger'!E$49</f>
-        <v>21938.777777777774</v>
+        <v>21126.156775626783</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -14561,23 +14562,23 @@
       </c>
       <c r="E108" s="56">
         <f>'Gesamtenergie 2050 var.'!E30*'Energie pro Energieträger'!D$51</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F108" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*'Energie pro Energieträger'!D$49</f>
-        <v>20626.083333333332</v>
+        <v>19862.085052364328</v>
       </c>
       <c r="G108" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*'Energie pro Energieträger'!E$50</f>
-        <v>16551.111111111109</v>
+        <v>15938.051412250075</v>
       </c>
       <c r="H108" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*'Energie pro Energieträger'!E$52</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I108" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*'Energie pro Energieträger'!E$49</f>
-        <v>11578.79938271605</v>
+        <v>11149.916076025247</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
@@ -14591,23 +14592,23 @@
       </c>
       <c r="E109" s="56">
         <f>'Gesamtenergie 2050 var.'!E31*'Energie pro Energieträger'!D$51</f>
-        <v>16916.861111111113</v>
+        <v>16290.253887654711</v>
       </c>
       <c r="F109" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*'Energie pro Energieträger'!D$49</f>
-        <v>20626.083333333332</v>
+        <v>19862.085052364328</v>
       </c>
       <c r="G109" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*'Energie pro Energieträger'!E$50</f>
-        <v>16551.111111111109</v>
+        <v>15938.051412250075</v>
       </c>
       <c r="H109" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*'Energie pro Energieträger'!E$52</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I109" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*'Energie pro Energieträger'!E$49</f>
-        <v>11578.79938271605</v>
+        <v>11149.916076025247</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -14621,23 +14622,23 @@
       </c>
       <c r="E110" s="56">
         <f>'Gesamtenergie 2050 var.'!E32*'Energie pro Energieträger'!D$51</f>
-        <v>16382.644444444442</v>
+        <v>15775.824817518245</v>
       </c>
       <c r="F110" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*'Energie pro Energieträger'!D$49</f>
-        <v>19974.733333333334</v>
+        <v>19234.861313868612</v>
       </c>
       <c r="G110" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*'Energie pro Energieträger'!E$50</f>
-        <v>16028.444444444442</v>
+        <v>15434.744525547441</v>
       </c>
       <c r="H110" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*'Energie pro Energieträger'!E$52</f>
-        <v>12472.133333333333</v>
+        <v>12010.160583941606</v>
       </c>
       <c r="I110" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*'Energie pro Energieträger'!E$49</f>
-        <v>11213.153086419752</v>
+        <v>10797.813463098133</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
@@ -14651,23 +14652,23 @@
       </c>
       <c r="E111" s="56">
         <f>'Gesamtenergie 2050 var.'!E33*'Energie pro Energieträger'!D$51</f>
-        <v>10684.333333333334</v>
+        <v>10288.581402729293</v>
       </c>
       <c r="F111" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*'Energie pro Energieträger'!D$49</f>
-        <v>13027</v>
+        <v>12544.474769914312</v>
       </c>
       <c r="G111" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*'Energie pro Energieträger'!E$50</f>
-        <v>10453.333333333332</v>
+        <v>10066.13773405268</v>
       </c>
       <c r="H111" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*'Energie pro Energieträger'!E$52</f>
-        <v>8134</v>
+        <v>7832.7134243097425</v>
       </c>
       <c r="I111" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*'Energie pro Energieträger'!E$49</f>
-        <v>7312.9259259259252</v>
+        <v>7042.0522585422605</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -14681,23 +14682,23 @@
       </c>
       <c r="E112" s="56">
         <f>'Gesamtenergie 2050 var.'!E34*'Energie pro Energieträger'!D$51</f>
-        <v>26960.134444444444</v>
+        <v>25961.520406220247</v>
       </c>
       <c r="F112" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*'Energie pro Energieträger'!D$49</f>
-        <v>32871.46333333334</v>
+        <v>31653.891336083787</v>
       </c>
       <c r="G112" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*'Energie pro Energieträger'!E$50</f>
-        <v>26377.244444444445</v>
+        <v>25400.220882259597</v>
       </c>
       <c r="H112" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*'Energie pro Energieträger'!E$52</f>
-        <v>20524.793333333335</v>
+        <v>19764.546874008251</v>
       </c>
       <c r="I112" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*'Energie pro Energieträger'!E$49</f>
-        <v>18452.949753086421</v>
+        <v>17769.445199054971</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
@@ -14711,28 +14712,28 @@
       </c>
       <c r="E113" s="56">
         <f>'Gesamtenergie 2050 var.'!E35*'Energie pro Energieträger'!D$51</f>
-        <v>19944.088888888888</v>
+        <v>19205.351951761342</v>
       </c>
       <c r="F113" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*'Energie pro Energieträger'!D$49</f>
-        <v>24317.066666666666</v>
+        <v>23416.352903840048</v>
       </c>
       <c r="G113" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*'Energie pro Energieträger'!E$50</f>
-        <v>19512.888888888887</v>
+        <v>18790.123770231668</v>
       </c>
       <c r="H113" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*'Energie pro Energieträger'!E$52</f>
-        <v>15183.466666666669</v>
+        <v>14621.065058711521</v>
       </c>
       <c r="I113" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*'Energie pro Energieträger'!E$49</f>
-        <v>13650.795061728395</v>
+        <v>13145.164215945555</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C117" s="83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D117" s="83"/>
       <c r="E117" s="83"/>
@@ -14798,15 +14799,15 @@
       </c>
       <c r="G121" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*'Energie pro Energieträger'!E$54</f>
-        <v>13475.150769230766</v>
+        <v>12976.025857481138</v>
       </c>
       <c r="H121" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*'Energie pro Energieträger'!E$56</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I121" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*'Energie pro Energieträger'!E$53</f>
-        <v>15582.690340305144</v>
+        <v>15005.5013296496</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
@@ -14828,15 +14829,15 @@
       </c>
       <c r="G122" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*'Energie pro Energieträger'!E$54</f>
-        <v>13475.150769230766</v>
+        <v>12976.025857481138</v>
       </c>
       <c r="H122" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*'Energie pro Energieträger'!E$56</f>
-        <v>20459.721333333335</v>
+        <v>19701.885166613771</v>
       </c>
       <c r="I122" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*'Energie pro Energieträger'!E$53</f>
-        <v>15582.690340305144</v>
+        <v>15005.5013296496</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
@@ -14858,15 +14859,15 @@
       </c>
       <c r="G123" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*'Energie pro Energieträger'!E$54</f>
-        <v>19464.50349650349</v>
+        <v>18743.530591908879</v>
       </c>
       <c r="H123" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*'Energie pro Energieträger'!E$56</f>
-        <v>29553.533333333336</v>
+        <v>28458.858774992066</v>
       </c>
       <c r="I123" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*'Energie pro Energieträger'!E$53</f>
-        <v>22508.789386340584</v>
+        <v>21675.054928860405</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
@@ -14888,15 +14889,15 @@
       </c>
       <c r="G124" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*'Energie pro Energieträger'!E$54</f>
-        <v>9225.1032167832163</v>
+        <v>8883.4017465872712</v>
       </c>
       <c r="H124" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*'Energie pro Energieträger'!E$56</f>
-        <v>14006.748</v>
+        <v>13487.932516661376</v>
       </c>
       <c r="I124" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*'Energie pro Energieträger'!E$53</f>
-        <v>10667.927153195915</v>
+        <v>10272.782913990171</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
@@ -14918,15 +14919,15 @@
       </c>
       <c r="G125" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*'Energie pro Energieträger'!E$54</f>
-        <v>9285.8181818181802</v>
+        <v>8941.8678053143267</v>
       </c>
       <c r="H125" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*'Energie pro Energieträger'!E$56</f>
-        <v>14098.933333333334</v>
+        <v>13576.703268803554</v>
       </c>
       <c r="I125" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*'Energie pro Energieträger'!E$53</f>
-        <v>10738.138055868903</v>
+        <v>10340.393177071021</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
@@ -14948,15 +14949,15 @@
       </c>
       <c r="G126" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*'Energie pro Energieträger'!E$54</f>
-        <v>13393.006993006991</v>
+        <v>12896.92471920336</v>
       </c>
       <c r="H126" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*'Energie pro Energieträger'!E$56</f>
-        <v>20335</v>
+        <v>19581.783560774358</v>
       </c>
       <c r="I126" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*'Energie pro Energieträger'!E$53</f>
-        <v>15487.699119041688</v>
+        <v>14914.028620775513</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
@@ -14978,15 +14979,15 @@
       </c>
       <c r="G127" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*'Energie pro Energieträger'!E$54</f>
-        <v>24464.559440559435</v>
+        <v>23558.382487078132</v>
       </c>
       <c r="H127" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*'Energie pro Energieträger'!E$56</f>
-        <v>37145.26666666667</v>
+        <v>35769.391304347831</v>
       </c>
       <c r="I127" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*'Energie pro Energieträger'!E$53</f>
-        <v>28290.863724116152</v>
+        <v>27242.958947283267</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
@@ -15008,15 +15009,15 @@
       </c>
       <c r="G128" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*'Energie pro Energieträger'!E$54</f>
-        <v>11785.846153846152</v>
+        <v>11349.293752898955</v>
       </c>
       <c r="H128" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*'Energie pro Energieträger'!E$56</f>
-        <v>17894.800000000003</v>
+        <v>17231.969533481435</v>
       </c>
       <c r="I128" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*'Energie pro Energieträger'!E$53</f>
-        <v>13629.175224756686</v>
+        <v>13124.34518628245</v>
       </c>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
@@ -15038,15 +15039,15 @@
       </c>
       <c r="G129" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*'Energie pro Energieträger'!E$54</f>
-        <v>9935.8254545454529</v>
+        <v>9567.79855168633</v>
       </c>
       <c r="H129" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*'Energie pro Energieträger'!E$56</f>
-        <v>15085.858666666667</v>
+        <v>14527.072497619802</v>
       </c>
       <c r="I129" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*'Energie pro Energieträger'!E$53</f>
-        <v>11489.807719779727</v>
+        <v>11064.220699465992</v>
       </c>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
@@ -15068,15 +15069,15 @@
       </c>
       <c r="G130" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*'Energie pro Energieträger'!E$54</f>
-        <v>7678.6573426573405</v>
+        <v>7394.2368390099246</v>
       </c>
       <c r="H130" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*'Energie pro Energieträger'!E$56</f>
-        <v>11658.733333333334</v>
+        <v>11226.889241510631</v>
       </c>
       <c r="I130" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*'Energie pro Energieträger'!E$53</f>
-        <v>8879.6141615839006</v>
+        <v>8550.7097425779593</v>
       </c>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
@@ -15098,15 +15099,15 @@
       </c>
       <c r="G131" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*'Energie pro Energieträger'!E$54</f>
-        <v>17857.342657342651</v>
+        <v>17195.899625604477</v>
       </c>
       <c r="H131" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*'Energie pro Energieträger'!E$56</f>
-        <v>27113.333333333332</v>
+        <v>26109.044747699143</v>
       </c>
       <c r="I131" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*'Energie pro Energieträger'!E$53</f>
-        <v>20650.265492055583</v>
+        <v>19885.371494367348</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
@@ -15128,15 +15129,15 @@
       </c>
       <c r="G132" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*'Energie pro Energieträger'!E$54</f>
-        <v>21428.811188811185</v>
+        <v>20635.079550725372</v>
       </c>
       <c r="H132" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*'Energie pro Energieträger'!E$56</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I132" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*'Energie pro Energieträger'!E$53</f>
-        <v>24780.318590466701</v>
+        <v>23862.445793240815</v>
       </c>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
@@ -15158,15 +15159,15 @@
       </c>
       <c r="G133" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*'Energie pro Energieträger'!E$54</f>
-        <v>16428.755244755241</v>
+        <v>15820.227655556118</v>
       </c>
       <c r="H133" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*'Energie pro Energieträger'!E$56</f>
-        <v>24944.266666666666</v>
+        <v>24020.321167883212</v>
       </c>
       <c r="I133" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*'Energie pro Energieträger'!E$53</f>
-        <v>18998.244252691136</v>
+        <v>18294.541774817961</v>
       </c>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.25">
@@ -15188,15 +15189,15 @@
       </c>
       <c r="G134" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*'Energie pro Energieträger'!E$54</f>
-        <v>8335.8075524475516</v>
+        <v>8027.0459452321711</v>
       </c>
       <c r="H134" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*'Energie pro Energieträger'!E$56</f>
-        <v>12656.504000000001</v>
+        <v>12187.70208822596</v>
       </c>
       <c r="I134" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*'Energie pro Energieträger'!E$53</f>
-        <v>9639.5439316915454</v>
+        <v>9282.4914135706786</v>
       </c>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.25">
@@ -15218,15 +15219,15 @@
       </c>
       <c r="G135" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*'Energie pro Energieträger'!E$54</f>
-        <v>4000.0447552447549</v>
+        <v>3851.8815161354028</v>
       </c>
       <c r="H135" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*'Energie pro Energieträger'!E$56</f>
-        <v>6073.3866666666672</v>
+        <v>5848.4260234846079</v>
       </c>
       <c r="I135" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*'Energie pro Energieträger'!E$53</f>
-        <v>4625.6594702204511</v>
+        <v>4454.323214738286</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
@@ -15248,15 +15249,15 @@
       </c>
       <c r="G136" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*'Energie pro Energieträger'!E$54</f>
-        <v>21428.811188811185</v>
+        <v>20635.079550725372</v>
       </c>
       <c r="H136" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*'Energie pro Energieträger'!E$56</f>
-        <v>32536</v>
+        <v>31330.85369723897</v>
       </c>
       <c r="I136" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*'Energie pro Energieträger'!E$53</f>
-        <v>24780.318590466701</v>
+        <v>23862.445793240815</v>
       </c>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.25">
@@ -15278,15 +15279,15 @@
       </c>
       <c r="G137" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*'Energie pro Energieträger'!E$54</f>
-        <v>5714.349650349649</v>
+        <v>5502.6878801934326</v>
       </c>
       <c r="H137" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*'Energie pro Energieträger'!E$56</f>
-        <v>8676.2666666666682</v>
+        <v>8354.8943192637253</v>
       </c>
       <c r="I137" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*'Energie pro Energieträger'!E$53</f>
-        <v>6608.0849574577869</v>
+        <v>6363.3188781975514</v>
       </c>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.25">
@@ -15308,15 +15309,15 @@
       </c>
       <c r="G138" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*'Energie pro Energieträger'!E$54</f>
-        <v>30357.482517482513</v>
+        <v>29233.029363527607</v>
       </c>
       <c r="H138" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*'Energie pro Energieträger'!E$56</f>
-        <v>46092.666666666664</v>
+        <v>44385.37607108854</v>
       </c>
       <c r="I138" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*'Energie pro Energieträger'!E$53</f>
-        <v>35105.451336494494</v>
+        <v>33805.131540424489</v>
       </c>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
@@ -15338,15 +15339,15 @@
       </c>
       <c r="G139" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*'Energie pro Energieträger'!E$54</f>
-        <v>24339.558041958036</v>
+        <v>23438.0111896989</v>
       </c>
       <c r="H139" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*'Energie pro Energieträger'!E$56</f>
-        <v>36955.473333333335</v>
+        <v>35586.627991113928</v>
       </c>
       <c r="I139" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*'Energie pro Energieträger'!E$53</f>
-        <v>28146.31186567176</v>
+        <v>27103.761346822695</v>
       </c>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.25">
@@ -15368,15 +15369,15 @@
       </c>
       <c r="G140" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*'Energie pro Energieträger'!E$54</f>
-        <v>9732.2517482517451</v>
+        <v>9371.7652959544394</v>
       </c>
       <c r="H140" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*'Energie pro Energieträger'!E$56</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I140" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*'Energie pro Energieträger'!E$53</f>
-        <v>11254.394693170292</v>
+        <v>10837.527464430203</v>
       </c>
     </row>
     <row r="141" spans="3:9" x14ac:dyDescent="0.25">
@@ -15398,15 +15399,15 @@
       </c>
       <c r="G141" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*'Energie pro Energieträger'!E$54</f>
-        <v>9732.2517482517451</v>
+        <v>9371.7652959544394</v>
       </c>
       <c r="H141" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*'Energie pro Energieträger'!E$56</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I141" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*'Energie pro Energieträger'!E$53</f>
-        <v>11254.394693170292</v>
+        <v>10837.527464430203</v>
       </c>
     </row>
     <row r="142" spans="3:9" x14ac:dyDescent="0.25">
@@ -15428,15 +15429,15 @@
       </c>
       <c r="G142" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*'Energie pro Energieträger'!E$54</f>
-        <v>7321.5104895104878</v>
+        <v>7050.3188464978348</v>
       </c>
       <c r="H142" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*'Energie pro Energieträger'!E$56</f>
-        <v>11116.466666666667</v>
+        <v>10704.708346556648</v>
       </c>
       <c r="I142" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*'Energie pro Energieträger'!E$53</f>
-        <v>8466.6088517427888</v>
+        <v>8153.0023126906117</v>
       </c>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
@@ -15458,15 +15459,15 @@
       </c>
       <c r="G143" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*'Energie pro Energieträger'!E$54</f>
-        <v>16071.608391608388</v>
+        <v>15476.309663044029</v>
       </c>
       <c r="H143" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*'Energie pro Energieträger'!E$56</f>
-        <v>24402.000000000004</v>
+        <v>23498.140272929231</v>
       </c>
       <c r="I143" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*'Energie pro Energieträger'!E$53</f>
-        <v>18585.238942850025</v>
+        <v>17896.834344930612</v>
       </c>
     </row>
     <row r="144" spans="3:9" x14ac:dyDescent="0.25">
@@ -15488,15 +15489,15 @@
       </c>
       <c r="G144" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*'Energie pro Energieträger'!E$54</f>
-        <v>8482.2377622377608</v>
+        <v>8168.0523221621261</v>
       </c>
       <c r="H144" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*'Energie pro Energieträger'!E$56</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I144" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*'Energie pro Energieträger'!E$53</f>
-        <v>9808.8761087264029</v>
+        <v>9445.5514598244899</v>
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
@@ -15518,15 +15519,15 @@
       </c>
       <c r="G145" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*'Energie pro Energieträger'!E$54</f>
-        <v>8482.2377622377608</v>
+        <v>8168.0523221621261</v>
       </c>
       <c r="H145" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*'Energie pro Energieträger'!E$56</f>
-        <v>12878.833333333334</v>
+        <v>12401.796255157093</v>
       </c>
       <c r="I145" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*'Energie pro Energieträger'!E$53</f>
-        <v>9808.8761087264029</v>
+        <v>9445.5514598244899</v>
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
@@ -15548,15 +15549,15 @@
       </c>
       <c r="G146" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*'Energie pro Energieträger'!E$54</f>
-        <v>8214.3776223776204</v>
+        <v>7910.1138277780592</v>
       </c>
       <c r="H146" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*'Energie pro Energieträger'!E$56</f>
-        <v>12472.133333333333</v>
+        <v>12010.160583941606</v>
       </c>
       <c r="I146" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*'Energie pro Energieträger'!E$53</f>
-        <v>9499.1221263455682</v>
+        <v>9147.2708874089803</v>
       </c>
     </row>
     <row r="147" spans="3:9" x14ac:dyDescent="0.25">
@@ -15578,15 +15579,15 @@
       </c>
       <c r="G147" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*'Energie pro Energieträger'!E$54</f>
-        <v>5357.2027972027963</v>
+        <v>5158.7698876813429</v>
       </c>
       <c r="H147" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*'Energie pro Energieträger'!E$56</f>
-        <v>8134</v>
+        <v>7832.7134243097425</v>
       </c>
       <c r="I147" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*'Energie pro Energieträger'!E$53</f>
-        <v>6195.0796476166752</v>
+        <v>5965.6114483102037</v>
       </c>
     </row>
     <row r="148" spans="3:9" x14ac:dyDescent="0.25">
@@ -15608,15 +15609,15 @@
       </c>
       <c r="G148" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*'Energie pro Energieträger'!E$54</f>
-        <v>13518.008391608391</v>
+        <v>13017.29601658259</v>
       </c>
       <c r="H148" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*'Energie pro Energieträger'!E$56</f>
-        <v>20524.793333333335</v>
+        <v>19764.546874008251</v>
       </c>
       <c r="I148" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*'Energie pro Energieträger'!E$53</f>
-        <v>15632.250977486079</v>
+        <v>15053.226221236082</v>
       </c>
     </row>
     <row r="149" spans="3:9" x14ac:dyDescent="0.25">
@@ -15638,15 +15639,15 @@
       </c>
       <c r="G149" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*'Energie pro Energieträger'!E$54</f>
-        <v>10000.111888111887</v>
+        <v>9629.7037903385062</v>
       </c>
       <c r="H149" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*'Energie pro Energieträger'!E$56</f>
-        <v>15183.466666666669</v>
+        <v>14621.065058711521</v>
       </c>
       <c r="I149" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*'Energie pro Energieträger'!E$53</f>
-        <v>11564.148675551127</v>
+        <v>11135.808036845716</v>
       </c>
     </row>
   </sheetData>
@@ -15675,8 +15676,8 @@
   </sheetPr>
   <dimension ref="C3:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15692,7 +15693,7 @@
   <sheetData>
     <row r="3" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
@@ -15759,23 +15760,23 @@
       </c>
       <c r="E7" s="56">
         <f>'Gesamtenergie 2050 var.'!E7*Sekundäranteil!$C$7</f>
-        <v>11824.850302222221</v>
+        <v>11386.8531721993</v>
       </c>
       <c r="F7" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*Sekundäranteil!$C$7</f>
-        <v>14417.588826666666</v>
+        <v>13883.555636686766</v>
       </c>
       <c r="G7" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*Sekundäranteil!$C$7</f>
-        <v>11569.191822222221</v>
+        <v>11140.664383370357</v>
       </c>
       <c r="H7" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*Sekundäranteil!$C$7</f>
-        <v>9002.2773866666666</v>
+        <v>8668.8294733100593</v>
       </c>
       <c r="I7" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*Sekundäranteil!$C$7</f>
-        <v>8093.5563920987652</v>
+        <v>7793.7678636341188</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -15789,23 +15790,23 @@
       </c>
       <c r="E8" s="56">
         <f>'Gesamtenergie 2050 var.'!E8*Sekundäranteil!$C$7</f>
-        <v>11824.850302222221</v>
+        <v>11386.8531721993</v>
       </c>
       <c r="F8" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*Sekundäranteil!$C$7</f>
-        <v>14417.588826666666</v>
+        <v>13883.555636686766</v>
       </c>
       <c r="G8" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*Sekundäranteil!$C$7</f>
-        <v>11569.191822222221</v>
+        <v>11140.664383370357</v>
       </c>
       <c r="H8" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*Sekundäranteil!$C$7</f>
-        <v>9002.2773866666666</v>
+        <v>8668.8294733100593</v>
       </c>
       <c r="I8" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*Sekundäranteil!$C$7</f>
-        <v>8093.5563920987652</v>
+        <v>7793.7678636341188</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
@@ -15819,23 +15820,23 @@
       </c>
       <c r="E9" s="56">
         <f>'Gesamtenergie 2050 var.'!E9*Sekundäranteil!$C$7</f>
-        <v>17080.687555555553</v>
+        <v>16448.012135829893</v>
       </c>
       <c r="F9" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*Sekundäranteil!$C$7</f>
-        <v>20825.830666666669</v>
+        <v>20054.433665503017</v>
       </c>
       <c r="G9" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*Sekundäranteil!$C$7</f>
-        <v>16711.395555555551</v>
+        <v>16092.39885750555</v>
       </c>
       <c r="H9" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*Sekundäranteil!$C$7</f>
-        <v>13003.554666666669</v>
+        <v>12521.897860996509</v>
       </c>
       <c r="I9" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*Sekundäranteil!$C$7</f>
-        <v>11690.930913580245</v>
+        <v>11257.894210656226</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
@@ -15849,23 +15850,23 @@
       </c>
       <c r="E10" s="56">
         <f>'Gesamtenergie 2050 var.'!E10*Sekundäranteil!$C$7</f>
-        <v>8095.3056799999995</v>
+        <v>7795.4523572199296</v>
       </c>
       <c r="F10" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*Sekundäranteil!$C$7</f>
-        <v>9870.2973600000005</v>
+        <v>9504.6976436686764</v>
       </c>
       <c r="G10" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*Sekundäranteil!$C$7</f>
-        <v>7920.2815999999993</v>
+        <v>7626.9112383370339</v>
       </c>
       <c r="H10" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*Sekundäranteil!$C$7</f>
-        <v>6162.9691199999997</v>
+        <v>5934.6903073310059</v>
       </c>
       <c r="I10" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*Sekundäranteil!$C$7</f>
-        <v>5540.8577155555558</v>
+        <v>5335.6221552523002</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
@@ -15879,23 +15880,23 @@
       </c>
       <c r="E11" s="56">
         <f>'Gesamtenergie 2050 var.'!E11*Sekundäranteil!$C$7</f>
-        <v>8148.5848888888886</v>
+        <v>7846.7580831482064</v>
       </c>
       <c r="F11" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*Sekundäranteil!$C$7</f>
-        <v>9935.2586666666666</v>
+        <v>9567.2527578546506</v>
       </c>
       <c r="G11" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*Sekundäranteil!$C$7</f>
-        <v>7972.4088888888882</v>
+        <v>7677.1077118375106</v>
       </c>
       <c r="H11" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*Sekundäranteil!$C$7</f>
-        <v>6203.5306666666675</v>
+        <v>5973.749438273564</v>
       </c>
       <c r="I11" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*Sekundäranteil!$C$7</f>
-        <v>5577.3248395061728</v>
+        <v>5370.7385225148973</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -15909,23 +15910,23 @@
       </c>
       <c r="E12" s="56">
         <f>'Gesamtenergie 2050 var.'!E12*Sekundäranteil!$C$7</f>
-        <v>11752.766666666666</v>
+        <v>11317.439543002221</v>
       </c>
       <c r="F12" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*Sekundäranteil!$C$7</f>
-        <v>14329.7</v>
+        <v>13798.922246905742</v>
       </c>
       <c r="G12" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*Sekundäranteil!$C$7</f>
-        <v>11498.666666666666</v>
+        <v>11072.75150745795</v>
       </c>
       <c r="H12" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*Sekundäranteil!$C$7</f>
-        <v>8947.4</v>
+        <v>8615.9847667407175</v>
       </c>
       <c r="I12" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*Sekundäranteil!$C$7</f>
-        <v>8044.2185185185181</v>
+        <v>7746.2574843964876</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -15939,23 +15940,23 @@
       </c>
       <c r="E13" s="56">
         <f>'Gesamtenergie 2050 var.'!E13*Sekundäranteil!$C$7</f>
-        <v>21468.387111111111</v>
+        <v>20673.189565217392</v>
       </c>
       <c r="F13" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*Sekundäranteil!$C$7</f>
-        <v>26175.585333333336</v>
+        <v>25206.031304347827</v>
       </c>
       <c r="G13" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*Sekundäranteil!$C$7</f>
-        <v>21004.231111111108</v>
+        <v>20226.226086956518</v>
       </c>
       <c r="H13" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*Sekundäranteil!$C$7</f>
-        <v>16343.917333333335</v>
+        <v>15738.532173913047</v>
       </c>
       <c r="I13" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*Sekundäranteil!$C$7</f>
-        <v>14694.105827160494</v>
+        <v>14149.830338164249</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
@@ -15969,23 +15970,23 @@
       </c>
       <c r="E14" s="56">
         <f>'Gesamtenergie 2050 var.'!E14*Sekundäranteil!$C$7</f>
-        <v>10342.434666666666</v>
+        <v>9959.346797841954</v>
       </c>
       <c r="F14" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*Sekundäranteil!$C$7</f>
-        <v>12610.136</v>
+        <v>12143.051577277054</v>
       </c>
       <c r="G14" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*Sekundäranteil!$C$7</f>
-        <v>10118.826666666666</v>
+        <v>9744.0213265629936</v>
       </c>
       <c r="H14" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*Sekundäranteil!$C$7</f>
-        <v>7873.7120000000014</v>
+        <v>7582.0665947318312</v>
       </c>
       <c r="I14" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*Sekundäranteil!$C$7</f>
-        <v>7078.9122962962956</v>
+        <v>6816.7065862689087</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -15999,23 +16000,23 @@
       </c>
       <c r="E15" s="56">
         <f>'Gesamtenergie 2050 var.'!E15*Sekundäranteil!$C$7</f>
-        <v>8718.9858311111111</v>
+        <v>8396.031148968581</v>
       </c>
       <c r="F15" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*Sekundäranteil!$C$7</f>
-        <v>10630.726773333334</v>
+        <v>10236.960450904475</v>
       </c>
       <c r="G15" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*Sekundäranteil!$C$7</f>
-        <v>8530.4775111111103</v>
+        <v>8214.5052516661362</v>
       </c>
       <c r="H15" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*Sekundäranteil!$C$7</f>
-        <v>6637.7778133333331</v>
+        <v>6391.9118989527124</v>
       </c>
       <c r="I15" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*Sekundäranteil!$C$7</f>
-        <v>5967.7375782716044</v>
+        <v>5746.6902190909404</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -16029,23 +16030,23 @@
       </c>
       <c r="E16" s="56">
         <f>'Gesamtenergie 2050 var.'!E16*Sekundäranteil!$C$7</f>
-        <v>6738.2528888888883</v>
+        <v>6488.665337987939</v>
       </c>
       <c r="F16" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*Sekundäranteil!$C$7</f>
-        <v>8215.6946666666681</v>
+        <v>7911.3820882259597</v>
       </c>
       <c r="G16" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*Sekundäranteil!$C$7</f>
-        <v>6592.5688888888872</v>
+        <v>6348.3775309425564</v>
       </c>
       <c r="H16" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*Sekundäranteil!$C$7</f>
-        <v>5129.8426666666664</v>
+        <v>4939.8312662646777</v>
       </c>
       <c r="I16" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*Sekundäranteil!$C$7</f>
-        <v>4612.0186172839503</v>
+        <v>4441.1876243873194</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -16059,23 +16060,23 @@
       </c>
       <c r="E17" s="56">
         <f>'Gesamtenergie 2050 var.'!E17*Sekundäranteil!$C$7</f>
-        <v>15670.355555555556</v>
+        <v>15089.919390669627</v>
       </c>
       <c r="F17" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*Sekundäranteil!$C$7</f>
-        <v>19106.266666666666</v>
+        <v>18398.562995874327</v>
       </c>
       <c r="G17" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*Sekundäranteil!$C$7</f>
-        <v>15331.555555555553</v>
+        <v>14763.668676610596</v>
       </c>
       <c r="H17" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*Sekundäranteil!$C$7</f>
-        <v>11929.866666666667</v>
+        <v>11487.979688987623</v>
       </c>
       <c r="I17" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*Sekundäranteil!$C$7</f>
-        <v>10725.624691358023</v>
+        <v>10328.34331252865</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -16089,23 +16090,23 @@
       </c>
       <c r="E18" s="56">
         <f>'Gesamtenergie 2050 var.'!E18*Sekundäranteil!$C$7</f>
-        <v>18804.426666666666</v>
+        <v>18107.903268803555</v>
       </c>
       <c r="F18" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*Sekundäranteil!$C$7</f>
-        <v>22927.52</v>
+        <v>22078.275595049188</v>
       </c>
       <c r="G18" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*Sekundäranteil!$C$7</f>
-        <v>18397.866666666665</v>
+        <v>17716.402411932715</v>
       </c>
       <c r="H18" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*Sekundäranteil!$C$7</f>
-        <v>14315.84</v>
+        <v>13785.575626785147</v>
       </c>
       <c r="I18" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*Sekundäranteil!$C$7</f>
-        <v>12870.749629629629</v>
+        <v>12394.011975034378</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -16119,23 +16120,23 @@
       </c>
       <c r="E19" s="56">
         <f>'Gesamtenergie 2050 var.'!E19*Sekundäranteil!$C$7</f>
-        <v>14416.727111111109</v>
+        <v>13882.725839416056</v>
       </c>
       <c r="F19" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*Sekundäranteil!$C$7</f>
-        <v>17577.765333333333</v>
+        <v>16926.677956204378</v>
       </c>
       <c r="G19" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*Sekundäranteil!$C$7</f>
-        <v>14105.03111111111</v>
+        <v>13582.575182481749</v>
       </c>
       <c r="H19" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*Sekundäranteil!$C$7</f>
-        <v>10975.477333333334</v>
+        <v>10568.941313868614</v>
       </c>
       <c r="I19" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*Sekundäranteil!$C$7</f>
-        <v>9867.5747160493811</v>
+        <v>9502.0758475263574</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -16149,23 +16150,23 @@
       </c>
       <c r="E20" s="56">
         <f>'Gesamtenergie 2050 var.'!E20*Sekundäranteil!$C$7</f>
-        <v>7314.9219733333321</v>
+        <v>7043.9743715645818</v>
       </c>
       <c r="F20" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*Sekundäranteil!$C$7</f>
-        <v>8918.8052799999987</v>
+        <v>8588.4492064741335</v>
       </c>
       <c r="G20" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*Sekundäranteil!$C$7</f>
-        <v>7156.7701333333334</v>
+        <v>6891.6805382418279</v>
       </c>
       <c r="H20" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*Sekundäranteil!$C$7</f>
-        <v>5568.8617600000007</v>
+        <v>5362.5889188194224</v>
       </c>
       <c r="I20" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*Sekundäranteil!$C$7</f>
-        <v>5006.7216059259254</v>
+        <v>4821.2706582883739</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -16179,23 +16180,23 @@
       </c>
       <c r="E21" s="56">
         <f>'Gesamtenergie 2050 var.'!E21*Sekundäranteil!$C$7</f>
-        <v>3510.159644444444</v>
+        <v>3380.1419435099965</v>
       </c>
       <c r="F21" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*Sekundäranteil!$C$7</f>
-        <v>4279.8037333333341</v>
+        <v>4121.2781110758488</v>
       </c>
       <c r="G21" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*Sekundäranteil!$C$7</f>
-        <v>3434.2684444444444</v>
+        <v>3307.0617835607736</v>
       </c>
       <c r="H21" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*Sekundäranteil!$C$7</f>
-        <v>2672.2901333333334</v>
+        <v>2573.3074503332273</v>
       </c>
       <c r="I21" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*Sekundäranteil!$C$7</f>
-        <v>2402.5399308641977</v>
+        <v>2313.5489020064174</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -16209,23 +16210,23 @@
       </c>
       <c r="E22" s="56">
         <f>'Gesamtenergie 2050 var.'!E22*Sekundäranteil!$C$7</f>
-        <v>18804.426666666666</v>
+        <v>18107.903268803555</v>
       </c>
       <c r="F22" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*Sekundäranteil!$C$7</f>
-        <v>22927.52</v>
+        <v>22078.275595049188</v>
       </c>
       <c r="G22" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*Sekundäranteil!$C$7</f>
-        <v>18397.866666666665</v>
+        <v>17716.402411932715</v>
       </c>
       <c r="H22" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*Sekundäranteil!$C$7</f>
-        <v>14315.84</v>
+        <v>13785.575626785147</v>
       </c>
       <c r="I22" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*Sekundäranteil!$C$7</f>
-        <v>12870.749629629629</v>
+        <v>12394.011975034378</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -16239,23 +16240,23 @@
       </c>
       <c r="E23" s="56">
         <f>'Gesamtenergie 2050 var.'!E23*Sekundäranteil!$C$7</f>
-        <v>5014.5137777777782</v>
+        <v>4828.7742050142806</v>
       </c>
       <c r="F23" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*Sekundäranteil!$C$7</f>
-        <v>6114.0053333333344</v>
+        <v>5887.5401586797843</v>
       </c>
       <c r="G23" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*Sekundäranteil!$C$7</f>
-        <v>4906.0977777777771</v>
+        <v>4724.3739765153914</v>
       </c>
       <c r="H23" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*Sekundäranteil!$C$7</f>
-        <v>3817.5573333333341</v>
+        <v>3676.153500476039</v>
       </c>
       <c r="I23" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*Sekundäranteil!$C$7</f>
-        <v>3432.1999012345677</v>
+        <v>3305.0698600091678</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -16269,23 +16270,23 @@
       </c>
       <c r="E24" s="56">
         <f>'Gesamtenergie 2050 var.'!E24*Sekundäranteil!$C$7</f>
-        <v>26639.604444444445</v>
+        <v>25652.862964138367</v>
       </c>
       <c r="F24" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*Sekundäranteil!$C$7</f>
-        <v>32480.653333333335</v>
+        <v>31277.55709298635</v>
       </c>
       <c r="G24" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*Sekundäranteil!$C$7</f>
-        <v>26063.644444444442</v>
+        <v>25098.236750238011</v>
       </c>
       <c r="H24" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*Sekundäranteil!$C$7</f>
-        <v>20280.773333333331</v>
+        <v>19529.565471278958</v>
       </c>
       <c r="I24" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*Sekundäranteil!$C$7</f>
-        <v>18233.561975308639</v>
+        <v>17558.183631298703</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -16299,23 +16300,23 @@
       </c>
       <c r="E25" s="56">
         <f>'Gesamtenergie 2050 var.'!E25*Sekundäranteil!$C$7</f>
-        <v>21358.694622222221</v>
+        <v>20567.560129482703</v>
       </c>
       <c r="F25" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*Sekundäranteil!$C$7</f>
-        <v>26041.841466666669</v>
+        <v>25077.241363376706</v>
       </c>
       <c r="G25" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*Sekundäranteil!$C$7</f>
-        <v>20896.910222222221</v>
+        <v>20122.880406220243</v>
       </c>
       <c r="H25" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*Sekundäranteil!$C$7</f>
-        <v>16260.408266666667</v>
+        <v>15658.116316090129</v>
       </c>
       <c r="I25" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*Sekundäranteil!$C$7</f>
-        <v>14619.026454320987</v>
+        <v>14077.53193497655</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -16329,23 +16330,23 @@
       </c>
       <c r="E26" s="56">
         <f>'Gesamtenergie 2050 var.'!E26*Sekundäranteil!$C$7</f>
-        <v>8540.3437777777763</v>
+        <v>8224.0060679149465</v>
       </c>
       <c r="F26" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*Sekundäranteil!$C$7</f>
-        <v>10412.915333333334</v>
+        <v>10027.216832751508</v>
       </c>
       <c r="G26" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*Sekundäranteil!$C$7</f>
-        <v>8355.6977777777756</v>
+        <v>8046.199428752775</v>
       </c>
       <c r="H26" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*Sekundäranteil!$C$7</f>
-        <v>6501.7773333333344</v>
+        <v>6260.9489304982544</v>
       </c>
       <c r="I26" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*Sekundäranteil!$C$7</f>
-        <v>5845.4654567901225</v>
+        <v>5628.9471053281131</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -16359,23 +16360,23 @@
       </c>
       <c r="E27" s="56">
         <f>'Gesamtenergie 2050 var.'!E27*Sekundäranteil!$C$7</f>
-        <v>8540.3437777777763</v>
+        <v>8224.0060679149465</v>
       </c>
       <c r="F27" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*Sekundäranteil!$C$7</f>
-        <v>10412.915333333334</v>
+        <v>10027.216832751508</v>
       </c>
       <c r="G27" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*Sekundäranteil!$C$7</f>
-        <v>8355.6977777777756</v>
+        <v>8046.199428752775</v>
       </c>
       <c r="H27" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*Sekundäranteil!$C$7</f>
-        <v>6501.7773333333344</v>
+        <v>6260.9489304982544</v>
       </c>
       <c r="I27" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*Sekundäranteil!$C$7</f>
-        <v>5845.4654567901225</v>
+        <v>5628.9471053281131</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -16389,23 +16390,23 @@
       </c>
       <c r="E28" s="56">
         <f>'Gesamtenergie 2050 var.'!E28*Sekundäranteil!$C$7</f>
-        <v>6424.8457777777776</v>
+        <v>6186.8669501745462</v>
       </c>
       <c r="F28" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*Sekundäranteil!$C$7</f>
-        <v>7833.5693333333329</v>
+        <v>7543.4108283084724</v>
       </c>
       <c r="G28" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*Sekundäranteil!$C$7</f>
-        <v>6285.9377777777763</v>
+        <v>6053.1041574103447</v>
       </c>
       <c r="H28" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*Sekundäranteil!$C$7</f>
-        <v>4891.2453333333333</v>
+        <v>4710.0716724849253</v>
       </c>
       <c r="I28" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*Sekundäranteil!$C$7</f>
-        <v>4397.5061234567902</v>
+        <v>4234.6207581367462</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -16419,23 +16420,23 @@
       </c>
       <c r="E29" s="56">
         <f>'Gesamtenergie 2050 var.'!E29*Sekundäranteil!$C$7</f>
-        <v>14103.32</v>
+        <v>13580.927451602665</v>
       </c>
       <c r="F29" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*Sekundäranteil!$C$7</f>
-        <v>17195.64</v>
+        <v>16558.706696286892</v>
       </c>
       <c r="G29" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*Sekundäranteil!$C$7</f>
-        <v>13798.399999999998</v>
+        <v>13287.301808949536</v>
       </c>
       <c r="H29" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*Sekundäranteil!$C$7</f>
-        <v>10736.880000000001</v>
+        <v>10339.181720088862</v>
       </c>
       <c r="I29" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*Sekundäranteil!$C$7</f>
-        <v>9653.062222222221</v>
+        <v>9295.5089812757851</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -16449,23 +16450,23 @@
       </c>
       <c r="E30" s="56">
         <f>'Gesamtenergie 2050 var.'!E30*Sekundäranteil!$C$7</f>
-        <v>7443.4188888888903</v>
+        <v>7167.7117105680727</v>
       </c>
       <c r="F30" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*Sekundäranteil!$C$7</f>
-        <v>9075.4766666666656</v>
+        <v>8739.3174230403038</v>
       </c>
       <c r="G30" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*Sekundäranteil!$C$7</f>
-        <v>7282.4888888888881</v>
+        <v>7012.7426213900335</v>
       </c>
       <c r="H30" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*Sekundäranteil!$C$7</f>
-        <v>5666.6866666666674</v>
+        <v>5456.7903522691204</v>
       </c>
       <c r="I30" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*Sekundäranteil!$C$7</f>
-        <v>5094.671728395062</v>
+        <v>4905.9630734511084</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -16479,23 +16480,23 @@
       </c>
       <c r="E31" s="56">
         <f>'Gesamtenergie 2050 var.'!E31*Sekundäranteil!$C$7</f>
-        <v>7443.4188888888903</v>
+        <v>7167.7117105680727</v>
       </c>
       <c r="F31" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*Sekundäranteil!$C$7</f>
-        <v>9075.4766666666656</v>
+        <v>8739.3174230403038</v>
       </c>
       <c r="G31" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*Sekundäranteil!$C$7</f>
-        <v>7282.4888888888881</v>
+        <v>7012.7426213900335</v>
       </c>
       <c r="H31" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*Sekundäranteil!$C$7</f>
-        <v>5666.6866666666674</v>
+        <v>5456.7903522691204</v>
       </c>
       <c r="I31" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*Sekundäranteil!$C$7</f>
-        <v>5094.671728395062</v>
+        <v>4905.9630734511084</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -16509,23 +16510,23 @@
       </c>
       <c r="E32" s="56">
         <f>'Gesamtenergie 2050 var.'!E32*Sekundäranteil!$C$7</f>
-        <v>7208.3635555555547</v>
+        <v>6941.3629197080281</v>
       </c>
       <c r="F32" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*Sekundäranteil!$C$7</f>
-        <v>8788.8826666666664</v>
+        <v>8463.3389781021888</v>
       </c>
       <c r="G32" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*Sekundäranteil!$C$7</f>
-        <v>7052.5155555555548</v>
+        <v>6791.2875912408745</v>
       </c>
       <c r="H32" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*Sekundäranteil!$C$7</f>
-        <v>5487.7386666666671</v>
+        <v>5284.470656934307</v>
       </c>
       <c r="I32" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*Sekundäranteil!$C$7</f>
-        <v>4933.7873580246905</v>
+        <v>4751.0379237631787</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -16539,23 +16540,23 @@
       </c>
       <c r="E33" s="56">
         <f>'Gesamtenergie 2050 var.'!E33*Sekundäranteil!$C$7</f>
-        <v>4701.1066666666666</v>
+        <v>4526.9758172008887</v>
       </c>
       <c r="F33" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*Sekundäranteil!$C$7</f>
-        <v>5731.88</v>
+        <v>5519.5688987622971</v>
       </c>
       <c r="G33" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*Sekundäranteil!$C$7</f>
-        <v>4599.4666666666662</v>
+        <v>4429.1006029831788</v>
       </c>
       <c r="H33" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*Sekundäranteil!$C$7</f>
-        <v>3578.96</v>
+        <v>3446.3939066962866</v>
       </c>
       <c r="I33" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*Sekundäranteil!$C$7</f>
-        <v>3217.6874074074071</v>
+        <v>3098.5029937585946</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -16569,23 +16570,23 @@
       </c>
       <c r="E34" s="56">
         <f>'Gesamtenergie 2050 var.'!E34*Sekundäranteil!$C$7</f>
-        <v>11862.459155555556</v>
+        <v>11423.068978736908</v>
       </c>
       <c r="F34" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*Sekundäranteil!$C$7</f>
-        <v>14463.44386666667</v>
+        <v>13927.712187876867</v>
       </c>
       <c r="G34" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*Sekundäranteil!$C$7</f>
-        <v>11605.987555555555</v>
+        <v>11176.097188194222</v>
       </c>
       <c r="H34" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*Sekundäranteil!$C$7</f>
-        <v>9030.9090666666671</v>
+        <v>8696.4006245636301</v>
       </c>
       <c r="I34" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*Sekundäranteil!$C$7</f>
-        <v>8119.2978913580255</v>
+        <v>7818.5558875841871</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -16599,28 +16600,28 @@
       </c>
       <c r="E35" s="56">
         <f>'Gesamtenergie 2050 var.'!E35*Sekundäranteil!$C$7</f>
-        <v>8775.39911111111</v>
+        <v>8450.3548587749901</v>
       </c>
       <c r="F35" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*Sekundäranteil!$C$7</f>
-        <v>10699.509333333333</v>
+        <v>10303.195277689621</v>
       </c>
       <c r="G35" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*Sekundäranteil!$C$7</f>
-        <v>8585.6711111111108</v>
+        <v>8267.654458901934</v>
       </c>
       <c r="H35" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*Sekundäranteil!$C$7</f>
-        <v>6680.7253333333347</v>
+        <v>6433.2686258330696</v>
       </c>
       <c r="I35" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*Sekundäranteil!$C$7</f>
-        <v>6006.349827160494</v>
+        <v>5783.8722550160446</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="92" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D38" s="92"/>
       <c r="E38" s="92"/>
@@ -16687,23 +16688,23 @@
       </c>
       <c r="E42" s="56">
         <f>'Gesamtenergie 2050 var.'!E7*Sekundäranteil!$C$10</f>
-        <v>12631.090095555553</v>
+        <v>12163.229524849252</v>
       </c>
       <c r="F42" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*Sekundäranteil!$C$10</f>
-        <v>15400.606246666666</v>
+        <v>14830.1617028245</v>
       </c>
       <c r="G42" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*Sekundäranteil!$C$10</f>
-        <v>12358.000355555552</v>
+        <v>11900.255136781971</v>
       </c>
       <c r="H42" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*Sekundäranteil!$C$10</f>
-        <v>9616.0690266666661</v>
+        <v>9259.8860283084723</v>
       </c>
       <c r="I42" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*Sekundäranteil!$C$10</f>
-        <v>8645.3897824691339</v>
+        <v>8325.1611270637168</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
@@ -16717,23 +16718,23 @@
       </c>
       <c r="E43" s="56">
         <f>'Gesamtenergie 2050 var.'!E8*Sekundäranteil!$C$10</f>
-        <v>12631.090095555553</v>
+        <v>12163.229524849252</v>
       </c>
       <c r="F43" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*Sekundäranteil!$C$10</f>
-        <v>15400.606246666666</v>
+        <v>14830.1617028245</v>
       </c>
       <c r="G43" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*Sekundäranteil!$C$10</f>
-        <v>12358.000355555552</v>
+        <v>11900.255136781971</v>
       </c>
       <c r="H43" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*Sekundäranteil!$C$10</f>
-        <v>9616.0690266666661</v>
+        <v>9259.8860283084723</v>
       </c>
       <c r="I43" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*Sekundäranteil!$C$10</f>
-        <v>8645.3897824691339</v>
+        <v>8325.1611270637168</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
@@ -16747,23 +16748,23 @@
       </c>
       <c r="E44" s="56">
         <f>'Gesamtenergie 2050 var.'!E9*Sekundäranteil!$C$10</f>
-        <v>18245.279888888886</v>
+        <v>17569.467508727386</v>
       </c>
       <c r="F44" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*Sekundäranteil!$C$10</f>
-        <v>22245.773666666664</v>
+        <v>21421.781415423677</v>
       </c>
       <c r="G44" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*Sekundäranteil!$C$10</f>
-        <v>17850.808888888885</v>
+        <v>17189.607870517291</v>
       </c>
       <c r="H44" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*Sekundäranteil!$C$10</f>
-        <v>13890.160666666667</v>
+        <v>13375.66362424627</v>
       </c>
       <c r="I44" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*Sekundäranteil!$C$10</f>
-        <v>12488.039839506171</v>
+        <v>12025.477906837332</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
@@ -16777,23 +16778,23 @@
       </c>
       <c r="E45" s="56">
         <f>'Gesamtenergie 2050 var.'!E10*Sekundäranteil!$C$10</f>
-        <v>8647.2583399999985</v>
+        <v>8326.9604724849232</v>
       </c>
       <c r="F45" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*Sekundäranteil!$C$10</f>
-        <v>10543.27218</v>
+        <v>10152.74521028245</v>
       </c>
       <c r="G45" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*Sekundäranteil!$C$10</f>
-        <v>8460.3007999999991</v>
+        <v>8146.9279136781943</v>
       </c>
       <c r="H45" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*Sekundäranteil!$C$10</f>
-        <v>6583.1715599999998</v>
+        <v>6339.3282828308465</v>
       </c>
       <c r="I45" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*Sekundäranteil!$C$10</f>
-        <v>5918.6434688888885</v>
+        <v>5699.4145749285935</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
@@ -16807,23 +16808,23 @@
       </c>
       <c r="E46" s="56">
         <f>'Gesamtenergie 2050 var.'!E11*Sekundäranteil!$C$10</f>
-        <v>8704.1702222222211</v>
+        <v>8381.7643160901298</v>
       </c>
       <c r="F46" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*Sekundäranteil!$C$10</f>
-        <v>10612.662666666667</v>
+        <v>10219.565445890194</v>
       </c>
       <c r="G46" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*Sekundäranteil!$C$10</f>
-        <v>8515.982222222221</v>
+        <v>8200.5468740082488</v>
       </c>
       <c r="H46" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*Sekundäranteil!$C$10</f>
-        <v>6626.4986666666664</v>
+        <v>6381.0505363376706</v>
       </c>
       <c r="I46" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*Sekundäranteil!$C$10</f>
-        <v>5957.5969876543204</v>
+        <v>5736.9252399590951</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
@@ -16837,23 +16838,23 @@
       </c>
       <c r="E47" s="56">
         <f>'Gesamtenergie 2050 var.'!E12*Sekundäranteil!$C$10</f>
-        <v>12554.091666666665</v>
+        <v>12089.083148206917</v>
       </c>
       <c r="F47" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*Sekundäranteil!$C$10</f>
-        <v>15306.724999999999</v>
+        <v>14739.757854649315</v>
       </c>
       <c r="G47" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*Sekundäranteil!$C$10</f>
-        <v>12282.666666666666</v>
+        <v>11827.711837511901</v>
       </c>
       <c r="H47" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*Sekundäranteil!$C$10</f>
-        <v>9557.4499999999989</v>
+        <v>9203.4382735639483</v>
       </c>
       <c r="I47" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*Sekundäranteil!$C$10</f>
-        <v>8592.687962962962</v>
+        <v>8274.4114037871568</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
@@ -16867,23 +16868,23 @@
       </c>
       <c r="E48" s="56">
         <f>'Gesamtenergie 2050 var.'!E13*Sekundäranteil!$C$10</f>
-        <v>22932.140777777775</v>
+        <v>22082.7252173913</v>
       </c>
       <c r="F48" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*Sekundäranteil!$C$10</f>
-        <v>27960.284333333337</v>
+        <v>26924.624347826084</v>
       </c>
       <c r="G48" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*Sekundäranteil!$C$10</f>
-        <v>22436.337777777775</v>
+        <v>21605.286956521733</v>
       </c>
       <c r="H48" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*Sekundäranteil!$C$10</f>
-        <v>17458.275333333335</v>
+        <v>16811.613913043479</v>
       </c>
       <c r="I48" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*Sekundäranteil!$C$10</f>
-        <v>15695.976679012345</v>
+        <v>15114.591497584539</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
@@ -16897,23 +16898,23 @@
       </c>
       <c r="E49" s="56">
         <f>'Gesamtenergie 2050 var.'!E14*Sekundäranteil!$C$10</f>
-        <v>11047.600666666665</v>
+        <v>10638.393170422085</v>
       </c>
       <c r="F49" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*Sekundäranteil!$C$10</f>
-        <v>13469.918</v>
+        <v>12970.986912091399</v>
       </c>
       <c r="G49" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*Sekundäranteil!$C$10</f>
-        <v>10808.746666666666</v>
+        <v>10408.38641701047</v>
       </c>
       <c r="H49" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*Sekundäranteil!$C$10</f>
-        <v>8410.5560000000005</v>
+        <v>8099.0256807362739</v>
       </c>
       <c r="I49" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*Sekundäranteil!$C$10</f>
-        <v>7561.5654074074064</v>
+        <v>7281.4820353326968</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
@@ -16927,23 +16928,23 @@
       </c>
       <c r="E50" s="56">
         <f>'Gesamtenergie 2050 var.'!E15*Sekundäranteil!$C$10</f>
-        <v>9313.4621377777767</v>
+        <v>8968.4878182164375</v>
       </c>
       <c r="F50" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*Sekundäranteil!$C$10</f>
-        <v>11355.549053333334</v>
+        <v>10934.935027102507</v>
       </c>
       <c r="G50" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*Sekundäranteil!$C$10</f>
-        <v>9112.1009777777763</v>
+        <v>8774.5851551888263</v>
       </c>
       <c r="H50" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*Sekundäranteil!$C$10</f>
-        <v>7090.3535733333329</v>
+        <v>6827.7240738813061</v>
       </c>
       <c r="I50" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*Sekundäranteil!$C$10</f>
-        <v>6374.6287767901231</v>
+        <v>6138.5100067562307</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -16957,23 +16958,23 @@
       </c>
       <c r="E51" s="56">
         <f>'Gesamtenergie 2050 var.'!E16*Sekundäranteil!$C$10</f>
-        <v>7197.6792222222211</v>
+        <v>6931.0743383052986</v>
       </c>
       <c r="F51" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*Sekundäranteil!$C$10</f>
-        <v>8775.8556666666682</v>
+        <v>8450.7945033322758</v>
       </c>
       <c r="G51" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*Sekundäranteil!$C$10</f>
-        <v>7042.06222222222</v>
+        <v>6781.2214535068206</v>
       </c>
       <c r="H51" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*Sekundäranteil!$C$10</f>
-        <v>5479.6046666666662</v>
+        <v>5276.6379435099961</v>
       </c>
       <c r="I51" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*Sekundäranteil!$C$10</f>
-        <v>4926.4744320987647</v>
+        <v>4743.9958715046359</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
@@ -16987,23 +16988,23 @@
       </c>
       <c r="E52" s="56">
         <f>'Gesamtenergie 2050 var.'!E17*Sekundäranteil!$C$10</f>
-        <v>16738.788888888888</v>
+        <v>16118.777530942554</v>
       </c>
       <c r="F52" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*Sekundäranteil!$C$10</f>
-        <v>20408.966666666667</v>
+        <v>19653.010472865753</v>
       </c>
       <c r="G52" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*Sekundäranteil!$C$10</f>
-        <v>16376.888888888885</v>
+        <v>15770.282450015864</v>
       </c>
       <c r="H52" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*Sekundäranteil!$C$10</f>
-        <v>12743.266666666665</v>
+        <v>12271.251031418597</v>
       </c>
       <c r="I52" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*Sekundäranteil!$C$10</f>
-        <v>11456.917283950615</v>
+        <v>11032.548538382876</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -17017,23 +17018,23 @@
       </c>
       <c r="E53" s="56">
         <f>'Gesamtenergie 2050 var.'!E18*Sekundäranteil!$C$10</f>
-        <v>20086.546666666665</v>
+        <v>19342.53303713107</v>
       </c>
       <c r="F53" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*Sekundäranteil!$C$10</f>
-        <v>24490.76</v>
+        <v>23583.612567438904</v>
       </c>
       <c r="G53" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*Sekundäranteil!$C$10</f>
-        <v>19652.266666666663</v>
+        <v>18924.338940019035</v>
       </c>
       <c r="H53" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*Sekundäranteil!$C$10</f>
-        <v>15291.919999999998</v>
+        <v>14725.501237702316</v>
       </c>
       <c r="I53" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*Sekundäranteil!$C$10</f>
-        <v>13748.300740740739</v>
+        <v>13239.058246059449</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -17047,23 +17048,23 @@
       </c>
       <c r="E54" s="56">
         <f>'Gesamtenergie 2050 var.'!E19*Sekundäranteil!$C$10</f>
-        <v>15399.685777777775</v>
+        <v>14829.275328467149</v>
       </c>
       <c r="F54" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*Sekundäranteil!$C$10</f>
-        <v>18776.249333333333</v>
+        <v>18080.769635036493</v>
       </c>
       <c r="G54" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*Sekundäranteil!$C$10</f>
-        <v>15066.737777777775</v>
+        <v>14508.659854014593</v>
       </c>
       <c r="H54" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*Sekundäranteil!$C$10</f>
-        <v>11723.805333333332</v>
+        <v>11289.550948905109</v>
       </c>
       <c r="I54" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*Sekundäranteil!$C$10</f>
-        <v>10540.363901234567</v>
+        <v>10149.944655312245</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -17077,23 +17078,23 @@
       </c>
       <c r="E55" s="56">
         <f>'Gesamtenergie 2050 var.'!E20*Sekundäranteil!$C$10</f>
-        <v>7813.6666533333309</v>
+        <v>7524.245351443984</v>
       </c>
       <c r="F55" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*Sekundäranteil!$C$10</f>
-        <v>9526.905639999999</v>
+        <v>9174.0252887337338</v>
       </c>
       <c r="G55" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*Sekundäranteil!$C$10</f>
-        <v>7644.7317333333331</v>
+        <v>7361.5678476674066</v>
       </c>
       <c r="H55" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*Sekundäranteil!$C$10</f>
-        <v>5948.5568800000001</v>
+        <v>5728.2199814662008</v>
       </c>
       <c r="I55" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*Sekundäranteil!$C$10</f>
-        <v>5348.0889881481471</v>
+        <v>5149.9936577171266</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -17107,23 +17108,23 @@
       </c>
       <c r="E56" s="56">
         <f>'Gesamtenergie 2050 var.'!E21*Sekundäranteil!$C$10</f>
-        <v>3749.4887111111107</v>
+        <v>3610.6061669311321</v>
       </c>
       <c r="F56" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*Sekundäranteil!$C$10</f>
-        <v>4571.608533333334</v>
+        <v>4402.2743459219291</v>
       </c>
       <c r="G56" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*Sekundäranteil!$C$10</f>
-        <v>3668.4231111111108</v>
+        <v>3532.5432688035535</v>
       </c>
       <c r="H56" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*Sekundäranteil!$C$10</f>
-        <v>2854.4917333333333</v>
+        <v>2748.7602310377656</v>
       </c>
       <c r="I56" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*Sekundäranteil!$C$10</f>
-        <v>2566.3494716049381</v>
+        <v>2471.2908725977641</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -17137,23 +17138,23 @@
       </c>
       <c r="E57" s="56">
         <f>'Gesamtenergie 2050 var.'!E22*Sekundäranteil!$C$10</f>
-        <v>20086.546666666665</v>
+        <v>19342.53303713107</v>
       </c>
       <c r="F57" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*Sekundäranteil!$C$10</f>
-        <v>24490.76</v>
+        <v>23583.612567438904</v>
       </c>
       <c r="G57" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*Sekundäranteil!$C$10</f>
-        <v>19652.266666666663</v>
+        <v>18924.338940019035</v>
       </c>
       <c r="H57" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*Sekundäranteil!$C$10</f>
-        <v>15291.919999999998</v>
+        <v>14725.501237702316</v>
       </c>
       <c r="I57" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*Sekundäranteil!$C$10</f>
-        <v>13748.300740740739</v>
+        <v>13239.058246059449</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -17167,23 +17168,23 @@
       </c>
       <c r="E58" s="56">
         <f>'Gesamtenergie 2050 var.'!E23*Sekundäranteil!$C$10</f>
-        <v>5356.4124444444442</v>
+        <v>5158.0088099016175</v>
       </c>
       <c r="F58" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*Sekundäranteil!$C$10</f>
-        <v>6530.869333333334</v>
+        <v>6288.963351317042</v>
       </c>
       <c r="G58" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*Sekundäranteil!$C$10</f>
-        <v>5240.6044444444433</v>
+        <v>5046.4903840050765</v>
       </c>
       <c r="H58" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*Sekundäranteil!$C$10</f>
-        <v>4077.8453333333337</v>
+        <v>3926.8003300539508</v>
       </c>
       <c r="I58" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*Sekundäranteil!$C$10</f>
-        <v>3666.2135308641969</v>
+        <v>3530.41553228252</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -17197,23 +17198,23 @@
       </c>
       <c r="E59" s="56">
         <f>'Gesamtenergie 2050 var.'!E24*Sekundäranteil!$C$10</f>
-        <v>28455.941111111108</v>
+        <v>27401.921802602345</v>
       </c>
       <c r="F59" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*Sekundäranteil!$C$10</f>
-        <v>34695.243333333332</v>
+        <v>33410.117803871777</v>
       </c>
       <c r="G59" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*Sekundäranteil!$C$10</f>
-        <v>27840.711111111104</v>
+        <v>26809.480165026966</v>
       </c>
       <c r="H59" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*Sekundäranteil!$C$10</f>
-        <v>21663.55333333333</v>
+        <v>20861.126753411612</v>
       </c>
       <c r="I59" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*Sekundäranteil!$C$10</f>
-        <v>19476.759382716045</v>
+        <v>18755.332515250888</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -17227,23 +17228,23 @@
       </c>
       <c r="E60" s="56">
         <f>'Gesamtenergie 2050 var.'!E25*Sekundäranteil!$C$10</f>
-        <v>22814.969255555552</v>
+        <v>21969.893774674703</v>
       </c>
       <c r="F60" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*Sekundäranteil!$C$10</f>
-        <v>27817.421566666668</v>
+        <v>26787.053274516027</v>
       </c>
       <c r="G60" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*Sekundäranteil!$C$10</f>
-        <v>22321.699555555551</v>
+        <v>21494.894979371624</v>
       </c>
       <c r="H60" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*Sekundäranteil!$C$10</f>
-        <v>17369.072466666668</v>
+        <v>16725.715155823546</v>
       </c>
       <c r="I60" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*Sekundäranteil!$C$10</f>
-        <v>15615.778258024689</v>
+        <v>15037.363657815858</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -17257,23 +17258,23 @@
       </c>
       <c r="E61" s="56">
         <f>'Gesamtenergie 2050 var.'!E26*Sekundäranteil!$C$10</f>
-        <v>9122.6399444444432</v>
+        <v>8784.7337543636932</v>
       </c>
       <c r="F61" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*Sekundäranteil!$C$10</f>
-        <v>11122.886833333332</v>
+        <v>10710.890707711838</v>
       </c>
       <c r="G61" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*Sekundäranteil!$C$10</f>
-        <v>8925.4044444444426</v>
+        <v>8594.8039352586457</v>
       </c>
       <c r="H61" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*Sekundäranteil!$C$10</f>
-        <v>6945.0803333333333</v>
+        <v>6687.831812123135</v>
       </c>
       <c r="I61" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*Sekundäranteil!$C$10</f>
-        <v>6244.0199197530856</v>
+        <v>6012.7389534186659</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -17287,23 +17288,23 @@
       </c>
       <c r="E62" s="56">
         <f>'Gesamtenergie 2050 var.'!E27*Sekundäranteil!$C$10</f>
-        <v>9122.6399444444432</v>
+        <v>8784.7337543636932</v>
       </c>
       <c r="F62" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*Sekundäranteil!$C$10</f>
-        <v>11122.886833333332</v>
+        <v>10710.890707711838</v>
       </c>
       <c r="G62" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*Sekundäranteil!$C$10</f>
-        <v>8925.4044444444426</v>
+        <v>8594.8039352586457</v>
       </c>
       <c r="H62" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*Sekundäranteil!$C$10</f>
-        <v>6945.0803333333333</v>
+        <v>6687.831812123135</v>
       </c>
       <c r="I62" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*Sekundäranteil!$C$10</f>
-        <v>6244.0199197530856</v>
+        <v>6012.7389534186659</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -17317,23 +17318,23 @@
       </c>
       <c r="E63" s="56">
         <f>'Gesamtenergie 2050 var.'!E28*Sekundäranteil!$C$10</f>
-        <v>6862.9034444444442</v>
+        <v>6608.6987876864468</v>
       </c>
       <c r="F63" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*Sekundäranteil!$C$10</f>
-        <v>8367.6763333333329</v>
+        <v>8057.7342938749589</v>
       </c>
       <c r="G63" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*Sekundäranteil!$C$10</f>
-        <v>6714.5244444444425</v>
+        <v>6465.8158045065038</v>
       </c>
       <c r="H63" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*Sekundäranteil!$C$10</f>
-        <v>5224.739333333333</v>
+        <v>5031.2129228816248</v>
       </c>
       <c r="I63" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*Sekundäranteil!$C$10</f>
-        <v>4697.336086419753</v>
+        <v>4523.3449007369782</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -17347,23 +17348,23 @@
       </c>
       <c r="E64" s="56">
         <f>'Gesamtenergie 2050 var.'!E29*Sekundäranteil!$C$10</f>
-        <v>15064.91</v>
+        <v>14506.899777848301</v>
       </c>
       <c r="F64" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*Sekundäranteil!$C$10</f>
-        <v>18368.07</v>
+        <v>17687.709425579178</v>
       </c>
       <c r="G64" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*Sekundäranteil!$C$10</f>
-        <v>14739.199999999997</v>
+        <v>14193.254205014277</v>
       </c>
       <c r="H64" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*Sekundäranteil!$C$10</f>
-        <v>11468.94</v>
+        <v>11044.125928276739</v>
       </c>
       <c r="I64" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*Sekundäranteil!$C$10</f>
-        <v>10311.225555555553</v>
+        <v>9929.2936845445874</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -17377,23 +17378,23 @@
       </c>
       <c r="E65" s="56">
         <f>'Gesamtenergie 2050 var.'!E30*Sekundäranteil!$C$10</f>
-        <v>7950.924722222223</v>
+        <v>7656.4193271977138</v>
       </c>
       <c r="F65" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*Sekundäranteil!$C$10</f>
-        <v>9694.2591666666649</v>
+        <v>9335.1799746112338</v>
       </c>
       <c r="G65" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*Sekundäranteil!$C$10</f>
-        <v>7779.022222222221</v>
+        <v>7490.8841637575351</v>
       </c>
       <c r="H65" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*Sekundäranteil!$C$10</f>
-        <v>6053.0516666666663</v>
+        <v>5828.8442399238329</v>
       </c>
       <c r="I65" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*Sekundäranteil!$C$10</f>
-        <v>5442.0357098765435</v>
+        <v>5240.4605557318655</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -17407,23 +17408,23 @@
       </c>
       <c r="E66" s="56">
         <f>'Gesamtenergie 2050 var.'!E31*Sekundäranteil!$C$10</f>
-        <v>7950.924722222223</v>
+        <v>7656.4193271977138</v>
       </c>
       <c r="F66" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*Sekundäranteil!$C$10</f>
-        <v>9694.2591666666649</v>
+        <v>9335.1799746112338</v>
       </c>
       <c r="G66" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*Sekundäranteil!$C$10</f>
-        <v>7779.022222222221</v>
+        <v>7490.8841637575351</v>
       </c>
       <c r="H66" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*Sekundäranteil!$C$10</f>
-        <v>6053.0516666666663</v>
+        <v>5828.8442399238329</v>
       </c>
       <c r="I66" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*Sekundäranteil!$C$10</f>
-        <v>5442.0357098765435</v>
+        <v>5240.4605557318655</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -17437,23 +17438,23 @@
       </c>
       <c r="E67" s="56">
         <f>'Gesamtenergie 2050 var.'!E32*Sekundäranteil!$C$10</f>
-        <v>7699.8428888888875</v>
+        <v>7414.6376642335745</v>
       </c>
       <c r="F67" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*Sekundäranteil!$C$10</f>
-        <v>9388.1246666666666</v>
+        <v>9040.3848175182466</v>
       </c>
       <c r="G67" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*Sekundäranteil!$C$10</f>
-        <v>7533.3688888888873</v>
+        <v>7254.3299270072966</v>
       </c>
       <c r="H67" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*Sekundäranteil!$C$10</f>
-        <v>5861.9026666666659</v>
+        <v>5644.7754744525546</v>
       </c>
       <c r="I67" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*Sekundäranteil!$C$10</f>
-        <v>5270.1819506172833</v>
+        <v>5074.9723276561226</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -17467,23 +17468,23 @@
       </c>
       <c r="E68" s="56">
         <f>'Gesamtenergie 2050 var.'!E33*Sekundäranteil!$C$10</f>
-        <v>5021.6366666666663</v>
+        <v>4835.6332592827675</v>
       </c>
       <c r="F68" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*Sekundäranteil!$C$10</f>
-        <v>6122.69</v>
+        <v>5895.903141859726</v>
       </c>
       <c r="G68" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*Sekundäranteil!$C$10</f>
-        <v>4913.0666666666657</v>
+        <v>4731.0847350047588</v>
       </c>
       <c r="H68" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*Sekundäranteil!$C$10</f>
-        <v>3822.9799999999996</v>
+        <v>3681.375309425579</v>
       </c>
       <c r="I68" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*Sekundäranteil!$C$10</f>
-        <v>3437.0751851851846</v>
+        <v>3309.7645615148622</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -17497,23 +17498,23 @@
       </c>
       <c r="E69" s="56">
         <f>'Gesamtenergie 2050 var.'!E34*Sekundäranteil!$C$10</f>
-        <v>12671.263188888888</v>
+        <v>12201.914590923516</v>
       </c>
       <c r="F69" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*Sekundäranteil!$C$10</f>
-        <v>15449.587766666669</v>
+        <v>14877.328927959379</v>
       </c>
       <c r="G69" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*Sekundäranteil!$C$10</f>
-        <v>12397.304888888888</v>
+        <v>11938.10381466201</v>
       </c>
       <c r="H69" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*Sekundäranteil!$C$10</f>
-        <v>9646.6528666666673</v>
+        <v>9289.3370307838777</v>
       </c>
       <c r="I69" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*Sekundäranteil!$C$10</f>
-        <v>8672.8863839506175</v>
+        <v>8351.6392435558355</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -17527,28 +17528,28 @@
       </c>
       <c r="E70" s="56">
         <f>'Gesamtenergie 2050 var.'!E35*Sekundäranteil!$C$10</f>
-        <v>9373.7217777777769</v>
+        <v>9026.5154173278297</v>
       </c>
       <c r="F70" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*Sekundäranteil!$C$10</f>
-        <v>11429.021333333332</v>
+        <v>11005.685864804822</v>
       </c>
       <c r="G70" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*Sekundäranteil!$C$10</f>
-        <v>9171.0577777777762</v>
+        <v>8831.3581720088841</v>
       </c>
       <c r="H70" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*Sekundäranteil!$C$10</f>
-        <v>7136.2293333333337</v>
+        <v>6871.9005775944152</v>
       </c>
       <c r="I70" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*Sekundäranteil!$C$10</f>
-        <v>6415.8736790123457</v>
+        <v>6178.2271814944106</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C73" s="92" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D73" s="92"/>
       <c r="E73" s="92"/>
@@ -17615,23 +17616,23 @@
       </c>
       <c r="E77" s="56">
         <f>'Gesamtenergie 2050 var.'!E7*Sekundäranteil!$C$8</f>
-        <v>13437.329888888888</v>
+        <v>12939.605877499205</v>
       </c>
       <c r="F77" s="60">
         <f>'Gesamtenergie 2050 var.'!F7*Sekundäranteil!$C$8</f>
-        <v>16383.623666666666</v>
+        <v>15776.767768962234</v>
       </c>
       <c r="G77" s="57">
         <f>'Gesamtenergie 2050 var.'!G7*Sekundäranteil!$C$8</f>
-        <v>13146.808888888887</v>
+        <v>12659.845890193586</v>
       </c>
       <c r="H77" s="59">
         <f>'Gesamtenergie 2050 var.'!H7*Sekundäranteil!$C$8</f>
-        <v>10229.860666666667</v>
+        <v>9850.9425833068854</v>
       </c>
       <c r="I77" s="58">
         <f>'Gesamtenergie 2050 var.'!I7*Sekundäranteil!$C$8</f>
-        <v>9197.2231728395054</v>
+        <v>8856.5543904933165</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
@@ -17645,23 +17646,23 @@
       </c>
       <c r="E78" s="56">
         <f>'Gesamtenergie 2050 var.'!E8*Sekundäranteil!$C$8</f>
-        <v>13437.329888888888</v>
+        <v>12939.605877499205</v>
       </c>
       <c r="F78" s="60">
         <f>'Gesamtenergie 2050 var.'!F8*Sekundäranteil!$C$8</f>
-        <v>16383.623666666666</v>
+        <v>15776.767768962234</v>
       </c>
       <c r="G78" s="57">
         <f>'Gesamtenergie 2050 var.'!G8*Sekundäranteil!$C$8</f>
-        <v>13146.808888888887</v>
+        <v>12659.845890193586</v>
       </c>
       <c r="H78" s="59">
         <f>'Gesamtenergie 2050 var.'!H8*Sekundäranteil!$C$8</f>
-        <v>10229.860666666667</v>
+        <v>9850.9425833068854</v>
       </c>
       <c r="I78" s="58">
         <f>'Gesamtenergie 2050 var.'!I8*Sekundäranteil!$C$8</f>
-        <v>9197.2231728395054</v>
+        <v>8856.5543904933165</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -17675,23 +17676,23 @@
       </c>
       <c r="E79" s="56">
         <f>'Gesamtenergie 2050 var.'!E9*Sekundäranteil!$C$8</f>
-        <v>19409.87222222222</v>
+        <v>18690.92288162488</v>
       </c>
       <c r="F79" s="60">
         <f>'Gesamtenergie 2050 var.'!F9*Sekundäranteil!$C$8</f>
-        <v>23665.716666666667</v>
+        <v>22789.129165344337</v>
       </c>
       <c r="G79" s="57">
         <f>'Gesamtenergie 2050 var.'!G9*Sekundäranteil!$C$8</f>
-        <v>18990.222222222219</v>
+        <v>18286.816883529034</v>
       </c>
       <c r="H79" s="59">
         <f>'Gesamtenergie 2050 var.'!H9*Sekundäranteil!$C$8</f>
-        <v>14776.766666666668</v>
+        <v>14229.429387496033</v>
       </c>
       <c r="I79" s="58">
         <f>'Gesamtenergie 2050 var.'!I9*Sekundäranteil!$C$8</f>
-        <v>13285.148765432097</v>
+        <v>12793.061603018439</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -17705,23 +17706,23 @@
       </c>
       <c r="E80" s="56">
         <f>'Gesamtenergie 2050 var.'!E10*Sekundäranteil!$C$8</f>
-        <v>9199.2109999999993</v>
+        <v>8858.4685877499196</v>
       </c>
       <c r="F80" s="60">
         <f>'Gesamtenergie 2050 var.'!F10*Sekundäranteil!$C$8</f>
-        <v>11216.247000000001</v>
+        <v>10800.792776896224</v>
       </c>
       <c r="G80" s="57">
         <f>'Gesamtenergie 2050 var.'!G10*Sekundäranteil!$C$8</f>
-        <v>9000.32</v>
+        <v>8666.9445890193565</v>
       </c>
       <c r="H80" s="59">
         <f>'Gesamtenergie 2050 var.'!H10*Sekundäranteil!$C$8</f>
-        <v>7003.3739999999998</v>
+        <v>6743.9662583306881</v>
       </c>
       <c r="I80" s="58">
         <f>'Gesamtenergie 2050 var.'!I10*Sekundäranteil!$C$8</f>
-        <v>6296.4292222222221</v>
+        <v>6063.2069946048869</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -17735,23 +17736,23 @@
       </c>
       <c r="E81" s="56">
         <f>'Gesamtenergie 2050 var.'!E11*Sekundäranteil!$C$8</f>
-        <v>9259.7555555555555</v>
+        <v>8916.7705490320532</v>
       </c>
       <c r="F81" s="60">
         <f>'Gesamtenergie 2050 var.'!F11*Sekundäranteil!$C$8</f>
-        <v>11290.066666666668</v>
+        <v>10871.878133925738</v>
       </c>
       <c r="G81" s="57">
         <f>'Gesamtenergie 2050 var.'!G11*Sekundäranteil!$C$8</f>
-        <v>9059.5555555555547</v>
+        <v>8723.9860361789888</v>
       </c>
       <c r="H81" s="59">
         <f>'Gesamtenergie 2050 var.'!H11*Sekundäranteil!$C$8</f>
-        <v>7049.4666666666672</v>
+        <v>6788.3516344017771</v>
       </c>
       <c r="I81" s="58">
         <f>'Gesamtenergie 2050 var.'!I11*Sekundäranteil!$C$8</f>
-        <v>6337.8691358024689</v>
+        <v>6103.1119574032928</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -17765,23 +17766,23 @@
       </c>
       <c r="E82" s="56">
         <f>'Gesamtenergie 2050 var.'!E12*Sekundäranteil!$C$8</f>
-        <v>13355.416666666666</v>
+        <v>12860.726753411614</v>
       </c>
       <c r="F82" s="60">
         <f>'Gesamtenergie 2050 var.'!F12*Sekundäranteil!$C$8</f>
-        <v>16283.75</v>
+        <v>15680.59346239289</v>
       </c>
       <c r="G82" s="57">
         <f>'Gesamtenergie 2050 var.'!G12*Sekundäranteil!$C$8</f>
-        <v>13066.666666666666</v>
+        <v>12582.672167565852</v>
       </c>
       <c r="H82" s="59">
         <f>'Gesamtenergie 2050 var.'!H12*Sekundäranteil!$C$8</f>
-        <v>10167.5</v>
+        <v>9790.8917803871791</v>
       </c>
       <c r="I82" s="58">
         <f>'Gesamtenergie 2050 var.'!I12*Sekundäranteil!$C$8</f>
-        <v>9141.1574074074069</v>
+        <v>8802.5653231778269</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -17795,23 +17796,23 @@
       </c>
       <c r="E83" s="56">
         <f>'Gesamtenergie 2050 var.'!E13*Sekundäranteil!$C$8</f>
-        <v>24395.894444444442</v>
+        <v>23492.260869565216</v>
       </c>
       <c r="F83" s="60">
         <f>'Gesamtenergie 2050 var.'!F13*Sekundäranteil!$C$8</f>
-        <v>29744.983333333337</v>
+        <v>28643.217391304348</v>
       </c>
       <c r="G83" s="57">
         <f>'Gesamtenergie 2050 var.'!G13*Sekundäranteil!$C$8</f>
-        <v>23868.444444444442</v>
+        <v>22984.347826086952</v>
       </c>
       <c r="H83" s="59">
         <f>'Gesamtenergie 2050 var.'!H13*Sekundäranteil!$C$8</f>
-        <v>18572.633333333335</v>
+        <v>17884.695652173916</v>
       </c>
       <c r="I83" s="58">
         <f>'Gesamtenergie 2050 var.'!I13*Sekundäranteil!$C$8</f>
-        <v>16697.847530864197</v>
+        <v>16079.352657004829</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -17825,23 +17826,23 @@
       </c>
       <c r="E84" s="56">
         <f>'Gesamtenergie 2050 var.'!E14*Sekundäranteil!$C$8</f>
-        <v>11752.766666666666</v>
+        <v>11317.43954300222</v>
       </c>
       <c r="F84" s="60">
         <f>'Gesamtenergie 2050 var.'!F14*Sekundäranteil!$C$8</f>
-        <v>14329.7</v>
+        <v>13798.922246905744</v>
       </c>
       <c r="G84" s="57">
         <f>'Gesamtenergie 2050 var.'!G14*Sekundäranteil!$C$8</f>
-        <v>11498.666666666666</v>
+        <v>11072.751507457948</v>
       </c>
       <c r="H84" s="59">
         <f>'Gesamtenergie 2050 var.'!H14*Sekundäranteil!$C$8</f>
-        <v>8947.4000000000015</v>
+        <v>8615.9847667407175</v>
       </c>
       <c r="I84" s="58">
         <f>'Gesamtenergie 2050 var.'!I14*Sekundäranteil!$C$8</f>
-        <v>8044.2185185185181</v>
+        <v>7746.2574843964867</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -17855,23 +17856,23 @@
       </c>
       <c r="E85" s="56">
         <f>'Gesamtenergie 2050 var.'!E15*Sekundäranteil!$C$8</f>
-        <v>9907.938444444444</v>
+        <v>9540.9444874642959</v>
       </c>
       <c r="F85" s="60">
         <f>'Gesamtenergie 2050 var.'!F15*Sekundäranteil!$C$8</f>
-        <v>12080.371333333334</v>
+        <v>11632.909603300539</v>
       </c>
       <c r="G85" s="57">
         <f>'Gesamtenergie 2050 var.'!G15*Sekundäranteil!$C$8</f>
-        <v>9693.7244444444441</v>
+        <v>9334.6650587115182</v>
       </c>
       <c r="H85" s="59">
         <f>'Gesamtenergie 2050 var.'!H15*Sekundäranteil!$C$8</f>
-        <v>7542.9293333333335</v>
+        <v>7263.5362488099008</v>
       </c>
       <c r="I85" s="58">
         <f>'Gesamtenergie 2050 var.'!I15*Sekundäranteil!$C$8</f>
-        <v>6781.5199753086417</v>
+        <v>6530.3297944215228</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -17885,23 +17886,23 @@
       </c>
       <c r="E86" s="56">
         <f>'Gesamtenergie 2050 var.'!E16*Sekundäranteil!$C$8</f>
-        <v>7657.1055555555549</v>
+        <v>7373.4833386226583</v>
       </c>
       <c r="F86" s="60">
         <f>'Gesamtenergie 2050 var.'!F16*Sekundäranteil!$C$8</f>
-        <v>9336.0166666666682</v>
+        <v>8990.2069184385909</v>
       </c>
       <c r="G86" s="57">
         <f>'Gesamtenergie 2050 var.'!G16*Sekundäranteil!$C$8</f>
-        <v>7491.5555555555538</v>
+        <v>7214.0653760710866</v>
       </c>
       <c r="H86" s="59">
         <f>'Gesamtenergie 2050 var.'!H16*Sekundäranteil!$C$8</f>
-        <v>5829.3666666666668</v>
+        <v>5613.4446207553156</v>
       </c>
       <c r="I86" s="58">
         <f>'Gesamtenergie 2050 var.'!I16*Sekundäranteil!$C$8</f>
-        <v>5240.93024691358</v>
+        <v>5046.8041186219534</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -17915,23 +17916,23 @@
       </c>
       <c r="E87" s="56">
         <f>'Gesamtenergie 2050 var.'!E17*Sekundäranteil!$C$8</f>
-        <v>17807.222222222223</v>
+        <v>17147.635671215485</v>
       </c>
       <c r="F87" s="60">
         <f>'Gesamtenergie 2050 var.'!F17*Sekundäranteil!$C$8</f>
-        <v>21711.666666666668</v>
+        <v>20907.457949857187</v>
       </c>
       <c r="G87" s="57">
         <f>'Gesamtenergie 2050 var.'!G17*Sekundäranteil!$C$8</f>
-        <v>17422.222222222219</v>
+        <v>16776.896223421132</v>
       </c>
       <c r="H87" s="59">
         <f>'Gesamtenergie 2050 var.'!H17*Sekundäranteil!$C$8</f>
-        <v>13556.666666666666</v>
+        <v>13054.522373849572</v>
       </c>
       <c r="I87" s="58">
         <f>'Gesamtenergie 2050 var.'!I17*Sekundäranteil!$C$8</f>
-        <v>12188.209876543209</v>
+        <v>11736.753764237103</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -17945,23 +17946,23 @@
       </c>
       <c r="E88" s="56">
         <f>'Gesamtenergie 2050 var.'!E18*Sekundäranteil!$C$8</f>
-        <v>21368.666666666668</v>
+        <v>20577.162805458585</v>
       </c>
       <c r="F88" s="60">
         <f>'Gesamtenergie 2050 var.'!F18*Sekundäranteil!$C$8</f>
-        <v>26054</v>
+        <v>25088.949539828624</v>
       </c>
       <c r="G88" s="57">
         <f>'Gesamtenergie 2050 var.'!G18*Sekundäranteil!$C$8</f>
-        <v>20906.666666666664</v>
+        <v>20132.275468105359</v>
       </c>
       <c r="H88" s="59">
         <f>'Gesamtenergie 2050 var.'!H18*Sekundäranteil!$C$8</f>
-        <v>16268</v>
+        <v>15665.426848619485</v>
       </c>
       <c r="I88" s="58">
         <f>'Gesamtenergie 2050 var.'!I18*Sekundäranteil!$C$8</f>
-        <v>14625.85185185185</v>
+        <v>14084.104517084521</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -17975,23 +17976,23 @@
       </c>
       <c r="E89" s="56">
         <f>'Gesamtenergie 2050 var.'!E19*Sekundäranteil!$C$8</f>
-        <v>16382.644444444442</v>
+        <v>15775.824817518245</v>
       </c>
       <c r="F89" s="60">
         <f>'Gesamtenergie 2050 var.'!F19*Sekundäranteil!$C$8</f>
-        <v>19974.733333333334</v>
+        <v>19234.861313868612</v>
       </c>
       <c r="G89" s="57">
         <f>'Gesamtenergie 2050 var.'!G19*Sekundäranteil!$C$8</f>
-        <v>16028.444444444442</v>
+        <v>15434.744525547441</v>
       </c>
       <c r="H89" s="59">
         <f>'Gesamtenergie 2050 var.'!H19*Sekundäranteil!$C$8</f>
-        <v>12472.133333333333</v>
+        <v>12010.160583941606</v>
       </c>
       <c r="I89" s="58">
         <f>'Gesamtenergie 2050 var.'!I19*Sekundäranteil!$C$8</f>
-        <v>11213.153086419752</v>
+        <v>10797.813463098133</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -18005,23 +18006,23 @@
       </c>
       <c r="E90" s="56">
         <f>'Gesamtenergie 2050 var.'!E20*Sekundäranteil!$C$8</f>
-        <v>8312.4113333333316</v>
+        <v>8004.5163313233879</v>
       </c>
       <c r="F90" s="60">
         <f>'Gesamtenergie 2050 var.'!F20*Sekundäranteil!$C$8</f>
-        <v>10135.005999999999</v>
+        <v>9759.6013709933341</v>
       </c>
       <c r="G90" s="57">
         <f>'Gesamtenergie 2050 var.'!G20*Sekundäranteil!$C$8</f>
-        <v>8132.6933333333336</v>
+        <v>7831.4551570929862</v>
       </c>
       <c r="H90" s="59">
         <f>'Gesamtenergie 2050 var.'!H20*Sekundäranteil!$C$8</f>
-        <v>6328.2520000000004</v>
+        <v>6093.8510441129802</v>
       </c>
       <c r="I90" s="58">
         <f>'Gesamtenergie 2050 var.'!I20*Sekundäranteil!$C$8</f>
-        <v>5689.4563703703698</v>
+        <v>5478.7166571458793</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -18035,23 +18036,23 @@
       </c>
       <c r="E91" s="56">
         <f>'Gesamtenergie 2050 var.'!E21*Sekundäranteil!$C$8</f>
-        <v>3988.8177777777773</v>
+        <v>3841.0703903522685</v>
       </c>
       <c r="F91" s="60">
         <f>'Gesamtenergie 2050 var.'!F21*Sekundäranteil!$C$8</f>
-        <v>4863.4133333333339</v>
+        <v>4683.2705807680104</v>
       </c>
       <c r="G91" s="57">
         <f>'Gesamtenergie 2050 var.'!G21*Sekundäranteil!$C$8</f>
-        <v>3902.5777777777776</v>
+        <v>3758.0247540463338</v>
       </c>
       <c r="H91" s="59">
         <f>'Gesamtenergie 2050 var.'!H21*Sekundäranteil!$C$8</f>
-        <v>3036.6933333333336</v>
+        <v>2924.2130117423039</v>
       </c>
       <c r="I91" s="58">
         <f>'Gesamtenergie 2050 var.'!I21*Sekundäranteil!$C$8</f>
-        <v>2730.159012345679</v>
+        <v>2629.0328431891107</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -18065,23 +18066,23 @@
       </c>
       <c r="E92" s="56">
         <f>'Gesamtenergie 2050 var.'!E22*Sekundäranteil!$C$8</f>
-        <v>21368.666666666668</v>
+        <v>20577.162805458585</v>
       </c>
       <c r="F92" s="60">
         <f>'Gesamtenergie 2050 var.'!F22*Sekundäranteil!$C$8</f>
-        <v>26054</v>
+        <v>25088.949539828624</v>
       </c>
       <c r="G92" s="57">
         <f>'Gesamtenergie 2050 var.'!G22*Sekundäranteil!$C$8</f>
-        <v>20906.666666666664</v>
+        <v>20132.275468105359</v>
       </c>
       <c r="H92" s="59">
         <f>'Gesamtenergie 2050 var.'!H22*Sekundäranteil!$C$8</f>
-        <v>16268</v>
+        <v>15665.426848619485</v>
       </c>
       <c r="I92" s="58">
         <f>'Gesamtenergie 2050 var.'!I22*Sekundäranteil!$C$8</f>
-        <v>14625.85185185185</v>
+        <v>14084.104517084521</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -18095,23 +18096,23 @@
       </c>
       <c r="E93" s="56">
         <f>'Gesamtenergie 2050 var.'!E23*Sekundäranteil!$C$8</f>
-        <v>5698.3111111111111</v>
+        <v>5487.2434147889553</v>
       </c>
       <c r="F93" s="60">
         <f>'Gesamtenergie 2050 var.'!F23*Sekundäranteil!$C$8</f>
-        <v>6947.7333333333345</v>
+        <v>6690.3865439543006</v>
       </c>
       <c r="G93" s="57">
         <f>'Gesamtenergie 2050 var.'!G23*Sekundäranteil!$C$8</f>
-        <v>5575.1111111111104</v>
+        <v>5368.6067914947625</v>
       </c>
       <c r="H93" s="59">
         <f>'Gesamtenergie 2050 var.'!H23*Sekundäranteil!$C$8</f>
-        <v>4338.1333333333341</v>
+        <v>4177.4471596318626</v>
       </c>
       <c r="I93" s="58">
         <f>'Gesamtenergie 2050 var.'!I23*Sekundäranteil!$C$8</f>
-        <v>3900.2271604938269</v>
+        <v>3755.7612045558726</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -18125,23 +18126,23 @@
       </c>
       <c r="E94" s="56">
         <f>'Gesamtenergie 2050 var.'!E24*Sekundäranteil!$C$8</f>
-        <v>30272.277777777777</v>
+        <v>29150.980641066326</v>
       </c>
       <c r="F94" s="60">
         <f>'Gesamtenergie 2050 var.'!F24*Sekundäranteil!$C$8</f>
-        <v>36909.833333333336</v>
+        <v>35542.678514757215</v>
       </c>
       <c r="G94" s="57">
         <f>'Gesamtenergie 2050 var.'!G24*Sekundäranteil!$C$8</f>
-        <v>29617.777777777774</v>
+        <v>28520.723579815924</v>
       </c>
       <c r="H94" s="59">
         <f>'Gesamtenergie 2050 var.'!H24*Sekundäranteil!$C$8</f>
-        <v>23046.333333333332</v>
+        <v>22192.68803554427</v>
       </c>
       <c r="I94" s="58">
         <f>'Gesamtenergie 2050 var.'!I24*Sekundäranteil!$C$8</f>
-        <v>20719.956790123455</v>
+        <v>19952.481399203072</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -18155,23 +18156,23 @@
       </c>
       <c r="E95" s="56">
         <f>'Gesamtenergie 2050 var.'!E25*Sekundäranteil!$C$8</f>
-        <v>24271.243888888886</v>
+        <v>23372.227419866707</v>
       </c>
       <c r="F95" s="60">
         <f>'Gesamtenergie 2050 var.'!F25*Sekundäranteil!$C$8</f>
-        <v>29593.001666666671</v>
+        <v>28496.865185655348</v>
       </c>
       <c r="G95" s="57">
         <f>'Gesamtenergie 2050 var.'!G25*Sekundäranteil!$C$8</f>
-        <v>23746.488888888885</v>
+        <v>22866.909552523004</v>
       </c>
       <c r="H95" s="59">
         <f>'Gesamtenergie 2050 var.'!H25*Sekundäranteil!$C$8</f>
-        <v>18477.736666666668</v>
+        <v>17793.313995556964</v>
       </c>
       <c r="I95" s="58">
         <f>'Gesamtenergie 2050 var.'!I25*Sekundäranteil!$C$8</f>
-        <v>16612.530061728394</v>
+        <v>15997.19538065517</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -18185,23 +18186,23 @@
       </c>
       <c r="E96" s="56">
         <f>'Gesamtenergie 2050 var.'!E26*Sekundäranteil!$C$8</f>
-        <v>9704.9361111111102</v>
+        <v>9345.4614408124398</v>
       </c>
       <c r="F96" s="60">
         <f>'Gesamtenergie 2050 var.'!F26*Sekundäranteil!$C$8</f>
-        <v>11832.858333333334</v>
+        <v>11394.564582672168</v>
       </c>
       <c r="G96" s="57">
         <f>'Gesamtenergie 2050 var.'!G26*Sekundäranteil!$C$8</f>
-        <v>9495.1111111111095</v>
+        <v>9143.4084417645172</v>
       </c>
       <c r="H96" s="59">
         <f>'Gesamtenergie 2050 var.'!H26*Sekundäranteil!$C$8</f>
-        <v>7388.3833333333341</v>
+        <v>7114.7146937480165</v>
       </c>
       <c r="I96" s="58">
         <f>'Gesamtenergie 2050 var.'!I26*Sekundäranteil!$C$8</f>
-        <v>6642.5743827160486</v>
+        <v>6396.5308015092196</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -18215,23 +18216,23 @@
       </c>
       <c r="E97" s="56">
         <f>'Gesamtenergie 2050 var.'!E27*Sekundäranteil!$C$8</f>
-        <v>9704.9361111111102</v>
+        <v>9345.4614408124398</v>
       </c>
       <c r="F97" s="60">
         <f>'Gesamtenergie 2050 var.'!F27*Sekundäranteil!$C$8</f>
-        <v>11832.858333333334</v>
+        <v>11394.564582672168</v>
       </c>
       <c r="G97" s="57">
         <f>'Gesamtenergie 2050 var.'!G27*Sekundäranteil!$C$8</f>
-        <v>9495.1111111111095</v>
+        <v>9143.4084417645172</v>
       </c>
       <c r="H97" s="59">
         <f>'Gesamtenergie 2050 var.'!H27*Sekundäranteil!$C$8</f>
-        <v>7388.3833333333341</v>
+        <v>7114.7146937480165</v>
       </c>
       <c r="I97" s="58">
         <f>'Gesamtenergie 2050 var.'!I27*Sekundäranteil!$C$8</f>
-        <v>6642.5743827160486</v>
+        <v>6396.5308015092196</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -18245,23 +18246,23 @@
       </c>
       <c r="E98" s="56">
         <f>'Gesamtenergie 2050 var.'!E28*Sekundäranteil!$C$8</f>
-        <v>7300.9611111111108</v>
+        <v>7030.5306251983484</v>
       </c>
       <c r="F98" s="60">
         <f>'Gesamtenergie 2050 var.'!F28*Sekundäranteil!$C$8</f>
-        <v>8901.7833333333328</v>
+        <v>8572.0577594414463</v>
       </c>
       <c r="G98" s="57">
         <f>'Gesamtenergie 2050 var.'!G28*Sekundäranteil!$C$8</f>
-        <v>7143.1111111111095</v>
+        <v>6878.5274516026639</v>
       </c>
       <c r="H98" s="59">
         <f>'Gesamtenergie 2050 var.'!H28*Sekundäranteil!$C$8</f>
-        <v>5558.2333333333336</v>
+        <v>5352.3541732783242</v>
       </c>
       <c r="I98" s="58">
         <f>'Gesamtenergie 2050 var.'!I28*Sekundäranteil!$C$8</f>
-        <v>4997.1660493827158</v>
+        <v>4812.069043337211</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -18275,23 +18276,23 @@
       </c>
       <c r="E99" s="56">
         <f>'Gesamtenergie 2050 var.'!E29*Sekundäranteil!$C$8</f>
-        <v>16026.5</v>
+        <v>15432.872104093938</v>
       </c>
       <c r="F99" s="60">
         <f>'Gesamtenergie 2050 var.'!F29*Sekundäranteil!$C$8</f>
-        <v>19540.5</v>
+        <v>18816.712154871468</v>
       </c>
       <c r="G99" s="57">
         <f>'Gesamtenergie 2050 var.'!G29*Sekundäranteil!$C$8</f>
-        <v>15679.999999999998</v>
+        <v>15099.206601079019</v>
       </c>
       <c r="H99" s="59">
         <f>'Gesamtenergie 2050 var.'!H29*Sekundäranteil!$C$8</f>
-        <v>12201.000000000002</v>
+        <v>11749.070136464616</v>
       </c>
       <c r="I99" s="58">
         <f>'Gesamtenergie 2050 var.'!I29*Sekundäranteil!$C$8</f>
-        <v>10969.388888888887</v>
+        <v>10563.078387813392</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -18305,23 +18306,23 @@
       </c>
       <c r="E100" s="56">
         <f>'Gesamtenergie 2050 var.'!E30*Sekundäranteil!$C$8</f>
-        <v>8458.4305555555566</v>
+        <v>8145.1269438273557</v>
       </c>
       <c r="F100" s="60">
         <f>'Gesamtenergie 2050 var.'!F30*Sekundäranteil!$C$8</f>
-        <v>10313.041666666666</v>
+        <v>9931.0425261821638</v>
       </c>
       <c r="G100" s="57">
         <f>'Gesamtenergie 2050 var.'!G30*Sekundäranteil!$C$8</f>
-        <v>8275.5555555555547</v>
+        <v>7969.0257061250377</v>
       </c>
       <c r="H100" s="59">
         <f>'Gesamtenergie 2050 var.'!H30*Sekundäranteil!$C$8</f>
-        <v>6439.416666666667</v>
+        <v>6200.8981275785463</v>
       </c>
       <c r="I100" s="58">
         <f>'Gesamtenergie 2050 var.'!I30*Sekundäranteil!$C$8</f>
-        <v>5789.3996913580249</v>
+        <v>5574.9580380126235</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -18335,23 +18336,23 @@
       </c>
       <c r="E101" s="56">
         <f>'Gesamtenergie 2050 var.'!E31*Sekundäranteil!$C$8</f>
-        <v>8458.4305555555566</v>
+        <v>8145.1269438273557</v>
       </c>
       <c r="F101" s="60">
         <f>'Gesamtenergie 2050 var.'!F31*Sekundäranteil!$C$8</f>
-        <v>10313.041666666666</v>
+        <v>9931.0425261821638</v>
       </c>
       <c r="G101" s="57">
         <f>'Gesamtenergie 2050 var.'!G31*Sekundäranteil!$C$8</f>
-        <v>8275.5555555555547</v>
+        <v>7969.0257061250377</v>
       </c>
       <c r="H101" s="59">
         <f>'Gesamtenergie 2050 var.'!H31*Sekundäranteil!$C$8</f>
-        <v>6439.416666666667</v>
+        <v>6200.8981275785463</v>
       </c>
       <c r="I101" s="58">
         <f>'Gesamtenergie 2050 var.'!I31*Sekundäranteil!$C$8</f>
-        <v>5789.3996913580249</v>
+        <v>5574.9580380126235</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -18365,23 +18366,23 @@
       </c>
       <c r="E102" s="56">
         <f>'Gesamtenergie 2050 var.'!E32*Sekundäranteil!$C$8</f>
-        <v>8191.3222222222212</v>
+        <v>7887.9124087591226</v>
       </c>
       <c r="F102" s="60">
         <f>'Gesamtenergie 2050 var.'!F32*Sekundäranteil!$C$8</f>
-        <v>9987.3666666666668</v>
+        <v>9617.4306569343062</v>
       </c>
       <c r="G102" s="57">
         <f>'Gesamtenergie 2050 var.'!G32*Sekundäranteil!$C$8</f>
-        <v>8014.2222222222208</v>
+        <v>7717.3722627737206</v>
       </c>
       <c r="H102" s="59">
         <f>'Gesamtenergie 2050 var.'!H32*Sekundäranteil!$C$8</f>
-        <v>6236.0666666666666</v>
+        <v>6005.080291970803</v>
       </c>
       <c r="I102" s="58">
         <f>'Gesamtenergie 2050 var.'!I32*Sekundäranteil!$C$8</f>
-        <v>5606.576543209876</v>
+        <v>5398.9067315490665</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -18395,23 +18396,23 @@
       </c>
       <c r="E103" s="56">
         <f>'Gesamtenergie 2050 var.'!E33*Sekundäranteil!$C$8</f>
-        <v>5342.166666666667</v>
+        <v>5144.2907013646463</v>
       </c>
       <c r="F103" s="60">
         <f>'Gesamtenergie 2050 var.'!F33*Sekundäranteil!$C$8</f>
-        <v>6513.5</v>
+        <v>6272.2373849571559</v>
       </c>
       <c r="G103" s="57">
         <f>'Gesamtenergie 2050 var.'!G33*Sekundäranteil!$C$8</f>
-        <v>5226.6666666666661</v>
+        <v>5033.0688670263398</v>
       </c>
       <c r="H103" s="59">
         <f>'Gesamtenergie 2050 var.'!H33*Sekundäranteil!$C$8</f>
-        <v>4067</v>
+        <v>3916.3567121548713</v>
       </c>
       <c r="I103" s="58">
         <f>'Gesamtenergie 2050 var.'!I33*Sekundäranteil!$C$8</f>
-        <v>3656.4629629629626</v>
+        <v>3521.0261292711302</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -18425,23 +18426,23 @@
       </c>
       <c r="E104" s="56">
         <f>'Gesamtenergie 2050 var.'!E34*Sekundäranteil!$C$8</f>
-        <v>13480.067222222222</v>
+        <v>12980.760203110123</v>
       </c>
       <c r="F104" s="60">
         <f>'Gesamtenergie 2050 var.'!F34*Sekundäranteil!$C$8</f>
-        <v>16435.73166666667</v>
+        <v>15826.945668041893</v>
       </c>
       <c r="G104" s="57">
         <f>'Gesamtenergie 2050 var.'!G34*Sekundäranteil!$C$8</f>
-        <v>13188.622222222222</v>
+        <v>12700.110441129798</v>
       </c>
       <c r="H104" s="59">
         <f>'Gesamtenergie 2050 var.'!H34*Sekundäranteil!$C$8</f>
-        <v>10262.396666666667</v>
+        <v>9882.2734370041253</v>
       </c>
       <c r="I104" s="58">
         <f>'Gesamtenergie 2050 var.'!I34*Sekundäranteil!$C$8</f>
-        <v>9226.4748765432105</v>
+        <v>8884.7225995274857</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -18455,23 +18456,23 @@
       </c>
       <c r="E105" s="56">
         <f>'Gesamtenergie 2050 var.'!E35*Sekundäranteil!$C$8</f>
-        <v>9972.0444444444438</v>
+        <v>9602.6759758806711</v>
       </c>
       <c r="F105" s="60">
         <f>'Gesamtenergie 2050 var.'!F35*Sekundäranteil!$C$8</f>
-        <v>12158.533333333333</v>
+        <v>11708.176451920024</v>
       </c>
       <c r="G105" s="57">
         <f>'Gesamtenergie 2050 var.'!G35*Sekundäranteil!$C$8</f>
-        <v>9756.4444444444434</v>
+        <v>9395.0618851158342</v>
       </c>
       <c r="H105" s="59">
         <f>'Gesamtenergie 2050 var.'!H35*Sekundäranteil!$C$8</f>
-        <v>7591.7333333333345</v>
+        <v>7310.5325293557607</v>
       </c>
       <c r="I105" s="58">
         <f>'Gesamtenergie 2050 var.'!I35*Sekundäranteil!$C$8</f>
-        <v>6825.3975308641975</v>
+        <v>6572.5821079727775</v>
       </c>
     </row>
   </sheetData>
@@ -18498,8 +18499,8 @@
   </sheetPr>
   <dimension ref="C3:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18515,7 +18516,7 @@
   <sheetData>
     <row r="3" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
@@ -18573,23 +18574,23 @@
       </c>
       <c r="E7" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E121-'Energiebedarf Sek.stahl var.'!E7-('Verbrauch je Träger 2019'!F122-'Energiebedarf Sek.stahl 2019'!E6)</f>
-        <v>-5605.2861822222221</v>
+        <v>-5167.2890521993013</v>
       </c>
       <c r="F7" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F121-'Energiebedarf Sek.stahl var.'!F7-('Verbrauch je Träger 2019'!G122-'Energiebedarf Sek.stahl 2019'!F6)</f>
-        <v>-6834.3115866666667</v>
+        <v>-6300.2783966867664</v>
       </c>
       <c r="G7" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G121-'Energiebedarf Sek.stahl var.'!G7-('Verbrauch je Träger 2019'!H122-'Energiebedarf Sek.stahl 2019'!G6)</f>
-        <v>-671.54357606837675</v>
+        <v>-742.14104896614026</v>
       </c>
       <c r="H7" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H121-'Energiebedarf Sek.stahl var.'!H7-('Verbrauch je Träger 2019'!I122-'Energiebedarf Sek.stahl 2019'!H6)</f>
-        <v>3039.730026666668</v>
+        <v>2615.3417733037113</v>
       </c>
       <c r="I7" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I121-'Energiebedarf Sek.stahl var.'!I7-('Verbrauch je Träger 2019'!J122-'Energiebedarf Sek.stahl 2019'!I6)</f>
-        <v>1728.6905980102156</v>
+        <v>1451.2901158193181</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
@@ -18603,23 +18604,23 @@
       </c>
       <c r="E8" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E122-'Energiebedarf Sek.stahl var.'!E8-('Verbrauch je Träger 2019'!F123-'Energiebedarf Sek.stahl 2019'!E7)</f>
-        <v>-5605.2861822222221</v>
+        <v>-5167.2890521993013</v>
       </c>
       <c r="F8" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F122-'Energiebedarf Sek.stahl var.'!F8-('Verbrauch je Träger 2019'!G123-'Energiebedarf Sek.stahl 2019'!F7)</f>
-        <v>-6834.3115866666667</v>
+        <v>-6300.2783966867664</v>
       </c>
       <c r="G8" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G122-'Energiebedarf Sek.stahl var.'!G8-('Verbrauch je Träger 2019'!H123-'Energiebedarf Sek.stahl 2019'!G7)</f>
-        <v>-671.54357606837675</v>
+        <v>-742.14104896614026</v>
       </c>
       <c r="H8" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H122-'Energiebedarf Sek.stahl var.'!H8-('Verbrauch je Träger 2019'!I123-'Energiebedarf Sek.stahl 2019'!H7)</f>
-        <v>3039.730026666668</v>
+        <v>2615.3417733037113</v>
       </c>
       <c r="I8" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I122-'Energiebedarf Sek.stahl var.'!I8-('Verbrauch je Träger 2019'!J123-'Energiebedarf Sek.stahl 2019'!I7)</f>
-        <v>1728.6905980102156</v>
+        <v>1451.2901158193181</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
@@ -18633,23 +18634,23 @@
       </c>
       <c r="E9" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E123-'Energiebedarf Sek.stahl var.'!E9-('Verbrauch je Träger 2019'!F124-'Energiebedarf Sek.stahl 2019'!E8)</f>
-        <v>-8096.6895555555529</v>
+        <v>-7464.0141358298933</v>
       </c>
       <c r="F9" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F123-'Energiebedarf Sek.stahl var.'!F9-('Verbrauch je Träger 2019'!G124-'Energiebedarf Sek.stahl 2019'!F8)</f>
-        <v>-9871.984666666669</v>
+        <v>-9100.587665503017</v>
       </c>
       <c r="G9" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G123-'Energiebedarf Sek.stahl var.'!G9-('Verbrauch je Träger 2019'!H124-'Energiebedarf Sek.stahl 2019'!G8)</f>
-        <v>-970.02716394716481</v>
+        <v>-1072.0033704917751</v>
       </c>
       <c r="H9" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H123-'Energiebedarf Sek.stahl var.'!H9-('Verbrauch je Träger 2019'!I124-'Energiebedarf Sek.stahl 2019'!H8)</f>
-        <v>4390.8106666666681</v>
+        <v>3777.7929139955559</v>
       </c>
       <c r="I9" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I123-'Energiebedarf Sek.stahl var.'!I9-('Verbrauch je Träger 2019'!J124-'Energiebedarf Sek.stahl 2019'!I8)</f>
-        <v>2497.048438684249</v>
+        <v>2096.3506841280887</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
@@ -18663,23 +18664,23 @@
       </c>
       <c r="E10" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E124-'Energiebedarf Sek.stahl var.'!E10-('Verbrauch je Träger 2019'!F125-'Energiebedarf Sek.stahl 2019'!E9)</f>
-        <v>-3837.3851599999998</v>
+        <v>-3537.5318372199299</v>
       </c>
       <c r="F10" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F124-'Energiebedarf Sek.stahl var.'!F10-('Verbrauch je Träger 2019'!G125-'Energiebedarf Sek.stahl 2019'!F9)</f>
-        <v>-4678.7773200000001</v>
+        <v>-4313.1776036686761</v>
       </c>
       <c r="G10" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G124-'Energiebedarf Sek.stahl var.'!G10-('Verbrauch je Träger 2019'!H125-'Energiebedarf Sek.stahl 2019'!G9)</f>
-        <v>-459.73947972027963</v>
+        <v>-508.0705882532593</v>
       </c>
       <c r="H10" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H124-'Energiebedarf Sek.stahl var.'!H10-('Verbrauch je Träger 2019'!I125-'Energiebedarf Sek.stahl 2019'!H9)</f>
-        <v>2081.0025599999999</v>
+        <v>1790.4658893303704</v>
       </c>
       <c r="I10" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I124-'Energiebedarf Sek.stahl var.'!I10-('Verbrauch je Träger 2019'!J125-'Energiebedarf Sek.stahl 2019'!I9)</f>
-        <v>1183.4635077286989</v>
+        <v>993.55482882621118</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
@@ -18693,23 +18694,23 @@
       </c>
       <c r="E11" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E125-'Energiebedarf Sek.stahl var.'!E11-('Verbrauch je Träger 2019'!F126-'Energiebedarf Sek.stahl 2019'!E10)</f>
-        <v>-3862.6408888888891</v>
+        <v>-3560.8140831482069</v>
       </c>
       <c r="F11" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F125-'Energiebedarf Sek.stahl var.'!F11-('Verbrauch je Träger 2019'!G126-'Energiebedarf Sek.stahl 2019'!F10)</f>
-        <v>-4709.5706666666665</v>
+        <v>-4341.5647578546505</v>
       </c>
       <c r="G11" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G125-'Energiebedarf Sek.stahl var.'!G11-('Verbrauch je Träger 2019'!H126-'Energiebedarf Sek.stahl 2019'!G10)</f>
-        <v>-462.76525252525335</v>
+        <v>-511.41445197772919</v>
       </c>
       <c r="H11" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H125-'Energiebedarf Sek.stahl var.'!H11-('Verbrauch je Träger 2019'!I126-'Energiebedarf Sek.stahl 2019'!H10)</f>
-        <v>2094.6986666666671</v>
+        <v>1802.2498305299905</v>
       </c>
       <c r="I11" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I125-'Energiebedarf Sek.stahl var.'!I11-('Verbrauch je Träger 2019'!J126-'Energiebedarf Sek.stahl 2019'!I10)</f>
-        <v>1191.2524661612924</v>
+        <v>1000.093904354685</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -18723,23 +18724,23 @@
       </c>
       <c r="E12" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E126-'Energiebedarf Sek.stahl var.'!E12-('Verbrauch je Träger 2019'!F127-'Energiebedarf Sek.stahl 2019'!E11)</f>
-        <v>-5571.1166666666668</v>
+        <v>-5135.7895430022218</v>
       </c>
       <c r="F12" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F126-'Energiebedarf Sek.stahl var.'!F12-('Verbrauch je Träger 2019'!G127-'Energiebedarf Sek.stahl 2019'!F11)</f>
-        <v>-6792.6500000000015</v>
+        <v>-6261.8722469057429</v>
       </c>
       <c r="G12" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G126-'Energiebedarf Sek.stahl var.'!G12-('Verbrauch je Träger 2019'!H127-'Energiebedarf Sek.stahl 2019'!G11)</f>
-        <v>-667.44988344988451</v>
+        <v>-737.6169980447994</v>
       </c>
       <c r="H12" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H126-'Energiebedarf Sek.stahl var.'!H12-('Verbrauch je Träger 2019'!I127-'Energiebedarf Sek.stahl 2019'!H11)</f>
-        <v>3021.1999999999989</v>
+        <v>2599.3987940336392</v>
       </c>
       <c r="I12" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I126-'Energiebedarf Sek.stahl var.'!I12-('Verbrauch je Träger 2019'!J127-'Energiebedarf Sek.stahl 2019'!I11)</f>
-        <v>1718.1525954249419</v>
+        <v>1442.4431312807965</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
@@ -18753,23 +18754,23 @@
       </c>
       <c r="E13" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E127-'Energiebedarf Sek.stahl var.'!E13-('Verbrauch je Träger 2019'!F128-'Energiebedarf Sek.stahl 2019'!E12)</f>
-        <v>-10176.573111111113</v>
+        <v>-9381.3755652173932</v>
       </c>
       <c r="F13" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F127-'Energiebedarf Sek.stahl var.'!F13-('Verbrauch je Träger 2019'!G128-'Energiebedarf Sek.stahl 2019'!F12)</f>
-        <v>-12407.907333333336</v>
+        <v>-11438.353304347827</v>
       </c>
       <c r="G13" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G127-'Energiebedarf Sek.stahl var.'!G13-('Verbrauch je Träger 2019'!H128-'Energiebedarf Sek.stahl 2019'!G12)</f>
-        <v>-1219.208453768455</v>
+        <v>-1347.3803830951674</v>
       </c>
       <c r="H13" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H127-'Energiebedarf Sek.stahl var.'!H13-('Verbrauch je Träger 2019'!I128-'Energiebedarf Sek.stahl 2019'!H12)</f>
-        <v>5518.7253333333338</v>
+        <v>4748.2351304347849</v>
       </c>
       <c r="I13" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I127-'Energiebedarf Sek.stahl var.'!I13-('Verbrauch je Träger 2019'!J128-'Energiebedarf Sek.stahl 2019'!I12)</f>
-        <v>3138.4920743095608</v>
+        <v>2634.8627864729206</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
@@ -18783,23 +18784,23 @@
       </c>
       <c r="E14" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E128-'Energiebedarf Sek.stahl var.'!E14-('Verbrauch je Träger 2019'!F129-'Energiebedarf Sek.stahl 2019'!E13)</f>
-        <v>-4902.5826666666671</v>
+        <v>-4519.494797841955</v>
       </c>
       <c r="F14" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F128-'Energiebedarf Sek.stahl var.'!F14-('Verbrauch je Träger 2019'!G129-'Energiebedarf Sek.stahl 2019'!F13)</f>
-        <v>-5977.5320000000002</v>
+        <v>-5510.4475772770538</v>
       </c>
       <c r="G14" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G128-'Energiebedarf Sek.stahl var.'!G14-('Verbrauch je Träger 2019'!H129-'Energiebedarf Sek.stahl 2019'!G13)</f>
-        <v>-587.35589743589753</v>
+        <v>-649.10295827942264</v>
       </c>
       <c r="H14" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H128-'Energiebedarf Sek.stahl var.'!H14-('Verbrauch je Träger 2019'!I129-'Energiebedarf Sek.stahl 2019'!H13)</f>
-        <v>2658.6560000000009</v>
+        <v>2287.4709387496041</v>
       </c>
       <c r="I14" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I128-'Energiebedarf Sek.stahl var.'!I14-('Verbrauch je Träger 2019'!J129-'Energiebedarf Sek.stahl 2019'!I13)</f>
-        <v>1511.9742839739492</v>
+        <v>1269.3499555271001</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -18813,23 +18814,23 @@
       </c>
       <c r="E15" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E129-'Energiebedarf Sek.stahl var.'!E15-('Verbrauch je Träger 2019'!F130-'Energiebedarf Sek.stahl 2019'!E14)</f>
-        <v>-4133.0257511111122</v>
+        <v>-3810.071068968582</v>
       </c>
       <c r="F15" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F129-'Energiebedarf Sek.stahl var.'!F15-('Verbrauch je Träger 2019'!G130-'Energiebedarf Sek.stahl 2019'!F14)</f>
-        <v>-5039.2406133333334</v>
+        <v>-4645.4742909044744</v>
       </c>
       <c r="G15" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G129-'Energiebedarf Sek.stahl var.'!G15-('Verbrauch je Träger 2019'!H130-'Energiebedarf Sek.stahl 2019'!G14)</f>
-        <v>-495.15882020202025</v>
+        <v>-547.21346361616907</v>
       </c>
       <c r="H15" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H129-'Energiebedarf Sek.stahl var.'!H15-('Verbrauch je Träger 2019'!I130-'Energiebedarf Sek.stahl 2019'!H14)</f>
-        <v>2241.327573333333</v>
+        <v>1928.4073186670894</v>
       </c>
       <c r="I15" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I129-'Energiebedarf Sek.stahl var.'!I15-('Verbrauch je Träger 2019'!J130-'Energiebedarf Sek.stahl 2019'!I14)</f>
-        <v>1274.6401387925835</v>
+        <v>1070.1004776595128</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -18843,23 +18844,23 @@
       </c>
       <c r="E16" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E130-'Energiebedarf Sek.stahl var.'!E16-('Verbrauch je Träger 2019'!F131-'Energiebedarf Sek.stahl 2019'!E15)</f>
-        <v>-3194.106888888889</v>
+        <v>-2944.5193379879397</v>
       </c>
       <c r="F16" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F130-'Energiebedarf Sek.stahl var.'!F16-('Verbrauch je Träger 2019'!G131-'Energiebedarf Sek.stahl 2019'!F15)</f>
-        <v>-3894.4526666666679</v>
+        <v>-3590.1400882259595</v>
       </c>
       <c r="G16" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G130-'Energiebedarf Sek.stahl var.'!G16-('Verbrauch je Träger 2019'!H131-'Energiebedarf Sek.stahl 2019'!G15)</f>
-        <v>-382.67126651126682</v>
+        <v>-422.90041221235197</v>
       </c>
       <c r="H16" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H130-'Energiebedarf Sek.stahl var.'!H16-('Verbrauch je Träger 2019'!I131-'Energiebedarf Sek.stahl 2019'!H15)</f>
-        <v>1732.1546666666663</v>
+        <v>1490.3219752459527</v>
       </c>
       <c r="I16" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I130-'Energiebedarf Sek.stahl var.'!I16-('Verbrauch je Träger 2019'!J131-'Energiebedarf Sek.stahl 2019'!I15)</f>
-        <v>985.0741547102989</v>
+        <v>827.00072860098862</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -18873,23 +18874,23 @@
       </c>
       <c r="E17" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E131-'Energiebedarf Sek.stahl var.'!E17-('Verbrauch je Träger 2019'!F132-'Energiebedarf Sek.stahl 2019'!E16)</f>
-        <v>-7428.1555555555569</v>
+        <v>-6847.7193906696284</v>
       </c>
       <c r="F17" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F131-'Energiebedarf Sek.stahl var.'!F17-('Verbrauch je Träger 2019'!G132-'Energiebedarf Sek.stahl 2019'!F16)</f>
-        <v>-9056.8666666666668</v>
+        <v>-8349.162995874327</v>
       </c>
       <c r="G17" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G131-'Energiebedarf Sek.stahl var.'!G17-('Verbrauch je Träger 2019'!H132-'Energiebedarf Sek.stahl 2019'!G16)</f>
-        <v>-889.93317793318056</v>
+        <v>-983.48933072639738</v>
       </c>
       <c r="H17" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H131-'Energiebedarf Sek.stahl var.'!H17-('Verbrauch je Träger 2019'!I132-'Energiebedarf Sek.stahl 2019'!H16)</f>
-        <v>4028.2666666666646</v>
+        <v>3465.8650587115189</v>
       </c>
       <c r="I17" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I131-'Energiebedarf Sek.stahl var.'!I17-('Verbrauch je Träger 2019'!J132-'Energiebedarf Sek.stahl 2019'!I16)</f>
-        <v>2290.8701272332546</v>
+        <v>1923.2575083743923</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -18903,23 +18904,23 @@
       </c>
       <c r="E18" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E132-'Energiebedarf Sek.stahl var.'!E18-('Verbrauch je Träger 2019'!F133-'Energiebedarf Sek.stahl 2019'!E17)</f>
-        <v>-8913.7866666666669</v>
+        <v>-8217.2632688035555</v>
       </c>
       <c r="F18" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F132-'Energiebedarf Sek.stahl var.'!F18-('Verbrauch je Träger 2019'!G133-'Energiebedarf Sek.stahl 2019'!F17)</f>
-        <v>-10868.240000000002</v>
+        <v>-10018.995595049189</v>
       </c>
       <c r="G18" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G132-'Energiebedarf Sek.stahl var.'!G18-('Verbrauch je Träger 2019'!H133-'Energiebedarf Sek.stahl 2019'!G17)</f>
-        <v>-1067.9198135198149</v>
+        <v>-1180.1871968716787</v>
       </c>
       <c r="H18" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H132-'Energiebedarf Sek.stahl var.'!H18-('Verbrauch je Träger 2019'!I133-'Energiebedarf Sek.stahl 2019'!H17)</f>
-        <v>4833.9199999999983</v>
+        <v>4159.038070453822</v>
       </c>
       <c r="I18" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I132-'Energiebedarf Sek.stahl var.'!I18-('Verbrauch je Träger 2019'!J133-'Energiebedarf Sek.stahl 2019'!I17)</f>
-        <v>2749.0441526799077</v>
+        <v>2307.9090100492722</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -18933,23 +18934,23 @@
       </c>
       <c r="E19" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E133-'Energiebedarf Sek.stahl var.'!E19-('Verbrauch je Träger 2019'!F134-'Energiebedarf Sek.stahl 2019'!E18)</f>
-        <v>-6833.9031111111108</v>
+        <v>-6299.9018394160576</v>
       </c>
       <c r="F19" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F133-'Energiebedarf Sek.stahl var.'!F19-('Verbrauch je Träger 2019'!G134-'Energiebedarf Sek.stahl 2019'!F18)</f>
-        <v>-8332.3173333333343</v>
+        <v>-7681.2299562043791</v>
       </c>
       <c r="G19" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G133-'Energiebedarf Sek.stahl var.'!G19-('Verbrauch je Träger 2019'!H134-'Energiebedarf Sek.stahl 2019'!G18)</f>
-        <v>-818.73852369852557</v>
+        <v>-904.81018426828723</v>
       </c>
       <c r="H19" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H133-'Energiebedarf Sek.stahl var.'!H19-('Verbrauch je Träger 2019'!I134-'Energiebedarf Sek.stahl 2019'!H18)</f>
-        <v>3706.0053333333326</v>
+        <v>3188.5958540145984</v>
       </c>
       <c r="I19" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I133-'Energiebedarf Sek.stahl var.'!I19-('Verbrauch je Träger 2019'!J134-'Energiebedarf Sek.stahl 2019'!I18)</f>
-        <v>2107.6005170545959</v>
+        <v>1769.3969077044439</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -18963,23 +18964,23 @@
       </c>
       <c r="E20" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E134-'Energiebedarf Sek.stahl var.'!E20-('Verbrauch je Träger 2019'!F135-'Energiebedarf Sek.stahl 2019'!E19)</f>
-        <v>-3467.4630133333326</v>
+        <v>-3196.5154115645823</v>
       </c>
       <c r="F20" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F134-'Energiebedarf Sek.stahl var.'!F20-('Verbrauch je Träger 2019'!G135-'Energiebedarf Sek.stahl 2019'!F19)</f>
-        <v>-4227.745359999999</v>
+        <v>-3897.3892864741338</v>
       </c>
       <c r="G20" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G134-'Energiebedarf Sek.stahl var.'!G20-('Verbrauch je Träger 2019'!H135-'Energiebedarf Sek.stahl 2019'!G19)</f>
-        <v>-415.42080745920839</v>
+        <v>-459.09281958308338</v>
       </c>
       <c r="H20" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H134-'Energiebedarf Sek.stahl var.'!H20-('Verbrauch je Träger 2019'!I135-'Energiebedarf Sek.stahl 2019'!H19)</f>
-        <v>1880.3948799999998</v>
+        <v>1617.8658094065377</v>
       </c>
       <c r="I20" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I134-'Energiebedarf Sek.stahl var.'!I20-('Verbrauch je Träger 2019'!J135-'Energiebedarf Sek.stahl 2019'!I19)</f>
-        <v>1069.3781753924827</v>
+        <v>897.77660490916742</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -18993,23 +18994,23 @@
       </c>
       <c r="E21" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E135-'Energiebedarf Sek.stahl var.'!E21-('Verbrauch je Träger 2019'!F136-'Energiebedarf Sek.stahl 2019'!E20)</f>
-        <v>-1663.9068444444442</v>
+        <v>-1533.8891435099968</v>
       </c>
       <c r="F21" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F135-'Energiebedarf Sek.stahl var.'!F21-('Verbrauch je Träger 2019'!G136-'Energiebedarf Sek.stahl 2019'!F20)</f>
-        <v>-2028.7381333333342</v>
+        <v>-1870.2125110758489</v>
       </c>
       <c r="G21" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G135-'Energiebedarf Sek.stahl var.'!G21-('Verbrauch je Träger 2019'!H136-'Energiebedarf Sek.stahl 2019'!G20)</f>
-        <v>-199.3450318570317</v>
+        <v>-220.30161008271307</v>
       </c>
       <c r="H21" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H135-'Energiebedarf Sek.stahl var.'!H21-('Verbrauch je Träger 2019'!I136-'Energiebedarf Sek.stahl 2019'!H20)</f>
-        <v>902.33173333333389</v>
+        <v>776.35377315138066</v>
       </c>
       <c r="I21" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I135-'Energiebedarf Sek.stahl var.'!I21-('Verbrauch je Träger 2019'!J136-'Energiebedarf Sek.stahl 2019'!I20)</f>
-        <v>513.15490850024912</v>
+        <v>430.80968187586427</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -19023,23 +19024,23 @@
       </c>
       <c r="E22" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E136-'Energiebedarf Sek.stahl var.'!E22-('Verbrauch je Träger 2019'!F137-'Energiebedarf Sek.stahl 2019'!E21)</f>
-        <v>-8913.7866666666669</v>
+        <v>-8217.2632688035555</v>
       </c>
       <c r="F22" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F136-'Energiebedarf Sek.stahl var.'!F22-('Verbrauch je Träger 2019'!G137-'Energiebedarf Sek.stahl 2019'!F21)</f>
-        <v>-10868.240000000002</v>
+        <v>-10018.995595049189</v>
       </c>
       <c r="G22" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G136-'Energiebedarf Sek.stahl var.'!G22-('Verbrauch je Träger 2019'!H137-'Energiebedarf Sek.stahl 2019'!G21)</f>
-        <v>-1067.9198135198149</v>
+        <v>-1180.1871968716787</v>
       </c>
       <c r="H22" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H136-'Energiebedarf Sek.stahl var.'!H22-('Verbrauch je Träger 2019'!I137-'Energiebedarf Sek.stahl 2019'!H21)</f>
-        <v>4833.9199999999983</v>
+        <v>4159.038070453822</v>
       </c>
       <c r="I22" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I136-'Energiebedarf Sek.stahl var.'!I22-('Verbrauch je Träger 2019'!J137-'Energiebedarf Sek.stahl 2019'!I21)</f>
-        <v>2749.0441526799077</v>
+        <v>2307.9090100492722</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -19053,23 +19054,23 @@
       </c>
       <c r="E23" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E137-'Energiebedarf Sek.stahl var.'!E23-('Verbrauch je Träger 2019'!F138-'Energiebedarf Sek.stahl 2019'!E22)</f>
-        <v>-2377.0097777777783</v>
+        <v>-2191.2702050142807</v>
       </c>
       <c r="F23" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F137-'Energiebedarf Sek.stahl var.'!F23-('Verbrauch je Träger 2019'!G138-'Energiebedarf Sek.stahl 2019'!F22)</f>
-        <v>-2898.197333333334</v>
+        <v>-2671.7321586797839</v>
       </c>
       <c r="G23" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G137-'Energiebedarf Sek.stahl var.'!G23-('Verbrauch je Träger 2019'!H138-'Energiebedarf Sek.stahl 2019'!G22)</f>
-        <v>-284.77861693861723</v>
+        <v>-314.71658583244789</v>
       </c>
       <c r="H23" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H137-'Energiebedarf Sek.stahl var.'!H23-('Verbrauch je Träger 2019'!I138-'Energiebedarf Sek.stahl 2019'!H22)</f>
-        <v>1289.0453333333339</v>
+        <v>1109.0768187876861</v>
       </c>
       <c r="I23" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I137-'Energiebedarf Sek.stahl var.'!I23-('Verbrauch je Träger 2019'!J138-'Energiebedarf Sek.stahl 2019'!I22)</f>
-        <v>733.07844071464115</v>
+        <v>615.44240267980558</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -19083,23 +19084,23 @@
       </c>
       <c r="E24" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E138-'Energiebedarf Sek.stahl var.'!E24-('Verbrauch je Träger 2019'!F139-'Energiebedarf Sek.stahl 2019'!E23)</f>
-        <v>-12627.864444444445</v>
+        <v>-11641.122964138367</v>
       </c>
       <c r="F24" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F138-'Energiebedarf Sek.stahl var.'!F24-('Verbrauch je Träger 2019'!G139-'Energiebedarf Sek.stahl 2019'!F23)</f>
-        <v>-15396.673333333336</v>
+        <v>-14193.57709298635</v>
       </c>
       <c r="G24" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G138-'Energiebedarf Sek.stahl var.'!G24-('Verbrauch je Träger 2019'!H139-'Energiebedarf Sek.stahl 2019'!G23)</f>
-        <v>-1512.8864024864033</v>
+        <v>-1671.9318622348783</v>
       </c>
       <c r="H24" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H138-'Energiebedarf Sek.stahl var.'!H24-('Verbrauch je Träger 2019'!I139-'Energiebedarf Sek.stahl 2019'!H23)</f>
-        <v>6848.0533333333333</v>
+        <v>5891.9705998095815</v>
       </c>
       <c r="I24" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I138-'Energiebedarf Sek.stahl var.'!I24-('Verbrauch je Träger 2019'!J139-'Energiebedarf Sek.stahl 2019'!I23)</f>
-        <v>3894.4792162965368</v>
+        <v>3269.5377642364674</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -19113,23 +19114,23 @@
       </c>
       <c r="E25" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E139-'Energiebedarf Sek.stahl var.'!E25-('Verbrauch je Träger 2019'!F140-'Energiebedarf Sek.stahl 2019'!E24)</f>
-        <v>-10124.576022222222</v>
+        <v>-9333.4415294827031</v>
       </c>
       <c r="F25" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F139-'Energiebedarf Sek.stahl var.'!F25-('Verbrauch je Träger 2019'!G140-'Energiebedarf Sek.stahl 2019'!F24)</f>
-        <v>-12344.509266666668</v>
+        <v>-11379.909163376706</v>
       </c>
       <c r="G25" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G139-'Energiebedarf Sek.stahl var.'!G25-('Verbrauch je Träger 2019'!H140-'Energiebedarf Sek.stahl 2019'!G24)</f>
-        <v>-1212.9789215229248</v>
+        <v>-1340.4959577800837</v>
       </c>
       <c r="H25" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H139-'Energiebedarf Sek.stahl var.'!H25-('Verbrauch je Träger 2019'!I140-'Energiebedarf Sek.stahl 2019'!H24)</f>
-        <v>5490.5274666666701</v>
+        <v>4723.9740750238016</v>
       </c>
       <c r="I25" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I139-'Energiebedarf Sek.stahl var.'!I25-('Verbrauch je Träger 2019'!J140-'Energiebedarf Sek.stahl 2019'!I24)</f>
-        <v>3122.455983418924</v>
+        <v>2621.3999839142962</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -19143,23 +19144,23 @@
       </c>
       <c r="E26" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E140-'Energiebedarf Sek.stahl var.'!E26-('Verbrauch je Träger 2019'!F141-'Energiebedarf Sek.stahl 2019'!E25)</f>
-        <v>-4048.3447777777765</v>
+        <v>-3732.0070679149467</v>
       </c>
       <c r="F26" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F140-'Energiebedarf Sek.stahl var.'!F26-('Verbrauch je Träger 2019'!G141-'Energiebedarf Sek.stahl 2019'!F25)</f>
-        <v>-4935.9923333333345</v>
+        <v>-4550.2938327515085</v>
       </c>
       <c r="G26" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G140-'Energiebedarf Sek.stahl var.'!G26-('Verbrauch je Träger 2019'!H141-'Energiebedarf Sek.stahl 2019'!G25)</f>
-        <v>-485.0135819735824</v>
+        <v>-536.00168524588753</v>
       </c>
       <c r="H26" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H140-'Energiebedarf Sek.stahl var.'!H26-('Verbrauch je Träger 2019'!I141-'Energiebedarf Sek.stahl 2019'!H25)</f>
-        <v>2195.4053333333341</v>
+        <v>1888.8964569977779</v>
       </c>
       <c r="I26" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I140-'Energiebedarf Sek.stahl var.'!I26-('Verbrauch je Träger 2019'!J141-'Energiebedarf Sek.stahl 2019'!I25)</f>
-        <v>1248.5242193421245</v>
+        <v>1048.1753420640443</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -19173,23 +19174,23 @@
       </c>
       <c r="E27" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E141-'Energiebedarf Sek.stahl var.'!E27-('Verbrauch je Träger 2019'!F142-'Energiebedarf Sek.stahl 2019'!E26)</f>
-        <v>-4048.3447777777765</v>
+        <v>-3732.0070679149467</v>
       </c>
       <c r="F27" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F141-'Energiebedarf Sek.stahl var.'!F27-('Verbrauch je Träger 2019'!G142-'Energiebedarf Sek.stahl 2019'!F26)</f>
-        <v>-4935.9923333333345</v>
+        <v>-4550.2938327515085</v>
       </c>
       <c r="G27" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G141-'Energiebedarf Sek.stahl var.'!G27-('Verbrauch je Träger 2019'!H142-'Energiebedarf Sek.stahl 2019'!G26)</f>
-        <v>-485.0135819735824</v>
+        <v>-536.00168524588753</v>
       </c>
       <c r="H27" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H141-'Energiebedarf Sek.stahl var.'!H27-('Verbrauch je Träger 2019'!I142-'Energiebedarf Sek.stahl 2019'!H26)</f>
-        <v>2195.4053333333341</v>
+        <v>1888.8964569977779</v>
       </c>
       <c r="I27" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I141-'Energiebedarf Sek.stahl var.'!I27-('Verbrauch je Träger 2019'!J142-'Energiebedarf Sek.stahl 2019'!I26)</f>
-        <v>1248.5242193421245</v>
+        <v>1048.1753420640443</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -19203,23 +19204,23 @@
       </c>
       <c r="E28" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E142-'Energiebedarf Sek.stahl var.'!E28-('Verbrauch je Träger 2019'!F143-'Energiebedarf Sek.stahl 2019'!E27)</f>
-        <v>-3045.5437777777779</v>
+        <v>-2807.5649501745465</v>
       </c>
       <c r="F28" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F142-'Energiebedarf Sek.stahl var.'!F28-('Verbrauch je Träger 2019'!G143-'Energiebedarf Sek.stahl 2019'!F27)</f>
-        <v>-3713.315333333333</v>
+        <v>-3423.1568283084725</v>
       </c>
       <c r="G28" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G142-'Energiebedarf Sek.stahl var.'!G28-('Verbrauch je Träger 2019'!H143-'Energiebedarf Sek.stahl 2019'!G27)</f>
-        <v>-364.87260295260285</v>
+        <v>-403.2306255978242</v>
       </c>
       <c r="H28" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H142-'Energiebedarf Sek.stahl var.'!H28-('Verbrauch je Träger 2019'!I143-'Energiebedarf Sek.stahl 2019'!H27)</f>
-        <v>1651.5893333333343</v>
+        <v>1421.0046740717235</v>
       </c>
       <c r="I28" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I142-'Energiebedarf Sek.stahl var.'!I28-('Verbrauch je Träger 2019'!J143-'Energiebedarf Sek.stahl 2019'!I27)</f>
-        <v>939.25675216563423</v>
+        <v>788.53557843350109</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -19233,23 +19234,23 @@
       </c>
       <c r="E29" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E143-'Energiebedarf Sek.stahl var.'!E29-('Verbrauch je Träger 2019'!F144-'Energiebedarf Sek.stahl 2019'!E28)</f>
-        <v>-6685.34</v>
+        <v>-6162.9474516026658</v>
       </c>
       <c r="F29" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F143-'Energiebedarf Sek.stahl var.'!F29-('Verbrauch je Träger 2019'!G144-'Energiebedarf Sek.stahl 2019'!F28)</f>
-        <v>-8151.18</v>
+        <v>-7514.246696286893</v>
       </c>
       <c r="G29" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G143-'Energiebedarf Sek.stahl var.'!G29-('Verbrauch je Träger 2019'!H144-'Energiebedarf Sek.stahl 2019'!G28)</f>
-        <v>-800.93986013986068</v>
+        <v>-885.14039765375855</v>
       </c>
       <c r="H29" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H143-'Energiebedarf Sek.stahl var.'!H29-('Verbrauch je Träger 2019'!I144-'Energiebedarf Sek.stahl 2019'!H28)</f>
-        <v>3625.4400000000023</v>
+        <v>3119.2785528403692</v>
       </c>
       <c r="I29" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I143-'Energiebedarf Sek.stahl var.'!I29-('Verbrauch je Träger 2019'!J144-'Energiebedarf Sek.stahl 2019'!I28)</f>
-        <v>2061.7831145099308</v>
+        <v>1730.9317575369541</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -19263,23 +19264,23 @@
       </c>
       <c r="E30" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E144-'Energiebedarf Sek.stahl var.'!E30-('Verbrauch je Träger 2019'!F145-'Energiebedarf Sek.stahl 2019'!E29)</f>
-        <v>-3528.3738888888902</v>
+        <v>-3252.6667105680726</v>
       </c>
       <c r="F30" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F144-'Energiebedarf Sek.stahl var.'!F30-('Verbrauch je Träger 2019'!G145-'Energiebedarf Sek.stahl 2019'!F29)</f>
-        <v>-4302.0116666666654</v>
+        <v>-3965.8524230403036</v>
       </c>
       <c r="G30" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G144-'Energiebedarf Sek.stahl var.'!G30-('Verbrauch je Träger 2019'!H145-'Energiebedarf Sek.stahl 2019'!G29)</f>
-        <v>-422.71825951825986</v>
+        <v>-467.15743209503989</v>
       </c>
       <c r="H30" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H144-'Energiebedarf Sek.stahl var.'!H30-('Verbrauch je Träger 2019'!I145-'Energiebedarf Sek.stahl 2019'!H29)</f>
-        <v>1913.4266666666663</v>
+        <v>1646.285902887972</v>
       </c>
       <c r="I30" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I144-'Energiebedarf Sek.stahl var.'!I30-('Verbrauch je Träger 2019'!J145-'Energiebedarf Sek.stahl 2019'!I29)</f>
-        <v>1088.1633104357961</v>
+        <v>913.54731647783683</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -19293,23 +19294,23 @@
       </c>
       <c r="E31" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E145-'Energiebedarf Sek.stahl var.'!E31-('Verbrauch je Träger 2019'!F146-'Energiebedarf Sek.stahl 2019'!E30)</f>
-        <v>-3528.3738888888902</v>
+        <v>-3252.6667105680726</v>
       </c>
       <c r="F31" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F145-'Energiebedarf Sek.stahl var.'!F31-('Verbrauch je Träger 2019'!G146-'Energiebedarf Sek.stahl 2019'!F30)</f>
-        <v>-4302.0116666666654</v>
+        <v>-3965.8524230403036</v>
       </c>
       <c r="G31" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G145-'Energiebedarf Sek.stahl var.'!G31-('Verbrauch je Träger 2019'!H146-'Energiebedarf Sek.stahl 2019'!G30)</f>
-        <v>-422.71825951825986</v>
+        <v>-467.15743209503989</v>
       </c>
       <c r="H31" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H145-'Energiebedarf Sek.stahl var.'!H31-('Verbrauch je Träger 2019'!I146-'Energiebedarf Sek.stahl 2019'!H30)</f>
-        <v>1913.4266666666663</v>
+        <v>1646.285902887972</v>
       </c>
       <c r="I31" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I145-'Energiebedarf Sek.stahl var.'!I31-('Verbrauch je Träger 2019'!J146-'Energiebedarf Sek.stahl 2019'!I30)</f>
-        <v>1088.1633104357961</v>
+        <v>913.54731647783683</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -19323,23 +19324,23 @@
       </c>
       <c r="E32" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E146-'Energiebedarf Sek.stahl var.'!E32-('Verbrauch je Träger 2019'!F147-'Energiebedarf Sek.stahl 2019'!E31)</f>
-        <v>-3416.9515555555554</v>
+        <v>-3149.9509197080288</v>
       </c>
       <c r="F32" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F146-'Energiebedarf Sek.stahl var.'!F32-('Verbrauch je Träger 2019'!G147-'Energiebedarf Sek.stahl 2019'!F31)</f>
-        <v>-4166.1586666666672</v>
+        <v>-3840.6149781021895</v>
       </c>
       <c r="G32" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G146-'Energiebedarf Sek.stahl var.'!G32-('Verbrauch je Träger 2019'!H147-'Energiebedarf Sek.stahl 2019'!G31)</f>
-        <v>-409.36926184926278</v>
+        <v>-452.40509213414362</v>
       </c>
       <c r="H32" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H146-'Energiebedarf Sek.stahl var.'!H32-('Verbrauch je Träger 2019'!I147-'Energiebedarf Sek.stahl 2019'!H31)</f>
-        <v>1853.0026666666663</v>
+        <v>1594.2979270072992</v>
       </c>
       <c r="I32" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I146-'Energiebedarf Sek.stahl var.'!I32-('Verbrauch je Träger 2019'!J147-'Energiebedarf Sek.stahl 2019'!I31)</f>
-        <v>1053.800258527298</v>
+        <v>884.69845385222197</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -19353,23 +19354,23 @@
       </c>
       <c r="E33" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E147-'Energiebedarf Sek.stahl var.'!E33-('Verbrauch je Träger 2019'!F148-'Energiebedarf Sek.stahl 2019'!E32)</f>
-        <v>-2228.4466666666667</v>
+        <v>-2054.3158172008889</v>
       </c>
       <c r="F33" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F147-'Energiebedarf Sek.stahl var.'!F33-('Verbrauch je Träger 2019'!G148-'Energiebedarf Sek.stahl 2019'!F32)</f>
-        <v>-2717.0600000000004</v>
+        <v>-2504.7488987622974</v>
       </c>
       <c r="G33" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G147-'Energiebedarf Sek.stahl var.'!G33-('Verbrauch je Träger 2019'!H148-'Energiebedarf Sek.stahl 2019'!G32)</f>
-        <v>-266.97995337995371</v>
+        <v>-295.04679921791967</v>
       </c>
       <c r="H33" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H147-'Energiebedarf Sek.stahl var.'!H33-('Verbrauch je Träger 2019'!I148-'Energiebedarf Sek.stahl 2019'!H32)</f>
-        <v>1208.4799999999996</v>
+        <v>1039.7595176134555</v>
       </c>
       <c r="I33" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I147-'Energiebedarf Sek.stahl var.'!I33-('Verbrauch je Träger 2019'!J148-'Energiebedarf Sek.stahl 2019'!I32)</f>
-        <v>687.26103816997693</v>
+        <v>576.97725251231805</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -19383,23 +19384,23 @@
       </c>
       <c r="E34" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E148-'Energiebedarf Sek.stahl var.'!E34-('Verbrauch je Träger 2019'!F149-'Energiebedarf Sek.stahl 2019'!E33)</f>
-        <v>-5623.113755555557</v>
+        <v>-5183.7235787369091</v>
       </c>
       <c r="F34" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F148-'Energiebedarf Sek.stahl var.'!F34-('Verbrauch je Träger 2019'!G149-'Energiebedarf Sek.stahl 2019'!F33)</f>
-        <v>-6856.0480666666699</v>
+        <v>-6320.3163878768664</v>
       </c>
       <c r="G34" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G148-'Energiebedarf Sek.stahl var.'!G34-('Verbrauch je Träger 2019'!H149-'Energiebedarf Sek.stahl 2019'!G33)</f>
-        <v>-673.67941569541563</v>
+        <v>-744.50142335988403</v>
       </c>
       <c r="H34" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H148-'Energiebedarf Sek.stahl var.'!H34-('Verbrauch je Träger 2019'!I149-'Energiebedarf Sek.stahl 2019'!H33)</f>
-        <v>3049.3978666666662</v>
+        <v>2623.6598494446189</v>
       </c>
       <c r="I34" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I148-'Energiebedarf Sek.stahl var.'!I34-('Verbrauch je Träger 2019'!J149-'Energiebedarf Sek.stahl 2019'!I33)</f>
-        <v>1734.1886863155742</v>
+        <v>1455.9059338394154</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -19413,33 +19414,33 @@
       </c>
       <c r="E35" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E149-'Energiebedarf Sek.stahl var.'!E35-('Verbrauch je Träger 2019'!F150-'Energiebedarf Sek.stahl 2019'!E34)</f>
-        <v>-4159.7671111111104</v>
+        <v>-3834.7228587749905</v>
       </c>
       <c r="F35" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F149-'Energiebedarf Sek.stahl var.'!F35-('Verbrauch je Träger 2019'!G150-'Energiebedarf Sek.stahl 2019'!F34)</f>
-        <v>-5071.8453333333337</v>
+        <v>-4675.5312776896217</v>
       </c>
       <c r="G35" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G149-'Energiebedarf Sek.stahl var.'!G35-('Verbrauch je Träger 2019'!H150-'Energiebedarf Sek.stahl 2019'!G34)</f>
-        <v>-498.36257964257948</v>
+        <v>-550.75402520678381</v>
       </c>
       <c r="H35" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H149-'Energiebedarf Sek.stahl var.'!H35-('Verbrauch je Träger 2019'!I150-'Energiebedarf Sek.stahl 2019'!H34)</f>
-        <v>2255.8293333333349</v>
+        <v>1940.8844328784517</v>
       </c>
       <c r="I35" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I149-'Energiebedarf Sek.stahl var.'!I35-('Verbrauch je Träger 2019'!J150-'Energiebedarf Sek.stahl 2019'!I34)</f>
-        <v>1282.8872712506227</v>
+        <v>1077.024204689661</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="83" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39" s="83"/>
       <c r="E39" s="83"/>
@@ -19497,23 +19498,23 @@
       </c>
       <c r="E43" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E121-'Energiebedarf Sek.stahl var.'!E42-('Verbrauch je Träger 2019'!F122-'Energiebedarf Sek.stahl 2019'!E6)</f>
-        <v>-6411.5259755555544</v>
+        <v>-5943.6654048492528</v>
       </c>
       <c r="F43" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F121-'Energiebedarf Sek.stahl var.'!F42-('Verbrauch je Träger 2019'!G122-'Energiebedarf Sek.stahl 2019'!F6)</f>
-        <v>-7817.3290066666668</v>
+        <v>-7246.8844628245006</v>
       </c>
       <c r="G43" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G121-'Energiebedarf Sek.stahl var.'!G42-('Verbrauch je Träger 2019'!H122-'Energiebedarf Sek.stahl 2019'!G6)</f>
-        <v>-1460.3521094017078</v>
+        <v>-1501.7318023777543</v>
       </c>
       <c r="H43" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H121-'Energiebedarf Sek.stahl var.'!H42-('Verbrauch je Träger 2019'!I122-'Energiebedarf Sek.stahl 2019'!H6)</f>
-        <v>2425.9383866666685</v>
+        <v>2024.2852183052983</v>
       </c>
       <c r="I43" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I121-'Energiebedarf Sek.stahl var.'!I42-('Verbrauch je Träger 2019'!J122-'Energiebedarf Sek.stahl 2019'!I6)</f>
-        <v>1176.8572076398468</v>
+        <v>919.89685238972015</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
@@ -19527,23 +19528,23 @@
       </c>
       <c r="E44" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E122-'Energiebedarf Sek.stahl var.'!E43-('Verbrauch je Träger 2019'!F123-'Energiebedarf Sek.stahl 2019'!E7)</f>
-        <v>-6411.5259755555544</v>
+        <v>-5943.6654048492528</v>
       </c>
       <c r="F44" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F122-'Energiebedarf Sek.stahl var.'!F43-('Verbrauch je Träger 2019'!G123-'Energiebedarf Sek.stahl 2019'!F7)</f>
-        <v>-7817.3290066666668</v>
+        <v>-7246.8844628245006</v>
       </c>
       <c r="G44" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G122-'Energiebedarf Sek.stahl var.'!G43-('Verbrauch je Träger 2019'!H123-'Energiebedarf Sek.stahl 2019'!G7)</f>
-        <v>-1460.3521094017078</v>
+        <v>-1501.7318023777543</v>
       </c>
       <c r="H44" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H122-'Energiebedarf Sek.stahl var.'!H43-('Verbrauch je Träger 2019'!I123-'Energiebedarf Sek.stahl 2019'!H7)</f>
-        <v>2425.9383866666685</v>
+        <v>2024.2852183052983</v>
       </c>
       <c r="I44" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I122-'Energiebedarf Sek.stahl var.'!I43-('Verbrauch je Träger 2019'!J123-'Energiebedarf Sek.stahl 2019'!I7)</f>
-        <v>1176.8572076398468</v>
+        <v>919.89685238972015</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
@@ -19557,23 +19558,23 @@
       </c>
       <c r="E45" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E123-'Energiebedarf Sek.stahl var.'!E44-('Verbrauch je Träger 2019'!F124-'Energiebedarf Sek.stahl 2019'!E8)</f>
-        <v>-9261.2818888888869</v>
+        <v>-8585.4695087273867</v>
       </c>
       <c r="F45" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F123-'Energiebedarf Sek.stahl var.'!F44-('Verbrauch je Träger 2019'!G124-'Energiebedarf Sek.stahl 2019'!F8)</f>
-        <v>-11291.927666666665</v>
+        <v>-10467.935415423677</v>
       </c>
       <c r="G45" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G123-'Energiebedarf Sek.stahl var.'!G44-('Verbrauch je Träger 2019'!H124-'Energiebedarf Sek.stahl 2019'!G8)</f>
-        <v>-2109.4404972804987</v>
+        <v>-2169.2123835035163</v>
       </c>
       <c r="H45" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H123-'Energiebedarf Sek.stahl var.'!H44-('Verbrauch je Träger 2019'!I124-'Energiebedarf Sek.stahl 2019'!H8)</f>
-        <v>3504.2046666666683</v>
+        <v>2924.0271507457946</v>
       </c>
       <c r="I45" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I123-'Energiebedarf Sek.stahl var.'!I44-('Verbrauch je Träger 2019'!J124-'Energiebedarf Sek.stahl 2019'!I8)</f>
-        <v>1699.939512758323</v>
+        <v>1328.7669879469831</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
@@ -19587,23 +19588,23 @@
       </c>
       <c r="E46" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E124-'Energiebedarf Sek.stahl var.'!E45-('Verbrauch je Träger 2019'!F125-'Energiebedarf Sek.stahl 2019'!E9)</f>
-        <v>-4389.3378199999988</v>
+        <v>-4069.0399524849236</v>
       </c>
       <c r="F46" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F124-'Energiebedarf Sek.stahl var.'!F45-('Verbrauch je Träger 2019'!G125-'Energiebedarf Sek.stahl 2019'!F9)</f>
-        <v>-5351.7521399999996</v>
+        <v>-4961.2251702824497</v>
       </c>
       <c r="G46" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G124-'Energiebedarf Sek.stahl var.'!G45-('Verbrauch je Träger 2019'!H125-'Energiebedarf Sek.stahl 2019'!G9)</f>
-        <v>-999.75867972027936</v>
+        <v>-1028.0872635944197</v>
       </c>
       <c r="H46" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H124-'Energiebedarf Sek.stahl var.'!H45-('Verbrauch je Träger 2019'!I125-'Energiebedarf Sek.stahl 2019'!H9)</f>
-        <v>1660.8001199999999</v>
+        <v>1385.8279138305297</v>
       </c>
       <c r="I46" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I124-'Energiebedarf Sek.stahl var.'!I45-('Verbrauch je Träger 2019'!J125-'Energiebedarf Sek.stahl 2019'!I9)</f>
-        <v>805.67775439536626</v>
+        <v>629.76240914991786</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
@@ -19617,23 +19618,23 @@
       </c>
       <c r="E47" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E125-'Energiebedarf Sek.stahl var.'!E46-('Verbrauch je Träger 2019'!F126-'Energiebedarf Sek.stahl 2019'!E10)</f>
-        <v>-4418.2262222222216</v>
+        <v>-4095.8203160901303</v>
       </c>
       <c r="F47" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F125-'Energiebedarf Sek.stahl var.'!F46-('Verbrauch je Träger 2019'!G126-'Energiebedarf Sek.stahl 2019'!F10)</f>
-        <v>-5386.974666666667</v>
+        <v>-4993.8774458901935</v>
       </c>
       <c r="G47" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G125-'Energiebedarf Sek.stahl var.'!G46-('Verbrauch je Träger 2019'!H126-'Energiebedarf Sek.stahl 2019'!G10)</f>
-        <v>-1006.3385858585862</v>
+        <v>-1034.8536141484674</v>
       </c>
       <c r="H47" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H125-'Energiebedarf Sek.stahl var.'!H46-('Verbrauch je Träger 2019'!I126-'Energiebedarf Sek.stahl 2019'!H10)</f>
-        <v>1671.7306666666682</v>
+        <v>1394.9487324658839</v>
       </c>
       <c r="I47" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I125-'Energiebedarf Sek.stahl var.'!I46-('Verbrauch je Träger 2019'!J126-'Energiebedarf Sek.stahl 2019'!I10)</f>
-        <v>810.98031801314482</v>
+        <v>633.90718691048733</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
@@ -19647,23 +19648,23 @@
       </c>
       <c r="E48" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E126-'Energiebedarf Sek.stahl var.'!E47-('Verbrauch je Träger 2019'!F127-'Energiebedarf Sek.stahl 2019'!E11)</f>
-        <v>-6372.4416666666657</v>
+        <v>-5907.4331482069174</v>
       </c>
       <c r="F48" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F126-'Energiebedarf Sek.stahl var.'!F47-('Verbrauch je Träger 2019'!G127-'Energiebedarf Sek.stahl 2019'!F11)</f>
-        <v>-7769.6749999999993</v>
+        <v>-7202.7078546493158</v>
       </c>
       <c r="G48" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G126-'Energiebedarf Sek.stahl var.'!G47-('Verbrauch je Träger 2019'!H127-'Energiebedarf Sek.stahl 2019'!G11)</f>
-        <v>-1451.4498834498845</v>
+        <v>-1492.5773280987505</v>
       </c>
       <c r="H48" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H126-'Energiebedarf Sek.stahl var.'!H47-('Verbrauch je Träger 2019'!I127-'Energiebedarf Sek.stahl 2019'!H11)</f>
-        <v>2411.1499999999996</v>
+        <v>2011.9452872104084</v>
       </c>
       <c r="I48" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I126-'Energiebedarf Sek.stahl var.'!I47-('Verbrauch je Träger 2019'!J127-'Energiebedarf Sek.stahl 2019'!I11)</f>
-        <v>1169.6831509804979</v>
+        <v>914.28921189012726</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
@@ -19677,23 +19678,23 @@
       </c>
       <c r="E49" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E127-'Energiebedarf Sek.stahl var.'!E48-('Verbrauch je Träger 2019'!F128-'Energiebedarf Sek.stahl 2019'!E12)</f>
-        <v>-11640.326777777776</v>
+        <v>-10790.911217391302</v>
       </c>
       <c r="F49" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F127-'Energiebedarf Sek.stahl var.'!F48-('Verbrauch je Träger 2019'!G128-'Energiebedarf Sek.stahl 2019'!F12)</f>
-        <v>-14192.606333333337</v>
+        <v>-13156.946347826084</v>
       </c>
       <c r="G49" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G127-'Energiebedarf Sek.stahl var.'!G48-('Verbrauch je Träger 2019'!H128-'Energiebedarf Sek.stahl 2019'!G12)</f>
-        <v>-2651.3151204351216</v>
+        <v>-2726.4412526603828</v>
       </c>
       <c r="H49" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H127-'Energiebedarf Sek.stahl var.'!H48-('Verbrauch je Träger 2019'!I128-'Energiebedarf Sek.stahl 2019'!H12)</f>
-        <v>4404.3673333333336</v>
+        <v>3675.1533913043513</v>
       </c>
       <c r="I49" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I127-'Energiebedarf Sek.stahl var.'!I48-('Verbrauch je Träger 2019'!J128-'Energiebedarf Sek.stahl 2019'!I12)</f>
-        <v>2136.6212224577102</v>
+        <v>1670.1016270526306</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
@@ -19707,23 +19708,23 @@
       </c>
       <c r="E50" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E128-'Energiebedarf Sek.stahl var.'!E49-('Verbrauch je Träger 2019'!F129-'Energiebedarf Sek.stahl 2019'!E13)</f>
-        <v>-5607.7486666666664</v>
+        <v>-5198.541170422086</v>
       </c>
       <c r="F50" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F128-'Energiebedarf Sek.stahl var.'!F49-('Verbrauch je Träger 2019'!G129-'Energiebedarf Sek.stahl 2019'!F13)</f>
-        <v>-6837.3139999999994</v>
+        <v>-6338.3829120913988</v>
       </c>
       <c r="G50" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G128-'Energiebedarf Sek.stahl var.'!G49-('Verbrauch je Träger 2019'!H129-'Energiebedarf Sek.stahl 2019'!G13)</f>
-        <v>-1277.2758974358976</v>
+        <v>-1313.4680487268988</v>
       </c>
       <c r="H50" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H128-'Energiebedarf Sek.stahl var.'!H49-('Verbrauch je Träger 2019'!I129-'Energiebedarf Sek.stahl 2019'!H13)</f>
-        <v>2121.8120000000017</v>
+        <v>1770.5118527451596</v>
       </c>
       <c r="I50" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I128-'Energiebedarf Sek.stahl var.'!I49-('Verbrauch je Träger 2019'!J129-'Energiebedarf Sek.stahl 2019'!I13)</f>
-        <v>1029.3211728628385</v>
+        <v>804.57450646331199</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -19737,23 +19738,23 @@
       </c>
       <c r="E51" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E129-'Energiebedarf Sek.stahl var.'!E50-('Verbrauch je Träger 2019'!F130-'Energiebedarf Sek.stahl 2019'!E14)</f>
-        <v>-4727.5020577777777</v>
+        <v>-4382.5277382164386</v>
       </c>
       <c r="F51" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F129-'Energiebedarf Sek.stahl var.'!F50-('Verbrauch je Träger 2019'!G130-'Energiebedarf Sek.stahl 2019'!F14)</f>
-        <v>-5764.0628933333337</v>
+        <v>-5343.4488671025065</v>
       </c>
       <c r="G51" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G129-'Energiebedarf Sek.stahl var.'!G50-('Verbrauch je Träger 2019'!H130-'Energiebedarf Sek.stahl 2019'!G14)</f>
-        <v>-1076.7822868686862</v>
+        <v>-1107.2933671388591</v>
       </c>
       <c r="H51" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H129-'Energiebedarf Sek.stahl var.'!H50-('Verbrauch je Träger 2019'!I130-'Energiebedarf Sek.stahl 2019'!H14)</f>
-        <v>1788.7518133333342</v>
+        <v>1492.5951437384956</v>
       </c>
       <c r="I51" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I129-'Energiebedarf Sek.stahl var.'!I50-('Verbrauch je Träger 2019'!J130-'Energiebedarf Sek.stahl 2019'!I14)</f>
-        <v>867.74894027406481</v>
+        <v>678.28068999422248</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
@@ -19767,23 +19768,23 @@
       </c>
       <c r="E52" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E130-'Energiebedarf Sek.stahl var.'!E51-('Verbrauch je Träger 2019'!F131-'Energiebedarf Sek.stahl 2019'!E15)</f>
-        <v>-3653.5332222222219</v>
+        <v>-3386.9283383052993</v>
       </c>
       <c r="F52" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F130-'Energiebedarf Sek.stahl var.'!F51-('Verbrauch je Träger 2019'!G131-'Energiebedarf Sek.stahl 2019'!F15)</f>
-        <v>-4454.613666666668</v>
+        <v>-4129.5525033322756</v>
       </c>
       <c r="G52" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G130-'Energiebedarf Sek.stahl var.'!G51-('Verbrauch je Träger 2019'!H131-'Energiebedarf Sek.stahl 2019'!G15)</f>
-        <v>-832.16459984459971</v>
+        <v>-855.74433477661614</v>
       </c>
       <c r="H52" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H130-'Energiebedarf Sek.stahl var.'!H51-('Verbrauch je Träger 2019'!I131-'Energiebedarf Sek.stahl 2019'!H15)</f>
-        <v>1382.3926666666666</v>
+        <v>1153.5152980006342</v>
       </c>
       <c r="I52" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I130-'Energiebedarf Sek.stahl var.'!I51-('Verbrauch je Träger 2019'!J131-'Energiebedarf Sek.stahl 2019'!I15)</f>
-        <v>670.6183398954845</v>
+        <v>524.19248148367205</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
@@ -19797,23 +19798,23 @@
       </c>
       <c r="E53" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E131-'Energiebedarf Sek.stahl var.'!E52-('Verbrauch je Träger 2019'!F132-'Energiebedarf Sek.stahl 2019'!E16)</f>
-        <v>-8496.5888888888894</v>
+        <v>-7876.5775309425553</v>
       </c>
       <c r="F53" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F131-'Energiebedarf Sek.stahl var.'!F52-('Verbrauch je Träger 2019'!G132-'Energiebedarf Sek.stahl 2019'!F16)</f>
-        <v>-10359.566666666668</v>
+        <v>-9603.6104728657538</v>
       </c>
       <c r="G53" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G131-'Energiebedarf Sek.stahl var.'!G52-('Verbrauch je Träger 2019'!H132-'Energiebedarf Sek.stahl 2019'!G16)</f>
-        <v>-1935.2665112665127</v>
+        <v>-1990.1031041316655</v>
       </c>
       <c r="H53" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H131-'Energiebedarf Sek.stahl var.'!H52-('Verbrauch je Träger 2019'!I132-'Energiebedarf Sek.stahl 2019'!H16)</f>
-        <v>3214.8666666666668</v>
+        <v>2682.5937162805458</v>
       </c>
       <c r="I53" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I131-'Energiebedarf Sek.stahl var.'!I52-('Verbrauch je Träger 2019'!J132-'Energiebedarf Sek.stahl 2019'!I16)</f>
-        <v>1559.5775346406626</v>
+        <v>1219.052282520166</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
@@ -19827,23 +19828,23 @@
       </c>
       <c r="E54" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E132-'Energiebedarf Sek.stahl var.'!E53-('Verbrauch je Träger 2019'!F133-'Energiebedarf Sek.stahl 2019'!E17)</f>
-        <v>-10195.906666666666</v>
+        <v>-9451.8930371310707</v>
       </c>
       <c r="F54" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F132-'Energiebedarf Sek.stahl var.'!F53-('Verbrauch je Träger 2019'!G133-'Energiebedarf Sek.stahl 2019'!F17)</f>
-        <v>-12431.48</v>
+        <v>-11524.332567438905</v>
       </c>
       <c r="G54" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G132-'Energiebedarf Sek.stahl var.'!G53-('Verbrauch je Träger 2019'!H133-'Energiebedarf Sek.stahl 2019'!G17)</f>
-        <v>-2322.3198135198127</v>
+        <v>-2388.123724957999</v>
       </c>
       <c r="H54" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H132-'Energiebedarf Sek.stahl var.'!H53-('Verbrauch je Träger 2019'!I133-'Energiebedarf Sek.stahl 2019'!H17)</f>
-        <v>3857.84</v>
+        <v>3219.1124595366528</v>
       </c>
       <c r="I54" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I132-'Energiebedarf Sek.stahl var.'!I53-('Verbrauch je Träger 2019'!J133-'Energiebedarf Sek.stahl 2019'!I17)</f>
-        <v>1871.4930415687977</v>
+        <v>1462.8627390242018</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
@@ -19857,23 +19858,23 @@
       </c>
       <c r="E55" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E133-'Energiebedarf Sek.stahl var.'!E54-('Verbrauch je Träger 2019'!F134-'Energiebedarf Sek.stahl 2019'!E18)</f>
-        <v>-7816.8617777777763</v>
+        <v>-7246.4513284671502</v>
       </c>
       <c r="F55" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F133-'Energiebedarf Sek.stahl var.'!F54-('Verbrauch je Träger 2019'!G134-'Energiebedarf Sek.stahl 2019'!F18)</f>
-        <v>-9530.8013333333347</v>
+        <v>-8835.3216350364946</v>
       </c>
       <c r="G55" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G133-'Energiebedarf Sek.stahl var.'!G54-('Verbrauch je Träger 2019'!H134-'Energiebedarf Sek.stahl 2019'!G18)</f>
-        <v>-1780.4451903651907</v>
+        <v>-1830.8948558011316</v>
       </c>
       <c r="H55" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H133-'Energiebedarf Sek.stahl var.'!H54-('Verbrauch je Träger 2019'!I134-'Energiebedarf Sek.stahl 2019'!H18)</f>
-        <v>2957.6773333333349</v>
+        <v>2467.9862189781034</v>
       </c>
       <c r="I55" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I133-'Energiebedarf Sek.stahl var.'!I54-('Verbrauch je Träger 2019'!J134-'Energiebedarf Sek.stahl 2019'!I18)</f>
-        <v>1434.8113318694104</v>
+        <v>1121.5280999185561</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -19887,23 +19888,23 @@
       </c>
       <c r="E56" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E134-'Energiebedarf Sek.stahl var.'!E55-('Verbrauch je Träger 2019'!F135-'Energiebedarf Sek.stahl 2019'!E19)</f>
-        <v>-3966.2076933333315</v>
+        <v>-3676.7863914439845</v>
       </c>
       <c r="F56" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F134-'Energiebedarf Sek.stahl var.'!F55-('Verbrauch je Träger 2019'!G135-'Energiebedarf Sek.stahl 2019'!F19)</f>
-        <v>-4835.8457199999993</v>
+        <v>-4482.9653687337341</v>
       </c>
       <c r="G56" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G134-'Energiebedarf Sek.stahl var.'!G55-('Verbrauch je Träger 2019'!H135-'Energiebedarf Sek.stahl 2019'!G19)</f>
-        <v>-903.38240745920803</v>
+        <v>-928.98012900866206</v>
       </c>
       <c r="H56" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H134-'Energiebedarf Sek.stahl var.'!H55-('Verbrauch je Träger 2019'!I135-'Energiebedarf Sek.stahl 2019'!H19)</f>
-        <v>1500.6997600000004</v>
+        <v>1252.2347467597592</v>
       </c>
       <c r="I56" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I134-'Energiebedarf Sek.stahl var.'!I55-('Verbrauch je Träger 2019'!J135-'Energiebedarf Sek.stahl 2019'!I19)</f>
-        <v>728.01079317026097</v>
+        <v>569.05360548041472</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
@@ -19917,23 +19918,23 @@
       </c>
       <c r="E57" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E135-'Energiebedarf Sek.stahl var.'!E56-('Verbrauch je Träger 2019'!F136-'Energiebedarf Sek.stahl 2019'!E20)</f>
-        <v>-1903.2359111111109</v>
+        <v>-1764.3533669311323</v>
       </c>
       <c r="F57" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F135-'Energiebedarf Sek.stahl var.'!F56-('Verbrauch je Träger 2019'!G136-'Energiebedarf Sek.stahl 2019'!F20)</f>
-        <v>-2320.5429333333341</v>
+        <v>-2151.2087459219292</v>
       </c>
       <c r="G57" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G135-'Energiebedarf Sek.stahl var.'!G56-('Verbrauch je Träger 2019'!H136-'Energiebedarf Sek.stahl 2019'!G20)</f>
-        <v>-433.49969852369804</v>
+        <v>-445.78309532549292</v>
       </c>
       <c r="H57" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H135-'Energiebedarf Sek.stahl var.'!H56-('Verbrauch je Träger 2019'!I136-'Energiebedarf Sek.stahl 2019'!H20)</f>
-        <v>720.13013333333402</v>
+        <v>600.90099244684234</v>
       </c>
       <c r="I57" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I135-'Energiebedarf Sek.stahl var.'!I56-('Verbrauch je Träger 2019'!J136-'Energiebedarf Sek.stahl 2019'!I20)</f>
-        <v>349.34536775950869</v>
+        <v>273.0677112845176</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
@@ -19947,23 +19948,23 @@
       </c>
       <c r="E58" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E136-'Energiebedarf Sek.stahl var.'!E57-('Verbrauch je Träger 2019'!F137-'Energiebedarf Sek.stahl 2019'!E21)</f>
-        <v>-10195.906666666666</v>
+        <v>-9451.8930371310707</v>
       </c>
       <c r="F58" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F136-'Energiebedarf Sek.stahl var.'!F57-('Verbrauch je Träger 2019'!G137-'Energiebedarf Sek.stahl 2019'!F21)</f>
-        <v>-12431.48</v>
+        <v>-11524.332567438905</v>
       </c>
       <c r="G58" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G136-'Energiebedarf Sek.stahl var.'!G57-('Verbrauch je Träger 2019'!H137-'Energiebedarf Sek.stahl 2019'!G21)</f>
-        <v>-2322.3198135198127</v>
+        <v>-2388.123724957999</v>
       </c>
       <c r="H58" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H136-'Energiebedarf Sek.stahl var.'!H57-('Verbrauch je Träger 2019'!I137-'Energiebedarf Sek.stahl 2019'!H21)</f>
-        <v>3857.84</v>
+        <v>3219.1124595366528</v>
       </c>
       <c r="I58" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I136-'Energiebedarf Sek.stahl var.'!I57-('Verbrauch je Träger 2019'!J137-'Energiebedarf Sek.stahl 2019'!I21)</f>
-        <v>1871.4930415687977</v>
+        <v>1462.8627390242018</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
@@ -19977,23 +19978,23 @@
       </c>
       <c r="E59" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E137-'Energiebedarf Sek.stahl var.'!E58-('Verbrauch je Träger 2019'!F138-'Energiebedarf Sek.stahl 2019'!E22)</f>
-        <v>-2718.9084444444443</v>
+        <v>-2520.5048099016176</v>
       </c>
       <c r="F59" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F137-'Energiebedarf Sek.stahl var.'!F58-('Verbrauch je Träger 2019'!G138-'Energiebedarf Sek.stahl 2019'!F22)</f>
-        <v>-3315.0613333333336</v>
+        <v>-3073.1553513170415</v>
       </c>
       <c r="G59" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G137-'Energiebedarf Sek.stahl var.'!G58-('Verbrauch je Träger 2019'!H138-'Energiebedarf Sek.stahl 2019'!G22)</f>
-        <v>-619.28528360528344</v>
+        <v>-636.83299332213301</v>
       </c>
       <c r="H59" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H137-'Energiebedarf Sek.stahl var.'!H58-('Verbrauch je Träger 2019'!I138-'Energiebedarf Sek.stahl 2019'!H22)</f>
-        <v>1028.7573333333344</v>
+        <v>858.42998920977379</v>
       </c>
       <c r="I59" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I137-'Energiebedarf Sek.stahl var.'!I58-('Verbrauch je Träger 2019'!J138-'Energiebedarf Sek.stahl 2019'!I22)</f>
-        <v>499.06481108501202</v>
+        <v>390.09673040645339</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
@@ -20007,23 +20008,23 @@
       </c>
       <c r="E60" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E138-'Energiebedarf Sek.stahl var.'!E59-('Verbrauch je Träger 2019'!F139-'Energiebedarf Sek.stahl 2019'!E23)</f>
-        <v>-14444.201111111108</v>
+        <v>-13390.181802602345</v>
       </c>
       <c r="F60" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F138-'Energiebedarf Sek.stahl var.'!F59-('Verbrauch je Träger 2019'!G139-'Energiebedarf Sek.stahl 2019'!F23)</f>
-        <v>-17611.263333333332</v>
+        <v>-16326.137803871778</v>
       </c>
       <c r="G60" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G138-'Energiebedarf Sek.stahl var.'!G59-('Verbrauch je Träger 2019'!H139-'Energiebedarf Sek.stahl 2019'!G23)</f>
-        <v>-3289.9530691530654</v>
+        <v>-3383.1752770238327</v>
       </c>
       <c r="H60" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H138-'Energiebedarf Sek.stahl var.'!H59-('Verbrauch je Träger 2019'!I139-'Energiebedarf Sek.stahl 2019'!H23)</f>
-        <v>5465.2733333333344</v>
+        <v>4560.4093176769275</v>
       </c>
       <c r="I60" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I138-'Energiebedarf Sek.stahl var.'!I59-('Verbrauch je Träger 2019'!J139-'Energiebedarf Sek.stahl 2019'!I23)</f>
-        <v>2651.2818088891308</v>
+        <v>2072.388880284283</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
@@ -20037,23 +20038,23 @@
       </c>
       <c r="E61" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E139-'Energiebedarf Sek.stahl var.'!E60-('Verbrauch je Träger 2019'!F140-'Energiebedarf Sek.stahl 2019'!E24)</f>
-        <v>-11580.850655555552</v>
+        <v>-10735.775174674704</v>
       </c>
       <c r="F61" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F139-'Energiebedarf Sek.stahl var.'!F60-('Verbrauch je Träger 2019'!G140-'Energiebedarf Sek.stahl 2019'!F24)</f>
-        <v>-14120.089366666667</v>
+        <v>-13089.721074516026</v>
       </c>
       <c r="G61" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G139-'Energiebedarf Sek.stahl var.'!G60-('Verbrauch je Träger 2019'!H140-'Energiebedarf Sek.stahl 2019'!G24)</f>
-        <v>-2637.7682548562552</v>
+        <v>-2712.510530931464</v>
       </c>
       <c r="H61" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H139-'Energiebedarf Sek.stahl var.'!H60-('Verbrauch je Träger 2019'!I140-'Energiebedarf Sek.stahl 2019'!H24)</f>
-        <v>4381.8632666666672</v>
+        <v>3656.375235290383</v>
       </c>
       <c r="I61" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I139-'Energiebedarf Sek.stahl var.'!I60-('Verbrauch je Träger 2019'!J140-'Energiebedarf Sek.stahl 2019'!I24)</f>
-        <v>2125.7041797152215</v>
+        <v>1661.5682610749882</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
@@ -20067,23 +20068,23 @@
       </c>
       <c r="E62" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E140-'Energiebedarf Sek.stahl var.'!E61-('Verbrauch je Träger 2019'!F141-'Energiebedarf Sek.stahl 2019'!E25)</f>
-        <v>-4630.6409444444434</v>
+        <v>-4292.7347543636934</v>
       </c>
       <c r="F62" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F140-'Energiebedarf Sek.stahl var.'!F61-('Verbrauch je Träger 2019'!G141-'Energiebedarf Sek.stahl 2019'!F25)</f>
-        <v>-5645.9638333333323</v>
+        <v>-5233.9677077118386</v>
       </c>
       <c r="G62" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G140-'Energiebedarf Sek.stahl var.'!G61-('Verbrauch je Träger 2019'!H141-'Energiebedarf Sek.stahl 2019'!G25)</f>
-        <v>-1054.7202486402493</v>
+        <v>-1084.6061917517582</v>
       </c>
       <c r="H62" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H140-'Energiebedarf Sek.stahl var.'!H61-('Verbrauch je Träger 2019'!I141-'Energiebedarf Sek.stahl 2019'!H25)</f>
-        <v>1752.1023333333342</v>
+        <v>1462.0135753728973</v>
       </c>
       <c r="I62" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I140-'Energiebedarf Sek.stahl var.'!I61-('Verbrauch je Träger 2019'!J141-'Energiebedarf Sek.stahl 2019'!I25)</f>
-        <v>849.96975637916148</v>
+        <v>664.38349397349157</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
@@ -20097,23 +20098,23 @@
       </c>
       <c r="E63" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E141-'Energiebedarf Sek.stahl var.'!E62-('Verbrauch je Träger 2019'!F142-'Energiebedarf Sek.stahl 2019'!E26)</f>
-        <v>-4630.6409444444434</v>
+        <v>-4292.7347543636934</v>
       </c>
       <c r="F63" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F141-'Energiebedarf Sek.stahl var.'!F62-('Verbrauch je Träger 2019'!G142-'Energiebedarf Sek.stahl 2019'!F26)</f>
-        <v>-5645.9638333333323</v>
+        <v>-5233.9677077118386</v>
       </c>
       <c r="G63" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G141-'Energiebedarf Sek.stahl var.'!G62-('Verbrauch je Träger 2019'!H142-'Energiebedarf Sek.stahl 2019'!G26)</f>
-        <v>-1054.7202486402493</v>
+        <v>-1084.6061917517582</v>
       </c>
       <c r="H63" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H141-'Energiebedarf Sek.stahl var.'!H62-('Verbrauch je Träger 2019'!I142-'Energiebedarf Sek.stahl 2019'!H26)</f>
-        <v>1752.1023333333342</v>
+        <v>1462.0135753728973</v>
       </c>
       <c r="I63" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I141-'Energiebedarf Sek.stahl var.'!I62-('Verbrauch je Träger 2019'!J142-'Energiebedarf Sek.stahl 2019'!I26)</f>
-        <v>849.96975637916148</v>
+        <v>664.38349397349157</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
@@ -20127,23 +20128,23 @@
       </c>
       <c r="E64" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E142-'Energiebedarf Sek.stahl var.'!E63-('Verbrauch je Träger 2019'!F143-'Energiebedarf Sek.stahl 2019'!E27)</f>
-        <v>-3483.6014444444445</v>
+        <v>-3229.3967876864472</v>
       </c>
       <c r="F64" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F142-'Energiebedarf Sek.stahl var.'!F63-('Verbrauch je Träger 2019'!G143-'Energiebedarf Sek.stahl 2019'!F27)</f>
-        <v>-4247.422333333333</v>
+        <v>-3937.480293874959</v>
       </c>
       <c r="G64" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G142-'Energiebedarf Sek.stahl var.'!G63-('Verbrauch je Träger 2019'!H143-'Energiebedarf Sek.stahl 2019'!G27)</f>
-        <v>-793.45926961926898</v>
+        <v>-815.94227269398334</v>
       </c>
       <c r="H64" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H142-'Energiebedarf Sek.stahl var.'!H63-('Verbrauch je Träger 2019'!I143-'Energiebedarf Sek.stahl 2019'!H27)</f>
-        <v>1318.0953333333346</v>
+        <v>1099.863423675024</v>
       </c>
       <c r="I64" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I142-'Energiebedarf Sek.stahl var.'!I63-('Verbrauch je Träger 2019'!J143-'Energiebedarf Sek.stahl 2019'!I27)</f>
-        <v>639.42678920267144</v>
+        <v>499.81143583326912</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
@@ -20157,23 +20158,23 @@
       </c>
       <c r="E65" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E143-'Energiebedarf Sek.stahl var.'!E64-('Verbrauch je Träger 2019'!F144-'Energiebedarf Sek.stahl 2019'!E28)</f>
-        <v>-7646.93</v>
+        <v>-7088.9197778483012</v>
       </c>
       <c r="F65" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F143-'Energiebedarf Sek.stahl var.'!F64-('Verbrauch je Träger 2019'!G144-'Energiebedarf Sek.stahl 2019'!F28)</f>
-        <v>-9323.61</v>
+        <v>-8643.2494255791789</v>
       </c>
       <c r="G65" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G143-'Energiebedarf Sek.stahl var.'!G64-('Verbrauch je Träger 2019'!H144-'Energiebedarf Sek.stahl 2019'!G28)</f>
-        <v>-1741.73986013986</v>
+        <v>-1791.0927937184988</v>
       </c>
       <c r="H65" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H143-'Energiebedarf Sek.stahl var.'!H64-('Verbrauch je Träger 2019'!I144-'Energiebedarf Sek.stahl 2019'!H28)</f>
-        <v>2893.3800000000028</v>
+        <v>2414.3343446524923</v>
       </c>
       <c r="I65" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I143-'Energiebedarf Sek.stahl var.'!I64-('Verbrauch je Träger 2019'!J144-'Energiebedarf Sek.stahl 2019'!I28)</f>
-        <v>1403.6197811765987</v>
+        <v>1097.1470542681518</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
@@ -20187,23 +20188,23 @@
       </c>
       <c r="E66" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E144-'Energiebedarf Sek.stahl var.'!E65-('Verbrauch je Träger 2019'!F145-'Energiebedarf Sek.stahl 2019'!E29)</f>
-        <v>-4035.8797222222229</v>
+        <v>-3741.3743271977137</v>
       </c>
       <c r="F66" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F144-'Energiebedarf Sek.stahl var.'!F65-('Verbrauch je Träger 2019'!G145-'Energiebedarf Sek.stahl 2019'!F29)</f>
-        <v>-4920.7941666666648</v>
+        <v>-4561.7149746112336</v>
       </c>
       <c r="G66" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G144-'Energiebedarf Sek.stahl var.'!G65-('Verbrauch je Träger 2019'!H145-'Energiebedarf Sek.stahl 2019'!G29)</f>
-        <v>-919.2515928515927</v>
+        <v>-945.29897446254154</v>
       </c>
       <c r="H66" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H144-'Energiebedarf Sek.stahl var.'!H65-('Verbrauch je Träger 2019'!I145-'Energiebedarf Sek.stahl 2019'!H29)</f>
-        <v>1527.0616666666674</v>
+        <v>1274.2320152332595</v>
       </c>
       <c r="I66" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I144-'Energiebedarf Sek.stahl var.'!I65-('Verbrauch je Träger 2019'!J145-'Energiebedarf Sek.stahl 2019'!I29)</f>
-        <v>740.79932895431466</v>
+        <v>579.04983419707969</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
@@ -20217,23 +20218,23 @@
       </c>
       <c r="E67" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E145-'Energiebedarf Sek.stahl var.'!E66-('Verbrauch je Träger 2019'!F146-'Energiebedarf Sek.stahl 2019'!E30)</f>
-        <v>-4035.8797222222229</v>
+        <v>-3741.3743271977137</v>
       </c>
       <c r="F67" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F145-'Energiebedarf Sek.stahl var.'!F66-('Verbrauch je Träger 2019'!G146-'Energiebedarf Sek.stahl 2019'!F30)</f>
-        <v>-4920.7941666666648</v>
+        <v>-4561.7149746112336</v>
       </c>
       <c r="G67" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G145-'Energiebedarf Sek.stahl var.'!G66-('Verbrauch je Träger 2019'!H146-'Energiebedarf Sek.stahl 2019'!G30)</f>
-        <v>-919.2515928515927</v>
+        <v>-945.29897446254154</v>
       </c>
       <c r="H67" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H145-'Energiebedarf Sek.stahl var.'!H66-('Verbrauch je Träger 2019'!I146-'Energiebedarf Sek.stahl 2019'!H30)</f>
-        <v>1527.0616666666674</v>
+        <v>1274.2320152332595</v>
       </c>
       <c r="I67" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I145-'Energiebedarf Sek.stahl var.'!I66-('Verbrauch je Träger 2019'!J146-'Energiebedarf Sek.stahl 2019'!I30)</f>
-        <v>740.79932895431466</v>
+        <v>579.04983419707969</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
@@ -20247,23 +20248,23 @@
       </c>
       <c r="E68" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E146-'Energiebedarf Sek.stahl var.'!E67-('Verbrauch je Träger 2019'!F147-'Energiebedarf Sek.stahl 2019'!E31)</f>
-        <v>-3908.4308888888881</v>
+        <v>-3623.2256642335751</v>
       </c>
       <c r="F68" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F146-'Energiebedarf Sek.stahl var.'!F67-('Verbrauch je Träger 2019'!G147-'Energiebedarf Sek.stahl 2019'!F31)</f>
-        <v>-4765.4006666666673</v>
+        <v>-4417.6608175182473</v>
       </c>
       <c r="G68" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G146-'Energiebedarf Sek.stahl var.'!G67-('Verbrauch je Träger 2019'!H147-'Energiebedarf Sek.stahl 2019'!G31)</f>
-        <v>-890.22259518259534</v>
+        <v>-915.4474279005658</v>
       </c>
       <c r="H68" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H146-'Energiebedarf Sek.stahl var.'!H67-('Verbrauch je Träger 2019'!I147-'Energiebedarf Sek.stahl 2019'!H31)</f>
-        <v>1478.8386666666675</v>
+        <v>1233.9931094890517</v>
       </c>
       <c r="I68" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I146-'Energiebedarf Sek.stahl var.'!I67-('Verbrauch je Träger 2019'!J147-'Energiebedarf Sek.stahl 2019'!I31)</f>
-        <v>717.40566593470521</v>
+        <v>560.76404995927805</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
@@ -20277,23 +20278,23 @@
       </c>
       <c r="E69" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E147-'Energiebedarf Sek.stahl var.'!E68-('Verbrauch je Träger 2019'!F148-'Energiebedarf Sek.stahl 2019'!E32)</f>
-        <v>-2548.9766666666665</v>
+        <v>-2362.9732592827677</v>
       </c>
       <c r="F69" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F147-'Energiebedarf Sek.stahl var.'!F68-('Verbrauch je Träger 2019'!G148-'Energiebedarf Sek.stahl 2019'!F32)</f>
-        <v>-3107.87</v>
+        <v>-2881.0831418597263</v>
       </c>
       <c r="G69" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G147-'Energiebedarf Sek.stahl var.'!G68-('Verbrauch je Träger 2019'!H148-'Energiebedarf Sek.stahl 2019'!G32)</f>
-        <v>-580.57995337995317</v>
+        <v>-597.03093123949975</v>
       </c>
       <c r="H69" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H147-'Energiebedarf Sek.stahl var.'!H68-('Verbrauch je Träger 2019'!I148-'Energiebedarf Sek.stahl 2019'!H32)</f>
-        <v>964.46</v>
+        <v>804.77811488416319</v>
       </c>
       <c r="I69" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I147-'Energiebedarf Sek.stahl var.'!I68-('Verbrauch je Träger 2019'!J148-'Energiebedarf Sek.stahl 2019'!I32)</f>
-        <v>467.87326039219943</v>
+        <v>365.71568475605045</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
@@ -20307,23 +20308,23 @@
       </c>
       <c r="E70" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E148-'Energiebedarf Sek.stahl var.'!E69-('Verbrauch je Träger 2019'!F149-'Energiebedarf Sek.stahl 2019'!E33)</f>
-        <v>-6431.9177888888889</v>
+        <v>-5962.5691909235165</v>
       </c>
       <c r="F70" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F148-'Energiebedarf Sek.stahl var.'!F69-('Verbrauch je Träger 2019'!G149-'Energiebedarf Sek.stahl 2019'!F33)</f>
-        <v>-7842.191966666669</v>
+        <v>-7269.9331279593789</v>
       </c>
       <c r="G70" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G148-'Energiebedarf Sek.stahl var.'!G69-('Verbrauch je Träger 2019'!H149-'Energiebedarf Sek.stahl 2019'!G33)</f>
-        <v>-1464.9967490287481</v>
+        <v>-1506.508049827672</v>
       </c>
       <c r="H70" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H148-'Energiebedarf Sek.stahl var.'!H69-('Verbrauch je Träger 2019'!I149-'Energiebedarf Sek.stahl 2019'!H33)</f>
-        <v>2433.654066666666</v>
+        <v>2030.7234432243713</v>
       </c>
       <c r="I70" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I148-'Energiebedarf Sek.stahl var.'!I69-('Verbrauch je Träger 2019'!J149-'Energiebedarf Sek.stahl 2019'!I33)</f>
-        <v>1180.6001937229821</v>
+        <v>922.822577867767</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
@@ -20337,33 +20338,33 @@
       </c>
       <c r="E71" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E149-'Energiebedarf Sek.stahl var.'!E70-('Verbrauch je Träger 2019'!F150-'Energiebedarf Sek.stahl 2019'!E34)</f>
-        <v>-4758.0897777777773</v>
+        <v>-4410.8834173278301</v>
       </c>
       <c r="F71" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F149-'Energiebedarf Sek.stahl var.'!F70-('Verbrauch je Träger 2019'!G150-'Energiebedarf Sek.stahl 2019'!F34)</f>
-        <v>-5801.3573333333325</v>
+        <v>-5378.0218648048221</v>
       </c>
       <c r="G71" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G149-'Energiebedarf Sek.stahl var.'!G70-('Verbrauch je Träger 2019'!H150-'Energiebedarf Sek.stahl 2019'!G34)</f>
-        <v>-1083.7492463092449</v>
+        <v>-1114.4577383137339</v>
       </c>
       <c r="H71" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H149-'Energiebedarf Sek.stahl var.'!H70-('Verbrauch je Träger 2019'!I150-'Energiebedarf Sek.stahl 2019'!H34)</f>
-        <v>1800.325333333335</v>
+        <v>1502.2524811171061</v>
       </c>
       <c r="I71" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I149-'Energiebedarf Sek.stahl var.'!I70-('Verbrauch je Träger 2019'!J150-'Energiebedarf Sek.stahl 2019'!I34)</f>
-        <v>873.36341939877093</v>
+        <v>682.66927821129502</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="83" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D74" s="83"/>
       <c r="E74" s="83"/>
@@ -20421,23 +20422,23 @@
       </c>
       <c r="E78" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E121-'Energiebedarf Sek.stahl var.'!E77-('Verbrauch je Träger 2019'!F122-'Energiebedarf Sek.stahl 2019'!E6)</f>
-        <v>-7217.7657688888885</v>
+        <v>-6720.0417574992061</v>
       </c>
       <c r="F78" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F121-'Energiebedarf Sek.stahl var.'!F77-('Verbrauch je Träger 2019'!G122-'Energiebedarf Sek.stahl 2019'!F6)</f>
-        <v>-8800.346426666667</v>
+        <v>-8193.4905289622347</v>
       </c>
       <c r="G78" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G121-'Energiebedarf Sek.stahl var.'!G77-('Verbrauch je Träger 2019'!H122-'Energiebedarf Sek.stahl 2019'!G6)</f>
-        <v>-2249.1606427350425</v>
+        <v>-2261.3225557893702</v>
       </c>
       <c r="H78" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H121-'Energiebedarf Sek.stahl var.'!H77-('Verbrauch je Träger 2019'!I122-'Energiebedarf Sek.stahl 2019'!H6)</f>
-        <v>1812.1467466666672</v>
+        <v>1433.2286633068852</v>
       </c>
       <c r="I78" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I121-'Energiebedarf Sek.stahl var.'!I77-('Verbrauch je Träger 2019'!J122-'Energiebedarf Sek.stahl 2019'!I6)</f>
-        <v>625.02381726947533</v>
+        <v>388.5035889601204</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
@@ -20451,23 +20452,23 @@
       </c>
       <c r="E79" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E122-'Energiebedarf Sek.stahl var.'!E78-('Verbrauch je Träger 2019'!F123-'Energiebedarf Sek.stahl 2019'!E7)</f>
-        <v>-7217.7657688888885</v>
+        <v>-6720.0417574992061</v>
       </c>
       <c r="F79" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F122-'Energiebedarf Sek.stahl var.'!F78-('Verbrauch je Träger 2019'!G123-'Energiebedarf Sek.stahl 2019'!F7)</f>
-        <v>-8800.346426666667</v>
+        <v>-8193.4905289622347</v>
       </c>
       <c r="G79" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G122-'Energiebedarf Sek.stahl var.'!G78-('Verbrauch je Träger 2019'!H123-'Energiebedarf Sek.stahl 2019'!G7)</f>
-        <v>-2249.1606427350425</v>
+        <v>-2261.3225557893702</v>
       </c>
       <c r="H79" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H122-'Energiebedarf Sek.stahl var.'!H78-('Verbrauch je Träger 2019'!I123-'Energiebedarf Sek.stahl 2019'!H7)</f>
-        <v>1812.1467466666672</v>
+        <v>1433.2286633068852</v>
       </c>
       <c r="I79" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I122-'Energiebedarf Sek.stahl var.'!I78-('Verbrauch je Träger 2019'!J123-'Energiebedarf Sek.stahl 2019'!I7)</f>
-        <v>625.02381726947533</v>
+        <v>388.5035889601204</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
@@ -20481,23 +20482,23 @@
       </c>
       <c r="E80" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E123-'Energiebedarf Sek.stahl var.'!E79-('Verbrauch je Träger 2019'!F124-'Energiebedarf Sek.stahl 2019'!E8)</f>
-        <v>-10425.874222222221</v>
+        <v>-9706.9248816248801</v>
       </c>
       <c r="F80" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F123-'Energiebedarf Sek.stahl var.'!F79-('Verbrauch je Träger 2019'!G124-'Energiebedarf Sek.stahl 2019'!F8)</f>
-        <v>-12711.870666666668</v>
+        <v>-11835.283165344337</v>
       </c>
       <c r="G80" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G123-'Energiebedarf Sek.stahl var.'!G79-('Verbrauch je Träger 2019'!H124-'Energiebedarf Sek.stahl 2019'!G8)</f>
-        <v>-3248.8538306138325</v>
+        <v>-3266.4213965152594</v>
       </c>
       <c r="H80" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H123-'Energiebedarf Sek.stahl var.'!H79-('Verbrauch je Träger 2019'!I124-'Energiebedarf Sek.stahl 2019'!H8)</f>
-        <v>2617.5986666666668</v>
+        <v>2070.2613874960316</v>
       </c>
       <c r="I80" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I123-'Energiebedarf Sek.stahl var.'!I79-('Verbrauch je Träger 2019'!J124-'Energiebedarf Sek.stahl 2019'!I8)</f>
-        <v>902.83058683239688</v>
+        <v>561.18329176587577</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
@@ -20511,23 +20512,23 @@
       </c>
       <c r="E81" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E124-'Energiebedarf Sek.stahl var.'!E80-('Verbrauch je Träger 2019'!F125-'Energiebedarf Sek.stahl 2019'!E9)</f>
-        <v>-4941.2904799999997</v>
+        <v>-4600.5480677499199</v>
       </c>
       <c r="F81" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F124-'Energiebedarf Sek.stahl var.'!F80-('Verbrauch je Träger 2019'!G125-'Energiebedarf Sek.stahl 2019'!F9)</f>
-        <v>-6024.7269600000009</v>
+        <v>-5609.2727368962233</v>
       </c>
       <c r="G81" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G124-'Energiebedarf Sek.stahl var.'!G80-('Verbrauch je Träger 2019'!H125-'Energiebedarf Sek.stahl 2019'!G9)</f>
-        <v>-1539.77787972028</v>
+        <v>-1548.1039389355819</v>
       </c>
       <c r="H81" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H124-'Energiebedarf Sek.stahl var.'!H80-('Verbrauch je Träger 2019'!I125-'Energiebedarf Sek.stahl 2019'!H9)</f>
-        <v>1240.5976799999999</v>
+        <v>981.18993833068816</v>
       </c>
       <c r="I81" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I124-'Energiebedarf Sek.stahl var.'!I80-('Verbrauch je Träger 2019'!J125-'Energiebedarf Sek.stahl 2019'!I9)</f>
-        <v>427.8920010620327</v>
+        <v>265.96998947362454</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
@@ -20541,23 +20542,23 @@
       </c>
       <c r="E82" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E125-'Energiebedarf Sek.stahl var.'!E81-('Verbrauch je Träger 2019'!F126-'Energiebedarf Sek.stahl 2019'!E10)</f>
-        <v>-4973.811555555556</v>
+        <v>-4630.8265490320537</v>
       </c>
       <c r="F82" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F125-'Energiebedarf Sek.stahl var.'!F81-('Verbrauch je Träger 2019'!G126-'Energiebedarf Sek.stahl 2019'!F10)</f>
-        <v>-6064.3786666666674</v>
+        <v>-5646.1901339257383</v>
       </c>
       <c r="G82" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G125-'Energiebedarf Sek.stahl var.'!G81-('Verbrauch je Träger 2019'!H126-'Energiebedarf Sek.stahl 2019'!G10)</f>
-        <v>-1549.9119191919199</v>
+        <v>-1558.2927763192074</v>
       </c>
       <c r="H82" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H125-'Energiebedarf Sek.stahl var.'!H81-('Verbrauch je Träger 2019'!I126-'Energiebedarf Sek.stahl 2019'!H10)</f>
-        <v>1248.7626666666674</v>
+        <v>987.6476344017774</v>
       </c>
       <c r="I82" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I125-'Energiebedarf Sek.stahl var.'!I81-('Verbrauch je Träger 2019'!J126-'Energiebedarf Sek.stahl 2019'!I10)</f>
-        <v>430.70816986499631</v>
+        <v>267.72046946628961</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
@@ -20571,23 +20572,23 @@
       </c>
       <c r="E83" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E126-'Energiebedarf Sek.stahl var.'!E82-('Verbrauch je Träger 2019'!F127-'Energiebedarf Sek.stahl 2019'!E11)</f>
-        <v>-7173.7666666666664</v>
+        <v>-6679.0767534116148</v>
       </c>
       <c r="F83" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F126-'Energiebedarf Sek.stahl var.'!F82-('Verbrauch je Träger 2019'!G127-'Energiebedarf Sek.stahl 2019'!F11)</f>
-        <v>-8746.7000000000007</v>
+        <v>-8143.5434623928904</v>
       </c>
       <c r="G83" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G126-'Energiebedarf Sek.stahl var.'!G82-('Verbrauch je Träger 2019'!H127-'Energiebedarf Sek.stahl 2019'!G11)</f>
-        <v>-2235.4498834498845</v>
+        <v>-2247.5376581527016</v>
       </c>
       <c r="H83" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H126-'Energiebedarf Sek.stahl var.'!H82-('Verbrauch je Träger 2019'!I127-'Energiebedarf Sek.stahl 2019'!H11)</f>
-        <v>1801.0999999999985</v>
+        <v>1424.4917803871776</v>
       </c>
       <c r="I83" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I126-'Energiebedarf Sek.stahl var.'!I82-('Verbrauch je Träger 2019'!J127-'Energiebedarf Sek.stahl 2019'!I11)</f>
-        <v>621.213706536053</v>
+        <v>386.13529249945714</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
@@ -20601,23 +20602,23 @@
       </c>
       <c r="E84" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E127-'Energiebedarf Sek.stahl var.'!E83-('Verbrauch je Träger 2019'!F128-'Energiebedarf Sek.stahl 2019'!E12)</f>
-        <v>-13104.080444444444</v>
+        <v>-12200.446869565218</v>
       </c>
       <c r="F84" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F127-'Energiebedarf Sek.stahl var.'!F83-('Verbrauch je Träger 2019'!G128-'Energiebedarf Sek.stahl 2019'!F12)</f>
-        <v>-15977.305333333337</v>
+        <v>-14875.539391304348</v>
       </c>
       <c r="G84" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G127-'Energiebedarf Sek.stahl var.'!G83-('Verbrauch je Träger 2019'!H128-'Energiebedarf Sek.stahl 2019'!G12)</f>
-        <v>-4083.4217871017881</v>
+        <v>-4105.5021222256019</v>
       </c>
       <c r="H84" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H127-'Energiebedarf Sek.stahl var.'!H83-('Verbrauch je Träger 2019'!I128-'Energiebedarf Sek.stahl 2019'!H12)</f>
-        <v>3290.0093333333334</v>
+        <v>2602.0716521739141</v>
       </c>
       <c r="I84" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I127-'Energiebedarf Sek.stahl var.'!I83-('Verbrauch je Träger 2019'!J128-'Energiebedarf Sek.stahl 2019'!I12)</f>
-        <v>1134.7503706058578</v>
+        <v>705.34046763234073</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
@@ -20631,23 +20632,23 @@
       </c>
       <c r="E85" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E128-'Energiebedarf Sek.stahl var.'!E84-('Verbrauch je Träger 2019'!F129-'Energiebedarf Sek.stahl 2019'!E13)</f>
-        <v>-6312.9146666666675</v>
+        <v>-5877.5875430022206</v>
       </c>
       <c r="F85" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F128-'Energiebedarf Sek.stahl var.'!F84-('Verbrauch je Träger 2019'!G129-'Energiebedarf Sek.stahl 2019'!F13)</f>
-        <v>-7697.0960000000005</v>
+        <v>-7166.3182469057438</v>
       </c>
       <c r="G85" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G128-'Energiebedarf Sek.stahl var.'!G84-('Verbrauch je Träger 2019'!H129-'Energiebedarf Sek.stahl 2019'!G13)</f>
-        <v>-1967.1958974358977</v>
+        <v>-1977.8331391743768</v>
       </c>
       <c r="H85" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H128-'Energiebedarf Sek.stahl var.'!H84-('Verbrauch je Träger 2019'!I129-'Energiebedarf Sek.stahl 2019'!H13)</f>
-        <v>1584.9680000000008</v>
+        <v>1253.5527667407168</v>
       </c>
       <c r="I85" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I128-'Energiebedarf Sek.stahl var.'!I84-('Verbrauch je Träger 2019'!J129-'Energiebedarf Sek.stahl 2019'!I13)</f>
-        <v>546.66806175172678</v>
+        <v>339.7990573995221</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
@@ -20661,23 +20662,23 @@
       </c>
       <c r="E86" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E129-'Energiebedarf Sek.stahl var.'!E85-('Verbrauch je Träger 2019'!F130-'Energiebedarf Sek.stahl 2019'!E14)</f>
-        <v>-5321.9783644444451</v>
+        <v>-4954.984407464297</v>
       </c>
       <c r="F86" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F129-'Energiebedarf Sek.stahl var.'!F85-('Verbrauch je Träger 2019'!G130-'Energiebedarf Sek.stahl 2019'!F14)</f>
-        <v>-6488.885173333334</v>
+        <v>-6041.4234433005386</v>
       </c>
       <c r="G86" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G129-'Energiebedarf Sek.stahl var.'!G85-('Verbrauch je Träger 2019'!H130-'Energiebedarf Sek.stahl 2019'!G14)</f>
-        <v>-1658.4057535353541</v>
+        <v>-1667.373270661551</v>
       </c>
       <c r="H86" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H129-'Energiebedarf Sek.stahl var.'!H85-('Verbrauch je Träger 2019'!I130-'Energiebedarf Sek.stahl 2019'!H14)</f>
-        <v>1336.1760533333336</v>
+        <v>1056.7829688099009</v>
       </c>
       <c r="I86" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I129-'Energiebedarf Sek.stahl var.'!I85-('Verbrauch je Träger 2019'!J130-'Energiebedarf Sek.stahl 2019'!I14)</f>
-        <v>460.85774175554616</v>
+        <v>286.46090232893039</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
@@ -20691,23 +20692,23 @@
       </c>
       <c r="E87" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E130-'Energiebedarf Sek.stahl var.'!E86-('Verbrauch je Träger 2019'!F131-'Energiebedarf Sek.stahl 2019'!E15)</f>
-        <v>-4112.9595555555552</v>
+        <v>-3829.337338622659</v>
       </c>
       <c r="F87" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F130-'Energiebedarf Sek.stahl var.'!F86-('Verbrauch je Träger 2019'!G131-'Energiebedarf Sek.stahl 2019'!F15)</f>
-        <v>-5014.7746666666681</v>
+        <v>-4668.9649184385908</v>
       </c>
       <c r="G87" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G130-'Energiebedarf Sek.stahl var.'!G86-('Verbrauch je Träger 2019'!H131-'Energiebedarf Sek.stahl 2019'!G15)</f>
-        <v>-1281.6579331779335</v>
+        <v>-1288.5882573408821</v>
       </c>
       <c r="H87" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H130-'Energiebedarf Sek.stahl var.'!H86-('Verbrauch je Träger 2019'!I131-'Energiebedarf Sek.stahl 2019'!H15)</f>
-        <v>1032.630666666666</v>
+        <v>816.70862075531477</v>
       </c>
       <c r="I87" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I130-'Energiebedarf Sek.stahl var.'!I86-('Verbrauch je Träger 2019'!J131-'Energiebedarf Sek.stahl 2019'!I15)</f>
-        <v>356.16252508066918</v>
+        <v>221.38423436635458</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
@@ -20721,23 +20722,23 @@
       </c>
       <c r="E88" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E131-'Energiebedarf Sek.stahl var.'!E87-('Verbrauch je Träger 2019'!F132-'Energiebedarf Sek.stahl 2019'!E16)</f>
-        <v>-9565.0222222222237</v>
+        <v>-8905.4356712154859</v>
       </c>
       <c r="F88" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F131-'Energiebedarf Sek.stahl var.'!F87-('Verbrauch je Träger 2019'!G132-'Energiebedarf Sek.stahl 2019'!F16)</f>
-        <v>-11662.266666666668</v>
+        <v>-10858.057949857188</v>
       </c>
       <c r="G88" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G131-'Energiebedarf Sek.stahl var.'!G87-('Verbrauch je Träger 2019'!H132-'Energiebedarf Sek.stahl 2019'!G16)</f>
-        <v>-2980.5998445998466</v>
+        <v>-2996.7168775369337</v>
       </c>
       <c r="H88" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H131-'Energiebedarf Sek.stahl var.'!H87-('Verbrauch je Träger 2019'!I132-'Energiebedarf Sek.stahl 2019'!H16)</f>
-        <v>2401.4666666666653</v>
+        <v>1899.3223738495708</v>
       </c>
       <c r="I88" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I131-'Energiebedarf Sek.stahl var.'!I87-('Verbrauch je Träger 2019'!J132-'Energiebedarf Sek.stahl 2019'!I16)</f>
-        <v>828.28494204806884</v>
+        <v>514.84705666593982</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
@@ -20751,23 +20752,23 @@
       </c>
       <c r="E89" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E132-'Energiebedarf Sek.stahl var.'!E88-('Verbrauch je Träger 2019'!F133-'Energiebedarf Sek.stahl 2019'!E17)</f>
-        <v>-11478.026666666668</v>
+        <v>-10686.522805458586</v>
       </c>
       <c r="F89" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F132-'Energiebedarf Sek.stahl var.'!F88-('Verbrauch je Träger 2019'!G133-'Energiebedarf Sek.stahl 2019'!F17)</f>
-        <v>-13994.720000000001</v>
+        <v>-13029.669539828625</v>
       </c>
       <c r="G89" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G132-'Energiebedarf Sek.stahl var.'!G88-('Verbrauch je Träger 2019'!H133-'Energiebedarf Sek.stahl 2019'!G17)</f>
-        <v>-3576.7198135198141</v>
+        <v>-3596.060253044323</v>
       </c>
       <c r="H89" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H132-'Energiebedarf Sek.stahl var.'!H88-('Verbrauch je Träger 2019'!I133-'Energiebedarf Sek.stahl 2019'!H17)</f>
-        <v>2881.7599999999984</v>
+        <v>2279.1868486194835</v>
       </c>
       <c r="I89" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I132-'Energiebedarf Sek.stahl var.'!I88-('Verbrauch je Träger 2019'!J133-'Energiebedarf Sek.stahl 2019'!I17)</f>
-        <v>993.94193045768588</v>
+        <v>617.8164679991296</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -20781,23 +20782,23 @@
       </c>
       <c r="E90" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E133-'Energiebedarf Sek.stahl var.'!E89-('Verbrauch je Träger 2019'!F134-'Energiebedarf Sek.stahl 2019'!E18)</f>
-        <v>-8799.8204444444436</v>
+        <v>-8193.0008175182465</v>
       </c>
       <c r="F90" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F133-'Energiebedarf Sek.stahl var.'!F89-('Verbrauch je Träger 2019'!G134-'Energiebedarf Sek.stahl 2019'!F18)</f>
-        <v>-10729.285333333335</v>
+        <v>-9989.4133138686138</v>
       </c>
       <c r="G90" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G133-'Energiebedarf Sek.stahl var.'!G89-('Verbrauch je Träger 2019'!H134-'Energiebedarf Sek.stahl 2019'!G18)</f>
-        <v>-2742.1518570318576</v>
+        <v>-2756.9795273339796</v>
       </c>
       <c r="H90" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H133-'Energiebedarf Sek.stahl var.'!H89-('Verbrauch je Träger 2019'!I134-'Energiebedarf Sek.stahl 2019'!H18)</f>
-        <v>2209.3493333333336</v>
+        <v>1747.3765839416064</v>
       </c>
       <c r="I90" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I133-'Energiebedarf Sek.stahl var.'!I89-('Verbrauch je Träger 2019'!J134-'Energiebedarf Sek.stahl 2019'!I18)</f>
-        <v>762.02214668422494</v>
+        <v>473.65929213266827</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
@@ -20811,23 +20812,23 @@
       </c>
       <c r="E91" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E134-'Energiebedarf Sek.stahl var.'!E90-('Verbrauch je Träger 2019'!F135-'Energiebedarf Sek.stahl 2019'!E19)</f>
-        <v>-4464.9523733333317</v>
+        <v>-4157.057371323388</v>
       </c>
       <c r="F91" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F134-'Energiebedarf Sek.stahl var.'!F90-('Verbrauch je Träger 2019'!G135-'Energiebedarf Sek.stahl 2019'!F19)</f>
-        <v>-5443.9460799999997</v>
+        <v>-5068.5414509933344</v>
       </c>
       <c r="G91" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G134-'Energiebedarf Sek.stahl var.'!G90-('Verbrauch je Träger 2019'!H135-'Energiebedarf Sek.stahl 2019'!G19)</f>
-        <v>-1391.3440074592086</v>
+        <v>-1398.8674384342416</v>
       </c>
       <c r="H91" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H134-'Energiebedarf Sek.stahl var.'!H90-('Verbrauch je Träger 2019'!I135-'Energiebedarf Sek.stahl 2019'!H19)</f>
-        <v>1121.0046400000001</v>
+        <v>886.60368411297986</v>
       </c>
       <c r="I91" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I134-'Energiebedarf Sek.stahl var.'!I90-('Verbrauch je Träger 2019'!J135-'Energiebedarf Sek.stahl 2019'!I19)</f>
-        <v>386.64341094803831</v>
+        <v>240.33060605166202</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
@@ -20841,23 +20842,23 @@
       </c>
       <c r="E92" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E135-'Energiebedarf Sek.stahl var.'!E91-('Verbrauch je Träger 2019'!F136-'Energiebedarf Sek.stahl 2019'!E20)</f>
-        <v>-2142.5649777777776</v>
+        <v>-1994.8175903522688</v>
       </c>
       <c r="F92" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F135-'Energiebedarf Sek.stahl var.'!F91-('Verbrauch je Träger 2019'!G136-'Energiebedarf Sek.stahl 2019'!F20)</f>
-        <v>-2612.347733333334</v>
+        <v>-2432.2049807680105</v>
       </c>
       <c r="G92" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G135-'Energiebedarf Sek.stahl var.'!G91-('Verbrauch je Träger 2019'!H136-'Energiebedarf Sek.stahl 2019'!G20)</f>
-        <v>-667.65436519036484</v>
+        <v>-671.26458056827323</v>
       </c>
       <c r="H92" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H135-'Energiebedarf Sek.stahl var.'!H91-('Verbrauch je Träger 2019'!I136-'Energiebedarf Sek.stahl 2019'!H20)</f>
-        <v>537.92853333333369</v>
+        <v>425.44821174230401</v>
       </c>
       <c r="I92" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I135-'Energiebedarf Sek.stahl var.'!I91-('Verbrauch je Träger 2019'!J136-'Energiebedarf Sek.stahl 2019'!I20)</f>
-        <v>185.5358270187678</v>
+        <v>115.32574069317093</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
@@ -20871,23 +20872,23 @@
       </c>
       <c r="E93" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E136-'Energiebedarf Sek.stahl var.'!E92-('Verbrauch je Träger 2019'!F137-'Energiebedarf Sek.stahl 2019'!E21)</f>
-        <v>-11478.026666666668</v>
+        <v>-10686.522805458586</v>
       </c>
       <c r="F93" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F136-'Energiebedarf Sek.stahl var.'!F92-('Verbrauch je Träger 2019'!G137-'Energiebedarf Sek.stahl 2019'!F21)</f>
-        <v>-13994.720000000001</v>
+        <v>-13029.669539828625</v>
       </c>
       <c r="G93" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G136-'Energiebedarf Sek.stahl var.'!G92-('Verbrauch je Träger 2019'!H137-'Energiebedarf Sek.stahl 2019'!G21)</f>
-        <v>-3576.7198135198141</v>
+        <v>-3596.060253044323</v>
       </c>
       <c r="H93" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H136-'Energiebedarf Sek.stahl var.'!H92-('Verbrauch je Träger 2019'!I137-'Energiebedarf Sek.stahl 2019'!H21)</f>
-        <v>2881.7599999999984</v>
+        <v>2279.1868486194835</v>
       </c>
       <c r="I93" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I136-'Energiebedarf Sek.stahl var.'!I92-('Verbrauch je Träger 2019'!J137-'Energiebedarf Sek.stahl 2019'!I21)</f>
-        <v>993.94193045768588</v>
+        <v>617.8164679991296</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
@@ -20901,23 +20902,23 @@
       </c>
       <c r="E94" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E137-'Energiebedarf Sek.stahl var.'!E93-('Verbrauch je Träger 2019'!F138-'Energiebedarf Sek.stahl 2019'!E22)</f>
-        <v>-3060.8071111111112</v>
+        <v>-2849.7394147889554</v>
       </c>
       <c r="F94" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F137-'Energiebedarf Sek.stahl var.'!F93-('Verbrauch je Träger 2019'!G138-'Energiebedarf Sek.stahl 2019'!F22)</f>
-        <v>-3731.925333333334</v>
+        <v>-3474.5785439543001</v>
       </c>
       <c r="G94" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G137-'Energiebedarf Sek.stahl var.'!G93-('Verbrauch je Träger 2019'!H138-'Energiebedarf Sek.stahl 2019'!G22)</f>
-        <v>-953.79195027195055</v>
+        <v>-958.94940081181903</v>
       </c>
       <c r="H94" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H137-'Energiebedarf Sek.stahl var.'!H93-('Verbrauch je Träger 2019'!I138-'Energiebedarf Sek.stahl 2019'!H22)</f>
-        <v>768.46933333333391</v>
+        <v>607.78315963186242</v>
       </c>
       <c r="I94" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I137-'Energiebedarf Sek.stahl var.'!I93-('Verbrauch je Träger 2019'!J138-'Energiebedarf Sek.stahl 2019'!I22)</f>
-        <v>265.05118145538199</v>
+        <v>164.75105813310074</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
@@ -20931,23 +20932,23 @@
       </c>
       <c r="E95" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E138-'Energiebedarf Sek.stahl var.'!E94-('Verbrauch je Träger 2019'!F139-'Energiebedarf Sek.stahl 2019'!E23)</f>
-        <v>-16260.537777777778</v>
+        <v>-15139.240641066326</v>
       </c>
       <c r="F95" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F138-'Energiebedarf Sek.stahl var.'!F94-('Verbrauch je Träger 2019'!G139-'Energiebedarf Sek.stahl 2019'!F23)</f>
-        <v>-19825.853333333336</v>
+        <v>-18458.698514757216</v>
       </c>
       <c r="G95" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G138-'Energiebedarf Sek.stahl var.'!G94-('Verbrauch je Träger 2019'!H139-'Energiebedarf Sek.stahl 2019'!G23)</f>
-        <v>-5067.0197358197347</v>
+        <v>-5094.4186918127907</v>
       </c>
       <c r="H95" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H138-'Energiebedarf Sek.stahl var.'!H94-('Verbrauch je Träger 2019'!I139-'Energiebedarf Sek.stahl 2019'!H23)</f>
-        <v>4082.493333333332</v>
+        <v>3228.8480355442698</v>
       </c>
       <c r="I95" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I138-'Energiebedarf Sek.stahl var.'!I94-('Verbrauch je Träger 2019'!J139-'Energiebedarf Sek.stahl 2019'!I23)</f>
-        <v>1408.0844014817212</v>
+        <v>875.2399963320986</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
@@ -20961,23 +20962,23 @@
       </c>
       <c r="E96" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E139-'Energiebedarf Sek.stahl var.'!E95-('Verbrauch je Träger 2019'!F140-'Energiebedarf Sek.stahl 2019'!E24)</f>
-        <v>-13037.125288888887</v>
+        <v>-12138.108819866708</v>
       </c>
       <c r="F96" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F139-'Energiebedarf Sek.stahl var.'!F95-('Verbrauch je Träger 2019'!G140-'Energiebedarf Sek.stahl 2019'!F24)</f>
-        <v>-15895.66946666667</v>
+        <v>-14799.532985655347</v>
       </c>
       <c r="G96" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G139-'Energiebedarf Sek.stahl var.'!G95-('Verbrauch je Träger 2019'!H140-'Energiebedarf Sek.stahl 2019'!G24)</f>
-        <v>-4062.5575881895893</v>
+        <v>-4084.5251040828443</v>
       </c>
       <c r="H96" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H139-'Energiebedarf Sek.stahl var.'!H95-('Verbrauch je Träger 2019'!I140-'Energiebedarf Sek.stahl 2019'!H24)</f>
-        <v>3273.1990666666679</v>
+        <v>2588.7763955569644</v>
       </c>
       <c r="I96" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I139-'Energiebedarf Sek.stahl var.'!I95-('Verbrauch je Träger 2019'!J140-'Energiebedarf Sek.stahl 2019'!I24)</f>
-        <v>1128.9523760115171</v>
+        <v>701.73653823567656</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
@@ -20991,23 +20992,23 @@
       </c>
       <c r="E97" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E140-'Energiebedarf Sek.stahl var.'!E96-('Verbrauch je Träger 2019'!F141-'Energiebedarf Sek.stahl 2019'!E25)</f>
-        <v>-5212.9371111111104</v>
+        <v>-4853.46244081244</v>
       </c>
       <c r="F97" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F140-'Energiebedarf Sek.stahl var.'!F96-('Verbrauch je Träger 2019'!G141-'Energiebedarf Sek.stahl 2019'!F25)</f>
-        <v>-6355.9353333333338</v>
+        <v>-5917.6415826721686</v>
       </c>
       <c r="G97" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G140-'Energiebedarf Sek.stahl var.'!G96-('Verbrauch je Träger 2019'!H141-'Energiebedarf Sek.stahl 2019'!G25)</f>
-        <v>-1624.4269153069163</v>
+        <v>-1633.2106982576297</v>
       </c>
       <c r="H97" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H140-'Energiebedarf Sek.stahl var.'!H96-('Verbrauch je Träger 2019'!I141-'Energiebedarf Sek.stahl 2019'!H25)</f>
-        <v>1308.7993333333334</v>
+        <v>1035.1306937480158</v>
       </c>
       <c r="I97" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I140-'Energiebedarf Sek.stahl var.'!I96-('Verbrauch je Träger 2019'!J141-'Energiebedarf Sek.stahl 2019'!I25)</f>
-        <v>451.41529341619844</v>
+        <v>280.59164588293788</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
@@ -21021,23 +21022,23 @@
       </c>
       <c r="E98" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E141-'Energiebedarf Sek.stahl var.'!E97-('Verbrauch je Träger 2019'!F142-'Energiebedarf Sek.stahl 2019'!E26)</f>
-        <v>-5212.9371111111104</v>
+        <v>-4853.46244081244</v>
       </c>
       <c r="F98" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F141-'Energiebedarf Sek.stahl var.'!F97-('Verbrauch je Träger 2019'!G142-'Energiebedarf Sek.stahl 2019'!F26)</f>
-        <v>-6355.9353333333338</v>
+        <v>-5917.6415826721686</v>
       </c>
       <c r="G98" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G141-'Energiebedarf Sek.stahl var.'!G97-('Verbrauch je Träger 2019'!H142-'Energiebedarf Sek.stahl 2019'!G26)</f>
-        <v>-1624.4269153069163</v>
+        <v>-1633.2106982576297</v>
       </c>
       <c r="H98" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H141-'Energiebedarf Sek.stahl var.'!H97-('Verbrauch je Träger 2019'!I142-'Energiebedarf Sek.stahl 2019'!H26)</f>
-        <v>1308.7993333333334</v>
+        <v>1035.1306937480158</v>
       </c>
       <c r="I98" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I141-'Energiebedarf Sek.stahl var.'!I97-('Verbrauch je Träger 2019'!J142-'Energiebedarf Sek.stahl 2019'!I26)</f>
-        <v>451.41529341619844</v>
+        <v>280.59164588293788</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -21051,23 +21052,23 @@
       </c>
       <c r="E99" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E142-'Energiebedarf Sek.stahl var.'!E98-('Verbrauch je Träger 2019'!F143-'Energiebedarf Sek.stahl 2019'!E27)</f>
-        <v>-3921.6591111111111</v>
+        <v>-3651.2286251983487</v>
       </c>
       <c r="F99" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F142-'Energiebedarf Sek.stahl var.'!F98-('Verbrauch je Träger 2019'!G143-'Energiebedarf Sek.stahl 2019'!F27)</f>
-        <v>-4781.5293333333329</v>
+        <v>-4451.8037594414463</v>
       </c>
       <c r="G99" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G142-'Energiebedarf Sek.stahl var.'!G98-('Verbrauch je Träger 2019'!H143-'Energiebedarf Sek.stahl 2019'!G27)</f>
-        <v>-1222.045936285936</v>
+        <v>-1228.6539197901434</v>
       </c>
       <c r="H99" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H142-'Energiebedarf Sek.stahl var.'!H98-('Verbrauch je Träger 2019'!I143-'Energiebedarf Sek.stahl 2019'!H27)</f>
-        <v>984.60133333333397</v>
+        <v>778.72217327832459</v>
       </c>
       <c r="I99" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I142-'Energiebedarf Sek.stahl var.'!I98-('Verbrauch je Träger 2019'!J143-'Energiebedarf Sek.stahl 2019'!I27)</f>
-        <v>339.59682623970866</v>
+        <v>211.08729323303623</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -21081,23 +21082,23 @@
       </c>
       <c r="E100" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E143-'Energiebedarf Sek.stahl var.'!E99-('Verbrauch je Träger 2019'!F144-'Energiebedarf Sek.stahl 2019'!E28)</f>
-        <v>-8608.52</v>
+        <v>-8014.8921040939385</v>
       </c>
       <c r="F100" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F143-'Energiebedarf Sek.stahl var.'!F99-('Verbrauch je Träger 2019'!G144-'Energiebedarf Sek.stahl 2019'!F28)</f>
-        <v>-10496.04</v>
+        <v>-9772.2521548714685</v>
       </c>
       <c r="G100" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G143-'Energiebedarf Sek.stahl var.'!G99-('Verbrauch je Träger 2019'!H144-'Energiebedarf Sek.stahl 2019'!G28)</f>
-        <v>-2682.539860139861</v>
+        <v>-2697.0451897832409</v>
       </c>
       <c r="H100" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H143-'Energiebedarf Sek.stahl var.'!H99-('Verbrauch je Träger 2019'!I144-'Energiebedarf Sek.stahl 2019'!H28)</f>
-        <v>2161.3200000000015</v>
+        <v>1709.3901364646154</v>
       </c>
       <c r="I100" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I143-'Energiebedarf Sek.stahl var.'!I99-('Verbrauch je Träger 2019'!J144-'Energiebedarf Sek.stahl 2019'!I28)</f>
-        <v>745.45644784326487</v>
+        <v>463.36235099934765</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
@@ -21111,23 +21112,23 @@
       </c>
       <c r="E101" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E144-'Energiebedarf Sek.stahl var.'!E100-('Verbrauch je Träger 2019'!F145-'Energiebedarf Sek.stahl 2019'!E29)</f>
-        <v>-4543.3855555555565</v>
+        <v>-4230.0819438273556</v>
       </c>
       <c r="F101" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F144-'Energiebedarf Sek.stahl var.'!F100-('Verbrauch je Träger 2019'!G145-'Energiebedarf Sek.stahl 2019'!F29)</f>
-        <v>-5539.5766666666659</v>
+        <v>-5157.5775261821636</v>
       </c>
       <c r="G101" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G144-'Energiebedarf Sek.stahl var.'!G100-('Verbrauch je Träger 2019'!H145-'Energiebedarf Sek.stahl 2019'!G29)</f>
-        <v>-1415.7849261849265</v>
+        <v>-1423.4405168300441</v>
       </c>
       <c r="H101" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H144-'Energiebedarf Sek.stahl var.'!H100-('Verbrauch je Träger 2019'!I145-'Energiebedarf Sek.stahl 2019'!H29)</f>
-        <v>1140.6966666666667</v>
+        <v>902.17812757854608</v>
       </c>
       <c r="I101" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I144-'Energiebedarf Sek.stahl var.'!I100-('Verbrauch je Träger 2019'!J145-'Energiebedarf Sek.stahl 2019'!I29)</f>
-        <v>393.4353474728332</v>
+        <v>244.55235191632164</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -21141,23 +21142,23 @@
       </c>
       <c r="E102" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E145-'Energiebedarf Sek.stahl var.'!E101-('Verbrauch je Träger 2019'!F146-'Energiebedarf Sek.stahl 2019'!E30)</f>
-        <v>-4543.3855555555565</v>
+        <v>-4230.0819438273556</v>
       </c>
       <c r="F102" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F145-'Energiebedarf Sek.stahl var.'!F101-('Verbrauch je Träger 2019'!G146-'Energiebedarf Sek.stahl 2019'!F30)</f>
-        <v>-5539.5766666666659</v>
+        <v>-5157.5775261821636</v>
       </c>
       <c r="G102" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G145-'Energiebedarf Sek.stahl var.'!G101-('Verbrauch je Träger 2019'!H146-'Energiebedarf Sek.stahl 2019'!G30)</f>
-        <v>-1415.7849261849265</v>
+        <v>-1423.4405168300441</v>
       </c>
       <c r="H102" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H145-'Energiebedarf Sek.stahl var.'!H101-('Verbrauch je Träger 2019'!I146-'Energiebedarf Sek.stahl 2019'!H30)</f>
-        <v>1140.6966666666667</v>
+        <v>902.17812757854608</v>
       </c>
       <c r="I102" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I145-'Energiebedarf Sek.stahl var.'!I101-('Verbrauch je Träger 2019'!J146-'Energiebedarf Sek.stahl 2019'!I30)</f>
-        <v>393.4353474728332</v>
+        <v>244.55235191632164</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
@@ -21171,23 +21172,23 @@
       </c>
       <c r="E103" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E146-'Energiebedarf Sek.stahl var.'!E102-('Verbrauch je Träger 2019'!F147-'Energiebedarf Sek.stahl 2019'!E31)</f>
-        <v>-4399.9102222222218</v>
+        <v>-4096.5004087591233</v>
       </c>
       <c r="F103" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F146-'Energiebedarf Sek.stahl var.'!F102-('Verbrauch je Träger 2019'!G147-'Energiebedarf Sek.stahl 2019'!F31)</f>
-        <v>-5364.6426666666675</v>
+        <v>-4994.7066569343069</v>
       </c>
       <c r="G103" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G146-'Energiebedarf Sek.stahl var.'!G102-('Verbrauch je Träger 2019'!H147-'Energiebedarf Sek.stahl 2019'!G31)</f>
-        <v>-1371.0759285159288</v>
+        <v>-1378.4897636669898</v>
       </c>
       <c r="H103" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H146-'Energiebedarf Sek.stahl var.'!H102-('Verbrauch je Träger 2019'!I147-'Energiebedarf Sek.stahl 2019'!H31)</f>
-        <v>1104.6746666666668</v>
+        <v>873.68829197080322</v>
       </c>
       <c r="I103" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I146-'Energiebedarf Sek.stahl var.'!I102-('Verbrauch je Träger 2019'!J147-'Energiebedarf Sek.stahl 2019'!I31)</f>
-        <v>381.01107334211247</v>
+        <v>236.82964606633413</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -21201,23 +21202,23 @@
       </c>
       <c r="E104" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E147-'Energiebedarf Sek.stahl var.'!E103-('Verbrauch je Träger 2019'!F148-'Energiebedarf Sek.stahl 2019'!E32)</f>
-        <v>-2869.5066666666671</v>
+        <v>-2671.6307013646465</v>
       </c>
       <c r="F104" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F147-'Energiebedarf Sek.stahl var.'!F103-('Verbrauch je Träger 2019'!G148-'Energiebedarf Sek.stahl 2019'!F32)</f>
-        <v>-3498.6800000000003</v>
+        <v>-3257.4173849571562</v>
       </c>
       <c r="G104" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G147-'Energiebedarf Sek.stahl var.'!G103-('Verbrauch je Träger 2019'!H148-'Energiebedarf Sek.stahl 2019'!G32)</f>
-        <v>-894.17995337995353</v>
+        <v>-899.01506326108074</v>
       </c>
       <c r="H104" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H147-'Energiebedarf Sek.stahl var.'!H103-('Verbrauch je Träger 2019'!I148-'Energiebedarf Sek.stahl 2019'!H32)</f>
-        <v>720.4399999999996</v>
+        <v>569.79671215487087</v>
       </c>
       <c r="I104" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I147-'Energiebedarf Sek.stahl var.'!I103-('Verbrauch je Träger 2019'!J148-'Energiebedarf Sek.stahl 2019'!I32)</f>
-        <v>248.48548261442147</v>
+        <v>154.4541169997824</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
@@ -21231,23 +21232,23 @@
       </c>
       <c r="E105" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E148-'Energiebedarf Sek.stahl var.'!E104-('Verbrauch je Träger 2019'!F149-'Energiebedarf Sek.stahl 2019'!E33)</f>
-        <v>-7240.7218222222227</v>
+        <v>-6741.414803110124</v>
       </c>
       <c r="F105" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F148-'Energiebedarf Sek.stahl var.'!F104-('Verbrauch je Träger 2019'!G149-'Energiebedarf Sek.stahl 2019'!F33)</f>
-        <v>-8828.33586666667</v>
+        <v>-8219.5498680418932</v>
       </c>
       <c r="G105" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G148-'Energiebedarf Sek.stahl var.'!G104-('Verbrauch je Träger 2019'!H149-'Energiebedarf Sek.stahl 2019'!G33)</f>
-        <v>-2256.3140823620824</v>
+        <v>-2268.51467629546</v>
       </c>
       <c r="H105" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H148-'Energiebedarf Sek.stahl var.'!H104-('Verbrauch je Träger 2019'!I149-'Energiebedarf Sek.stahl 2019'!H33)</f>
-        <v>1817.9102666666658</v>
+        <v>1437.7870370041237</v>
       </c>
       <c r="I105" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I148-'Energiebedarf Sek.stahl var.'!I104-('Verbrauch je Träger 2019'!J149-'Energiebedarf Sek.stahl 2019'!I33)</f>
-        <v>627.01170113038916</v>
+        <v>389.73922189611676</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -21261,28 +21262,28 @@
       </c>
       <c r="E106" s="56">
         <f>'Verbrauch je Träger 2050 var.'!E149-'Energiebedarf Sek.stahl var.'!E105-('Verbrauch je Träger 2019'!F150-'Energiebedarf Sek.stahl 2019'!E34)</f>
-        <v>-5356.4124444444442</v>
+        <v>-4987.0439758806715</v>
       </c>
       <c r="F106" s="60">
         <f>'Verbrauch je Träger 2050 var.'!F149-'Energiebedarf Sek.stahl var.'!F105-('Verbrauch je Träger 2019'!G150-'Energiebedarf Sek.stahl 2019'!F34)</f>
-        <v>-6530.8693333333331</v>
+        <v>-6080.5124519200244</v>
       </c>
       <c r="G106" s="57">
         <f>'Verbrauch je Träger 2050 var.'!G149-'Energiebedarf Sek.stahl var.'!G105-('Verbrauch je Träger 2019'!H150-'Energiebedarf Sek.stahl 2019'!G34)</f>
-        <v>-1669.1359129759121</v>
+        <v>-1678.161451420684</v>
       </c>
       <c r="H106" s="59">
         <f>'Verbrauch je Träger 2050 var.'!H149-'Energiebedarf Sek.stahl var.'!H105-('Verbrauch je Träger 2019'!I150-'Energiebedarf Sek.stahl 2019'!H34)</f>
-        <v>1344.8213333333342</v>
+        <v>1063.6205293557605</v>
       </c>
       <c r="I106" s="58">
         <f>'Verbrauch je Träger 2050 var.'!I149-'Energiebedarf Sek.stahl var.'!I105-('Verbrauch je Träger 2019'!J150-'Energiebedarf Sek.stahl 2019'!I34)</f>
-        <v>463.83956754691917</v>
+        <v>288.31435173292812</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -22919,8 +22920,8 @@
   </sheetPr>
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23079,7 +23080,7 @@
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="83"/>
       <c r="D24" s="83"/>
@@ -23101,31 +23102,30 @@
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="27">
-        <v>1.8</v>
+        <v>157.55000000000001</v>
       </c>
       <c r="D27" s="81">
-        <v>2.8</v>
+        <v>236</v>
       </c>
       <c r="E27" s="27">
         <f>1/C27 * D27 -1</f>
-        <v>0.55555555555555558</v>
+        <v>0.49793716280545852</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="35" t="str">
+        <f>Studienliste!F11</f>
+        <v>BCG-01 13</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>127</v>
-      </c>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>128</v>
-      </c>
+      <c r="D30" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23136,11 +23136,9 @@
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" location=":~:text=Die%20Statistik%20zeigt%20die%20Rohstahlerzeugung%20in%20Europa%20nach,erzeugt%2C%20davon%20waren%20rund%20125%20Millionen%20Tonnen%20unlegiert." display="https://de.statista.com/statistik/daten/studie/502604/umfrage/rohstahlerzeugung-in-europa-nach-qualitaet/ - :~:text=Die%20Statistik%20zeigt%20die%20Rohstahlerzeugung%20in%20Europa%20nach,erzeugt%2C%20davon%20waren%20rund%20125%20Millionen%20Tonnen%20unlegiert."/>
     <hyperlink ref="D15" r:id="rId2"/>
-    <hyperlink ref="D29" r:id="rId3" location=":~:text=%20Global%20steel%20demand%20continues%20to%20grow%20in,%20Ends%20%205%20.%20%20More%20"/>
-    <hyperlink ref="D30" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -28797,7 +28795,7 @@
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="82" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>

--- a/Energieträger und Sekundäranteile Europa.xlsx
+++ b/Energieträger und Sekundäranteile Europa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="822" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="Studienliste" sheetId="4" r:id="rId1"/>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,6 +970,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,36 +1020,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1470,15 +1458,15 @@
   </sheetPr>
   <dimension ref="C5:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="56" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="21"/>
+    <col min="5" max="5" width="21.28515625" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1561,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>10</v>
       </c>
@@ -1658,8 +1646,8 @@
   </sheetPr>
   <dimension ref="D5:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:J121"/>
+    <sheetView topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,29 +1662,29 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
     </row>
     <row r="7" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
@@ -2596,28 +2584,28 @@
       </c>
     </row>
     <row r="42" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="86" t="s">
+      <c r="F44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86" t="s">
+      <c r="G44" s="92"/>
+      <c r="H44" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" s="15" t="s">
@@ -3517,28 +3505,28 @@
       </c>
     </row>
     <row r="81" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
     </row>
     <row r="83" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F83" s="86" t="s">
+      <c r="F83" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86" t="s">
+      <c r="G83" s="92"/>
+      <c r="H83" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
@@ -4438,28 +4426,28 @@
       </c>
     </row>
     <row r="118" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D118" s="77" t="s">
+      <c r="D118" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
       <c r="K118" s="57"/>
       <c r="L118" s="57"/>
     </row>
     <row r="120" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F120" s="86" t="s">
+      <c r="F120" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86" t="s">
+      <c r="G120" s="92"/>
+      <c r="H120" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I120" s="86"/>
-      <c r="J120" s="86"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" s="15" t="s">
@@ -5360,18 +5348,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:J120"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="D42:J42"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5384,8 +5372,8 @@
   </sheetPr>
   <dimension ref="C3:I109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E76" sqref="E76:I76"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,15 +5388,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="67"/>
@@ -5420,15 +5408,15 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -6328,15 +6316,15 @@
       </c>
     </row>
     <row r="38" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
     </row>
     <row r="39" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="67"/>
@@ -6348,15 +6336,15 @@
       <c r="I39" s="67"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86" t="s">
+      <c r="F40" s="92"/>
+      <c r="G40" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
@@ -7256,15 +7244,15 @@
       </c>
     </row>
     <row r="73" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
     </row>
     <row r="74" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="67"/>
@@ -7276,15 +7264,15 @@
       <c r="I74" s="67"/>
     </row>
     <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86" t="s">
+      <c r="F75" s="92"/>
+      <c r="G75" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
@@ -8210,7 +8198,7 @@
   </sheetPr>
   <dimension ref="C3:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -8226,26 +8214,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -9150,26 +9138,26 @@
       </c>
     </row>
     <row r="39" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86" t="s">
+      <c r="F41" s="92"/>
+      <c r="G41" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
@@ -10069,26 +10057,26 @@
       </c>
     </row>
     <row r="74" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86" t="s">
+      <c r="F76" s="92"/>
+      <c r="G76" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
@@ -11026,26 +11014,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -11967,7 +11955,7 @@
   </sheetPr>
   <dimension ref="C5:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
@@ -11983,26 +11971,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
@@ -12902,26 +12890,26 @@
       </c>
     </row>
     <row r="42" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="44" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86" t="s">
+      <c r="F44" s="92"/>
+      <c r="G44" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="15" t="s">
@@ -13821,26 +13809,26 @@
       </c>
     </row>
     <row r="81" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
     </row>
     <row r="83" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E83" s="86" t="s">
+      <c r="E83" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86" t="s">
+      <c r="F83" s="92"/>
+      <c r="G83" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="15" t="s">
@@ -14740,26 +14728,26 @@
       </c>
     </row>
     <row r="117" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="78" t="s">
+      <c r="C117" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="78"/>
-      <c r="I117" s="78"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
     </row>
     <row r="119" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E119" s="86" t="s">
+      <c r="E119" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F119" s="86"/>
-      <c r="G119" s="86" t="s">
+      <c r="F119" s="92"/>
+      <c r="G119" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H119" s="86"/>
-      <c r="I119" s="86"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="15" t="s">
@@ -15700,15 +15688,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="67"/>
@@ -15720,15 +15708,15 @@
       <c r="I4" s="67"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -16628,15 +16616,15 @@
       </c>
     </row>
     <row r="38" spans="3:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
     </row>
     <row r="39" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="67"/>
@@ -16648,15 +16636,15 @@
       <c r="I39" s="67"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86" t="s">
+      <c r="F40" s="92"/>
+      <c r="G40" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
@@ -17556,15 +17544,15 @@
       </c>
     </row>
     <row r="73" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
     </row>
     <row r="74" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="67"/>
@@ -17576,15 +17564,15 @@
       <c r="I74" s="67"/>
     </row>
     <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86" t="s">
+      <c r="F75" s="92"/>
+      <c r="G75" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
@@ -18523,26 +18511,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -19447,26 +19435,26 @@
       </c>
     </row>
     <row r="39" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86" t="s">
+      <c r="F41" s="92"/>
+      <c r="G41" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
@@ -20371,26 +20359,26 @@
       </c>
     </row>
     <row r="74" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86" t="s">
+      <c r="F76" s="92"/>
+      <c r="G76" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
@@ -21324,7 +21312,7 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21339,12 +21327,12 @@
   <sheetData>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="38"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
@@ -21702,7 +21690,9 @@
       <c r="D28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
       <c r="F28" s="25">
         <v>4500</v>
       </c>
@@ -21825,23 +21815,23 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="8" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="79"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
@@ -21990,13 +21980,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="57"/>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22011,7 +22001,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="63" t="str">
@@ -22033,7 +22023,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22049,7 +22039,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22065,7 +22055,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22081,7 +22071,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="86" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="63" t="str">
@@ -22101,7 +22091,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22118,7 +22108,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22132,7 +22122,7 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="82"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22148,7 +22138,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="63" t="str">
@@ -22166,7 +22156,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22182,7 +22172,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22196,7 +22186,7 @@
       <c r="F18" s="65"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="82"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22212,7 +22202,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="86" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="63" t="str">
@@ -22231,7 +22221,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22249,7 +22239,7 @@
       <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22264,7 +22254,7 @@
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22280,7 +22270,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="63" t="str">
@@ -22298,7 +22288,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="81"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22315,7 +22305,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22331,7 +22321,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="82"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22352,7 +22342,7 @@
       <c r="F28" s="32"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="86" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="63" t="str">
@@ -22373,7 +22363,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="35" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22390,7 +22380,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="33" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -22406,7 +22396,7 @@
       <c r="F31" s="46"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22424,13 +22414,13 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="57"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -22446,7 +22436,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="63" t="str">
@@ -22467,7 +22457,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22486,7 +22476,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22505,7 +22495,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22524,7 +22514,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="86" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="63" t="str">
@@ -22545,7 +22535,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22564,7 +22554,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22583,7 +22573,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="82"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22602,7 +22592,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="86" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="63" t="str">
@@ -22620,7 +22610,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="81"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22636,7 +22626,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="81"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22652,7 +22642,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22668,7 +22658,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="86" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="63" t="str">
@@ -22689,7 +22679,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="81"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22708,7 +22698,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="81"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22727,7 +22717,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="82"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22746,7 +22736,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="63" t="str">
@@ -22767,7 +22757,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="81"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22786,7 +22776,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="81"/>
+      <c r="B59" s="87"/>
       <c r="C59" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22805,7 +22795,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="82"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22824,7 +22814,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="86" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="63" t="str">
@@ -22845,7 +22835,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="81"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="35" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -22863,7 +22853,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="81"/>
+      <c r="B64" s="87"/>
       <c r="C64" s="33" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -22882,7 +22872,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="82"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="36" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -22928,7 +22918,7 @@
   </sheetPr>
   <dimension ref="A3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -22945,15 +22935,15 @@
   <sheetData>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="7"/>
@@ -23070,14 +23060,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="80">
         <f>C26/(C26+C20)</f>
         <v>0.35918367346938773</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="81" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="76" t="s">
@@ -23091,12 +23081,12 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F17" s="7"/>
@@ -23112,7 +23102,7 @@
       <c r="D18" s="28">
         <v>2050</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="78" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23127,13 +23117,13 @@
       <c r="D19" s="24">
         <v>236</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="79">
         <f>1/C20 * D19 -1</f>
         <v>0.50318471337579629</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="77" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="25">
@@ -23147,10 +23137,10 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="84"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E24"/>
@@ -23214,26 +23204,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -24151,7 +24141,7 @@
   <dimension ref="D5:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:J121"/>
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24166,29 +24156,29 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
     </row>
     <row r="7" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
@@ -25088,28 +25078,28 @@
       </c>
     </row>
     <row r="42" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="86" t="s">
+      <c r="F44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86" t="s">
+      <c r="G44" s="92"/>
+      <c r="H44" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" s="15" t="s">
@@ -26009,28 +25999,28 @@
       </c>
     </row>
     <row r="81" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
     </row>
     <row r="83" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F83" s="86" t="s">
+      <c r="F83" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86" t="s">
+      <c r="G83" s="92"/>
+      <c r="H83" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
@@ -26930,28 +26920,28 @@
       </c>
     </row>
     <row r="118" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D118" s="77" t="s">
+      <c r="D118" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
       <c r="K118" s="57"/>
       <c r="L118" s="57"/>
     </row>
     <row r="120" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F120" s="86" t="s">
+      <c r="F120" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86" t="s">
+      <c r="G120" s="92"/>
+      <c r="H120" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="I120" s="86"/>
-      <c r="J120" s="86"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" s="15" t="s">
@@ -27877,7 +27867,7 @@
   <dimension ref="C2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I34"/>
+      <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27891,26 +27881,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
@@ -27923,18 +27913,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="95" t="str">
+      <c r="G5" s="72" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="H5" s="96" t="str">
+      <c r="H5" s="73" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="I5" s="97" t="str">
+      <c r="I5" s="74" t="str">
         <f>F5</f>
         <v>anderes Projekt</v>
       </c>
@@ -28843,26 +28833,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">

--- a/Energieträger und Sekundäranteile Europa.xlsx
+++ b/Energieträger und Sekundäranteile Europa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Studienliste" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="183">
   <si>
     <t>BCG-01 13</t>
   </si>
@@ -447,12 +447,6 @@
     <t>Sekundär</t>
   </si>
   <si>
-    <t>absoluter Verbrauch an sonstigen Brennstoffen je Route in 2019 [GWh/a]</t>
-  </si>
-  <si>
-    <t>absoluter Verbrauch an Kohle je Route in 2019 [GWh/a]</t>
-  </si>
-  <si>
     <t>EUROF-01 19</t>
   </si>
   <si>
@@ -466,18 +460,6 @@
   </si>
   <si>
     <t>European steel in figures 2020</t>
-  </si>
-  <si>
-    <t>absoluter Energiebedarf an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
-  </si>
-  <si>
-    <t>absoluter Energiebedarf an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
-  </si>
-  <si>
-    <t>absoluter Energiebedarf an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
-  </si>
-  <si>
-    <t>absoluter Energiebedarf an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
   </si>
   <si>
     <t>Anteil an der Gesamtproduktion</t>
@@ -525,7 +507,88 @@
     <t>Mehrenergieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44%  [GWh/a]</t>
   </si>
   <si>
-    <t>absoluter Energieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44% [GWh/a]</t>
+    <t>absoluter Verbrauch an Kohle in der Primärstahlproduktion je Route in 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Verbrauch an Erdgas in der Primärstahlproduktion je Route in 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Verbrauch an Strom in der Primärstahlproduktion je Route in 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Verbrauch an Wasserstoff in der Primärstahlproduktion je Route in 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Verbrauch an sonstigen Brennstoffen in der Primärstahlproduktion je Route in 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44%  [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Erdags je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44%  [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Kohle je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Erdgas je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an Strom je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 44%  [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 47% [GWh/a]</t>
+  </si>
+  <si>
+    <t>absoluter Energieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
+  </si>
+  <si>
+    <t>Mehrenergieverbrauch an sonstigen Brennstoffen je Route und Land in 2050 bei einer Steigerung der Rohstahlproduktion um 27% zu 2019 und einem Anteil der Sekundärstahlproduktion von 50% [GWh/a]</t>
   </si>
 </sst>
 </file>
@@ -924,7 +987,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1133,18 +1196,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,6 +1205,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,20 +1259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1747,30 +1798,30 @@
     </row>
     <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="13">
         <v>2019</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="18">
         <v>2020</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1837,15 +1888,15 @@
       <c r="I4" s="60"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2765,15 +2816,15 @@
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104" t="s">
+      <c r="F40" s="103"/>
+      <c r="G40" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
@@ -3693,15 +3744,15 @@
       <c r="I74" s="60"/>
     </row>
     <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="104" t="s">
+      <c r="E75" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104" t="s">
+      <c r="F75" s="103"/>
+      <c r="G75" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
@@ -4640,26 +4691,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -5564,26 +5615,26 @@
       </c>
     </row>
     <row r="39" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104" t="s">
+      <c r="F41" s="103"/>
+      <c r="G41" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
@@ -6488,26 +6539,26 @@
       </c>
     </row>
     <row r="74" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="96" t="s">
+      <c r="C74" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="104" t="s">
+      <c r="E76" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104" t="s">
+      <c r="F76" s="103"/>
+      <c r="G76" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
@@ -7455,26 +7506,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104" t="s">
+      <c r="F4" s="103"/>
+      <c r="G4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
@@ -8407,26 +8458,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -9359,29 +9410,29 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
     </row>
     <row r="7" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
@@ -10281,28 +10332,28 @@
       </c>
     </row>
     <row r="42" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104" t="s">
+      <c r="G44" s="103"/>
+      <c r="H44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" s="15" t="s">
@@ -11202,28 +11253,28 @@
       </c>
     </row>
     <row r="81" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D81" s="91" t="s">
+      <c r="D81" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="91"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
       <c r="K81" s="56"/>
       <c r="L81" s="56"/>
     </row>
     <row r="83" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F83" s="104" t="s">
+      <c r="F83" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="104"/>
-      <c r="H83" s="104" t="s">
+      <c r="G83" s="103"/>
+      <c r="H83" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="104"/>
-      <c r="J83" s="104"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
@@ -12123,28 +12174,28 @@
       </c>
     </row>
     <row r="118" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D118" s="91" t="s">
+      <c r="D118" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E118" s="91"/>
-      <c r="F118" s="91"/>
-      <c r="G118" s="91"/>
-      <c r="H118" s="91"/>
-      <c r="I118" s="91"/>
-      <c r="J118" s="91"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="90"/>
+      <c r="I118" s="90"/>
+      <c r="J118" s="90"/>
       <c r="K118" s="56"/>
       <c r="L118" s="56"/>
     </row>
     <row r="120" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F120" s="104" t="s">
+      <c r="F120" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104" t="s">
+      <c r="G120" s="103"/>
+      <c r="H120" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I120" s="104"/>
-      <c r="J120" s="104"/>
+      <c r="I120" s="103"/>
+      <c r="J120" s="103"/>
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" s="15" t="s">
@@ -13045,18 +13096,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="D81:J81"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="D118:J118"/>
     <mergeCell ref="F120:G120"/>
     <mergeCell ref="H120:J120"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13105,15 +13156,15 @@
       <c r="I4" s="60"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -14033,15 +14084,15 @@
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104" t="s">
+      <c r="F40" s="103"/>
+      <c r="G40" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
@@ -14961,15 +15012,15 @@
       <c r="I74" s="60"/>
     </row>
     <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="104" t="s">
+      <c r="E75" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104" t="s">
+      <c r="F75" s="103"/>
+      <c r="G75" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
@@ -15911,26 +15962,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -16835,26 +16886,26 @@
       </c>
     </row>
     <row r="39" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104" t="s">
+      <c r="F41" s="103"/>
+      <c r="G41" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
@@ -17754,26 +17805,26 @@
       </c>
     </row>
     <row r="74" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="96" t="s">
+      <c r="C74" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="104" t="s">
+      <c r="E76" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104" t="s">
+      <c r="F76" s="103"/>
+      <c r="G76" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
@@ -18695,7 +18746,7 @@
   </sheetPr>
   <dimension ref="B3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -18711,12 +18762,12 @@
   <sheetData>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="37"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="80"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -18737,7 +18788,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -18754,7 +18805,7 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="82">
         <f>IF(E6=0,F6/E$36,E6/E$36)</f>
         <v>3.5555764971964381E-2</v>
       </c>
@@ -18773,7 +18824,7 @@
       <c r="F7" s="24">
         <v>0</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="82">
         <f t="shared" ref="G7:G34" si="0">IF(E7=0,F7/E$36,E7/E$36)</f>
         <v>3.5555764971964381E-2</v>
       </c>
@@ -18792,7 +18843,7 @@
       <c r="F8" s="24">
         <v>0</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="82">
         <f t="shared" si="0"/>
         <v>5.1359374263770435E-2</v>
       </c>
@@ -18811,7 +18862,7 @@
       <c r="F9" s="24">
         <v>0</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="82">
         <f t="shared" si="0"/>
         <v>2.434151627950808E-2</v>
       </c>
@@ -18830,7 +18881,7 @@
       <c r="F10" s="24">
         <v>2600</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="82">
         <f t="shared" si="0"/>
         <v>2.4501719832257456E-2</v>
       </c>
@@ -18849,7 +18900,7 @@
       <c r="F11" s="24">
         <v>0</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>3.533901898883287E-2</v>
       </c>
@@ -18868,7 +18919,7 @@
       <c r="F12" s="24">
         <v>0</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="82">
         <f t="shared" si="0"/>
         <v>6.4552608019601374E-2</v>
       </c>
@@ -18887,7 +18938,7 @@
       <c r="F13" s="24">
         <v>3600</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="82">
         <f t="shared" si="0"/>
         <v>3.1098336710172925E-2</v>
       </c>
@@ -18906,7 +18957,7 @@
       <c r="F14" s="24">
         <v>0</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="82">
         <f t="shared" si="0"/>
         <v>2.6216840220515479E-2</v>
       </c>
@@ -18925,7 +18976,7 @@
       <c r="F15" s="24">
         <v>0</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="82">
         <f t="shared" si="0"/>
         <v>2.0261037553597511E-2</v>
       </c>
@@ -18944,7 +18995,7 @@
       <c r="F16" s="24">
         <v>5000</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="82">
         <f t="shared" si="0"/>
         <v>4.711869198511049E-2</v>
       </c>
@@ -18963,7 +19014,7 @@
       <c r="F17" s="24">
         <v>0</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="82">
         <f t="shared" si="0"/>
         <v>5.6542430382132594E-2</v>
       </c>
@@ -18982,7 +19033,7 @@
       <c r="F18" s="24">
         <v>4700</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="82">
         <f t="shared" si="0"/>
         <v>4.3349196626301656E-2</v>
       </c>
@@ -19001,7 +19052,7 @@
       <c r="F19" s="24">
         <v>0</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="82">
         <f t="shared" si="0"/>
         <v>2.1995005418649578E-2</v>
       </c>
@@ -19020,7 +19071,7 @@
       <c r="F20" s="24">
         <v>0</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="82">
         <f t="shared" si="0"/>
         <v>1.055458700466475E-2</v>
       </c>
@@ -19039,7 +19090,7 @@
       <c r="F21" s="24">
         <v>0</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="82">
         <f t="shared" si="0"/>
         <v>5.6542430382132594E-2</v>
       </c>
@@ -19058,7 +19109,7 @@
       <c r="F22" s="24">
         <v>1600</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="82">
         <f t="shared" si="0"/>
         <v>1.5077981435235357E-2</v>
       </c>
@@ -19077,7 +19128,7 @@
       <c r="F23" s="24">
         <v>10000</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="82">
         <f t="shared" si="0"/>
         <v>8.0101776374687836E-2</v>
       </c>
@@ -19096,7 +19147,7 @@
       <c r="F24" s="24">
         <v>0</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="82">
         <f t="shared" si="0"/>
         <v>6.4222777175705598E-2</v>
       </c>
@@ -19115,7 +19166,7 @@
       <c r="F25" s="24">
         <v>0</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="82">
         <f t="shared" si="0"/>
         <v>2.5679687131885218E-2</v>
       </c>
@@ -19134,7 +19185,7 @@
       <c r="F26" s="24">
         <v>0</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="82">
         <f t="shared" si="0"/>
         <v>2.5679687131885218E-2</v>
       </c>
@@ -19153,7 +19204,7 @@
       <c r="F27" s="24">
         <v>0</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="82">
         <f t="shared" si="0"/>
         <v>1.9318663713895304E-2</v>
       </c>
@@ -19172,7 +19223,7 @@
       <c r="F28" s="24">
         <v>4500</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G28" s="82">
         <f t="shared" si="0"/>
         <v>4.2406822786599442E-2</v>
       </c>
@@ -19191,7 +19242,7 @@
       <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="82">
         <f t="shared" si="0"/>
         <v>2.2381378692927483E-2</v>
       </c>
@@ -19210,7 +19261,7 @@
       <c r="F30" s="24">
         <v>0</v>
       </c>
-      <c r="G30" s="86">
+      <c r="G30" s="82">
         <f t="shared" si="0"/>
         <v>2.2381378692927483E-2</v>
       </c>
@@ -19229,7 +19280,7 @@
       <c r="F31" s="24">
         <v>2300</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="82">
         <f t="shared" si="0"/>
         <v>2.1674598313150828E-2</v>
       </c>
@@ -19247,7 +19298,7 @@
       <c r="F32" s="24">
         <v>1500</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="82">
         <f t="shared" si="0"/>
         <v>1.4135607595533149E-2</v>
       </c>
@@ -19265,7 +19316,7 @@
       <c r="F33" s="24">
         <v>0</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="82">
         <f t="shared" si="0"/>
         <v>3.5668849832728645E-2</v>
       </c>
@@ -19283,22 +19334,22 @@
       <c r="F34" s="24">
         <v>0</v>
       </c>
-      <c r="G34" s="86">
+      <c r="G34" s="82">
         <f t="shared" si="0"/>
         <v>2.6386467511661876E-2</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94">
+      <c r="D36" s="92"/>
+      <c r="E36" s="93">
         <f>SUM(E6:E34,F10,F16,F22,F28,F31,F32)</f>
         <v>106115</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="81">
         <f>SUM(G6:G34)</f>
         <v>0.99999999999999967</v>
@@ -19337,23 +19388,23 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="8" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97" t="s">
+      <c r="E8" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
@@ -19489,7 +19540,7 @@
   </sheetPr>
   <dimension ref="B4:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -19504,13 +19555,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="56"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19525,7 +19576,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="57" t="str">
@@ -19545,7 +19596,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19561,7 +19612,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19577,7 +19628,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="103"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19593,7 +19644,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="97" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="57" t="str">
@@ -19613,7 +19664,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="99"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19630,7 +19681,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19644,7 +19695,7 @@
       <c r="F14" s="45"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19660,7 +19711,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="57" t="str">
@@ -19678,7 +19729,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19694,7 +19745,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19708,7 +19759,7 @@
       <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19724,7 +19775,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="57" t="str">
@@ -19743,7 +19794,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19761,7 +19812,7 @@
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="99"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19776,7 +19827,7 @@
       <c r="H22" s="36"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19792,7 +19843,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="97" t="s">
         <v>132</v>
       </c>
       <c r="C24" s="57" t="str">
@@ -19811,7 +19862,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19828,7 +19879,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19844,7 +19895,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19865,7 +19916,7 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="97" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="57" t="str">
@@ -19886,7 +19937,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="99"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19903,7 +19954,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="99"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="32" t="str">
         <f>Studienliste!F$17</f>
         <v>ISI-05 13</v>
@@ -19919,7 +19970,7 @@
       <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="100"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -19937,13 +19988,13 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="56"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -19959,7 +20010,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="97" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="57" t="str">
@@ -19980,7 +20031,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="99"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -19999,7 +20050,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="99"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20018,7 +20069,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="100"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20037,7 +20088,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="97" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="57" t="str">
@@ -20058,7 +20109,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="99"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -20077,7 +20128,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="99"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20096,7 +20147,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="100"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20115,7 +20166,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="57" t="str">
@@ -20133,7 +20184,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="99"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -20149,7 +20200,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="99"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20165,7 +20216,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="100"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20181,7 +20232,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="97" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="57" t="str">
@@ -20202,7 +20253,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="99"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -20221,7 +20272,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="99"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20240,7 +20291,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="100"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20259,7 +20310,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="97" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="57" t="str">
@@ -20280,7 +20331,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="99"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="33" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -20299,7 +20350,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="99"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20318,7 +20369,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="100"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20337,7 +20388,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="97" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="57" t="str">
@@ -20358,7 +20409,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="99"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="34" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
@@ -20376,7 +20427,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="99"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="32" t="str">
         <f>C$31</f>
         <v>ISI-05 13</v>
@@ -20395,7 +20446,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="100"/>
+      <c r="B65" s="99"/>
       <c r="C65" s="35" t="str">
         <f>Studienliste!F$8</f>
         <v>TUD-02 20</v>
@@ -20442,7 +20493,7 @@
   <dimension ref="A3:J28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20460,18 +20511,18 @@
   <sheetData>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="G3" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -20699,12 +20750,12 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F17" s="7"/>
@@ -20756,10 +20807,10 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="95"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E24"/>
@@ -20824,26 +20875,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -21744,27 +21795,27 @@
     </row>
     <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="90">
+      <c r="D37" s="94"/>
+      <c r="E37" s="86">
         <f>SUM(E7:E35)</f>
         <v>485900.58500000014</v>
       </c>
-      <c r="F37" s="90">
+      <c r="F37" s="86">
         <f t="shared" ref="F37:I37" si="0">SUM(F7:F35)</f>
         <v>575379.11111111124</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="84">
         <f t="shared" si="0"/>
         <v>475395.19999999995</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="86">
         <f t="shared" si="0"/>
         <v>369916.88999999996</v>
       </c>
-      <c r="I37" s="89">
+      <c r="I37" s="85">
         <f t="shared" si="0"/>
         <v>332576.20055555546</v>
       </c>
@@ -21786,10 +21837,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="D5:M187"/>
+  <dimension ref="D5:L187"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L185" sqref="L185"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21801,34 +21852,39 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="18" max="19" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+    <row r="5" spans="4:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="7" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="104" t="s">
+    </row>
+    <row r="7" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
         <v>51</v>
       </c>
@@ -21855,7 +21911,7 @@
         <v>ENWI</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" s="8" t="str">
         <f>'Produktion je Standort'!C6</f>
         <v>Austria</v>
@@ -21885,7 +21941,7 @@
         <v>313.38617927306291</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="str">
         <f>'Produktion je Standort'!C7</f>
         <v>Austria</v>
@@ -21915,7 +21971,7 @@
         <v>313.38617927306291</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="str">
         <f>'Produktion je Standort'!C8</f>
         <v>Belgium</v>
@@ -21945,7 +22001,7 @@
         <v>452.67815452907308</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="str">
         <f>'Produktion je Standort'!C9</f>
         <v>Czech Republic</v>
@@ -21975,7 +22031,7 @@
         <v>214.54452718322861</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" s="8" t="str">
         <f>'Produktion je Standort'!C10</f>
         <v>Finland</v>
@@ -22005,7 +22061,7 @@
         <v>215.95655078451193</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="str">
         <f>'Produktion je Standort'!C11</f>
         <v>France</v>
@@ -22035,7 +22091,7 @@
         <v>311.47579440073838</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" s="8" t="str">
         <f>'Produktion je Standort'!C12</f>
         <v>France</v>
@@ -22065,7 +22121,7 @@
         <v>568.9624511053488</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="str">
         <f>'Produktion je Standort'!C13</f>
         <v>Germany</v>
@@ -22727,15 +22783,15 @@
     </row>
     <row r="38" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="105" t="s">
+      <c r="D39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="107"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="81">
         <f>SUM(F9:F37)</f>
         <v>485900.58500000014</v>
       </c>
-      <c r="G39" s="87">
+      <c r="G39" s="83">
         <f t="shared" ref="G39:J39" si="0">SUM(G9:G37)</f>
         <v>547779.79883949587</v>
       </c>
@@ -22747,34 +22803,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="108">
+      <c r="J39" s="87">
         <f t="shared" si="0"/>
         <v>8813.9343794224915</v>
       </c>
     </row>
     <row r="42" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
+      <c r="D42" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
     </row>
     <row r="44" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104" t="s">
+      <c r="G44" s="103"/>
+      <c r="H44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" s="15" t="s">
@@ -23675,15 +23731,15 @@
     </row>
     <row r="75" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="105" t="s">
+      <c r="D76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="107"/>
+      <c r="E76" s="105"/>
       <c r="F76" s="81">
         <f>SUM(F46:F74)</f>
         <v>0</v>
       </c>
-      <c r="G76" s="87">
+      <c r="G76" s="83">
         <f t="shared" ref="G76:J76" si="1">SUM(G46:G74)</f>
         <v>16612.324902341617</v>
       </c>
@@ -23695,34 +23751,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="108">
+      <c r="J76" s="87">
         <f t="shared" si="1"/>
         <v>42023.318973200112</v>
       </c>
     </row>
     <row r="79" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D79" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
+      <c r="D79" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
       <c r="K79" s="56"/>
       <c r="L79" s="56"/>
     </row>
     <row r="81" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F81" s="104" t="s">
+      <c r="F81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104" t="s">
+      <c r="G81" s="103"/>
+      <c r="H81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D82" s="15" t="s">
@@ -24623,15 +24679,15 @@
     </row>
     <row r="112" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="105" t="s">
+      <c r="D113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="107"/>
+      <c r="E113" s="105"/>
       <c r="F113" s="81">
         <f>SUM(F83:F111)</f>
         <v>485900.58500000014</v>
       </c>
-      <c r="G113" s="87">
+      <c r="G113" s="83">
         <f t="shared" ref="G113:J113" si="2">SUM(G83:G111)</f>
         <v>575379.11111111124</v>
       </c>
@@ -24643,34 +24699,34 @@
         <f t="shared" si="2"/>
         <v>369916.88999999996</v>
       </c>
-      <c r="J113" s="108">
+      <c r="J113" s="87">
         <f t="shared" si="2"/>
         <v>332576.20055555546</v>
       </c>
     </row>
     <row r="116" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="D116" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" s="91"/>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="91"/>
-      <c r="J116" s="91"/>
+      <c r="D116" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="90"/>
+      <c r="I116" s="90"/>
+      <c r="J116" s="90"/>
       <c r="K116" s="56"/>
       <c r="L116" s="56"/>
     </row>
     <row r="118" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F118" s="104" t="s">
+      <c r="F118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G118" s="104"/>
-      <c r="H118" s="104" t="s">
+      <c r="G118" s="103"/>
+      <c r="H118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I118" s="104"/>
-      <c r="J118" s="104"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="103"/>
     </row>
     <row r="119" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D119" s="15" t="s">
@@ -25571,15 +25627,15 @@
     </row>
     <row r="149" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="105" t="s">
+      <c r="D150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E150" s="107"/>
+      <c r="E150" s="105"/>
       <c r="F150" s="81">
         <f>SUM(F120:F148)</f>
         <v>0</v>
       </c>
-      <c r="G150" s="87">
+      <c r="G150" s="83">
         <f t="shared" ref="G150:J150" si="3">SUM(G120:G148)</f>
         <v>0</v>
       </c>
@@ -25591,32 +25647,32 @@
         <f t="shared" si="3"/>
         <v>369916.88999999996</v>
       </c>
-      <c r="J150" s="108">
+      <c r="J150" s="87">
         <f t="shared" si="3"/>
         <v>281738.9472029329</v>
       </c>
     </row>
     <row r="153" spans="4:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="D153" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E153" s="91"/>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91"/>
-      <c r="H153" s="91"/>
-      <c r="I153" s="91"/>
-      <c r="J153" s="91"/>
+      <c r="D153" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="J153" s="90"/>
     </row>
     <row r="155" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F155" s="104" t="s">
+      <c r="F155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="G155" s="104"/>
-      <c r="H155" s="104" t="s">
+      <c r="G155" s="103"/>
+      <c r="H155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I155" s="104"/>
-      <c r="J155" s="104"/>
+      <c r="I155" s="103"/>
+      <c r="J155" s="103"/>
     </row>
     <row r="156" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D156" s="15" t="s">
@@ -26517,15 +26573,15 @@
     </row>
     <row r="186" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="105" t="s">
+      <c r="D187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E187" s="107"/>
+      <c r="E187" s="105"/>
       <c r="F187" s="81">
         <f>SUM(F157:F185)</f>
         <v>0</v>
       </c>
-      <c r="G187" s="87">
+      <c r="G187" s="83">
         <f t="shared" ref="G187:J187" si="5">SUM(G157:G185)</f>
         <v>10986.987369273556</v>
       </c>
@@ -26537,20 +26593,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J187" s="108">
+      <c r="J187" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D153:J153"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="D150:E150"/>
     <mergeCell ref="D116:J116"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D42:J42"/>
@@ -26564,6 +26613,13 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D153:J153"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="D150:E150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26576,8 +26632,8 @@
   </sheetPr>
   <dimension ref="C3:Q109"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26599,44 +26655,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="K3" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="C3" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="K3" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="M5" s="104" t="s">
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="M5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104" t="s">
+      <c r="N5" s="103"/>
+      <c r="O5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -28374,15 +28430,15 @@
     </row>
     <row r="36" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="107"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="81">
         <f>SUM(E7:E35)</f>
         <v>559215.90525782283</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F37" s="83">
         <f t="shared" ref="F37:I37" si="2">SUM(F7:F35)</f>
         <v>662195.43754293164</v>
       </c>
@@ -28394,19 +28450,19 @@
         <f t="shared" si="2"/>
         <v>425731.96019409708</v>
       </c>
-      <c r="I37" s="108">
+      <c r="I37" s="87">
         <f t="shared" si="2"/>
         <v>382757.10464699741</v>
       </c>
-      <c r="K37" s="105" t="s">
+      <c r="K37" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="107"/>
+      <c r="L37" s="105"/>
       <c r="M37" s="81">
         <f>SUM(M7:M35)</f>
         <v>73315.320257822837</v>
       </c>
-      <c r="N37" s="87">
+      <c r="N37" s="83">
         <f t="shared" ref="N37:Q37" si="3">SUM(N7:N35)</f>
         <v>86816.326431820504</v>
       </c>
@@ -28418,52 +28474,52 @@
         <f t="shared" si="3"/>
         <v>55815.070194097076</v>
       </c>
-      <c r="Q37" s="108">
+      <c r="Q37" s="87">
         <f t="shared" si="3"/>
         <v>50180.904091441807</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="K39" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
+      <c r="C39" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="K39" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
     </row>
     <row r="41" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104" t="s">
+      <c r="F41" s="103"/>
+      <c r="G41" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="M41" s="104" t="s">
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="M41" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="104"/>
-      <c r="O41" s="104" t="s">
+      <c r="N41" s="103"/>
+      <c r="O41" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+    </row>
+    <row r="42" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
         <v>51</v>
       </c>
@@ -28474,18 +28530,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="83" t="str">
+      <c r="G42" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="H42" s="84" t="str">
+      <c r="H42" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="I42" s="85" t="str">
+      <c r="I42" s="67" t="str">
         <f>F42</f>
         <v>ENWI</v>
       </c>
@@ -28499,18 +28555,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="N42" s="82" t="s">
+      <c r="N42" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O42" s="83" t="str">
+      <c r="O42" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="P42" s="84" t="str">
+      <c r="P42" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="Q42" s="85" t="str">
+      <c r="Q42" s="67" t="str">
         <f>N42</f>
         <v>ENWI</v>
       </c>
@@ -30199,15 +30255,15 @@
     </row>
     <row r="72" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="105" t="s">
+      <c r="C73" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="107"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="81">
         <f>SUM(E43:E71)</f>
         <v>555288.29881543957</v>
       </c>
-      <c r="F73" s="87">
+      <c r="F73" s="83">
         <f t="shared" ref="F73:I73" si="7">SUM(F43:F71)</f>
         <v>657544.56291265565</v>
       </c>
@@ -30219,19 +30275,19 @@
         <f t="shared" si="7"/>
         <v>422741.8671479848</v>
       </c>
-      <c r="I73" s="108">
+      <c r="I73" s="87">
         <f t="shared" si="7"/>
         <v>380068.84192781296</v>
       </c>
-      <c r="K73" s="105" t="s">
+      <c r="K73" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L73" s="107"/>
+      <c r="L73" s="105"/>
       <c r="M73" s="81">
         <f>SUM(M43:M71)</f>
         <v>69387.713815439522</v>
       </c>
-      <c r="N73" s="87">
+      <c r="N73" s="83">
         <f t="shared" ref="N73:Q73" si="8">SUM(N43:N71)</f>
         <v>82165.451801544463</v>
       </c>
@@ -30243,52 +30299,52 @@
         <f t="shared" si="8"/>
         <v>52824.97714798474</v>
       </c>
-      <c r="Q73" s="108">
+      <c r="Q73" s="87">
         <f t="shared" si="8"/>
         <v>47492.641372257443</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="K75" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
+      <c r="C75" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="95"/>
+      <c r="K75" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
     </row>
     <row r="77" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="104" t="s">
+      <c r="E77" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104" t="s">
+      <c r="F77" s="103"/>
+      <c r="G77" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="M77" s="104" t="s">
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="M77" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N77" s="104"/>
-      <c r="O77" s="104" t="s">
+      <c r="N77" s="103"/>
+      <c r="O77" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
-    </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="P77" s="103"/>
+      <c r="Q77" s="103"/>
+    </row>
+    <row r="78" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="15" t="s">
         <v>51</v>
       </c>
@@ -30299,18 +30355,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="F78" s="82" t="s">
+      <c r="F78" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G78" s="83" t="str">
+      <c r="G78" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="H78" s="84" t="str">
+      <c r="H78" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="I78" s="85" t="str">
+      <c r="I78" s="67" t="str">
         <f>F78</f>
         <v>ENWI</v>
       </c>
@@ -30324,18 +30380,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="N78" s="82" t="s">
+      <c r="N78" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O78" s="83" t="str">
+      <c r="O78" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="P78" s="84" t="str">
+      <c r="P78" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="Q78" s="85" t="str">
+      <c r="Q78" s="67" t="str">
         <f>N78</f>
         <v>ENWI</v>
       </c>
@@ -32024,15 +32080,15 @@
     </row>
     <row r="108" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="105" t="s">
+      <c r="C109" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="107"/>
+      <c r="D109" s="105"/>
       <c r="E109" s="81">
         <f>SUM(E79:E107)</f>
         <v>551360.69237305608</v>
       </c>
-      <c r="F109" s="87">
+      <c r="F109" s="83">
         <f t="shared" ref="F109:I109" si="12">SUM(F79:F107)</f>
         <v>652893.68828237941</v>
       </c>
@@ -32044,19 +32100,19 @@
         <f t="shared" si="12"/>
         <v>419751.7741018724</v>
       </c>
-      <c r="I109" s="108">
+      <c r="I109" s="87">
         <f t="shared" si="12"/>
         <v>377380.57920862868</v>
       </c>
-      <c r="K109" s="105" t="s">
+      <c r="K109" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L109" s="107"/>
+      <c r="L109" s="105"/>
       <c r="M109" s="81">
         <f>SUM(M79:M107)</f>
         <v>65460.107373056075</v>
       </c>
-      <c r="N109" s="87">
+      <c r="N109" s="83">
         <f t="shared" ref="N109:Q109" si="13">SUM(N79:N107)</f>
         <v>77514.577171268291</v>
       </c>
@@ -32068,13 +32124,21 @@
         <f t="shared" si="13"/>
         <v>49834.884101872347</v>
       </c>
-      <c r="Q109" s="108">
+      <c r="Q109" s="87">
         <f t="shared" si="13"/>
         <v>44804.378653073036</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="C73:D73"/>
@@ -32091,14 +32155,6 @@
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:I77"/>
     <mergeCell ref="C39:I39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32111,8 +32167,8 @@
   </sheetPr>
   <dimension ref="C5:AW187"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187:I187"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32161,118 +32217,118 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:49" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="K5" s="96" t="s">
+      <c r="C5" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="K5" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="S5" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="S5" s="96" t="s">
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="AA5" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="AA5" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="96"/>
-      <c r="AI5" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AQ5" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR5" s="96"/>
-      <c r="AS5" s="96"/>
-      <c r="AT5" s="96"/>
-      <c r="AU5" s="96"/>
-      <c r="AV5" s="96"/>
-      <c r="AW5" s="96"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AI5" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AQ5" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
     </row>
     <row r="7" spans="3:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="M7" s="104" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="M7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104" t="s">
+      <c r="N7" s="103"/>
+      <c r="O7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="U7" s="104" t="s">
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="U7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104" t="s">
+      <c r="V7" s="103"/>
+      <c r="W7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="AC7" s="104" t="s">
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="AC7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="104" t="s">
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="104"/>
-      <c r="AG7" s="104"/>
-      <c r="AK7" s="104" t="s">
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AK7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104" t="s">
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AS7" s="104" t="s">
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AS7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104" t="s">
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-    </row>
-    <row r="8" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+    </row>
+    <row r="8" spans="3:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
@@ -32308,18 +32364,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="83" t="str">
+      <c r="O8" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="P8" s="84" t="str">
+      <c r="P8" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="Q8" s="85" t="str">
+      <c r="Q8" s="67" t="str">
         <f>N8</f>
         <v>ENWI</v>
       </c>
@@ -37356,15 +37412,15 @@
     </row>
     <row r="38" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="81">
         <f>SUM(E9:E37)</f>
         <v>559215.90525782283</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="83">
         <f t="shared" ref="F39:I39" si="10">SUM(F9:F37)</f>
         <v>630431.79108330747</v>
       </c>
@@ -37376,19 +37432,19 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="87">
         <f t="shared" si="10"/>
         <v>10143.828686421102</v>
       </c>
-      <c r="K39" s="105" t="s">
+      <c r="K39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="107"/>
+      <c r="L39" s="105"/>
       <c r="M39" s="81">
         <f>SUM(M9:M37)</f>
         <v>73315.320257822837</v>
       </c>
-      <c r="N39" s="87">
+      <c r="N39" s="83">
         <f t="shared" ref="N39:Q39" si="11">SUM(N9:N37)</f>
         <v>82651.992243811415</v>
       </c>
@@ -37400,19 +37456,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="108">
+      <c r="Q39" s="87">
         <f t="shared" si="11"/>
         <v>1329.8943069986117</v>
       </c>
-      <c r="S39" s="105" t="s">
+      <c r="S39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="T39" s="107"/>
+      <c r="T39" s="105"/>
       <c r="U39" s="81">
         <f>SUM(U9:U37)</f>
         <v>555288.29881543957</v>
       </c>
-      <c r="V39" s="87">
+      <c r="V39" s="83">
         <f t="shared" ref="V39:Y39" si="12">SUM(V9:V37)</f>
         <v>626004.00578453159</v>
       </c>
@@ -37424,19 +37480,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="108">
+      <c r="Y39" s="87">
         <f t="shared" si="12"/>
         <v>10072.584348546181</v>
       </c>
-      <c r="AA39" s="105" t="s">
+      <c r="AA39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AB39" s="107"/>
+      <c r="AB39" s="105"/>
       <c r="AC39" s="81">
         <f>SUM(AC9:AC37)</f>
         <v>69387.713815439522</v>
       </c>
-      <c r="AD39" s="87">
+      <c r="AD39" s="83">
         <f t="shared" ref="AD39:AG39" si="13">SUM(AD9:AD37)</f>
         <v>78224.206945035854</v>
       </c>
@@ -37448,19 +37504,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="108">
+      <c r="AG39" s="87">
         <f t="shared" si="13"/>
         <v>1258.649969123687</v>
       </c>
-      <c r="AI39" s="105" t="s">
+      <c r="AI39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AJ39" s="107"/>
+      <c r="AJ39" s="105"/>
       <c r="AK39" s="81">
         <f>SUM(AK9:AK37)</f>
         <v>551360.69237305608</v>
       </c>
-      <c r="AL39" s="87">
+      <c r="AL39" s="83">
         <f t="shared" ref="AL39:AO39" si="14">SUM(AL9:AL37)</f>
         <v>621576.22048575617</v>
       </c>
@@ -37472,19 +37528,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="108">
+      <c r="AO39" s="87">
         <f t="shared" si="14"/>
         <v>10001.340010671254</v>
       </c>
-      <c r="AQ39" s="105" t="s">
+      <c r="AQ39" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AR39" s="107"/>
+      <c r="AR39" s="105"/>
       <c r="AS39" s="81">
         <f>SUM(AS9:AS37)</f>
         <v>65460.107373056075</v>
       </c>
-      <c r="AT39" s="87">
+      <c r="AT39" s="83">
         <f t="shared" ref="AT39:AW39" si="15">SUM(AT9:AT37)</f>
         <v>73796.421646260162</v>
       </c>
@@ -37496,124 +37552,124 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AW39" s="108">
+      <c r="AW39" s="87">
         <f t="shared" si="15"/>
         <v>1187.4056312487601</v>
       </c>
     </row>
     <row r="42" spans="3:49" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="K42" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="S42" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="AA42" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB42" s="96"/>
-      <c r="AC42" s="96"/>
-      <c r="AD42" s="96"/>
-      <c r="AE42" s="96"/>
-      <c r="AF42" s="96"/>
-      <c r="AG42" s="96"/>
-      <c r="AI42" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ42" s="96"/>
-      <c r="AK42" s="96"/>
-      <c r="AL42" s="96"/>
-      <c r="AM42" s="96"/>
-      <c r="AN42" s="96"/>
-      <c r="AO42" s="96"/>
-      <c r="AQ42" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR42" s="96"/>
-      <c r="AS42" s="96"/>
-      <c r="AT42" s="96"/>
-      <c r="AU42" s="96"/>
-      <c r="AV42" s="96"/>
-      <c r="AW42" s="96"/>
+      <c r="C42" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="K42" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="S42" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="AA42" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
+      <c r="AG42" s="95"/>
+      <c r="AI42" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="95"/>
+      <c r="AO42" s="95"/>
+      <c r="AQ42" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="95"/>
+      <c r="AW42" s="95"/>
     </row>
     <row r="44" spans="3:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104" t="s">
+      <c r="F44" s="103"/>
+      <c r="G44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="M44" s="104" t="s">
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="M44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104" t="s">
+      <c r="N44" s="103"/>
+      <c r="O44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="U44" s="104" t="s">
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="U44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V44" s="104"/>
-      <c r="W44" s="104" t="s">
+      <c r="V44" s="103"/>
+      <c r="W44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="104"/>
-      <c r="AC44" s="104" t="s">
+      <c r="X44" s="103"/>
+      <c r="Y44" s="103"/>
+      <c r="AC44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104" t="s">
+      <c r="AD44" s="103"/>
+      <c r="AE44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AF44" s="104"/>
-      <c r="AG44" s="104"/>
-      <c r="AK44" s="104" t="s">
+      <c r="AF44" s="103"/>
+      <c r="AG44" s="103"/>
+      <c r="AK44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AL44" s="104"/>
-      <c r="AM44" s="104" t="s">
+      <c r="AL44" s="103"/>
+      <c r="AM44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AN44" s="104"/>
-      <c r="AO44" s="104"/>
-      <c r="AS44" s="104" t="s">
+      <c r="AN44" s="103"/>
+      <c r="AO44" s="103"/>
+      <c r="AS44" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AT44" s="104"/>
-      <c r="AU44" s="104" t="s">
+      <c r="AT44" s="103"/>
+      <c r="AU44" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AV44" s="104"/>
-      <c r="AW44" s="104"/>
-    </row>
-    <row r="45" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AV44" s="103"/>
+      <c r="AW44" s="103"/>
+    </row>
+    <row r="45" spans="3:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15" t="s">
         <v>51</v>
       </c>
@@ -42697,15 +42753,15 @@
     </row>
     <row r="75" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="105" t="s">
+      <c r="C76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="107"/>
+      <c r="D76" s="105"/>
       <c r="E76" s="81">
         <f>SUM(E46:E74)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="87">
+      <c r="F76" s="83">
         <f t="shared" ref="F76:I76" si="27">SUM(F46:F74)</f>
         <v>19118.882741620993</v>
       </c>
@@ -42717,19 +42773,19 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I76" s="108">
+      <c r="I76" s="87">
         <f t="shared" si="27"/>
         <v>48364.025660797131</v>
       </c>
-      <c r="K76" s="105" t="s">
+      <c r="K76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L76" s="107"/>
+      <c r="L76" s="105"/>
       <c r="M76" s="81">
         <f>SUM(M46:M74)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="87">
+      <c r="N76" s="83">
         <f t="shared" ref="N76:Q76" si="28">SUM(N46:N74)</f>
         <v>2506.5578392793686</v>
       </c>
@@ -42741,19 +42797,19 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="108">
+      <c r="Q76" s="87">
         <f t="shared" si="28"/>
         <v>6340.7066875970286</v>
       </c>
-      <c r="S76" s="105" t="s">
+      <c r="S76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="T76" s="107"/>
+      <c r="T76" s="105"/>
       <c r="U76" s="81">
         <f>SUM(U46:U74)</f>
         <v>0</v>
       </c>
-      <c r="V76" s="87">
+      <c r="V76" s="83">
         <f t="shared" ref="V76:Y76" si="29">SUM(V46:V74)</f>
         <v>18984.602857373873</v>
       </c>
@@ -42765,19 +42821,19 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="108">
+      <c r="Y76" s="87">
         <f t="shared" si="29"/>
         <v>48024.344945390156</v>
       </c>
-      <c r="AA76" s="105" t="s">
+      <c r="AA76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AB76" s="107"/>
+      <c r="AB76" s="105"/>
       <c r="AC76" s="81">
         <f>SUM(AC46:AC74)</f>
         <v>0</v>
       </c>
-      <c r="AD76" s="87">
+      <c r="AD76" s="83">
         <f t="shared" ref="AD76:AG76" si="30">SUM(AD46:AD74)</f>
         <v>2372.2779550322603</v>
       </c>
@@ -42789,19 +42845,19 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AG76" s="108">
+      <c r="AG76" s="87">
         <f t="shared" si="30"/>
         <v>6001.0259721900484</v>
       </c>
-      <c r="AI76" s="105" t="s">
+      <c r="AI76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AJ76" s="107"/>
+      <c r="AJ76" s="105"/>
       <c r="AK76" s="81">
         <f>SUM(AK46:AK74)</f>
         <v>0</v>
       </c>
-      <c r="AL76" s="87">
+      <c r="AL76" s="83">
         <f t="shared" ref="AL76:AO76" si="31">SUM(AL46:AL74)</f>
         <v>18850.322973126767</v>
       </c>
@@ -42813,19 +42869,19 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AO76" s="108">
+      <c r="AO76" s="87">
         <f t="shared" si="31"/>
         <v>47684.664229983173</v>
       </c>
-      <c r="AQ76" s="105" t="s">
+      <c r="AQ76" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AR76" s="107"/>
+      <c r="AR76" s="105"/>
       <c r="AS76" s="81">
         <f>SUM(AS46:AS74)</f>
         <v>0</v>
       </c>
-      <c r="AT76" s="87">
+      <c r="AT76" s="83">
         <f t="shared" ref="AT76:AW76" si="32">SUM(AT46:AT74)</f>
         <v>2237.9980707851505</v>
       </c>
@@ -42837,124 +42893,124 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AW76" s="108">
+      <c r="AW76" s="87">
         <f t="shared" si="32"/>
         <v>5661.3452567830554</v>
       </c>
     </row>
     <row r="79" spans="3:49" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="K79" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="S79" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="T79" s="96"/>
-      <c r="U79" s="96"/>
-      <c r="V79" s="96"/>
-      <c r="W79" s="96"/>
-      <c r="X79" s="96"/>
-      <c r="Y79" s="96"/>
-      <c r="AA79" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB79" s="96"/>
-      <c r="AC79" s="96"/>
-      <c r="AD79" s="96"/>
-      <c r="AE79" s="96"/>
-      <c r="AF79" s="96"/>
-      <c r="AG79" s="96"/>
-      <c r="AI79" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ79" s="96"/>
-      <c r="AK79" s="96"/>
-      <c r="AL79" s="96"/>
-      <c r="AM79" s="96"/>
-      <c r="AN79" s="96"/>
-      <c r="AO79" s="96"/>
-      <c r="AQ79" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR79" s="96"/>
-      <c r="AS79" s="96"/>
-      <c r="AT79" s="96"/>
-      <c r="AU79" s="96"/>
-      <c r="AV79" s="96"/>
-      <c r="AW79" s="96"/>
+      <c r="C79" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="K79" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="95"/>
+      <c r="Q79" s="95"/>
+      <c r="S79" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="T79" s="95"/>
+      <c r="U79" s="95"/>
+      <c r="V79" s="95"/>
+      <c r="W79" s="95"/>
+      <c r="X79" s="95"/>
+      <c r="Y79" s="95"/>
+      <c r="AA79" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB79" s="95"/>
+      <c r="AC79" s="95"/>
+      <c r="AD79" s="95"/>
+      <c r="AE79" s="95"/>
+      <c r="AF79" s="95"/>
+      <c r="AG79" s="95"/>
+      <c r="AI79" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ79" s="95"/>
+      <c r="AK79" s="95"/>
+      <c r="AL79" s="95"/>
+      <c r="AM79" s="95"/>
+      <c r="AN79" s="95"/>
+      <c r="AO79" s="95"/>
+      <c r="AQ79" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR79" s="95"/>
+      <c r="AS79" s="95"/>
+      <c r="AT79" s="95"/>
+      <c r="AU79" s="95"/>
+      <c r="AV79" s="95"/>
+      <c r="AW79" s="95"/>
     </row>
     <row r="81" spans="3:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E81" s="104" t="s">
+      <c r="E81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104" t="s">
+      <c r="F81" s="103"/>
+      <c r="G81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="M81" s="104" t="s">
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="M81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N81" s="104"/>
-      <c r="O81" s="104" t="s">
+      <c r="N81" s="103"/>
+      <c r="O81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
-      <c r="U81" s="104" t="s">
+      <c r="P81" s="103"/>
+      <c r="Q81" s="103"/>
+      <c r="U81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V81" s="104"/>
-      <c r="W81" s="104" t="s">
+      <c r="V81" s="103"/>
+      <c r="W81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="104"/>
-      <c r="AC81" s="104" t="s">
+      <c r="X81" s="103"/>
+      <c r="Y81" s="103"/>
+      <c r="AC81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AD81" s="104"/>
-      <c r="AE81" s="104" t="s">
+      <c r="AD81" s="103"/>
+      <c r="AE81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AF81" s="104"/>
-      <c r="AG81" s="104"/>
-      <c r="AK81" s="104" t="s">
+      <c r="AF81" s="103"/>
+      <c r="AG81" s="103"/>
+      <c r="AK81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AL81" s="104"/>
-      <c r="AM81" s="104" t="s">
+      <c r="AL81" s="103"/>
+      <c r="AM81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AN81" s="104"/>
-      <c r="AO81" s="104"/>
-      <c r="AS81" s="104" t="s">
+      <c r="AN81" s="103"/>
+      <c r="AO81" s="103"/>
+      <c r="AS81" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AT81" s="104"/>
-      <c r="AU81" s="104" t="s">
+      <c r="AT81" s="103"/>
+      <c r="AU81" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AV81" s="104"/>
-      <c r="AW81" s="104"/>
-    </row>
-    <row r="82" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AV81" s="103"/>
+      <c r="AW81" s="103"/>
+    </row>
+    <row r="82" spans="3:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
         <v>51</v>
       </c>
@@ -42990,18 +43046,18 @@
         <f>Studienliste!$F$17</f>
         <v>ISI-05 13</v>
       </c>
-      <c r="N82" s="82" t="s">
+      <c r="N82" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O82" s="83" t="str">
+      <c r="O82" s="65" t="str">
         <f>Studienliste!$F$10</f>
         <v>OTTO-01 17</v>
       </c>
-      <c r="P82" s="84" t="str">
+      <c r="P82" s="66" t="str">
         <f>Studienliste!$F$8</f>
         <v>TUD-02 20</v>
       </c>
-      <c r="Q82" s="85" t="str">
+      <c r="Q82" s="67" t="str">
         <f>N82</f>
         <v>ENWI</v>
       </c>
@@ -48038,15 +48094,15 @@
     </row>
     <row r="112" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="105" t="s">
+      <c r="C113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="107"/>
+      <c r="D113" s="105"/>
       <c r="E113" s="81">
         <f>SUM(E83:E111)</f>
         <v>559215.90525782283</v>
       </c>
-      <c r="F113" s="87">
+      <c r="F113" s="83">
         <f t="shared" ref="F113:I113" si="44">SUM(F83:F111)</f>
         <v>662195.43754293164</v>
       </c>
@@ -48058,19 +48114,19 @@
         <f t="shared" si="44"/>
         <v>425731.96019409708</v>
       </c>
-      <c r="I113" s="108">
+      <c r="I113" s="87">
         <f t="shared" si="44"/>
         <v>382757.10464699741</v>
       </c>
-      <c r="K113" s="105" t="s">
+      <c r="K113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L113" s="107"/>
+      <c r="L113" s="105"/>
       <c r="M113" s="81">
         <f>SUM(M83:M111)</f>
         <v>73315.320257822837</v>
       </c>
-      <c r="N113" s="87">
+      <c r="N113" s="83">
         <f t="shared" ref="N113:Q113" si="45">SUM(N83:N111)</f>
         <v>86816.326431820504</v>
       </c>
@@ -48082,19 +48138,19 @@
         <f t="shared" si="45"/>
         <v>55815.070194097076</v>
       </c>
-      <c r="Q113" s="108">
+      <c r="Q113" s="87">
         <f t="shared" si="45"/>
         <v>50180.904091441807</v>
       </c>
-      <c r="S113" s="105" t="s">
+      <c r="S113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="T113" s="107"/>
+      <c r="T113" s="105"/>
       <c r="U113" s="81">
         <f>SUM(U83:U111)</f>
         <v>555288.29881543957</v>
       </c>
-      <c r="V113" s="87">
+      <c r="V113" s="83">
         <f t="shared" ref="V113:Y113" si="46">SUM(V83:V111)</f>
         <v>657544.56291265565</v>
       </c>
@@ -48106,19 +48162,19 @@
         <f t="shared" si="46"/>
         <v>422741.8671479848</v>
       </c>
-      <c r="Y113" s="108">
+      <c r="Y113" s="87">
         <f t="shared" si="46"/>
         <v>380068.84192781296</v>
       </c>
-      <c r="AA113" s="105" t="s">
+      <c r="AA113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AB113" s="107"/>
+      <c r="AB113" s="105"/>
       <c r="AC113" s="81">
         <f>SUM(AC83:AC111)</f>
         <v>69387.713815439522</v>
       </c>
-      <c r="AD113" s="87">
+      <c r="AD113" s="83">
         <f t="shared" ref="AD113:AG113" si="47">SUM(AD83:AD111)</f>
         <v>82165.451801544463</v>
       </c>
@@ -48130,19 +48186,19 @@
         <f t="shared" si="47"/>
         <v>52824.97714798474</v>
       </c>
-      <c r="AG113" s="108">
+      <c r="AG113" s="87">
         <f t="shared" si="47"/>
         <v>47492.641372257443</v>
       </c>
-      <c r="AI113" s="105" t="s">
+      <c r="AI113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AJ113" s="107"/>
+      <c r="AJ113" s="105"/>
       <c r="AK113" s="81">
         <f>SUM(AK83:AK111)</f>
         <v>551360.69237305608</v>
       </c>
-      <c r="AL113" s="87">
+      <c r="AL113" s="83">
         <f t="shared" ref="AL113:AO113" si="48">SUM(AL83:AL111)</f>
         <v>652893.68828237941</v>
       </c>
@@ -48154,19 +48210,19 @@
         <f t="shared" si="48"/>
         <v>419751.7741018724</v>
       </c>
-      <c r="AO113" s="108">
+      <c r="AO113" s="87">
         <f t="shared" si="48"/>
         <v>377380.57920862868</v>
       </c>
-      <c r="AQ113" s="105" t="s">
+      <c r="AQ113" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AR113" s="107"/>
+      <c r="AR113" s="105"/>
       <c r="AS113" s="81">
         <f>SUM(AS83:AS111)</f>
         <v>65460.107373056075</v>
       </c>
-      <c r="AT113" s="87">
+      <c r="AT113" s="83">
         <f t="shared" ref="AT113:AW113" si="49">SUM(AT83:AT111)</f>
         <v>77514.577171268291</v>
       </c>
@@ -48178,131 +48234,131 @@
         <f t="shared" si="49"/>
         <v>49834.884101872347</v>
       </c>
-      <c r="AW113" s="108">
+      <c r="AW113" s="87">
         <f t="shared" si="49"/>
         <v>44804.378653073036</v>
       </c>
     </row>
     <row r="114" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="K114" s="109"/>
-      <c r="L114" s="109"/>
-      <c r="M114" s="110"/>
-      <c r="N114" s="110"/>
-      <c r="O114" s="110"/>
-      <c r="P114" s="110"/>
-      <c r="Q114" s="110"/>
+      <c r="K114" s="88"/>
+      <c r="L114" s="88"/>
+      <c r="M114" s="89"/>
+      <c r="N114" s="89"/>
+      <c r="O114" s="89"/>
+      <c r="P114" s="89"/>
+      <c r="Q114" s="89"/>
     </row>
     <row r="116" spans="3:49" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
-      <c r="K116" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="L116" s="96"/>
-      <c r="M116" s="96"/>
-      <c r="N116" s="96"/>
-      <c r="O116" s="96"/>
-      <c r="P116" s="96"/>
-      <c r="Q116" s="96"/>
-      <c r="S116" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="T116" s="96"/>
-      <c r="U116" s="96"/>
-      <c r="V116" s="96"/>
-      <c r="W116" s="96"/>
-      <c r="X116" s="96"/>
-      <c r="Y116" s="96"/>
-      <c r="AA116" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB116" s="96"/>
-      <c r="AC116" s="96"/>
-      <c r="AD116" s="96"/>
-      <c r="AE116" s="96"/>
-      <c r="AF116" s="96"/>
-      <c r="AG116" s="96"/>
-      <c r="AI116" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ116" s="96"/>
-      <c r="AK116" s="96"/>
-      <c r="AL116" s="96"/>
-      <c r="AM116" s="96"/>
-      <c r="AN116" s="96"/>
-      <c r="AO116" s="96"/>
-      <c r="AQ116" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR116" s="96"/>
-      <c r="AS116" s="96"/>
-      <c r="AT116" s="96"/>
-      <c r="AU116" s="96"/>
-      <c r="AV116" s="96"/>
-      <c r="AW116" s="96"/>
+      <c r="C116" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="95"/>
+      <c r="H116" s="95"/>
+      <c r="I116" s="95"/>
+      <c r="K116" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="L116" s="95"/>
+      <c r="M116" s="95"/>
+      <c r="N116" s="95"/>
+      <c r="O116" s="95"/>
+      <c r="P116" s="95"/>
+      <c r="Q116" s="95"/>
+      <c r="S116" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="T116" s="95"/>
+      <c r="U116" s="95"/>
+      <c r="V116" s="95"/>
+      <c r="W116" s="95"/>
+      <c r="X116" s="95"/>
+      <c r="Y116" s="95"/>
+      <c r="AA116" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB116" s="95"/>
+      <c r="AC116" s="95"/>
+      <c r="AD116" s="95"/>
+      <c r="AE116" s="95"/>
+      <c r="AF116" s="95"/>
+      <c r="AG116" s="95"/>
+      <c r="AI116" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ116" s="95"/>
+      <c r="AK116" s="95"/>
+      <c r="AL116" s="95"/>
+      <c r="AM116" s="95"/>
+      <c r="AN116" s="95"/>
+      <c r="AO116" s="95"/>
+      <c r="AQ116" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR116" s="95"/>
+      <c r="AS116" s="95"/>
+      <c r="AT116" s="95"/>
+      <c r="AU116" s="95"/>
+      <c r="AV116" s="95"/>
+      <c r="AW116" s="95"/>
     </row>
     <row r="118" spans="3:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E118" s="104" t="s">
+      <c r="E118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F118" s="104"/>
-      <c r="G118" s="104" t="s">
+      <c r="F118" s="103"/>
+      <c r="G118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H118" s="104"/>
-      <c r="I118" s="104"/>
-      <c r="M118" s="104" t="s">
+      <c r="H118" s="103"/>
+      <c r="I118" s="103"/>
+      <c r="M118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N118" s="104"/>
-      <c r="O118" s="104" t="s">
+      <c r="N118" s="103"/>
+      <c r="O118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
-      <c r="U118" s="104" t="s">
+      <c r="P118" s="103"/>
+      <c r="Q118" s="103"/>
+      <c r="U118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V118" s="104"/>
-      <c r="W118" s="104" t="s">
+      <c r="V118" s="103"/>
+      <c r="W118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="X118" s="104"/>
-      <c r="Y118" s="104"/>
-      <c r="AC118" s="104" t="s">
+      <c r="X118" s="103"/>
+      <c r="Y118" s="103"/>
+      <c r="AC118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AD118" s="104"/>
-      <c r="AE118" s="104" t="s">
+      <c r="AD118" s="103"/>
+      <c r="AE118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AF118" s="104"/>
-      <c r="AG118" s="104"/>
-      <c r="AK118" s="104" t="s">
+      <c r="AF118" s="103"/>
+      <c r="AG118" s="103"/>
+      <c r="AK118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AL118" s="104"/>
-      <c r="AM118" s="104" t="s">
+      <c r="AL118" s="103"/>
+      <c r="AM118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AN118" s="104"/>
-      <c r="AO118" s="104"/>
-      <c r="AS118" s="104" t="s">
+      <c r="AN118" s="103"/>
+      <c r="AO118" s="103"/>
+      <c r="AS118" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AT118" s="104"/>
-      <c r="AU118" s="104" t="s">
+      <c r="AT118" s="103"/>
+      <c r="AU118" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AV118" s="104"/>
-      <c r="AW118" s="104"/>
+      <c r="AV118" s="103"/>
+      <c r="AW118" s="103"/>
     </row>
     <row r="119" spans="3:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C119" s="15" t="s">
@@ -53388,15 +53444,15 @@
     </row>
     <row r="149" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="3:49" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="105" t="s">
+      <c r="C150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D150" s="107"/>
+      <c r="D150" s="105"/>
       <c r="E150" s="81">
         <f>SUM(E120:E148)</f>
         <v>0</v>
       </c>
-      <c r="F150" s="87">
+      <c r="F150" s="83">
         <f t="shared" ref="F150:I150" si="55">SUM(F120:F148)</f>
         <v>0</v>
       </c>
@@ -53408,19 +53464,19 @@
         <f t="shared" si="55"/>
         <v>425731.96019409708</v>
       </c>
-      <c r="I150" s="108">
+      <c r="I150" s="87">
         <f t="shared" si="55"/>
         <v>324249.25029977912</v>
       </c>
-      <c r="K150" s="105" t="s">
+      <c r="K150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L150" s="107"/>
+      <c r="L150" s="105"/>
       <c r="M150" s="81">
         <f>SUM(M120:M148)</f>
         <v>0</v>
       </c>
-      <c r="N150" s="87">
+      <c r="N150" s="83">
         <f t="shared" ref="N150:Q150" si="56">SUM(N120:N148)</f>
         <v>0</v>
       </c>
@@ -53432,19 +53488,19 @@
         <f t="shared" si="56"/>
         <v>55815.070194097076</v>
       </c>
-      <c r="Q150" s="108">
+      <c r="Q150" s="87">
         <f t="shared" si="56"/>
         <v>42510.303096846175</v>
       </c>
-      <c r="S150" s="105" t="s">
+      <c r="S150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="T150" s="107"/>
+      <c r="T150" s="105"/>
       <c r="U150" s="81">
         <f>SUM(U120:U148)</f>
         <v>0</v>
       </c>
-      <c r="V150" s="87">
+      <c r="V150" s="83">
         <f t="shared" ref="V150:Y150" si="57">SUM(V120:V148)</f>
         <v>0</v>
       </c>
@@ -53456,19 +53512,19 @@
         <f t="shared" si="57"/>
         <v>422741.8671479848</v>
       </c>
-      <c r="Y150" s="108">
+      <c r="Y150" s="87">
         <f t="shared" si="57"/>
         <v>321971.91263387672</v>
       </c>
-      <c r="AA150" s="105" t="s">
+      <c r="AA150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AB150" s="107"/>
+      <c r="AB150" s="105"/>
       <c r="AC150" s="81">
         <f>SUM(AC120:AC148)</f>
         <v>0</v>
       </c>
-      <c r="AD150" s="87">
+      <c r="AD150" s="83">
         <f t="shared" ref="AD150:AG150" si="58">SUM(AD120:AD148)</f>
         <v>0</v>
       </c>
@@ -53480,19 +53536,19 @@
         <f t="shared" si="58"/>
         <v>52824.97714798474</v>
       </c>
-      <c r="AG150" s="108">
+      <c r="AG150" s="87">
         <f t="shared" si="58"/>
         <v>40232.965430943717</v>
       </c>
-      <c r="AI150" s="105" t="s">
+      <c r="AI150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AJ150" s="107"/>
+      <c r="AJ150" s="105"/>
       <c r="AK150" s="81">
         <f>SUM(AK120:AK148)</f>
         <v>0</v>
       </c>
-      <c r="AL150" s="87">
+      <c r="AL150" s="83">
         <f t="shared" ref="AL150:AO150" si="59">SUM(AL120:AL148)</f>
         <v>0</v>
       </c>
@@ -53504,19 +53560,19 @@
         <f t="shared" si="59"/>
         <v>419751.7741018724</v>
       </c>
-      <c r="AO150" s="108">
+      <c r="AO150" s="87">
         <f t="shared" si="59"/>
         <v>319694.5749679741</v>
       </c>
-      <c r="AQ150" s="105" t="s">
+      <c r="AQ150" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AR150" s="107"/>
+      <c r="AR150" s="105"/>
       <c r="AS150" s="81">
         <f>SUM(AS120:AS148)</f>
         <v>0</v>
       </c>
-      <c r="AT150" s="87">
+      <c r="AT150" s="83">
         <f t="shared" ref="AT150:AW150" si="60">SUM(AT120:AT148)</f>
         <v>0</v>
       </c>
@@ -53528,124 +53584,124 @@
         <f t="shared" si="60"/>
         <v>49834.884101872347</v>
       </c>
-      <c r="AW150" s="108">
+      <c r="AW150" s="87">
         <f t="shared" si="60"/>
         <v>37955.627765041208</v>
       </c>
     </row>
     <row r="153" spans="3:49" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C153" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="D153" s="96"/>
-      <c r="E153" s="96"/>
-      <c r="F153" s="96"/>
-      <c r="G153" s="96"/>
-      <c r="H153" s="96"/>
-      <c r="I153" s="96"/>
-      <c r="K153" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="L153" s="96"/>
-      <c r="M153" s="96"/>
-      <c r="N153" s="96"/>
-      <c r="O153" s="96"/>
-      <c r="P153" s="96"/>
-      <c r="Q153" s="96"/>
-      <c r="S153" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="T153" s="96"/>
-      <c r="U153" s="96"/>
-      <c r="V153" s="96"/>
-      <c r="W153" s="96"/>
-      <c r="X153" s="96"/>
-      <c r="Y153" s="96"/>
-      <c r="AA153" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB153" s="96"/>
-      <c r="AC153" s="96"/>
-      <c r="AD153" s="96"/>
-      <c r="AE153" s="96"/>
-      <c r="AF153" s="96"/>
-      <c r="AG153" s="96"/>
-      <c r="AI153" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ153" s="96"/>
-      <c r="AK153" s="96"/>
-      <c r="AL153" s="96"/>
-      <c r="AM153" s="96"/>
-      <c r="AN153" s="96"/>
-      <c r="AO153" s="96"/>
-      <c r="AQ153" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR153" s="96"/>
-      <c r="AS153" s="96"/>
-      <c r="AT153" s="96"/>
-      <c r="AU153" s="96"/>
-      <c r="AV153" s="96"/>
-      <c r="AW153" s="96"/>
+      <c r="C153" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="95"/>
+      <c r="H153" s="95"/>
+      <c r="I153" s="95"/>
+      <c r="K153" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="L153" s="95"/>
+      <c r="M153" s="95"/>
+      <c r="N153" s="95"/>
+      <c r="O153" s="95"/>
+      <c r="P153" s="95"/>
+      <c r="Q153" s="95"/>
+      <c r="S153" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="T153" s="95"/>
+      <c r="U153" s="95"/>
+      <c r="V153" s="95"/>
+      <c r="W153" s="95"/>
+      <c r="X153" s="95"/>
+      <c r="Y153" s="95"/>
+      <c r="AA153" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB153" s="95"/>
+      <c r="AC153" s="95"/>
+      <c r="AD153" s="95"/>
+      <c r="AE153" s="95"/>
+      <c r="AF153" s="95"/>
+      <c r="AG153" s="95"/>
+      <c r="AI153" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ153" s="95"/>
+      <c r="AK153" s="95"/>
+      <c r="AL153" s="95"/>
+      <c r="AM153" s="95"/>
+      <c r="AN153" s="95"/>
+      <c r="AO153" s="95"/>
+      <c r="AQ153" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR153" s="95"/>
+      <c r="AS153" s="95"/>
+      <c r="AT153" s="95"/>
+      <c r="AU153" s="95"/>
+      <c r="AV153" s="95"/>
+      <c r="AW153" s="95"/>
     </row>
     <row r="155" spans="3:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E155" s="104" t="s">
+      <c r="E155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F155" s="104"/>
-      <c r="G155" s="104" t="s">
+      <c r="F155" s="103"/>
+      <c r="G155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H155" s="104"/>
-      <c r="I155" s="104"/>
-      <c r="M155" s="104" t="s">
+      <c r="H155" s="103"/>
+      <c r="I155" s="103"/>
+      <c r="M155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N155" s="104"/>
-      <c r="O155" s="104" t="s">
+      <c r="N155" s="103"/>
+      <c r="O155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P155" s="104"/>
-      <c r="Q155" s="104"/>
-      <c r="U155" s="104" t="s">
+      <c r="P155" s="103"/>
+      <c r="Q155" s="103"/>
+      <c r="U155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V155" s="104"/>
-      <c r="W155" s="104" t="s">
+      <c r="V155" s="103"/>
+      <c r="W155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="X155" s="104"/>
-      <c r="Y155" s="104"/>
-      <c r="AC155" s="104" t="s">
+      <c r="X155" s="103"/>
+      <c r="Y155" s="103"/>
+      <c r="AC155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AD155" s="104"/>
-      <c r="AE155" s="104" t="s">
+      <c r="AD155" s="103"/>
+      <c r="AE155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AF155" s="104"/>
-      <c r="AG155" s="104"/>
-      <c r="AK155" s="104" t="s">
+      <c r="AF155" s="103"/>
+      <c r="AG155" s="103"/>
+      <c r="AK155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AL155" s="104"/>
-      <c r="AM155" s="104" t="s">
+      <c r="AL155" s="103"/>
+      <c r="AM155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AN155" s="104"/>
-      <c r="AO155" s="104"/>
-      <c r="AS155" s="104" t="s">
+      <c r="AN155" s="103"/>
+      <c r="AO155" s="103"/>
+      <c r="AS155" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AT155" s="104"/>
-      <c r="AU155" s="104" t="s">
+      <c r="AT155" s="103"/>
+      <c r="AU155" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AV155" s="104"/>
-      <c r="AW155" s="104"/>
-    </row>
-    <row r="156" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AV155" s="103"/>
+      <c r="AW155" s="103"/>
+    </row>
+    <row r="156" spans="3:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C156" s="15" t="s">
         <v>51</v>
       </c>
@@ -58729,15 +58785,15 @@
     </row>
     <row r="186" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="3:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="105" t="s">
+      <c r="C187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D187" s="107"/>
+      <c r="D187" s="105"/>
       <c r="E187" s="81">
         <f>SUM(E157:E185)</f>
         <v>0</v>
       </c>
-      <c r="F187" s="87">
+      <c r="F187" s="83">
         <f t="shared" ref="F187:I187" si="72">SUM(F157:F185)</f>
         <v>12644.763718003296</v>
       </c>
@@ -58749,19 +58805,19 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="I187" s="108">
+      <c r="I187" s="87">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K187" s="105" t="s">
+      <c r="K187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="L187" s="107"/>
+      <c r="L187" s="105"/>
       <c r="M187" s="81">
         <f>SUM(M157:M185)</f>
         <v>0</v>
       </c>
-      <c r="N187" s="87">
+      <c r="N187" s="83">
         <f t="shared" ref="N187:Q187" si="73">SUM(N157:N185)</f>
         <v>1657.7763487297402</v>
       </c>
@@ -58773,19 +58829,19 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="Q187" s="108">
+      <c r="Q187" s="87">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="S187" s="105" t="s">
+      <c r="S187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="T187" s="107"/>
+      <c r="T187" s="105"/>
       <c r="U187" s="81">
         <f>SUM(U157:U185)</f>
         <v>0</v>
       </c>
-      <c r="V187" s="87">
+      <c r="V187" s="83">
         <f t="shared" ref="V187:Y187" si="74">SUM(V157:V185)</f>
         <v>12555.95427074992</v>
       </c>
@@ -58797,19 +58853,19 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Y187" s="108">
+      <c r="Y187" s="87">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="AA187" s="105" t="s">
+      <c r="AA187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AB187" s="107"/>
+      <c r="AB187" s="105"/>
       <c r="AC187" s="81">
         <f>SUM(AC157:AC185)</f>
         <v>0</v>
       </c>
-      <c r="AD187" s="87">
+      <c r="AD187" s="83">
         <f t="shared" ref="AD187:AG187" si="75">SUM(AD157:AD185)</f>
         <v>1568.9669014763622</v>
       </c>
@@ -58821,19 +58877,19 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AG187" s="108">
+      <c r="AG187" s="87">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AI187" s="105" t="s">
+      <c r="AI187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AJ187" s="107"/>
+      <c r="AJ187" s="105"/>
       <c r="AK187" s="81">
         <f>SUM(AK157:AK185)</f>
         <v>0</v>
       </c>
-      <c r="AL187" s="87">
+      <c r="AL187" s="83">
         <f t="shared" ref="AL187:AO187" si="76">SUM(AL157:AL185)</f>
         <v>12467.144823496537</v>
       </c>
@@ -58845,19 +58901,19 @@
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AO187" s="108">
+      <c r="AO187" s="87">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AQ187" s="105" t="s">
+      <c r="AQ187" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AR187" s="107"/>
+      <c r="AR187" s="105"/>
       <c r="AS187" s="81">
         <f>SUM(AS157:AS185)</f>
         <v>0</v>
       </c>
-      <c r="AT187" s="87">
+      <c r="AT187" s="83">
         <f t="shared" ref="AT187:AW187" si="77">SUM(AT157:AT185)</f>
         <v>1480.1574542229823</v>
       </c>
@@ -58869,13 +58925,109 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="AW187" s="108">
+      <c r="AW187" s="87">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="AA150:AB150"/>
+    <mergeCell ref="AQ150:AR150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="S150:T150"/>
+    <mergeCell ref="AI150:AJ150"/>
+    <mergeCell ref="AQ116:AW116"/>
+    <mergeCell ref="AS118:AT118"/>
+    <mergeCell ref="AU118:AW118"/>
+    <mergeCell ref="AA116:AG116"/>
+    <mergeCell ref="AC118:AD118"/>
+    <mergeCell ref="AE118:AG118"/>
+    <mergeCell ref="AI116:AO116"/>
+    <mergeCell ref="AK118:AL118"/>
+    <mergeCell ref="AM118:AO118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="O118:Q118"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="S116:Y116"/>
+    <mergeCell ref="U118:V118"/>
+    <mergeCell ref="W118:Y118"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="O155:Q155"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="AA153:AG153"/>
+    <mergeCell ref="AC155:AD155"/>
+    <mergeCell ref="AE155:AG155"/>
+    <mergeCell ref="AA187:AB187"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K153:Q153"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="S113:T113"/>
+    <mergeCell ref="S153:Y153"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:Y155"/>
+    <mergeCell ref="S187:T187"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="S79:Y79"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="W81:Y81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AO81"/>
+    <mergeCell ref="AI113:AJ113"/>
+    <mergeCell ref="AI42:AO42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AO44"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AA5:AG5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AI79:AO79"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AA79:AG79"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AG81"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AA76:AB76"/>
     <mergeCell ref="AQ5:AW5"/>
     <mergeCell ref="AS7:AT7"/>
     <mergeCell ref="AU7:AW7"/>
@@ -58900,102 +59052,6 @@
     <mergeCell ref="AS155:AT155"/>
     <mergeCell ref="AU155:AW155"/>
     <mergeCell ref="AQ187:AR187"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AM81:AO81"/>
-    <mergeCell ref="AI113:AJ113"/>
-    <mergeCell ref="AI42:AO42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AA5:AG5"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AI79:AO79"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AA79:AG79"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AE81:AG81"/>
-    <mergeCell ref="AA113:AB113"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AA76:AB76"/>
-    <mergeCell ref="S113:T113"/>
-    <mergeCell ref="S153:Y153"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:Y155"/>
-    <mergeCell ref="S187:T187"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="S79:Y79"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="W81:Y81"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="O155:Q155"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="AA153:AG153"/>
-    <mergeCell ref="AC155:AD155"/>
-    <mergeCell ref="AE155:AG155"/>
-    <mergeCell ref="AA187:AB187"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K153:Q153"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="AA150:AB150"/>
-    <mergeCell ref="AQ150:AR150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="S150:T150"/>
-    <mergeCell ref="AI150:AJ150"/>
-    <mergeCell ref="AQ116:AW116"/>
-    <mergeCell ref="AS118:AT118"/>
-    <mergeCell ref="AU118:AW118"/>
-    <mergeCell ref="AA116:AG116"/>
-    <mergeCell ref="AC118:AD118"/>
-    <mergeCell ref="AE118:AG118"/>
-    <mergeCell ref="AI116:AO116"/>
-    <mergeCell ref="AK118:AL118"/>
-    <mergeCell ref="AM118:AO118"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="O118:Q118"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="S116:Y116"/>
-    <mergeCell ref="U118:V118"/>
-    <mergeCell ref="W118:Y118"/>
-    <mergeCell ref="C153:I153"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:I81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
